--- a/source/source_spreadsheets/uscore-server.xlsx
+++ b/source/source_spreadsheets/uscore-server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/Python/MyNotebooks/SP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\US-Core-R4\source\source_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF9079E-9413-1944-87BB-99322474FCD3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2309E4D3-70CC-4F3F-BD59-443099C170E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -817,12 +816,6 @@
     <t>reference,token,date</t>
   </si>
   <si>
-    <t>GET [base]/Observation?patient=1134281&amp;category=http://hl7.org/fhir/observation-category\|laboratory</t>
-  </si>
-  <si>
-    <t>GET [base]Observation?patient=555580&amp;category=http://hl7.org/fhir/observation-category\|laboratory&amp;date=ge2018-03-14</t>
-  </si>
-  <si>
     <t>patient,code,date</t>
   </si>
   <si>
@@ -1051,15 +1044,6 @@
     <t>support searching for all laboratory results for a patient for a given status (for example all observations marked as final)</t>
   </si>
   <si>
-    <t>GET [base]/Observation?patient=1134281&amp;category=http://hl7.org/fhir/observation-category\|laboratory&amp;status=final</t>
-  </si>
-  <si>
-    <t>GET [base]/Observation?patient=1134281&amp;category=http://hl7.org/fhir/observation-category\|vital-signs</t>
-  </si>
-  <si>
-    <t>GET [base]/Observation?patient=1134281&amp;category=http://hl7.org/fhir/observation-category\|vital-signs&amp;status=final</t>
-  </si>
-  <si>
     <t>support searching for all vital sign observations by code (for example, search for all heart rate, respiratory rate and blood pressure observations for a patient)</t>
   </si>
   <si>
@@ -1069,9 +1053,6 @@
     <t>GET [base]/Observation?patient=1186747&amp;code=http://loinc.org\|8867-4,http://loinc.org\|9279-1,http://loinc.org\|85354-9&amp;date=ge2019</t>
   </si>
   <si>
-    <t>GET [base]/Observation?patient=1134281&amp;category=http://hl7.org/fhir/observation-category\|vital-signs&amp;date=ge2019</t>
-  </si>
-  <si>
     <t>support searching for all vital sign observations by date (for example, find all the vital sign observations for 2019)</t>
   </si>
   <si>
@@ -1216,16 +1197,10 @@
     <t>category=http://terminology.hl7.org/CodeSystem/v2-0074|LAB</t>
   </si>
   <si>
-    <t>category=http://hl7.org/fhir/observation-category|laboratory</t>
-  </si>
-  <si>
     <t>category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category|assess-plan</t>
   </si>
   <si>
     <t>code=http://loinc.org|72166-2</t>
-  </si>
-  <si>
-    <t>category=http://hl7.org/fhir/observation-category|vital-signs</t>
   </si>
   <si>
     <t>category=http://hl7.org/fhir/us/core/CodeSystem/us-core-documentreference-category|clinical-note</t>
@@ -1598,12 +1573,36 @@
     <t>A server **SHALL** be capable of responding to a $docref operation and  capable of returning at least a reference to a generated CCD document, if available. **MAY** provide references to other 'on-demand' and 'stable' documents (or 'delayed/deferred assembly') that meet the query parameters as well. If a context date range is supplied the server ** SHOULD**  provide references to any document that falls within the date range If no date range is supplied, then the server **SHALL** provide references to last or current encounter.  **SHOULD** document what resources, if any, are returned as included resources
 `GET [base]/DocumentReference/$docref?patient=[id]`</t>
   </si>
+  <si>
+    <t>category=http://terminology.hl7.org/CodeSystem/observation-category|laboratory</t>
+  </si>
+  <si>
+    <t>GET [base]/Observation?patient=1134281&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|laboratory&amp;status=final</t>
+  </si>
+  <si>
+    <t>GET [base]/Observation?patient=1134281&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|laboratory</t>
+  </si>
+  <si>
+    <t>GET [base]Observation?patient=555580&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|laboratory&amp;date=ge2018-03-14</t>
+  </si>
+  <si>
+    <t>category=http://terminology.hl7.org/CodeSystem/observation-category|vital-signs</t>
+  </si>
+  <si>
+    <t>GET [base]/Observation?patient=1134281&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|vital-signs&amp;status=final</t>
+  </si>
+  <si>
+    <t>GET [base]/Observation?patient=1134281&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|vital-signs</t>
+  </si>
+  <si>
+    <t>GET [base]/Observation?patient=1134281&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|vital-signs&amp;date=ge2019</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2069,13 +2068,13 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="95.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="95.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2083,31 +2082,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="105" customHeight="1">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2115,20 +2114,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="351.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="351.75" customHeight="1">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="103.5" customHeight="1">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -2144,9 +2143,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -2167,15 +2166,15 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="94" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -2189,27 +2188,27 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="B2" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B3" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -2219,42 +2218,42 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -2264,12 +2263,12 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -2279,12 +2278,12 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
@@ -2294,12 +2293,12 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>13</v>
@@ -2309,12 +2308,12 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>13</v>
@@ -2324,12 +2323,12 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>13</v>
@@ -2339,12 +2338,12 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
@@ -2354,27 +2353,27 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="11" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
@@ -2384,12 +2383,12 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>13</v>
@@ -2399,27 +2398,27 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>13</v>
@@ -2429,12 +2428,12 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>203</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>13</v>
@@ -2444,42 +2443,42 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>13</v>
@@ -2489,27 +2488,27 @@
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="11" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>13</v>
@@ -2519,12 +2518,12 @@
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>13</v>
@@ -2534,12 +2533,12 @@
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>13</v>
@@ -2566,22 +2565,22 @@
       <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="12" width="17.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.5" style="1" customWidth="1"/>
-    <col min="14" max="17" width="17.5" style="1" customWidth="1"/>
-    <col min="18" max="19" width="20.5" style="1" customWidth="1"/>
-    <col min="20" max="23" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="27.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="17.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" style="1" customWidth="1"/>
+    <col min="14" max="17" width="17.42578125" style="1" customWidth="1"/>
+    <col min="18" max="19" width="20.42578125" style="1" customWidth="1"/>
+    <col min="20" max="23" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="18" thickBot="1">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2595,67 +2594,67 @@
         <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="F1" t="s">
         <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="H1" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="X1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="38.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="38.25" customHeight="1" thickTop="1">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -2675,9 +2674,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24">
       <c r="A3" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
@@ -2689,9 +2688,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24">
       <c r="A4" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
@@ -2703,7 +2702,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24">
       <c r="A5" s="1" t="s">
         <v>148</v>
       </c>
@@ -2720,9 +2719,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24">
       <c r="A6" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
@@ -2734,7 +2733,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24">
       <c r="A7" s="1" t="s">
         <v>192</v>
       </c>
@@ -2748,7 +2747,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="64" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" ht="75">
       <c r="A8" s="1" t="s">
         <v>191</v>
       </c>
@@ -2756,7 +2755,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>21</v>
@@ -2765,7 +2764,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -2779,7 +2778,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24">
       <c r="A10" s="1" t="s">
         <v>193</v>
       </c>
@@ -2793,7 +2792,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24">
       <c r="A11" s="1" t="s">
         <v>172</v>
       </c>
@@ -2807,9 +2806,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24">
       <c r="A12" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
@@ -2821,15 +2820,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="80" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" ht="105">
       <c r="A13" s="1" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>21</v>
@@ -2838,7 +2837,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="288" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" ht="315">
       <c r="A14" s="1" t="s">
         <v>194</v>
       </c>
@@ -2846,7 +2845,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>21</v>
@@ -2858,7 +2857,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="288" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" ht="315">
       <c r="A15" s="1" t="s">
         <v>197</v>
       </c>
@@ -2866,7 +2865,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>21</v>
@@ -2875,10 +2874,10 @@
         <v>78</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" s="1" t="s">
         <v>196</v>
       </c>
@@ -2892,9 +2891,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21">
       <c r="A17" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>13</v>
@@ -2906,7 +2905,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -2920,9 +2919,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>13</v>
@@ -2934,9 +2933,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>13</v>
@@ -2948,10 +2947,10 @@
         <v>78</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" s="1" t="s">
         <v>195</v>
       </c>
@@ -2965,28 +2964,28 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21">
       <c r="A22"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21">
       <c r="A23"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="A24"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21">
       <c r="A25"/>
     </row>
-    <row r="56" spans="20:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="56" spans="20:23" ht="18">
       <c r="T56" s="7"/>
       <c r="V56" s="7"/>
       <c r="W56" s="7"/>
     </row>
-    <row r="59" spans="20:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="59" spans="20:23" ht="18">
       <c r="W59" s="7"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A21">
+  <sortState ref="A2:A21">
     <sortCondition ref="A2:A21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3003,15 +3002,15 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
     <col min="5" max="5" width="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -3028,12 +3027,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="135.75" thickBot="1">
       <c r="A2" s="15" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="B2" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>191</v>
@@ -3042,10 +3041,10 @@
         <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="E4" s="2"/>
     </row>
   </sheetData>
@@ -3057,84 +3056,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="8" max="8" width="28.1640625" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -3199,7 +3198,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -3264,7 +3263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -3329,7 +3328,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -3394,7 +3393,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -3459,7 +3458,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -3524,7 +3523,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -3589,7 +3588,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -3654,7 +3653,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -3732,37 +3731,37 @@
       <pane xSplit="6" ySplit="1" topLeftCell="AA41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB54" sqref="AB54"/>
+      <selection pane="bottomRight" activeCell="AB62" sqref="AB62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="36.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="36.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" style="1" customWidth="1"/>
     <col min="16" max="16" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="49.6640625" style="1" customWidth="1"/>
-    <col min="21" max="22" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="49.7109375" style="1" customWidth="1"/>
+    <col min="21" max="22" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16" style="1" customWidth="1"/>
-    <col min="24" max="24" width="50.83203125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="68.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="90.6640625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="83.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="38.1640625" customWidth="1"/>
+    <col min="24" max="24" width="50.85546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="68.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="90.7109375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="83.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="18.95" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>151</v>
       </c>
@@ -3824,10 +3823,10 @@
         <v>56</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="W1" s="4" t="s">
         <v>57</v>
@@ -3848,7 +3847,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1" thickTop="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3898,7 +3897,7 @@
         <v>SearchParameter-us-core-!example category search-category.html</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3945,7 +3944,7 @@
         <v>SearchParameter-us-core-!example code search-code.html</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3999,7 +3998,7 @@
         <v>SearchParameter-us-core-!example date search-date.html</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4058,12 +4057,12 @@
         <v>SearchParameter-us-core-!example patient search-patient.html</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>68</v>
@@ -4108,7 +4107,7 @@
         <v>SearchParameter-us-core-!example status search-status.html</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="18.95" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4158,7 +4157,7 @@
         <v>SearchParameter-us-core-!patient-address.html</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="18.95" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4208,7 +4207,7 @@
         <v>SearchParameter-us-core-!patient-telecom.html</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="18.95" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4254,7 +4253,7 @@
         <v>SearchParameter-us-core-allergyintolerance-clinical-status.html</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="18.95" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4313,7 +4312,7 @@
         <v>SearchParameter-us-core-allergyintolerance-patient.html</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="18.95" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4364,7 +4363,7 @@
         <v>SearchParameter-us-core-condition-category.html</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="18.95" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4412,7 +4411,7 @@
         <v>SearchParameter-us-core-condition-clinical-status.html</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="18.95" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4470,7 +4469,7 @@
         <v>SearchParameter-us-core-condition-patient.html</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="18.95" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4513,7 +4512,7 @@
         <v>227</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="AA14" s="2" t="s">
         <v>183</v>
@@ -4523,7 +4522,7 @@
         <v>SearchParameter-us-core-encounter-id.html</v>
       </c>
     </row>
-    <row r="15" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4573,7 +4572,7 @@
         <v>SearchParameter-us-core-encounter-class.html</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" ht="18.95" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4627,7 +4626,7 @@
         <v>SearchParameter-us-core-encounter-date.html</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" ht="18.95" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4681,7 +4680,7 @@
         <v>SearchParameter-us-core-encounter-identifier.html</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" ht="18.95" customHeight="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4739,7 +4738,7 @@
         <v>SearchParameter-us-core-encounter-patient.html</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" ht="18.95" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4789,7 +4788,7 @@
         <v>SearchParameter-us-core-encounter-status.html</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" ht="18.95" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4837,7 +4836,7 @@
         <v>SearchParameter-us-core-encounter-type.html</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" ht="18.95" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4880,14 +4879,14 @@
         <v>84</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="AB21" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B21)&amp;"-"&amp;SUBSTITUTE(C21,"_","")&amp;".html")</f>
         <v>SearchParameter-us-core-patient-id.html</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" ht="18.95" customHeight="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4938,7 +4937,7 @@
         <v>SearchParameter-us-core-patient-birthdate.html</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" ht="18.95" customHeight="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4982,7 +4981,7 @@
         <v>SearchParameter-us-core-patient-family.html</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" ht="18.95" customHeight="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -5031,7 +5030,7 @@
         <v>SearchParameter-us-core-patient-gender.html</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" ht="18.95" customHeight="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -5075,7 +5074,7 @@
         <v>SearchParameter-us-core-patient-given.html</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" ht="18.95" customHeight="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -5130,7 +5129,7 @@
         <v>SearchParameter-us-core-patient-identifier.html</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" ht="18.95" customHeight="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -5188,7 +5187,7 @@
         <v>SearchParameter-us-core-patient-name.html</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" ht="18.95" customHeight="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -5231,7 +5230,7 @@
         <v>SearchParameter-us-core-!questionnaire-_id.html</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" ht="18.95" customHeight="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -5276,7 +5275,7 @@
         <v>SearchParameter-us-core-!questionnaire-context-type-value.html</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" ht="18.95" customHeight="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -5326,7 +5325,7 @@
         <v>SearchParameter-us-core-!questionnaire-publisher.html</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" ht="18.95" customHeight="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5373,7 +5372,7 @@
         <v>SearchParameter-us-core-!questionnaire-status.html</v>
       </c>
     </row>
-    <row r="32" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5433,7 +5432,7 @@
         <v>SearchParameter-us-core-!questionnaire-title.html</v>
       </c>
     </row>
-    <row r="33" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5478,7 +5477,7 @@
         <v>SearchParameter-us-core-!questionnaire-url.html</v>
       </c>
     </row>
-    <row r="34" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5523,7 +5522,7 @@
         <v>SearchParameter-us-core-!questionnaire-version.html</v>
       </c>
     </row>
-    <row r="35" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5574,7 +5573,7 @@
         <v>SearchParameter-us-core-condition-onset-date.html</v>
       </c>
     </row>
-    <row r="36" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5621,7 +5620,7 @@
         <v>SearchParameter-us-core-condition-code.html</v>
       </c>
     </row>
-    <row r="37" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5680,7 +5679,7 @@
         <v>SearchParameter-us-core-immunization-patient.html</v>
       </c>
     </row>
-    <row r="38" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -5730,7 +5729,7 @@
         <v>SearchParameter-us-core-immunization-status.html</v>
       </c>
     </row>
-    <row r="39" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -5784,7 +5783,7 @@
         <v>SearchParameter-us-core-immunization-date.html</v>
       </c>
     </row>
-    <row r="40" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -5824,20 +5823,20 @@
         <v>62</v>
       </c>
       <c r="Y40" s="5" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="Z40" s="5" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="AA40" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AB40" s="1" t="str">
         <f t="shared" ref="AB40" si="13">"SearchParameter-us-core-"&amp;LOWER((B40)&amp;"-"&amp;C40&amp;".html")</f>
         <v>SearchParameter-us-core-documentreference-_id.html</v>
       </c>
     </row>
-    <row r="41" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -5887,7 +5886,7 @@
         <v>SearchParameter-us-core-documentreference-status.html</v>
       </c>
     </row>
-    <row r="42" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -5946,7 +5945,7 @@
         <v>SearchParameter-us-core-documentreference-patient.html</v>
       </c>
     </row>
-    <row r="43" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -5996,7 +5995,7 @@
         <v>SearchParameter-us-core-documentreference-category.html</v>
       </c>
     </row>
-    <row r="44" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -6043,7 +6042,7 @@
         <v>SearchParameter-us-core-documentreference-type.html</v>
       </c>
     </row>
-    <row r="45" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -6097,7 +6096,7 @@
         <v>SearchParameter-us-core-documentreference-date.html</v>
       </c>
     </row>
-    <row r="46" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -6105,7 +6104,7 @@
         <v>191</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>34</v>
@@ -6127,7 +6126,7 @@
         <v>88</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>62</v>
@@ -6150,7 +6149,7 @@
         <v>SearchParameter-us-core-documentreference-period.html</v>
       </c>
     </row>
-    <row r="47" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -6200,7 +6199,7 @@
         <v>SearchParameter-us-core-diagnosticreport-status.html</v>
       </c>
     </row>
-    <row r="48" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -6259,7 +6258,7 @@
         <v>SearchParameter-us-core-diagnosticreport-patient.html</v>
       </c>
     </row>
-    <row r="49" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -6309,7 +6308,7 @@
         <v>SearchParameter-us-core-diagnosticreport-category.html</v>
       </c>
     </row>
-    <row r="50" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -6359,7 +6358,7 @@
         <v>SearchParameter-us-core-diagnosticreport-code.html</v>
       </c>
     </row>
-    <row r="51" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -6413,7 +6412,7 @@
         <v>SearchParameter-us-core-diagnosticreport-date.html</v>
       </c>
     </row>
-    <row r="52" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -6421,7 +6420,7 @@
         <v>193</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>34</v>
@@ -6463,7 +6462,7 @@
         <v>SearchParameter-us-core-goal-lifecycle-status.html</v>
       </c>
     </row>
-    <row r="53" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -6522,7 +6521,7 @@
         <v>SearchParameter-us-core-goal-patient.html</v>
       </c>
     </row>
-    <row r="54" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -6530,7 +6529,7 @@
         <v>193</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>34</v>
@@ -6576,7 +6575,7 @@
         <v>SearchParameter-us-core-goal-target-date.html</v>
       </c>
     </row>
-    <row r="55" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -6626,7 +6625,7 @@
         <v>SearchParameter-us-core-medicationrequest-status.html</v>
       </c>
     </row>
-    <row r="56" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -6676,7 +6675,7 @@
         <v>230</v>
       </c>
       <c r="Z56" s="12" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="AA56" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B56&amp; " resources for the specified patient. Mandatory for client to support the _include parameter. Optional for server to support the _include parameter."</f>
@@ -6687,7 +6686,7 @@
         <v>SearchParameter-us-core-medicationrequest-patient.html</v>
       </c>
     </row>
-    <row r="57" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -6695,7 +6694,7 @@
         <v>194</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>34</v>
@@ -6741,7 +6740,7 @@
         <v>SearchParameter-us-core-medicationrequest-authoredon.html</v>
       </c>
     </row>
-    <row r="58" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -6791,7 +6790,7 @@
         <v>SearchParameter-us-core-medicationstatement-status.html</v>
       </c>
     </row>
-    <row r="59" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -6831,7 +6830,7 @@
         <v>62</v>
       </c>
       <c r="V59" s="7" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="X59" s="1" t="s">
         <v>101</v>
@@ -6840,7 +6839,7 @@
         <v>231</v>
       </c>
       <c r="Z59" s="12" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="AA59" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B59&amp; " resources for the specified patient. Mandatory for client to support the _include parameter. Optional for server to support the _include parameter."</f>
@@ -6851,7 +6850,7 @@
         <v>SearchParameter-us-core-medicationstatement-patient.html</v>
       </c>
     </row>
-    <row r="60" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -6859,7 +6858,7 @@
         <v>197</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>34</v>
@@ -6905,7 +6904,7 @@
         <v>SearchParameter-us-core-medicationstatement-effective.html</v>
       </c>
     </row>
-    <row r="61" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -6955,7 +6954,7 @@
         <v>SearchParameter-us-core-procedure-status.html</v>
       </c>
     </row>
-    <row r="62" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -7013,7 +7012,7 @@
         <v>SearchParameter-us-core-procedure-patient.html</v>
       </c>
     </row>
-    <row r="63" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -7067,7 +7066,7 @@
         <v>SearchParameter-us-core-procedure-date.html</v>
       </c>
     </row>
-    <row r="64" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -7117,7 +7116,7 @@
         <v>SearchParameter-us-core-procedure-code.html</v>
       </c>
     </row>
-    <row r="65" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -7167,7 +7166,7 @@
         <v>SearchParameter-us-core-observation-status.html</v>
       </c>
     </row>
-    <row r="66" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -7217,7 +7216,7 @@
         <v>SearchParameter-us-core-observation-category.html</v>
       </c>
     </row>
-    <row r="67" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -7267,7 +7266,7 @@
         <v>SearchParameter-us-core-observation-code.html</v>
       </c>
     </row>
-    <row r="68" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -7321,7 +7320,7 @@
         <v>SearchParameter-us-core-observation-date.html</v>
       </c>
     </row>
-    <row r="69" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -7380,12 +7379,12 @@
         <v>SearchParameter-us-core-observation-patient.html</v>
       </c>
     </row>
-    <row r="70" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>150</v>
@@ -7430,12 +7429,12 @@
         <v>SearchParameter-us-core-careplan-category.html</v>
       </c>
     </row>
-    <row r="71" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>30</v>
@@ -7477,12 +7476,12 @@
         <v>SearchParameter-us-core-!careplan-code.html</v>
       </c>
     </row>
-    <row r="72" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>88</v>
@@ -7531,12 +7530,12 @@
         <v>SearchParameter-us-core-careplan-date.html</v>
       </c>
     </row>
-    <row r="73" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>99</v>
@@ -7590,12 +7589,12 @@
         <v>SearchParameter-us-core-careplan-patient.html</v>
       </c>
     </row>
-    <row r="74" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>68</v>
@@ -7640,12 +7639,12 @@
         <v>SearchParameter-us-core-careplan-status.html</v>
       </c>
     </row>
-    <row r="75" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>99</v>
@@ -7699,12 +7698,12 @@
         <v>SearchParameter-us-core-careteam-patient.html</v>
       </c>
     </row>
-    <row r="76" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>68</v>
@@ -7749,12 +7748,12 @@
         <v>SearchParameter-us-core-careteam-status.html</v>
       </c>
     </row>
-    <row r="77" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>99</v>
@@ -7808,12 +7807,12 @@
         <v>SearchParameter-us-core-device-patient.html</v>
       </c>
     </row>
-    <row r="78" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>14</v>
@@ -7854,12 +7853,12 @@
         <v>SearchParameter-us-core-device-type.html</v>
       </c>
     </row>
-    <row r="79" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:28" ht="18.95" customHeight="1">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>27</v>
@@ -7894,10 +7893,10 @@
         <v>62</v>
       </c>
       <c r="Y79" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="Z79" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AA79" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B79&amp; " resources that match the name"</f>
@@ -7908,12 +7907,12 @@
         <v>SearchParameter-us-core-location-name.html</v>
       </c>
     </row>
-    <row r="80" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:28" ht="18.95" customHeight="1">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>95</v>
@@ -7948,10 +7947,10 @@
         <v>62</v>
       </c>
       <c r="Y80" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="Z80" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AA80" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B80&amp; " resources that match the address string"</f>
@@ -7962,15 +7961,15 @@
         <v>SearchParameter-us-core-location-address.html</v>
       </c>
     </row>
-    <row r="81" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:28" ht="18.95" customHeight="1">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>78</v>
@@ -8002,10 +8001,10 @@
         <v>62</v>
       </c>
       <c r="Y81" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Z81" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AA81" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B81&amp; " resources for the city"</f>
@@ -8016,15 +8015,15 @@
         <v>SearchParameter-us-core-location-address-city.html</v>
       </c>
     </row>
-    <row r="82" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:28" ht="18.95" customHeight="1">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>78</v>
@@ -8056,10 +8055,10 @@
         <v>62</v>
       </c>
       <c r="Y82" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="Z82" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AA82" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B82&amp; " resources for the state"</f>
@@ -8070,15 +8069,15 @@
         <v>SearchParameter-us-core-location-address-state.html</v>
       </c>
     </row>
-    <row r="83" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:28" ht="18.95" customHeight="1">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>78</v>
@@ -8110,10 +8109,10 @@
         <v>62</v>
       </c>
       <c r="Y83" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="Z83" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AA83" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B83&amp; " resources for the ZIP code"</f>
@@ -8124,12 +8123,12 @@
         <v>SearchParameter-us-core-location-address-postalcode.html</v>
       </c>
     </row>
-    <row r="84" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>27</v>
@@ -8164,10 +8163,10 @@
         <v>62</v>
       </c>
       <c r="Y84" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="Z84" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AA84" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B84&amp; " resources that match the name"</f>
@@ -8178,12 +8177,12 @@
         <v>SearchParameter-us-core-organization-name.html</v>
       </c>
     </row>
-    <row r="85" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>95</v>
@@ -8218,10 +8217,10 @@
         <v>62</v>
       </c>
       <c r="Y85" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="Z85" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AA85" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B85&amp; " resources that match the address string"</f>
@@ -8232,15 +8231,15 @@
         <v>SearchParameter-us-core-organization-address.html</v>
       </c>
     </row>
-    <row r="86" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>78</v>
@@ -8272,10 +8271,10 @@
         <v>62</v>
       </c>
       <c r="Y86" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Z86" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AA86" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B86&amp; " resources for the city"</f>
@@ -8286,15 +8285,15 @@
         <v>SearchParameter-us-core-!organization-address-city.html</v>
       </c>
     </row>
-    <row r="87" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>78</v>
@@ -8326,10 +8325,10 @@
         <v>62</v>
       </c>
       <c r="Y87" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Z87" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AA87" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B87&amp; " resources for the state"</f>
@@ -8340,15 +8339,15 @@
         <v>SearchParameter-us-core-!organization-adress-state.html</v>
       </c>
     </row>
-    <row r="88" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>78</v>
@@ -8380,10 +8379,10 @@
         <v>62</v>
       </c>
       <c r="Y88" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="Z88" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AA88" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B88&amp; " resources for the ZIP code"</f>
@@ -8394,12 +8393,12 @@
         <v>SearchParameter-us-core-!organization-address-postalcode.html</v>
       </c>
     </row>
-    <row r="89" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>27</v>
@@ -8437,10 +8436,10 @@
         <v>86</v>
       </c>
       <c r="Y89" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="Z89" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AA89" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B89&amp;" resources matching the name"</f>
@@ -8451,12 +8450,12 @@
         <v>SearchParameter-us-core-practitioner-name.html</v>
       </c>
     </row>
-    <row r="90" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>85</v>
@@ -8491,10 +8490,10 @@
         <v>62</v>
       </c>
       <c r="Y90" s="5" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="Z90" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="AA90" s="12" t="str">
         <f>"Fetches a bundle containing any "&amp;B90&amp;" resources matching the identifier"</f>
@@ -8505,15 +8504,15 @@
         <v>SearchParameter-us-core-practitioner-identifier.html</v>
       </c>
     </row>
-    <row r="91" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>13</v>
@@ -8545,13 +8544,13 @@
         <v>62</v>
       </c>
       <c r="V91" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Y91" s="5" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="Z91" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="AA91" s="12" t="str">
         <f>"Fetches a bundle containing  "&amp;B91&amp;" resources matching the specialty"</f>
@@ -8562,15 +8561,15 @@
         <v>SearchParameter-us-core-practitionerrole-specialty.html</v>
       </c>
     </row>
-    <row r="92" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:28" ht="18.95" customHeight="1">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>13</v>
@@ -8602,16 +8601,16 @@
         <v>62</v>
       </c>
       <c r="S92" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="V92" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y92" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="V92" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="Y92" s="5" t="s">
-        <v>307</v>
-      </c>
       <c r="Z92" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="AA92" s="12" t="str">
         <f>"Fetches a bundle containing  "&amp;B92&amp;" resources matching the chained parameter practitioner.name or practitioner.identifier. SHOULD support the _include for PractionerRole.practitioner and PractitionerRole.endpoint."</f>
@@ -8622,12 +8621,12 @@
         <v>SearchParameter-us-core-practitionerrole-practitioner.html</v>
       </c>
     </row>
-    <row r="93" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:28" ht="18.95" customHeight="1">
       <c r="Y93" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AB92" xr:uid="{1CF5B17E-E72E-48B2-A597-9C21C12723F0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:AA34">
+  <sortState ref="A7:AA34">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8640,28 +8639,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G25" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
+      <selection pane="bottomRight" activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="21.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="27" style="1" customWidth="1"/>
-    <col min="8" max="8" width="84.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="68.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="84.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="68.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>153</v>
       </c>
@@ -8681,7 +8680,7 @@
         <v>108</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>3</v>
@@ -8693,7 +8692,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -8718,7 +8717,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -8743,7 +8742,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and patient</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -8768,7 +8767,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and patient and type</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -8793,7 +8792,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and type</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -8814,17 +8813,17 @@
         <v>116</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="J6" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all Encounter resources matching the specified class and patient</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -8849,7 +8848,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and status</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -8874,7 +8873,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and status and type</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -8900,7 +8899,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and type</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -8927,7 +8926,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and status</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -8953,7 +8952,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and status and type</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -8978,7 +8977,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and type</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -8999,17 +8998,17 @@
         <v>123</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="J13" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all Encounter resources matching the specified date and patient</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -9034,7 +9033,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified date and patient and type</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -9059,7 +9058,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified date and type</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -9080,17 +9079,17 @@
         <v>116</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="J16" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all Encounter resources matching the specified patient and type</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -9116,7 +9115,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified patient and status and type</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -9137,17 +9136,17 @@
         <v>116</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="J18" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Fetches a bundle of all Encounter resources matching the specified patient and status</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -9174,7 +9173,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified status and type</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -9200,7 +9199,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -9225,7 +9224,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher and status</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -9251,7 +9250,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and status</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -9278,7 +9277,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -9305,7 +9304,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status and version</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -9332,7 +9331,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and version</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -9357,7 +9356,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified status and title and version</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -9382,7 +9381,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified status and version</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -9407,7 +9406,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified title and version</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -9438,7 +9437,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified birthdate and family</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -9469,7 +9468,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified birthdate and name</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -9500,7 +9499,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified family and gender</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -9531,7 +9530,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified gender and name</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -9552,19 +9551,19 @@
         <v>116</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>166</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -9588,13 +9587,13 @@
         <v>160</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -9618,13 +9617,13 @@
         <v>161</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="J35" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" s="1" customFormat="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -9654,7 +9653,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -9678,13 +9677,13 @@
         <v>173</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="1" customFormat="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -9715,7 +9714,7 @@
         <v>Fetches a bundle of all Immunization resources for the specified patient and date</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" s="1" customFormat="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -9736,7 +9735,7 @@
         <v>159</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>174</v>
@@ -9746,7 +9745,7 @@
         <v>Fetches a bundle of all Immunization resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" s="1" customFormat="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -9776,7 +9775,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" s="1" customFormat="1" ht="15.75">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -9796,7 +9795,7 @@
         <v>116</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>207</v>
@@ -9809,7 +9808,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code = `LAB`</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" s="1" customFormat="1" ht="15.75">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -9829,7 +9828,7 @@
         <v>116</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I42" s="9" t="s">
         <v>212</v>
@@ -9839,7 +9838,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" s="1" customFormat="1" ht="15.75">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -9859,7 +9858,7 @@
         <v>235</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>209</v>
@@ -9872,7 +9871,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code = `LAB`</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" s="1" customFormat="1">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -9883,7 +9882,7 @@
         <v>202</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>78</v>
@@ -9892,17 +9891,17 @@
         <v>235</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J44" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B44&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" s="1" customFormat="1">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -9922,7 +9921,7 @@
         <v>116</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>198</v>
@@ -9932,7 +9931,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" s="1" customFormat="1">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -9962,7 +9961,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code specified in US Core DiagnosticReport Category Codes</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" s="1" customFormat="1">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -9992,7 +9991,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" s="1" customFormat="1">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -10022,7 +10021,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" s="1" customFormat="1">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -10033,7 +10032,7 @@
         <v>203</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>78</v>
@@ -10042,17 +10041,17 @@
         <v>235</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J49" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B49&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" s="1" customFormat="1">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -10064,7 +10063,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>78</v>
@@ -10076,14 +10075,14 @@
         <v>200</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="J50" s="5" t="str">
         <f t="shared" si="4"/>
         <v>Fetches a bundle of all Goal resources for the specified patient and lifecycle-status</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" s="1" customFormat="1">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -10095,7 +10094,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>78</v>
@@ -10107,14 +10106,14 @@
         <v>223</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="J51" s="5" t="str">
         <f t="shared" ref="J51" si="6">"Fetches a bundle of all "&amp;B51&amp;" resources for the specified "&amp;SUBSTITUTE(D51,","," and ")</f>
         <v>Fetches a bundle of all Goal resources for the specified patient and target-date</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" s="1" customFormat="1">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -10138,13 +10137,13 @@
         <v>199</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="1" customFormat="1">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -10156,7 +10155,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>78</v>
@@ -10165,16 +10164,16 @@
         <v>159</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="1" customFormat="1">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -10198,14 +10197,14 @@
         <v>201</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="J54" s="5" t="str">
         <f t="shared" si="4"/>
         <v>Fetches a bundle of all MedicationStatement resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" s="1" customFormat="1">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -10217,7 +10216,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationstatement</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>78</v>
@@ -10226,16 +10225,16 @@
         <v>159</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="1" customFormat="1">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -10266,7 +10265,7 @@
         <v>Fetches a bundle of all Procedure resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" s="1" customFormat="1">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -10297,7 +10296,7 @@
         <v>Fetches a bundle of all Procedure resources for the specified patient and date</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" s="1" customFormat="1">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -10309,7 +10308,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>78</v>
@@ -10318,17 +10317,17 @@
         <v>235</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J58" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B58&amp;" resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes."</f>
         <v>Fetches a bundle of all Procedure resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes.</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" s="1" customFormat="1">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -10336,10 +10335,10 @@
         <v>196</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>78</v>
@@ -10348,19 +10347,19 @@
         <v>116</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>369</v>
+        <v>482</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>314</v>
+        <v>483</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="1" customFormat="1">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -10368,7 +10367,7 @@
         <v>196</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>155</v>
@@ -10380,20 +10379,20 @@
         <v>116</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>369</v>
+        <v>482</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>236</v>
+        <v>484</v>
       </c>
       <c r="J60" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B60&amp;" resources for the specified patient and a category code = `laboratory`"</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `laboratory`</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" s="1" customFormat="1">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -10401,7 +10400,7 @@
         <v>196</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>157</v>
@@ -10413,17 +10412,17 @@
         <v>116</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="J61" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B61&amp;" resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only."</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only.</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" s="1" customFormat="1">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -10431,7 +10430,7 @@
         <v>196</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>208</v>
@@ -10443,20 +10442,20 @@
         <v>235</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>369</v>
+        <v>482</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>237</v>
+        <v>485</v>
       </c>
       <c r="J62" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B62&amp;" resources for the specified patient and date and a category code = `laboratory`"</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `laboratory`</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" s="1" customFormat="1">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -10464,10 +10463,10 @@
         <v>196</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>78</v>
@@ -10476,25 +10475,25 @@
         <v>235</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J63" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B63&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" s="1" customFormat="1">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>126</v>
@@ -10516,15 +10515,15 @@
         <v>Fetches a bundle of all !Observation resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" s="1" customFormat="1">
       <c r="A65" s="1">
         <v>58</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C65" s="11" t="s">
         <v>259</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>261</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>155</v>
@@ -10536,28 +10535,28 @@
         <v>116</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J65" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B65&amp;" resources for the specified "&amp;SUBSTITUTE(D65,","," and ")&amp;"=`assess-plan`"</f>
         <v>Fetches a bundle of all CarePlan resources for the specified patient and category=`assess-plan`</v>
       </c>
     </row>
-    <row r="66" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" s="1" customFormat="1">
       <c r="A66" s="1">
         <v>59</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C66" s="11" t="s">
         <v>259</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>261</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>208</v>
@@ -10569,30 +10568,30 @@
         <v>235</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" s="1" customFormat="1">
       <c r="A67" s="1">
         <v>61</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C67" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="C67" s="11" t="s">
-        <v>261</v>
-      </c>
       <c r="D67" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>78</v>
@@ -10601,30 +10600,30 @@
         <v>116</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I67" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="J67" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="J67" s="5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:16" s="1" customFormat="1">
       <c r="A68" s="1">
         <v>62</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C68" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="D68" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>78</v>
@@ -10633,24 +10632,24 @@
         <v>235</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" s="1" customFormat="1">
       <c r="A69" s="1">
         <v>63</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C69" s="1" t="str">
         <f t="shared" ref="C69" si="9">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B69)</f>
@@ -10666,19 +10665,19 @@
         <v>116</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H69" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="J69" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="I69" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="J69" s="5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:16" ht="15.75">
       <c r="A70" s="1">
         <v>64</v>
       </c>
@@ -10686,7 +10685,7 @@
         <v>196</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>157</v>
@@ -10698,13 +10697,13 @@
         <v>116</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J70" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B70&amp;" resources for the specified patient and observation code."</f>
@@ -10717,7 +10716,7 @@
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
     </row>
-    <row r="71" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" s="1" customFormat="1">
       <c r="A71" s="1">
         <v>58</v>
       </c>
@@ -10725,10 +10724,10 @@
         <v>196</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>78</v>
@@ -10737,20 +10736,20 @@
         <v>116</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>372</v>
+        <v>486</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>316</v>
+        <v>487</v>
       </c>
       <c r="J71" s="5" t="str">
         <f t="shared" ref="J71" si="10">"Fetches a bundle of all "&amp;B71&amp;" resources for the specified "&amp;SUBSTITUTE(D71,","," and ")</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and category and status</v>
       </c>
     </row>
-    <row r="72" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" s="1" customFormat="1">
       <c r="A72" s="1">
         <v>59</v>
       </c>
@@ -10758,7 +10757,7 @@
         <v>196</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>155</v>
@@ -10770,20 +10769,20 @@
         <v>116</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>372</v>
+        <v>486</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>315</v>
+        <v>488</v>
       </c>
       <c r="J72" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B72&amp;" resources for the specified patient and a category code = `vital-signs`"</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `vital-signs`</v>
       </c>
     </row>
-    <row r="73" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" s="1" customFormat="1">
       <c r="A73" s="1">
         <v>60</v>
       </c>
@@ -10791,7 +10790,7 @@
         <v>196</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>157</v>
@@ -10803,20 +10802,20 @@
         <v>116</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>372</v>
+        <v>486</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="J73" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B73&amp;" resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only."</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only.</v>
       </c>
     </row>
-    <row r="74" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" s="1" customFormat="1">
       <c r="A74" s="1">
         <v>61</v>
       </c>
@@ -10824,7 +10823,7 @@
         <v>196</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>208</v>
@@ -10836,20 +10835,20 @@
         <v>235</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>372</v>
+        <v>486</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>320</v>
+        <v>489</v>
       </c>
       <c r="J74" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B74&amp;" resources for the specified patient and date and a category code = `vital-signs`"</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `vital-signs`</v>
       </c>
     </row>
-    <row r="75" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" s="1" customFormat="1">
       <c r="A75" s="1">
         <v>62</v>
       </c>
@@ -10857,10 +10856,10 @@
         <v>196</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>78</v>
@@ -10869,17 +10868,17 @@
         <v>235</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="J75" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B75&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple codes."</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple codes.</v>
       </c>
     </row>
-    <row r="76" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" s="1" customFormat="1">
       <c r="A76" s="1">
         <v>39</v>
       </c>
@@ -10900,29 +10899,29 @@
         <v>116</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="J76" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B76&amp;" resources for the specified "&amp;SUBSTITUTE(D76,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
         <v>Fetches a bundle of all DocumentReference resources for the specified patient and status. See the implementation notes above for how to access the actual document.</v>
       </c>
     </row>
-    <row r="77" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" s="1" customFormat="1">
       <c r="A77" s="1">
         <v>43</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C77" s="1" t="str">
         <f t="shared" ref="C77" si="12">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B77)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!documentreference</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>78</v>
@@ -10931,7 +10930,7 @@
         <v>159</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="I77" s="5"/>
       <c r="J77" s="5" t="str">
@@ -10939,7 +10938,7 @@
         <v>Fetches a bundle of all !DocumentReference resources for the specified patient and period. See the implementation notes above for how to access the actual document.</v>
       </c>
     </row>
-    <row r="78" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" s="1" customFormat="1">
       <c r="A78" s="1">
         <v>40</v>
       </c>
@@ -10960,19 +10959,19 @@
         <v>116</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" s="1" customFormat="1" ht="15.75">
       <c r="A79" s="1">
         <v>42</v>
       </c>
@@ -10993,19 +10992,19 @@
         <v>235</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" s="1" customFormat="1">
       <c r="A80" s="1">
         <v>41</v>
       </c>
@@ -11026,16 +11025,16 @@
         <v>116</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" s="1" customFormat="1">
       <c r="A81" s="1">
         <v>43</v>
       </c>
@@ -11047,7 +11046,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>78</v>
@@ -11056,22 +11055,22 @@
         <v>235</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="J81" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B81&amp;" resources for the specified "&amp;SUBSTITUTE(D81,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
         <v>Fetches a bundle of all DocumentReference resources for the specified patient and type and period. See the implementation notes above for how to access the actual document.</v>
       </c>
     </row>
-    <row r="82" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" s="1" customFormat="1">
       <c r="A82" s="1">
         <v>41</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C82" s="1" t="str">
         <f t="shared" ref="C82" si="13">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B82)</f>
@@ -11087,13 +11086,13 @@
         <v>116</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>

--- a/source/source_spreadsheets/uscore-server.xlsx
+++ b/source/source_spreadsheets/uscore-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\US-Core-R4\source\source_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2309E4D3-70CC-4F3F-BD59-443099C170E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D754309-2217-4EC7-AF61-EF4D0ACD8CAC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1870" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="490">
   <si>
     <t>Element</t>
   </si>
@@ -3727,11 +3727,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AB93"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="AA41" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB62" sqref="AB62"/>
+      <selection pane="bottomRight" activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.95" customHeight="1"/>
@@ -4925,9 +4925,6 @@
       <c r="M22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N22" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="X22" s="1" t="s">
         <v>89</v>
       </c>
@@ -8639,11 +8636,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G40" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G59" sqref="G59"/>
+      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>

--- a/source/source_spreadsheets/uscore-server.xlsx
+++ b/source/source_spreadsheets/uscore-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\US-Core-R4\source\source_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D754309-2217-4EC7-AF61-EF4D0ACD8CAC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A17806C-4325-4298-945F-6A65C35E0781}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="492">
   <si>
     <t>Element</t>
   </si>
@@ -1482,120 +1482,126 @@
     <t>The MedicationStatement and MedicationRequest resources can represent a medication, using an external reference to a Medication resource. If an external Medication Resource is used in a MedicationStatement or a MedicationRequest, then the READ and SEARCH Criteria  **SHALL**  be supported.</t>
   </si>
   <si>
-    <t xml:space="preserve"> The MedicationStatement resources can represent a medication using either a code or refer to the Medication resource. When referencing Medication, the resource may be [contained](http://hl7.org/fhir/R4/references.html#contained) or an external resource. The server application **MAY** choose any one way or more than one method, but if an external reference to Medication is used, the server **SHALL** support the _include` parameter for searching this element. The client application must support all methods.
+    <t>us-core-server</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ImplementationGuide/hl7.fhir.us.core.r4-4.0.0</t>
+  </si>
+  <si>
+    <t>versioning_conf</t>
+  </si>
+  <si>
+    <t>readHistory_conf</t>
+  </si>
+  <si>
+    <t>updateCreate_conf</t>
+  </si>
+  <si>
+    <t>conditionalCreate_conf</t>
+  </si>
+  <si>
+    <t>conditionalRead_conf</t>
+  </si>
+  <si>
+    <t>conditionalUpdate_conf</t>
+  </si>
+  <si>
+    <t>conditionalDelete_conf</t>
+  </si>
+  <si>
+    <t>referencePolicy_conf</t>
+  </si>
+  <si>
+    <t>GET [base]/MedicationRequest?patient=1137192&amp;status=active~GET [base]/MedicationRequest?patient=1137192&amp;status=active&amp;_include=MedicationRequest:medication</t>
+  </si>
+  <si>
+    <t>GET [base]/MedicationStatement?patient=1137192&amp;status=active~GET [base]/MedicationStatement?patient=1137192&amp;status=active&amp;_include=MedicationStatement:medication</t>
+  </si>
+  <si>
+    <t>GET [base]/MedicationRequest?patient=1137192&amp;effective=ge2019~GET [base]/MedicationStatement?patient=1137192&amp;effective=ge2019&amp;_include=MedicationRequest:medication</t>
+  </si>
+  <si>
+    <t>GET [base]/MedicationStatement?patient=1137192&amp;date=ge2019~GET [base]/MedicationRequest?patient=1137192&amp;date=ge2019&amp;_include=MedicationStatement:medication</t>
+  </si>
+  <si>
+    <t>target-date</t>
+  </si>
+  <si>
+    <t>patient,target-date</t>
+  </si>
+  <si>
+    <t>GET [base]/Goal?patient=1137192&amp;target-date=ge2015-01-14&amp;target-date=le2019-01-14</t>
+  </si>
+  <si>
+    <t>GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;date=ge2019~GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;date=ge2018&amp;date=le2018</t>
+  </si>
+  <si>
+    <t>GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;status=active&amp;date=ge2019~GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;status=active&amp;date=ge2018&amp;date=le2019</t>
+  </si>
+  <si>
+    <t>The DocumentReference.type binding SHALL support at a minimum the [5 Common Clinical Notes](ValueSet-us-core-clinical-note-type.html) and may extend to the full US Core DocumentReference Type Value Set</t>
+  </si>
+  <si>
+    <t>1. See the [General Security Considerations](security.html) section for requirements and recommendations.
+1. A server **SHALL** reject any unauthorized requests by returning an `HTTP 401` unauthorized response code.</t>
+  </si>
+  <si>
+    <t>US Core Laboratory Result Observation Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-lab</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/pediatric-bmi-for-age</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/pediatric-weight-for-height</t>
+  </si>
+  <si>
+    <t>US Core Pediatric BMI for Age Observation Profile</t>
+  </si>
+  <si>
+    <t>US Core Pediatric Weight  for Height Observation Profile</t>
+  </si>
+  <si>
+    <t>A server **SHALL** be capable of responding to a $docref operation and  capable of returning at least a reference to a generated CCD document, if available. **MAY** provide references to other 'on-demand' and 'stable' documents (or 'delayed/deferred assembly') that meet the query parameters as well. If a context date range is supplied the server ** SHOULD**  provide references to any document that falls within the date range If no date range is supplied, then the server **SHALL** provide references to last or current encounter.  **SHOULD** document what resources, if any, are returned as included resources
+`GET [base]/DocumentReference/$docref?patient=[id]`</t>
+  </si>
+  <si>
+    <t>category=http://terminology.hl7.org/CodeSystem/observation-category|laboratory</t>
+  </si>
+  <si>
+    <t>GET [base]/Observation?patient=1134281&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|laboratory&amp;status=final</t>
+  </si>
+  <si>
+    <t>GET [base]/Observation?patient=1134281&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|laboratory</t>
+  </si>
+  <si>
+    <t>GET [base]Observation?patient=555580&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|laboratory&amp;date=ge2018-03-14</t>
+  </si>
+  <si>
+    <t>category=http://terminology.hl7.org/CodeSystem/observation-category|vital-signs</t>
+  </si>
+  <si>
+    <t>GET [base]/Observation?patient=1134281&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|vital-signs&amp;status=final</t>
+  </si>
+  <si>
+    <t>GET [base]/Observation?patient=1134281&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|vital-signs</t>
+  </si>
+  <si>
+    <t>GET [base]/Observation?patient=1134281&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|vital-signs&amp;date=ge2019</t>
+  </si>
+  <si>
+    <t>doc_DiagnosticReport</t>
+  </si>
+  <si>
+    <t>This conformance expectation applies **only**  to the *US Core DiagnosticReport Profile for Report and Note exchange* profile.  The conformance expectation for the *US Core DiagnosticReport Profile for Laboratory Results Reporting* is  **MAY**.</t>
+  </si>
+  <si>
+    <t>The MedicationStatement resources can represent a medication using either a code or refer to the Medication resource. When referencing Medication, the resource may be [contained](http://hl7.org/fhir/R4/references.html#contained) or an external resource. The server application **MAY** choose any one way or more than one method, but if an external reference to Medication is used, the server **SHALL** support the _include` parameter for searching this element. The client application must support all methods.
  For example, A server **SHALL** be capable of returning all medications for a patient using one of or both:
  `GET /MedicationStatement?patient=[id]`
  `GET /MedicationStatement?patient=[id]&amp;_include=MedicationStatement:medication`</t>
-  </si>
-  <si>
-    <t>us-core-server</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/ImplementationGuide/hl7.fhir.us.core.r4-4.0.0</t>
-  </si>
-  <si>
-    <t>versioning_conf</t>
-  </si>
-  <si>
-    <t>readHistory_conf</t>
-  </si>
-  <si>
-    <t>updateCreate_conf</t>
-  </si>
-  <si>
-    <t>conditionalCreate_conf</t>
-  </si>
-  <si>
-    <t>conditionalRead_conf</t>
-  </si>
-  <si>
-    <t>conditionalUpdate_conf</t>
-  </si>
-  <si>
-    <t>conditionalDelete_conf</t>
-  </si>
-  <si>
-    <t>referencePolicy_conf</t>
-  </si>
-  <si>
-    <t>GET [base]/MedicationRequest?patient=1137192&amp;status=active~GET [base]/MedicationRequest?patient=1137192&amp;status=active&amp;_include=MedicationRequest:medication</t>
-  </si>
-  <si>
-    <t>GET [base]/MedicationStatement?patient=1137192&amp;status=active~GET [base]/MedicationStatement?patient=1137192&amp;status=active&amp;_include=MedicationStatement:medication</t>
-  </si>
-  <si>
-    <t>GET [base]/MedicationRequest?patient=1137192&amp;effective=ge2019~GET [base]/MedicationStatement?patient=1137192&amp;effective=ge2019&amp;_include=MedicationRequest:medication</t>
-  </si>
-  <si>
-    <t>GET [base]/MedicationStatement?patient=1137192&amp;date=ge2019~GET [base]/MedicationRequest?patient=1137192&amp;date=ge2019&amp;_include=MedicationStatement:medication</t>
-  </si>
-  <si>
-    <t>target-date</t>
-  </si>
-  <si>
-    <t>patient,target-date</t>
-  </si>
-  <si>
-    <t>GET [base]/Goal?patient=1137192&amp;target-date=ge2015-01-14&amp;target-date=le2019-01-14</t>
-  </si>
-  <si>
-    <t>GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;date=ge2019~GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;date=ge2018&amp;date=le2018</t>
-  </si>
-  <si>
-    <t>GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;status=active&amp;date=ge2019~GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;status=active&amp;date=ge2018&amp;date=le2019</t>
-  </si>
-  <si>
-    <t>The DocumentReference.type binding SHALL support at a minimum the [5 Common Clinical Notes](ValueSet-us-core-clinical-note-type.html) and may extend to the full US Core DocumentReference Type Value Set</t>
-  </si>
-  <si>
-    <t>1. See the [General Security Considerations](security.html) section for requirements and recommendations.
-1. A server **SHALL** reject any unauthorized requests by returning an `HTTP 401` unauthorized response code.</t>
-  </si>
-  <si>
-    <t>US Core Laboratory Result Observation Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-lab</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/pediatric-bmi-for-age</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/pediatric-weight-for-height</t>
-  </si>
-  <si>
-    <t>US Core Pediatric BMI for Age Observation Profile</t>
-  </si>
-  <si>
-    <t>US Core Pediatric Weight  for Height Observation Profile</t>
-  </si>
-  <si>
-    <t>A server **SHALL** be capable of responding to a $docref operation and  capable of returning at least a reference to a generated CCD document, if available. **MAY** provide references to other 'on-demand' and 'stable' documents (or 'delayed/deferred assembly') that meet the query parameters as well. If a context date range is supplied the server ** SHOULD**  provide references to any document that falls within the date range If no date range is supplied, then the server **SHALL** provide references to last or current encounter.  **SHOULD** document what resources, if any, are returned as included resources
-`GET [base]/DocumentReference/$docref?patient=[id]`</t>
-  </si>
-  <si>
-    <t>category=http://terminology.hl7.org/CodeSystem/observation-category|laboratory</t>
-  </si>
-  <si>
-    <t>GET [base]/Observation?patient=1134281&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|laboratory&amp;status=final</t>
-  </si>
-  <si>
-    <t>GET [base]/Observation?patient=1134281&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|laboratory</t>
-  </si>
-  <si>
-    <t>GET [base]Observation?patient=555580&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|laboratory&amp;date=ge2018-03-14</t>
-  </si>
-  <si>
-    <t>category=http://terminology.hl7.org/CodeSystem/observation-category|vital-signs</t>
-  </si>
-  <si>
-    <t>GET [base]/Observation?patient=1134281&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|vital-signs&amp;status=final</t>
-  </si>
-  <si>
-    <t>GET [base]/Observation?patient=1134281&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|vital-signs</t>
-  </si>
-  <si>
-    <t>GET [base]/Observation?patient=1134281&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|vital-signs&amp;date=ge2019</t>
   </si>
 </sst>
 </file>
@@ -2087,7 +2093,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="105" customHeight="1">
@@ -2103,7 +2109,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2127,7 +2133,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -2370,10 +2376,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
@@ -2415,10 +2421,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>13</v>
@@ -2505,10 +2511,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>13</v>
@@ -2558,11 +2564,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2594,49 +2600,49 @@
         <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F1" t="s">
         <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H1" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>444</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>445</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>449</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>450</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>352</v>
@@ -2755,7 +2761,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>21</v>
@@ -2845,7 +2851,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>453</v>
+        <v>491</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>21</v>
@@ -2865,7 +2871,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>453</v>
+        <v>491</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>21</v>
@@ -3041,7 +3047,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3054,10 +3060,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3065,10 +3071,11 @@
     <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
+    <col min="7" max="7" width="58.28515625" style="2" customWidth="1"/>
     <col min="8" max="8" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -3087,53 +3094,56 @@
       <c r="F1" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:22" ht="75">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -3152,14 +3162,14 @@
       <c r="F2" t="s">
         <v>34</v>
       </c>
-      <c r="G2" t="s">
-        <v>34</v>
+      <c r="G2" s="2" t="s">
+        <v>490</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
         <v>34</v>
@@ -3197,8 +3207,11 @@
       <c r="U2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="V2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -3217,9 +3230,6 @@
       <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
       <c r="H3" t="s">
         <v>13</v>
       </c>
@@ -3262,8 +3272,11 @@
       <c r="U3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="V3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -3282,9 +3295,6 @@
       <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
       <c r="H4" t="s">
         <v>13</v>
       </c>
@@ -3327,8 +3337,11 @@
       <c r="U4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="V4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -3347,9 +3360,6 @@
       <c r="F5" t="s">
         <v>78</v>
       </c>
-      <c r="G5" t="s">
-        <v>78</v>
-      </c>
       <c r="H5" t="s">
         <v>78</v>
       </c>
@@ -3392,8 +3402,11 @@
       <c r="U5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="V5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -3412,9 +3425,6 @@
       <c r="F6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="H6" s="1" t="s">
         <v>34</v>
       </c>
@@ -3457,8 +3467,11 @@
       <c r="U6" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="V6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -3477,9 +3490,6 @@
       <c r="F7" t="s">
         <v>34</v>
       </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
       <c r="H7" t="s">
         <v>34</v>
       </c>
@@ -3522,8 +3532,11 @@
       <c r="U7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="V7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -3542,9 +3555,6 @@
       <c r="F8" t="s">
         <v>34</v>
       </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
       <c r="H8" t="s">
         <v>34</v>
       </c>
@@ -3587,8 +3597,11 @@
       <c r="U8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="V8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -3607,9 +3620,6 @@
       <c r="F9" t="s">
         <v>78</v>
       </c>
-      <c r="G9" t="s">
-        <v>78</v>
-      </c>
       <c r="H9" t="s">
         <v>78</v>
       </c>
@@ -3652,8 +3662,11 @@
       <c r="U9" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="V9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -3672,9 +3685,6 @@
       <c r="F10" t="s">
         <v>34</v>
       </c>
-      <c r="G10" t="s">
-        <v>34</v>
-      </c>
       <c r="H10" t="s">
         <v>34</v>
       </c>
@@ -3715,6 +3725,9 @@
         <v>34</v>
       </c>
       <c r="U10" t="s">
+        <v>34</v>
+      </c>
+      <c r="V10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3727,7 +3740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AB93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="6" ySplit="1" topLeftCell="G20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -6526,7 +6539,7 @@
         <v>193</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>34</v>
@@ -10091,7 +10104,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>78</v>
@@ -10103,7 +10116,7 @@
         <v>223</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J51" s="5" t="str">
         <f t="shared" ref="J51" si="6">"Fetches a bundle of all "&amp;B51&amp;" resources for the specified "&amp;SUBSTITUTE(D51,","," and ")</f>
@@ -10134,7 +10147,7 @@
         <v>199</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="J52" s="5" t="s">
         <v>254</v>
@@ -10164,7 +10177,7 @@
         <v>250</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J53" s="5" t="s">
         <v>255</v>
@@ -10194,7 +10207,7 @@
         <v>201</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="J54" s="5" t="str">
         <f t="shared" si="4"/>
@@ -10225,7 +10238,7 @@
         <v>251</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J55" s="5" t="s">
         <v>256</v>
@@ -10332,7 +10345,7 @@
         <v>196</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>260</v>
@@ -10344,13 +10357,13 @@
         <v>116</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>311</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J59" s="5" t="s">
         <v>356</v>
@@ -10364,7 +10377,7 @@
         <v>196</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>155</v>
@@ -10376,13 +10389,13 @@
         <v>116</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>239</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J60" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B60&amp;" resources for the specified patient and a category code = `laboratory`"</f>
@@ -10397,7 +10410,7 @@
         <v>196</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>157</v>
@@ -10427,7 +10440,7 @@
         <v>196</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>208</v>
@@ -10439,13 +10452,13 @@
         <v>235</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>244</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J62" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B62&amp;" resources for the specified patient and date and a category code = `laboratory`"</f>
@@ -10460,7 +10473,7 @@
         <v>196</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>236</v>
@@ -10490,7 +10503,7 @@
         <v>355</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>126</v>
@@ -10571,7 +10584,7 @@
         <v>264</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J66" s="5" t="s">
         <v>268</v>
@@ -10635,7 +10648,7 @@
         <v>263</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J68" s="5" t="s">
         <v>270</v>
@@ -10733,13 +10746,13 @@
         <v>116</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H71" s="5" t="s">
         <v>310</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J71" s="5" t="str">
         <f t="shared" ref="J71" si="10">"Fetches a bundle of all "&amp;B71&amp;" resources for the specified "&amp;SUBSTITUTE(D71,","," and ")</f>
@@ -10766,13 +10779,13 @@
         <v>116</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H72" s="5" t="s">
         <v>309</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J72" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B72&amp;" resources for the specified patient and a category code = `vital-signs`"</f>
@@ -10799,7 +10812,7 @@
         <v>116</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>312</v>
@@ -10832,13 +10845,13 @@
         <v>235</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H74" s="5" t="s">
         <v>315</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J74" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B74&amp;" resources for the specified patient and date and a category code = `vital-signs`"</f>

--- a/source/source_spreadsheets/uscore-server.xlsx
+++ b/source/source_spreadsheets/uscore-server.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\US-Core-R4\source\source_spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Argo-R4\source\source_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A17806C-4325-4298-945F-6A65C35E0781}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BB25CA-B0BA-42CF-9E89-46EEAA32AB01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,8 @@
     <sheet name="sp_combos" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">sp_combos!$B$1:$B$81</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">sps!$A$1:$AB$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">sp_combos!$B$1:$B$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">sps!$A$1:$AB$94</definedName>
   </definedNames>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1911" uniqueCount="500">
   <si>
     <t>Element</t>
   </si>
@@ -798,9 +798,6 @@
     <t>support searching a patient by an identifier such as a MPI</t>
   </si>
   <si>
-    <t>support searching for all prescriptions for a patient. The server application represents the medication using either an inline code or a contained or external reference to the Medication resource.</t>
-  </si>
-  <si>
     <t>support searching for all medication statements for a patient. The server application represents the medication using either an inline code or a contained or external reference to the Medication resource.</t>
   </si>
   <si>
@@ -864,18 +861,9 @@
     <t>support searching for all medications for a patient by date</t>
   </si>
   <si>
-    <t>patient,authoredon</t>
-  </si>
-  <si>
     <t>patient,effective</t>
   </si>
   <si>
-    <t>Fetches a bundle of all MedicationRequest resources for the specified patient and status</t>
-  </si>
-  <si>
-    <t>Fetches a bundle of all MedicationRequest resources for the specified patient and date</t>
-  </si>
-  <si>
     <t>Fetches a bundle of all MedicationStatement resources for the specified patient and date</t>
   </si>
   <si>
@@ -1228,9 +1216,6 @@
   </si>
   <si>
     <t>GET [base]/DocumentReference/2169591~GET [base]/DocumentReference?_id=2169591</t>
-  </si>
-  <si>
-    <t>GET [base]/MedicationRequest?patient=14676~GET [base]/MedicationRequest?patient=14676&amp;_include=MedicationRequest:medication</t>
   </si>
   <si>
     <t>GET [base]/MedicationStatement?patient=14676~GET [base]/MedicationStatement?patient=14676&amp;_include=MedicationStatement:medication</t>
@@ -1602,6 +1587,45 @@
  For example, A server **SHALL** be capable of returning all medications for a patient using one of or both:
  `GET /MedicationStatement?patient=[id]`
  `GET /MedicationStatement?patient=[id]&amp;_include=MedicationStatement:medication`</t>
+  </si>
+  <si>
+    <t>intent</t>
+  </si>
+  <si>
+    <t>patient,intent</t>
+  </si>
+  <si>
+    <t>patient,intent,status</t>
+  </si>
+  <si>
+    <t>patient,intent,authoredon</t>
+  </si>
+  <si>
+    <t>patient,intent,encounter</t>
+  </si>
+  <si>
+    <t>intent=http://hl7.org/fhir/CodeSystem/medicationrequest-intent|order</t>
+  </si>
+  <si>
+    <t>support searching for all medications that have been prescribed to a patient. See the [Medication List Guidance] section for guidance on accessing a patient medications. The server application represents the medication using either an inline code or a contained or external reference to the Medication resource.</t>
+  </si>
+  <si>
+    <t>GET [base]/MedicationRequest?patient=14676&amp;intent=http://hl7.org/fhir/CodeSystem/medicationrequest-intent|order~GET [base]/MedicationRequest?patient=14676&amp;intent=http://hl7.org/fhir/CodeSystem/medicationrequest-intent|order&amp;_include=MedicationRequest:medication</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all MedicationRequest resources for the specified patient and intent code = `order`</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all MedicationRequest resources for the specified patient and intent  code = `order` and status</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all MedicationRequest resources for the specified patient and intent  code = `order` and authoredon date</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all MedicationRequest resources for the specified patient and intent  code = `order` and encounter</t>
+  </si>
+  <si>
+    <t>encounter</t>
   </si>
 </sst>
 </file>
@@ -2093,7 +2117,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="105" customHeight="1">
@@ -2101,7 +2125,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2109,7 +2133,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2125,7 +2149,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="103.5" customHeight="1">
@@ -2133,7 +2157,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -2196,25 +2220,25 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B2" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -2226,31 +2250,31 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -2259,7 +2283,7 @@
         <v>83</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -2271,10 +2295,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -2286,10 +2310,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
@@ -2301,10 +2325,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>13</v>
@@ -2316,10 +2340,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>13</v>
@@ -2331,10 +2355,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>13</v>
@@ -2346,10 +2370,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
@@ -2361,25 +2385,25 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="11" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
@@ -2391,10 +2415,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>13</v>
@@ -2406,25 +2430,25 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>13</v>
@@ -2439,7 +2463,7 @@
         <v>203</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>13</v>
@@ -2451,40 +2475,40 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>13</v>
@@ -2496,25 +2520,25 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="11" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>13</v>
@@ -2529,7 +2553,7 @@
         <v>202</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>13</v>
@@ -2544,7 +2568,7 @@
         <v>81</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>13</v>
@@ -2564,7 +2588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2600,61 +2624,61 @@
         <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F1" t="s">
         <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="H1" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>450</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="X1" t="s">
         <v>20</v>
@@ -2682,7 +2706,7 @@
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
@@ -2696,7 +2720,7 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
@@ -2727,7 +2751,7 @@
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
@@ -2761,7 +2785,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>21</v>
@@ -2814,7 +2838,7 @@
     </row>
     <row r="12" spans="1:24">
       <c r="A12" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
@@ -2828,13 +2852,13 @@
     </row>
     <row r="13" spans="1:24" ht="105">
       <c r="A13" s="1" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>21</v>
@@ -2851,7 +2875,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>21</v>
@@ -2871,7 +2895,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>21</v>
@@ -2880,7 +2904,7 @@
         <v>78</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -2899,7 +2923,7 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>13</v>
@@ -2927,7 +2951,7 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>13</v>
@@ -2941,7 +2965,7 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>13</v>
@@ -2953,7 +2977,7 @@
         <v>78</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -3035,10 +3059,10 @@
     </row>
     <row r="2" spans="1:5" ht="135.75" thickBot="1">
       <c r="A2" s="15" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>191</v>
@@ -3047,7 +3071,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3080,67 +3104,67 @@
         <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="V1" t="s">
         <v>432</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="V1" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="75">
@@ -3163,7 +3187,7 @@
         <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -3738,13 +3762,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AB93"/>
+  <dimension ref="A1:AB95"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="AA43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M37" sqref="M37"/>
+      <selection pane="bottomRight" activeCell="AA53" sqref="AA53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.95" customHeight="1"/>
@@ -3754,10 +3778,10 @@
     <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="36.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.42578125" style="1" customWidth="1"/>
     <col min="13" max="13" width="12.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="10.28515625" style="1" customWidth="1"/>
     <col min="15" max="15" width="16.28515625" style="1" customWidth="1"/>
@@ -3836,10 +3860,10 @@
         <v>56</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="W1" s="4" t="s">
         <v>57</v>
@@ -4075,7 +4099,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>68</v>
@@ -4525,7 +4549,7 @@
         <v>227</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AA14" s="2" t="s">
         <v>183</v>
@@ -4892,7 +4916,7 @@
         <v>84</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AB21" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B21)&amp;"-"&amp;SUBSTITUTE(C21,"_","")&amp;".html")</f>
@@ -5833,13 +5857,13 @@
         <v>62</v>
       </c>
       <c r="Y40" s="5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="Z40" s="5" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AA40" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AB40" s="1" t="str">
         <f t="shared" ref="AB40" si="13">"SearchParameter-us-core-"&amp;LOWER((B40)&amp;"-"&amp;C40&amp;".html")</f>
@@ -5863,7 +5887,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="1" t="str">
-        <f t="shared" ref="F41:F68" si="14">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B41)</f>
+        <f t="shared" ref="F41:F70" si="14">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B41)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
       <c r="G41" s="1" t="s">
@@ -5876,11 +5900,14 @@
         <v>63</v>
       </c>
       <c r="J41" s="1" t="str">
-        <f t="shared" ref="J41:J65" si="15">B41&amp;"."&amp;C41</f>
+        <f t="shared" ref="J41:J67" si="15">B41&amp;"."&amp;C41</f>
         <v>DocumentReference.status</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>62</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>62</v>
@@ -5892,7 +5919,7 @@
       <c r="Z41" s="5"/>
       <c r="AA41" s="12"/>
       <c r="AB41" s="1" t="str">
-        <f t="shared" ref="AB41:AB68" si="16">"SearchParameter-us-core-"&amp;LOWER((B41)&amp;"-"&amp;C41&amp;".html")</f>
+        <f t="shared" ref="AB41:AB70" si="16">"SearchParameter-us-core-"&amp;LOWER((B41)&amp;"-"&amp;C41&amp;".html")</f>
         <v>SearchParameter-us-core-documentreference-status.html</v>
       </c>
     </row>
@@ -6114,7 +6141,7 @@
         <v>191</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>34</v>
@@ -6136,7 +6163,7 @@
         <v>88</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>62</v>
@@ -6194,6 +6221,9 @@
       </c>
       <c r="K47" s="1" t="s">
         <v>62</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>62</v>
@@ -6430,7 +6460,7 @@
         <v>193</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>34</v>
@@ -6539,7 +6569,7 @@
         <v>193</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>34</v>
@@ -6620,6 +6650,9 @@
       </c>
       <c r="K55" s="1" t="s">
         <v>62</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>62</v>
@@ -6637,19 +6670,19 @@
     </row>
     <row r="56" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A56" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>194</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>99</v>
+        <v>487</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E56" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" s="1" t="str">
         <f t="shared" ref="F56" si="27">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B56)</f>
@@ -6662,479 +6695,470 @@
         <v>62</v>
       </c>
       <c r="I56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J56" s="1" t="str">
+        <f t="shared" ref="J56" si="28">B56&amp;"."&amp;C56</f>
+        <v>MedicationRequest.intent</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="X56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y56" s="5"/>
+      <c r="Z56" s="5"/>
+      <c r="AA56" s="12"/>
+      <c r="AB56" s="1" t="str">
+        <f t="shared" ref="AB56" si="29">"SearchParameter-us-core-"&amp;LOWER((B56)&amp;"-"&amp;C56&amp;".html")</f>
+        <v>SearchParameter-us-core-medicationrequest-intent.html</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A57" s="1">
+        <v>54</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E57" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1" t="str">
+        <f t="shared" ref="F57" si="30">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B57)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I57" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J56" s="1" t="str">
+      <c r="J57" s="1" t="str">
         <f t="shared" si="15"/>
         <v>MedicationRequest.patient</v>
       </c>
-      <c r="K56" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="U56" s="7"/>
-      <c r="V56" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="X56" s="1" t="s">
+      <c r="K57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="U57" s="7"/>
+      <c r="V57" s="7"/>
+      <c r="X57" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="Y56" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="Z56" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="AA56" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B56&amp; " resources for the specified patient. Mandatory for client to support the _include parameter. Optional for server to support the _include parameter."</f>
-        <v>Fetches a bundle of all MedicationRequest resources for the specified patient. Mandatory for client to support the _include parameter. Optional for server to support the _include parameter.</v>
-      </c>
-      <c r="AB56" s="1" t="str">
-        <f t="shared" ref="AB56" si="28">"SearchParameter-us-core-"&amp;LOWER((B56)&amp;"-"&amp;C56&amp;".html")</f>
+      <c r="Z57" s="12"/>
+      <c r="AA57" s="12"/>
+      <c r="AB57" s="1" t="str">
+        <f t="shared" ref="AB57" si="31">"SearchParameter-us-core-"&amp;LOWER((B57)&amp;"-"&amp;C57&amp;".html")</f>
         <v>SearchParameter-us-core-medicationrequest-patient.html</v>
       </c>
     </row>
-    <row r="57" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A57" s="1">
+    <row r="58" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A58" s="1">
+        <v>54</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E58" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1" t="str">
+        <f t="shared" ref="F58" si="32">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B58)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J58" s="1" t="str">
+        <f t="shared" ref="J58" si="33">B58&amp;"."&amp;C58</f>
+        <v>MedicationRequest.encounter</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="U58" s="7"/>
+      <c r="V58" s="7"/>
+      <c r="X58" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z58" s="12"/>
+      <c r="AA58" s="12"/>
+      <c r="AB58" s="1" t="str">
+        <f t="shared" ref="AB58" si="34">"SearchParameter-us-core-"&amp;LOWER((B58)&amp;"-"&amp;C58&amp;".html")</f>
+        <v>SearchParameter-us-core-medicationrequest-encounter.html</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A59" s="1">
         <v>55</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E57" s="1" t="b">
+      <c r="C59" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E59" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F57" s="1" t="str">
+      <c r="F59" s="1" t="str">
         <f t="shared" si="14"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I57" s="1" t="s">
+      <c r="G59" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I59" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J57" s="1" t="str">
-        <f t="shared" ref="J57" si="29">B57&amp;"."&amp;C57</f>
+      <c r="J59" s="1" t="str">
+        <f t="shared" ref="J59" si="35">B59&amp;"."&amp;C59</f>
         <v>MedicationRequest.authoredon</v>
       </c>
-      <c r="K57" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q57" s="1" t="s">
+      <c r="K59" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q59" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="X57" s="1" t="s">
+      <c r="X59" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AA57" s="12"/>
-      <c r="AB57" s="1" t="str">
+      <c r="AA59" s="12"/>
+      <c r="AB59" s="1" t="str">
         <f t="shared" si="16"/>
         <v>SearchParameter-us-core-medicationrequest-authoredon.html</v>
       </c>
     </row>
-    <row r="58" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A58" s="1">
+    <row r="60" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A60" s="1">
         <v>56</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E58" s="1" t="b">
+      <c r="D60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E60" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F58" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B58)</f>
+      <c r="F60" s="1" t="str">
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B60)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationstatement</v>
       </c>
-      <c r="G58" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I58" s="1" t="s">
+      <c r="G60" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I60" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J58" s="1" t="str">
-        <f>B58&amp;"."&amp;C58</f>
+      <c r="J60" s="1" t="str">
+        <f>B60&amp;"."&amp;C60</f>
         <v>MedicationStatement.status</v>
       </c>
-      <c r="K58" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X58" s="1" t="s">
+      <c r="K60" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="X60" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="Y58" s="5"/>
-      <c r="Z58" s="5"/>
-      <c r="AA58" s="12"/>
-      <c r="AB58" s="1" t="str">
-        <f>"SearchParameter-us-core-"&amp;LOWER((B58)&amp;"-"&amp;C58&amp;".html")</f>
+      <c r="Y60" s="5"/>
+      <c r="Z60" s="5"/>
+      <c r="AA60" s="12"/>
+      <c r="AB60" s="1" t="str">
+        <f>"SearchParameter-us-core-"&amp;LOWER((B60)&amp;"-"&amp;C60&amp;".html")</f>
         <v>SearchParameter-us-core-medicationstatement-status.html</v>
       </c>
     </row>
-    <row r="59" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A59" s="1">
+    <row r="61" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A61" s="1">
         <v>57</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" s="1" t="b">
+      <c r="D61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F59" s="1" t="str">
-        <f t="shared" ref="F59:F60" si="30">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B59)</f>
+      <c r="F61" s="1" t="str">
+        <f t="shared" ref="F61:F62" si="36">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B61)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationstatement</v>
       </c>
-      <c r="G59" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I59" s="1" t="s">
+      <c r="G61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I61" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J59" s="1" t="str">
+      <c r="J61" s="1" t="str">
         <f t="shared" si="15"/>
         <v>MedicationStatement.patient</v>
       </c>
-      <c r="K59" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="V59" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="X59" s="1" t="s">
+      <c r="K61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="V61" s="7"/>
+      <c r="X61" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="Y59" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="Z59" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="AA59" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B59&amp; " resources for the specified patient. Mandatory for client to support the _include parameter. Optional for server to support the _include parameter."</f>
+      <c r="Y61" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z61" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA61" s="12" t="str">
+        <f>"Fetches a bundle of all "&amp;B61&amp; " resources for the specified patient. Mandatory for client to support the _include parameter. Optional for server to support the _include parameter."</f>
         <v>Fetches a bundle of all MedicationStatement resources for the specified patient. Mandatory for client to support the _include parameter. Optional for server to support the _include parameter.</v>
       </c>
-      <c r="AB59" s="1" t="str">
-        <f t="shared" ref="AB59:AB60" si="31">"SearchParameter-us-core-"&amp;LOWER((B59)&amp;"-"&amp;C59&amp;".html")</f>
+      <c r="AB61" s="1" t="str">
+        <f t="shared" ref="AB61:AB62" si="37">"SearchParameter-us-core-"&amp;LOWER((B61)&amp;"-"&amp;C61&amp;".html")</f>
         <v>SearchParameter-us-core-medicationstatement-patient.html</v>
       </c>
     </row>
-    <row r="60" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A60" s="1">
+    <row r="62" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A62" s="1">
         <v>58</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E60" s="1" t="b">
+      <c r="C62" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E62" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F60" s="1" t="str">
-        <f t="shared" si="30"/>
+      <c r="F62" s="1" t="str">
+        <f t="shared" si="36"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationstatement</v>
       </c>
-      <c r="G60" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I60" s="1" t="s">
+      <c r="G62" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I62" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J60" s="1" t="str">
-        <f t="shared" ref="J60" si="32">B60&amp;"."&amp;C60</f>
+      <c r="J62" s="1" t="str">
+        <f t="shared" ref="J62" si="38">B62&amp;"."&amp;C62</f>
         <v>MedicationStatement.effective</v>
       </c>
-      <c r="K60" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N60" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q60" s="1" t="s">
+      <c r="K62" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N62" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q62" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="X60" s="1" t="s">
+      <c r="X62" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AA60" s="12"/>
-      <c r="AB60" s="1" t="str">
-        <f t="shared" si="31"/>
+      <c r="AA62" s="12"/>
+      <c r="AB62" s="1" t="str">
+        <f t="shared" si="37"/>
         <v>SearchParameter-us-core-medicationstatement-effective.html</v>
       </c>
     </row>
-    <row r="61" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A61" s="1">
+    <row r="63" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A63" s="1">
         <v>59</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E61" s="1" t="b">
+      <c r="D63" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E63" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F61" s="1" t="str">
+      <c r="F63" s="1" t="str">
         <f t="shared" si="14"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I61" s="1" t="s">
+      <c r="G63" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I63" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J61" s="1" t="str">
+      <c r="J63" s="1" t="str">
         <f t="shared" si="15"/>
         <v>Procedure.status</v>
       </c>
-      <c r="K61" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X61" s="1" t="s">
+      <c r="K63" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="X63" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="Y61" s="5"/>
-      <c r="Z61" s="5"/>
-      <c r="AA61" s="12"/>
-      <c r="AB61" s="1" t="str">
+      <c r="Y63" s="5"/>
+      <c r="Z63" s="5"/>
+      <c r="AA63" s="12"/>
+      <c r="AB63" s="1" t="str">
         <f t="shared" si="16"/>
         <v>SearchParameter-us-core-procedure-status.html</v>
       </c>
     </row>
-    <row r="62" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A62" s="1">
+    <row r="64" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A64" s="1">
         <v>60</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E62" s="1" t="b">
+      <c r="D64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F62" s="1" t="str">
-        <f t="shared" ref="F62:F64" si="33">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B62)</f>
+      <c r="F64" s="1" t="str">
+        <f t="shared" ref="F64:F66" si="39">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B64)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I62" s="1" t="s">
+      <c r="G64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I64" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J62" s="1" t="str">
+      <c r="J64" s="1" t="str">
         <f t="shared" si="15"/>
         <v>Procedure.patient</v>
       </c>
-      <c r="K62" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X62" s="1" t="s">
+      <c r="K64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="X64" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="Y62" s="1" t="str">
-        <f>"support searching for all "&amp;LOWER(B62)&amp;"s for a patient"</f>
+      <c r="Y64" s="1" t="str">
+        <f>"support searching for all "&amp;LOWER(B64)&amp;"s for a patient"</f>
         <v>support searching for all procedures for a patient</v>
       </c>
-      <c r="Z62" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="AA62" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B62&amp; " resources for the specified patient"</f>
+      <c r="Z64" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA64" s="12" t="str">
+        <f>"Fetches a bundle of all "&amp;B64&amp; " resources for the specified patient"</f>
         <v>Fetches a bundle of all Procedure resources for the specified patient</v>
       </c>
-      <c r="AB62" s="1" t="str">
-        <f t="shared" ref="AB62:AB64" si="34">"SearchParameter-us-core-"&amp;LOWER((B62)&amp;"-"&amp;C62&amp;".html")</f>
+      <c r="AB64" s="1" t="str">
+        <f t="shared" ref="AB64:AB66" si="40">"SearchParameter-us-core-"&amp;LOWER((B64)&amp;"-"&amp;C64&amp;".html")</f>
         <v>SearchParameter-us-core-procedure-patient.html</v>
-      </c>
-    </row>
-    <row r="63" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E63" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F63" s="1" t="str">
-        <f t="shared" si="33"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J63" s="1" t="str">
-        <f t="shared" ref="J63:J64" si="35">B63&amp;"."&amp;C63</f>
-        <v>Procedure.date</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M63" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N63" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q63" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="X63" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA63" s="12"/>
-      <c r="AB63" s="1" t="str">
-        <f t="shared" si="34"/>
-        <v>SearchParameter-us-core-procedure-date.html</v>
-      </c>
-    </row>
-    <row r="64" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E64" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F64" s="1" t="str">
-        <f t="shared" si="33"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J64" s="1" t="str">
-        <f t="shared" si="35"/>
-        <v>Procedure.code</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y64" s="5"/>
-      <c r="Z64" s="5"/>
-      <c r="AA64" s="12"/>
-      <c r="AB64" s="1" t="str">
-        <f t="shared" si="34"/>
-        <v>SearchParameter-us-core-procedure-code.html</v>
       </c>
     </row>
     <row r="65" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A65" s="1">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>34</v>
@@ -7143,8 +7167,8 @@
         <v>0</v>
       </c>
       <c r="F65" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation</v>
+        <f t="shared" si="39"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>62</v>
@@ -7153,38 +7177,42 @@
         <v>62</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="J65" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>Observation.status</v>
+        <f t="shared" ref="J65:J66" si="41">B65&amp;"."&amp;C65</f>
+        <v>Procedure.date</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>62</v>
       </c>
       <c r="M65" s="1" t="s">
         <v>62</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="X65" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="Y65" s="5"/>
-      <c r="Z65" s="5"/>
       <c r="AA65" s="12"/>
       <c r="AB65" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>SearchParameter-us-core-observation-status.html</v>
+        <f t="shared" si="40"/>
+        <v>SearchParameter-us-core-procedure-date.html</v>
       </c>
     </row>
     <row r="66" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A66" s="1">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>34</v>
@@ -7193,8 +7221,8 @@
         <v>0</v>
       </c>
       <c r="F66" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation</v>
+        <f t="shared" si="39"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>62</v>
@@ -7206,35 +7234,35 @@
         <v>63</v>
       </c>
       <c r="J66" s="1" t="str">
-        <f t="shared" ref="J66:J68" si="36">B66&amp;"."&amp;C66</f>
-        <v>Observation.category</v>
+        <f t="shared" si="41"/>
+        <v>Procedure.code</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="L66" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="M66" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="X66" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="Y66" s="5"/>
       <c r="Z66" s="5"/>
       <c r="AA66" s="12"/>
       <c r="AB66" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>SearchParameter-us-core-observation-category.html</v>
+        <f t="shared" si="40"/>
+        <v>SearchParameter-us-core-procedure-code.html</v>
       </c>
     </row>
     <row r="67" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A67" s="1">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>196</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>34</v>
@@ -7256,35 +7284,38 @@
         <v>63</v>
       </c>
       <c r="J67" s="1" t="str">
-        <f t="shared" si="36"/>
-        <v>Observation.code</v>
+        <f t="shared" si="15"/>
+        <v>Observation.status</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>62</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M67" s="1" t="s">
         <v>62</v>
+      </c>
+      <c r="X67" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="Y67" s="5"/>
       <c r="Z67" s="5"/>
       <c r="AA67" s="12"/>
       <c r="AB67" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>SearchParameter-us-core-observation-code.html</v>
+        <v>SearchParameter-us-core-observation-status.html</v>
       </c>
     </row>
     <row r="68" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A68" s="1">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>196</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>34</v>
@@ -7303,11 +7334,11 @@
         <v>62</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="J68" s="1" t="str">
-        <f t="shared" si="36"/>
-        <v>Observation.date</v>
+        <f t="shared" ref="J68:J70" si="42">B68&amp;"."&amp;C68</f>
+        <v>Observation.category</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>62</v>
@@ -7315,30 +7346,26 @@
       <c r="M68" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N68" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q68" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="X68" s="1" t="s">
-        <v>104</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="Y68" s="5"/>
+      <c r="Z68" s="5"/>
       <c r="AA68" s="12"/>
       <c r="AB68" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>SearchParameter-us-core-observation-date.html</v>
+        <v>SearchParameter-us-core-observation-category.html</v>
       </c>
     </row>
     <row r="69" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A69" s="1">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>196</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>34</v>
@@ -7347,7 +7374,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B69)</f>
+        <f t="shared" si="14"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation</v>
       </c>
       <c r="G69" s="1" t="s">
@@ -7357,47 +7384,38 @@
         <v>62</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="J69" s="1" t="str">
-        <f>B69&amp;"."&amp;C69</f>
-        <v>Observation.patient</v>
+        <f t="shared" si="42"/>
+        <v>Observation.code</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="L69" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="M69" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="X69" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y69" s="1" t="str">
-        <f>"support searching for all "&amp;LOWER(B69)&amp;"s for a patient"</f>
-        <v>support searching for all observations for a patient</v>
-      </c>
-      <c r="Z69" s="5" t="str">
-        <f>"GET [base]/"&amp;B69&amp;"?patient=1137192"</f>
-        <v>GET [base]/Observation?patient=1137192</v>
-      </c>
-      <c r="AA69" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B69&amp; " resources for the specified patient"</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient</v>
-      </c>
+      <c r="Y69" s="5"/>
+      <c r="Z69" s="5"/>
+      <c r="AA69" s="12"/>
       <c r="AB69" s="1" t="str">
-        <f>"SearchParameter-us-core-"&amp;LOWER((B69)&amp;"-"&amp;C69&amp;".html")</f>
-        <v>SearchParameter-us-core-observation-patient.html</v>
+        <f t="shared" si="16"/>
+        <v>SearchParameter-us-core-observation-code.html</v>
       </c>
     </row>
     <row r="70" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A70" s="1">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>257</v>
+        <v>196</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>150</v>
+        <v>88</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>34</v>
@@ -7406,8 +7424,8 @@
         <v>0</v>
       </c>
       <c r="F70" s="1" t="str">
-        <f t="shared" ref="F70:F72" si="37">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B70)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careplan</v>
+        <f t="shared" si="14"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>62</v>
@@ -7416,11 +7434,11 @@
         <v>62</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="J70" s="1" t="str">
-        <f t="shared" ref="J70:J72" si="38">B70&amp;"."&amp;C70</f>
-        <v>CarePlan.category</v>
+        <f t="shared" si="42"/>
+        <v>Observation.date</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>62</v>
@@ -7428,26 +7446,30 @@
       <c r="M70" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="N70" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="X70" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y70" s="5"/>
-      <c r="Z70" s="5"/>
+        <v>104</v>
+      </c>
       <c r="AA70" s="12"/>
       <c r="AB70" s="1" t="str">
-        <f t="shared" ref="AB70:AB72" si="39">"SearchParameter-us-core-"&amp;LOWER((B70)&amp;"-"&amp;C70&amp;".html")</f>
-        <v>SearchParameter-us-core-careplan-category.html</v>
+        <f t="shared" si="16"/>
+        <v>SearchParameter-us-core-observation-date.html</v>
       </c>
     </row>
     <row r="71" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A71" s="1">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>348</v>
+        <v>196</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>34</v>
@@ -7456,8 +7478,8 @@
         <v>0</v>
       </c>
       <c r="F71" s="1" t="str">
-        <f t="shared" si="37"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!careplan</v>
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B71)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>62</v>
@@ -7466,11 +7488,11 @@
         <v>62</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="J71" s="1" t="str">
-        <f t="shared" si="38"/>
-        <v>!CarePlan.code</v>
+        <f>B71&amp;"."&amp;C71</f>
+        <v>Observation.patient</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>62</v>
@@ -7478,23 +7500,35 @@
       <c r="M71" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Y71" s="5"/>
-      <c r="Z71" s="5"/>
-      <c r="AA71" s="12"/>
+      <c r="X71" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y71" s="1" t="str">
+        <f>"support searching for all "&amp;LOWER(B71)&amp;"s for a patient"</f>
+        <v>support searching for all observations for a patient</v>
+      </c>
+      <c r="Z71" s="5" t="str">
+        <f>"GET [base]/"&amp;B71&amp;"?patient=1137192"</f>
+        <v>GET [base]/Observation?patient=1137192</v>
+      </c>
+      <c r="AA71" s="12" t="str">
+        <f>"Fetches a bundle of all "&amp;B71&amp; " resources for the specified patient"</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient</v>
+      </c>
       <c r="AB71" s="1" t="str">
-        <f t="shared" si="39"/>
-        <v>SearchParameter-us-core-!careplan-code.html</v>
+        <f>"SearchParameter-us-core-"&amp;LOWER((B71)&amp;"-"&amp;C71&amp;".html")</f>
+        <v>SearchParameter-us-core-observation-patient.html</v>
       </c>
     </row>
     <row r="72" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A72" s="1">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>34</v>
@@ -7503,7 +7537,7 @@
         <v>0</v>
       </c>
       <c r="F72" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="F72:F74" si="43">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B72)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careplan</v>
       </c>
       <c r="G72" s="1" t="s">
@@ -7513,11 +7547,11 @@
         <v>62</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="J72" s="1" t="str">
-        <f t="shared" si="38"/>
-        <v>CarePlan.date</v>
+        <f t="shared" ref="J72:J74" si="44">B72&amp;"."&amp;C72</f>
+        <v>CarePlan.category</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>62</v>
@@ -7525,30 +7559,26 @@
       <c r="M72" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N72" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q72" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="X72" s="1" t="s">
-        <v>104</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="Y72" s="5"/>
+      <c r="Z72" s="5"/>
       <c r="AA72" s="12"/>
       <c r="AB72" s="1" t="str">
-        <f t="shared" si="39"/>
-        <v>SearchParameter-us-core-careplan-date.html</v>
+        <f t="shared" ref="AB72:AB74" si="45">"SearchParameter-us-core-"&amp;LOWER((B72)&amp;"-"&amp;C72&amp;".html")</f>
+        <v>SearchParameter-us-core-careplan-category.html</v>
       </c>
     </row>
     <row r="73" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A73" s="1">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>257</v>
+        <v>344</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>34</v>
@@ -7557,8 +7587,8 @@
         <v>0</v>
       </c>
       <c r="F73" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B73)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careplan</v>
+        <f t="shared" si="43"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!careplan</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>62</v>
@@ -7567,11 +7597,11 @@
         <v>62</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="J73" s="1" t="str">
-        <f>B73&amp;"."&amp;C73</f>
-        <v>CarePlan.patient</v>
+        <f t="shared" si="44"/>
+        <v>!CarePlan.code</v>
       </c>
       <c r="K73" s="1" t="s">
         <v>62</v>
@@ -7579,35 +7609,23 @@
       <c r="M73" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="X73" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y73" s="1" t="str">
-        <f>"support searching for all "&amp;LOWER(B73)&amp;"s for a patient"</f>
-        <v>support searching for all careplans for a patient</v>
-      </c>
-      <c r="Z73" s="5" t="str">
-        <f>"GET [base]/"&amp;B73&amp;"?patient=1137192"</f>
-        <v>GET [base]/CarePlan?patient=1137192</v>
-      </c>
-      <c r="AA73" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B73&amp; " resources for the specified patient"</f>
-        <v>Fetches a bundle of all CarePlan resources for the specified patient</v>
-      </c>
+      <c r="Y73" s="5"/>
+      <c r="Z73" s="5"/>
+      <c r="AA73" s="12"/>
       <c r="AB73" s="1" t="str">
-        <f>"SearchParameter-us-core-"&amp;LOWER((B73)&amp;"-"&amp;C73&amp;".html")</f>
-        <v>SearchParameter-us-core-careplan-patient.html</v>
+        <f t="shared" si="45"/>
+        <v>SearchParameter-us-core-!careplan-code.html</v>
       </c>
     </row>
     <row r="74" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A74" s="1">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>34</v>
@@ -7616,7 +7634,7 @@
         <v>0</v>
       </c>
       <c r="F74" s="1" t="str">
-        <f t="shared" ref="F74" si="40">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B74)</f>
+        <f t="shared" si="43"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careplan</v>
       </c>
       <c r="G74" s="1" t="s">
@@ -7626,35 +7644,39 @@
         <v>62</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="J74" s="1" t="str">
-        <f t="shared" ref="J74" si="41">B74&amp;"."&amp;C74</f>
-        <v>CarePlan.status</v>
+        <f t="shared" si="44"/>
+        <v>CarePlan.date</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>62</v>
       </c>
       <c r="M74" s="1" t="s">
         <v>62</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="X74" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="Y74" s="5"/>
-      <c r="Z74" s="5"/>
       <c r="AA74" s="12"/>
       <c r="AB74" s="1" t="str">
-        <f t="shared" ref="AB74" si="42">"SearchParameter-us-core-"&amp;LOWER((B74)&amp;"-"&amp;C74&amp;".html")</f>
-        <v>SearchParameter-us-core-careplan-status.html</v>
+        <f t="shared" si="45"/>
+        <v>SearchParameter-us-core-careplan-date.html</v>
       </c>
     </row>
     <row r="75" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A75" s="1">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>99</v>
@@ -7667,7 +7689,7 @@
       </c>
       <c r="F75" s="1" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B75)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careplan</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>62</v>
@@ -7680,7 +7702,7 @@
       </c>
       <c r="J75" s="1" t="str">
         <f>B75&amp;"."&amp;C75</f>
-        <v>CareTeam.patient</v>
+        <v>CarePlan.patient</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>62</v>
@@ -7693,27 +7715,27 @@
       </c>
       <c r="Y75" s="1" t="str">
         <f>"support searching for all "&amp;LOWER(B75)&amp;"s for a patient"</f>
-        <v>support searching for all careteams for a patient</v>
+        <v>support searching for all careplans for a patient</v>
       </c>
       <c r="Z75" s="5" t="str">
         <f>"GET [base]/"&amp;B75&amp;"?patient=1137192"</f>
-        <v>GET [base]/CareTeam?patient=1137192</v>
+        <v>GET [base]/CarePlan?patient=1137192</v>
       </c>
       <c r="AA75" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B75&amp; " resources for the specified patient"</f>
-        <v>Fetches a bundle of all CareTeam resources for the specified patient</v>
+        <v>Fetches a bundle of all CarePlan resources for the specified patient</v>
       </c>
       <c r="AB75" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B75)&amp;"-"&amp;C75&amp;".html")</f>
-        <v>SearchParameter-us-core-careteam-patient.html</v>
+        <v>SearchParameter-us-core-careplan-patient.html</v>
       </c>
     </row>
     <row r="76" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A76" s="1">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>68</v>
@@ -7725,8 +7747,8 @@
         <v>0</v>
       </c>
       <c r="F76" s="1" t="str">
-        <f t="shared" ref="F76" si="43">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B76)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
+        <f t="shared" ref="F76" si="46">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B76)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careplan</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>62</v>
@@ -7738,11 +7760,14 @@
         <v>63</v>
       </c>
       <c r="J76" s="1" t="str">
-        <f t="shared" ref="J76" si="44">B76&amp;"."&amp;C76</f>
-        <v>CareTeam.status</v>
+        <f t="shared" ref="J76" si="47">B76&amp;"."&amp;C76</f>
+        <v>CarePlan.status</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>62</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="M76" s="1" t="s">
         <v>62</v>
@@ -7754,29 +7779,29 @@
       <c r="Z76" s="5"/>
       <c r="AA76" s="12"/>
       <c r="AB76" s="1" t="str">
-        <f t="shared" ref="AB76" si="45">"SearchParameter-us-core-"&amp;LOWER((B76)&amp;"-"&amp;C76&amp;".html")</f>
-        <v>SearchParameter-us-core-careteam-status.html</v>
+        <f t="shared" ref="AB76" si="48">"SearchParameter-us-core-"&amp;LOWER((B76)&amp;"-"&amp;C76&amp;".html")</f>
+        <v>SearchParameter-us-core-careplan-status.html</v>
       </c>
     </row>
     <row r="77" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A77" s="1">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E77" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" s="1" t="str">
-        <f t="shared" ref="F77:F88" si="46">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B77)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-device</v>
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B77)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>62</v>
@@ -7788,8 +7813,8 @@
         <v>100</v>
       </c>
       <c r="J77" s="1" t="str">
-        <f t="shared" ref="J77:J92" si="47">B77&amp;"."&amp;C77</f>
-        <v>Device.patient</v>
+        <f>B77&amp;"."&amp;C77</f>
+        <v>CareTeam.patient</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>62</v>
@@ -7801,31 +7826,31 @@
         <v>101</v>
       </c>
       <c r="Y77" s="1" t="str">
-        <f>"support searching for all "&amp;LOWER(B77)&amp;"s for a patient, including implantable devices"</f>
-        <v>support searching for all devices for a patient, including implantable devices</v>
+        <f>"support searching for all "&amp;LOWER(B77)&amp;"s for a patient"</f>
+        <v>support searching for all careteams for a patient</v>
       </c>
       <c r="Z77" s="5" t="str">
         <f>"GET [base]/"&amp;B77&amp;"?patient=1137192"</f>
-        <v>GET [base]/Device?patient=1137192</v>
+        <v>GET [base]/CareTeam?patient=1137192</v>
       </c>
       <c r="AA77" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B77&amp; " resources for the specified patient"</f>
-        <v>Fetches a bundle of all Device resources for the specified patient</v>
+        <v>Fetches a bundle of all CareTeam resources for the specified patient</v>
       </c>
       <c r="AB77" s="1" t="str">
-        <f t="shared" ref="AB77:AB88" si="48">"SearchParameter-us-core-"&amp;LOWER((B77)&amp;"-"&amp;C77&amp;".html")</f>
-        <v>SearchParameter-us-core-device-patient.html</v>
+        <f>"SearchParameter-us-core-"&amp;LOWER((B77)&amp;"-"&amp;C77&amp;".html")</f>
+        <v>SearchParameter-us-core-careteam-patient.html</v>
       </c>
     </row>
     <row r="78" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A78" s="1">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>34</v>
@@ -7835,7 +7860,7 @@
       </c>
       <c r="F78" s="1" t="str">
         <f t="shared" ref="F78" si="49">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B78)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-device</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>62</v>
@@ -7848,30 +7873,37 @@
       </c>
       <c r="J78" s="1" t="str">
         <f t="shared" ref="J78" si="50">B78&amp;"."&amp;C78</f>
-        <v>Device.type</v>
+        <v>CareTeam.status</v>
       </c>
       <c r="K78" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="L78" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="M78" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="X78" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y78" s="5"/>
       <c r="Z78" s="5"/>
       <c r="AA78" s="12"/>
       <c r="AB78" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v>SearchParameter-us-core-device-type.html</v>
-      </c>
-    </row>
-    <row r="79" spans="1:28" ht="18.95" customHeight="1">
+        <f t="shared" ref="AB78" si="51">"SearchParameter-us-core-"&amp;LOWER((B78)&amp;"-"&amp;C78&amp;".html")</f>
+        <v>SearchParameter-us-core-careteam-status.html</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A79" s="1">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>13</v>
@@ -7880,8 +7912,8 @@
         <v>1</v>
       </c>
       <c r="F79" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
+        <f t="shared" ref="F79:F90" si="52">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B79)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-device</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>62</v>
@@ -7889,12 +7921,12 @@
       <c r="H79" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I79" t="s">
-        <v>71</v>
+      <c r="I79" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="J79" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v>Location.name</v>
+        <f t="shared" ref="J79:J94" si="53">B79&amp;"."&amp;C79</f>
+        <v>Device.patient</v>
       </c>
       <c r="K79" s="1" t="s">
         <v>62</v>
@@ -7902,40 +7934,45 @@
       <c r="M79" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Y79" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="Z79" s="7" t="s">
-        <v>285</v>
+      <c r="X79" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y79" s="1" t="str">
+        <f>"support searching for all "&amp;LOWER(B79)&amp;"s for a patient, including implantable devices"</f>
+        <v>support searching for all devices for a patient, including implantable devices</v>
+      </c>
+      <c r="Z79" s="5" t="str">
+        <f>"GET [base]/"&amp;B79&amp;"?patient=1137192"</f>
+        <v>GET [base]/Device?patient=1137192</v>
       </c>
       <c r="AA79" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B79&amp; " resources that match the name"</f>
-        <v>Fetches a bundle of all Location resources that match the name</v>
-      </c>
-      <c r="AB79" t="str">
-        <f t="shared" si="48"/>
-        <v>SearchParameter-us-core-location-name.html</v>
-      </c>
-    </row>
-    <row r="80" spans="1:28" ht="18.95" customHeight="1">
+        <f>"Fetches a bundle of all "&amp;B79&amp; " resources for the specified patient"</f>
+        <v>Fetches a bundle of all Device resources for the specified patient</v>
+      </c>
+      <c r="AB79" s="1" t="str">
+        <f t="shared" ref="AB79:AB90" si="54">"SearchParameter-us-core-"&amp;LOWER((B79)&amp;"-"&amp;C79&amp;".html")</f>
+        <v>SearchParameter-us-core-device-patient.html</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A80" s="1">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E80" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
+        <f t="shared" ref="F80" si="55">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B80)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-device</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>62</v>
@@ -7944,11 +7981,11 @@
         <v>62</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="J80" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v>Location.address</v>
+        <f t="shared" ref="J80" si="56">B80&amp;"."&amp;C80</f>
+        <v>Device.type</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>62</v>
@@ -7956,39 +7993,31 @@
       <c r="M80" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Y80" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="Z80" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="AA80" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B80&amp; " resources that match the address string"</f>
-        <v>Fetches a bundle of all Location resources that match the address string</v>
-      </c>
-      <c r="AB80" t="str">
-        <f t="shared" si="48"/>
-        <v>SearchParameter-us-core-location-address.html</v>
+      <c r="Z80" s="5"/>
+      <c r="AA80" s="12"/>
+      <c r="AB80" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v>SearchParameter-us-core-device-type.html</v>
       </c>
     </row>
     <row r="81" spans="1:28" ht="18.95" customHeight="1">
       <c r="A81" s="1">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>277</v>
+        <v>27</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="E81" s="1" t="b">
         <v>1</v>
       </c>
       <c r="F81" s="1" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
       </c>
       <c r="G81" s="1" t="s">
@@ -7997,12 +8026,12 @@
       <c r="H81" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I81" s="1" t="s">
+      <c r="I81" t="s">
         <v>71</v>
       </c>
       <c r="J81" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v>Location.address-city</v>
+        <f t="shared" si="53"/>
+        <v>Location.name</v>
       </c>
       <c r="K81" s="1" t="s">
         <v>62</v>
@@ -8011,38 +8040,38 @@
         <v>62</v>
       </c>
       <c r="Y81" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="Z81" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="AA81" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B81&amp; " resources for the city"</f>
-        <v>Fetches a bundle of all Location resources for the city</v>
+        <f>"Fetches a bundle of all "&amp;B81&amp; " resources that match the name"</f>
+        <v>Fetches a bundle of all Location resources that match the name</v>
       </c>
       <c r="AB81" t="str">
-        <f t="shared" si="48"/>
-        <v>SearchParameter-us-core-location-address-city.html</v>
+        <f t="shared" si="54"/>
+        <v>SearchParameter-us-core-location-name.html</v>
       </c>
     </row>
     <row r="82" spans="1:28" ht="18.95" customHeight="1">
       <c r="A82" s="1">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>349</v>
+        <v>95</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="E82" s="1" t="b">
         <v>1</v>
       </c>
       <c r="F82" s="1" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
       </c>
       <c r="G82" s="1" t="s">
@@ -8055,8 +8084,8 @@
         <v>71</v>
       </c>
       <c r="J82" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v>Location.address-state</v>
+        <f t="shared" si="53"/>
+        <v>Location.address</v>
       </c>
       <c r="K82" s="1" t="s">
         <v>62</v>
@@ -8065,29 +8094,29 @@
         <v>62</v>
       </c>
       <c r="Y82" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Z82" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="AA82" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B82&amp; " resources for the state"</f>
-        <v>Fetches a bundle of all Location resources for the state</v>
+        <f>"Fetches a bundle of all "&amp;B82&amp; " resources that match the address string"</f>
+        <v>Fetches a bundle of all Location resources that match the address string</v>
       </c>
       <c r="AB82" t="str">
-        <f t="shared" si="48"/>
-        <v>SearchParameter-us-core-location-address-state.html</v>
+        <f t="shared" si="54"/>
+        <v>SearchParameter-us-core-location-address.html</v>
       </c>
     </row>
     <row r="83" spans="1:28" ht="18.95" customHeight="1">
       <c r="A83" s="1">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>78</v>
@@ -8096,7 +8125,7 @@
         <v>1</v>
       </c>
       <c r="F83" s="1" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
       </c>
       <c r="G83" s="1" t="s">
@@ -8109,8 +8138,8 @@
         <v>71</v>
       </c>
       <c r="J83" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v>Location.address-postalcode</v>
+        <f t="shared" si="53"/>
+        <v>Location.address-city</v>
       </c>
       <c r="K83" s="1" t="s">
         <v>62</v>
@@ -8119,39 +8148,39 @@
         <v>62</v>
       </c>
       <c r="Y83" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="Z83" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AA83" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B83&amp; " resources for the ZIP code"</f>
-        <v>Fetches a bundle of all Location resources for the ZIP code</v>
+        <f>"Fetches a bundle of all "&amp;B83&amp; " resources for the city"</f>
+        <v>Fetches a bundle of all Location resources for the city</v>
       </c>
       <c r="AB83" t="str">
-        <f t="shared" si="48"/>
-        <v>SearchParameter-us-core-location-address-postalcode.html</v>
-      </c>
-    </row>
-    <row r="84" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+        <f t="shared" si="54"/>
+        <v>SearchParameter-us-core-location-address-city.html</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" ht="18.95" customHeight="1">
       <c r="A84" s="1">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>27</v>
+        <v>345</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="E84" s="1" t="b">
         <v>1</v>
       </c>
       <c r="F84" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization</v>
+        <f t="shared" si="52"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>62</v>
@@ -8163,8 +8192,8 @@
         <v>71</v>
       </c>
       <c r="J84" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v>Organization.name</v>
+        <f t="shared" si="53"/>
+        <v>Location.address-state</v>
       </c>
       <c r="K84" s="1" t="s">
         <v>62</v>
@@ -8173,39 +8202,39 @@
         <v>62</v>
       </c>
       <c r="Y84" s="1" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="Z84" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AA84" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B84&amp; " resources that match the name"</f>
-        <v>Fetches a bundle of all Organization resources that match the name</v>
-      </c>
-      <c r="AB84" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v>SearchParameter-us-core-organization-name.html</v>
-      </c>
-    </row>
-    <row r="85" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+        <f>"Fetches a bundle of all "&amp;B84&amp; " resources for the state"</f>
+        <v>Fetches a bundle of all Location resources for the state</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="54"/>
+        <v>SearchParameter-us-core-location-address-state.html</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" ht="18.95" customHeight="1">
       <c r="A85" s="1">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>95</v>
+        <v>275</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="E85" s="1" t="b">
         <v>1</v>
       </c>
       <c r="F85" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization</v>
+        <f t="shared" si="52"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>62</v>
@@ -8217,8 +8246,8 @@
         <v>71</v>
       </c>
       <c r="J85" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v>Organization.address</v>
+        <f t="shared" si="53"/>
+        <v>Location.address-postalcode</v>
       </c>
       <c r="K85" s="1" t="s">
         <v>62</v>
@@ -8227,39 +8256,39 @@
         <v>62</v>
       </c>
       <c r="Y85" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="Z85" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AA85" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B85&amp; " resources that match the address string"</f>
-        <v>Fetches a bundle of all Organization resources that match the address string</v>
-      </c>
-      <c r="AB85" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v>SearchParameter-us-core-organization-address.html</v>
+        <f>"Fetches a bundle of all "&amp;B85&amp; " resources for the ZIP code"</f>
+        <v>Fetches a bundle of all Location resources for the ZIP code</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="54"/>
+        <v>SearchParameter-us-core-location-address-postalcode.html</v>
       </c>
     </row>
     <row r="86" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A86" s="1">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>277</v>
+        <v>27</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="E86" s="1" t="b">
         <v>1</v>
       </c>
       <c r="F86" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!organization</v>
+        <f t="shared" si="52"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>62</v>
@@ -8271,8 +8300,8 @@
         <v>71</v>
       </c>
       <c r="J86" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v>!Organization.address-city</v>
+        <f t="shared" si="53"/>
+        <v>Organization.name</v>
       </c>
       <c r="K86" s="1" t="s">
         <v>62</v>
@@ -8281,39 +8310,39 @@
         <v>62</v>
       </c>
       <c r="Y86" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="Z86" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="AA86" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B86&amp; " resources for the city"</f>
-        <v>Fetches a bundle of all !Organization resources for the city</v>
+        <f>"Fetches a bundle of all "&amp;B86&amp; " resources that match the name"</f>
+        <v>Fetches a bundle of all Organization resources that match the name</v>
       </c>
       <c r="AB86" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v>SearchParameter-us-core-!organization-address-city.html</v>
+        <f t="shared" si="54"/>
+        <v>SearchParameter-us-core-organization-name.html</v>
       </c>
     </row>
     <row r="87" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A87" s="1">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>278</v>
+        <v>95</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="E87" s="1" t="b">
         <v>1</v>
       </c>
       <c r="F87" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!organization</v>
+        <f t="shared" si="52"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>62</v>
@@ -8325,8 +8354,8 @@
         <v>71</v>
       </c>
       <c r="J87" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v>!Organization.adress-state</v>
+        <f t="shared" si="53"/>
+        <v>Organization.address</v>
       </c>
       <c r="K87" s="1" t="s">
         <v>62</v>
@@ -8335,29 +8364,29 @@
         <v>62</v>
       </c>
       <c r="Y87" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="Z87" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="AA87" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B87&amp; " resources for the state"</f>
-        <v>Fetches a bundle of all !Organization resources for the state</v>
+        <f>"Fetches a bundle of all "&amp;B87&amp; " resources that match the address string"</f>
+        <v>Fetches a bundle of all Organization resources that match the address string</v>
       </c>
       <c r="AB87" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v>SearchParameter-us-core-!organization-adress-state.html</v>
+        <f t="shared" si="54"/>
+        <v>SearchParameter-us-core-organization-address.html</v>
       </c>
     </row>
     <row r="88" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A88" s="1">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>78</v>
@@ -8366,7 +8395,7 @@
         <v>1</v>
       </c>
       <c r="F88" s="1" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!organization</v>
       </c>
       <c r="G88" s="1" t="s">
@@ -8379,8 +8408,8 @@
         <v>71</v>
       </c>
       <c r="J88" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v>!Organization.address-postalcode</v>
+        <f t="shared" si="53"/>
+        <v>!Organization.address-city</v>
       </c>
       <c r="K88" s="1" t="s">
         <v>62</v>
@@ -8389,39 +8418,39 @@
         <v>62</v>
       </c>
       <c r="Y88" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="Z88" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AA88" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B88&amp; " resources for the ZIP code"</f>
-        <v>Fetches a bundle of all !Organization resources for the ZIP code</v>
+        <f>"Fetches a bundle of all "&amp;B88&amp; " resources for the city"</f>
+        <v>Fetches a bundle of all !Organization resources for the city</v>
       </c>
       <c r="AB88" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v>SearchParameter-us-core-!organization-address-postalcode.html</v>
+        <f t="shared" si="54"/>
+        <v>SearchParameter-us-core-!organization-address-city.html</v>
       </c>
     </row>
     <row r="89" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A89" s="1">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>27</v>
+        <v>274</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="E89" s="1" t="b">
         <v>1</v>
       </c>
       <c r="F89" s="1" t="str">
-        <f t="shared" ref="F89:F90" si="51">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B89)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner</v>
+        <f t="shared" si="52"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!organization</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>62</v>
@@ -8433,8 +8462,8 @@
         <v>71</v>
       </c>
       <c r="J89" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v>Practitioner.name</v>
+        <f t="shared" si="53"/>
+        <v>!Organization.adress-state</v>
       </c>
       <c r="K89" s="1" t="s">
         <v>62</v>
@@ -8442,43 +8471,40 @@
       <c r="M89" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="X89" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y89" s="5" t="s">
-        <v>298</v>
+      <c r="Y89" s="1" t="s">
+        <v>290</v>
       </c>
       <c r="Z89" s="7" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="AA89" s="12" t="str">
-        <f>"Fetches a bundle of all "&amp;B89&amp;" resources matching the name"</f>
-        <v>Fetches a bundle of all Practitioner resources matching the name</v>
+        <f>"Fetches a bundle of all "&amp;B89&amp; " resources for the state"</f>
+        <v>Fetches a bundle of all !Organization resources for the state</v>
       </c>
       <c r="AB89" s="1" t="str">
-        <f t="shared" ref="AB89:AB90" si="52">"SearchParameter-us-core-"&amp;LOWER((B89)&amp;"-"&amp;SUBSTITUTE(C89,"_","")&amp;".html")</f>
-        <v>SearchParameter-us-core-practitioner-name.html</v>
+        <f t="shared" si="54"/>
+        <v>SearchParameter-us-core-!organization-adress-state.html</v>
       </c>
     </row>
     <row r="90" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A90" s="1">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>85</v>
+        <v>275</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="E90" s="1" t="b">
         <v>1</v>
       </c>
       <c r="F90" s="1" t="str">
-        <f t="shared" si="51"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner</v>
+        <f t="shared" si="52"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!organization</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>62</v>
@@ -8487,11 +8513,11 @@
         <v>62</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="J90" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v>Practitioner.identifier</v>
+        <f t="shared" si="53"/>
+        <v>!Organization.address-postalcode</v>
       </c>
       <c r="K90" s="1" t="s">
         <v>62</v>
@@ -8499,30 +8525,30 @@
       <c r="M90" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Y90" s="5" t="s">
-        <v>359</v>
+      <c r="Y90" s="1" t="s">
+        <v>291</v>
       </c>
       <c r="Z90" s="7" t="s">
-        <v>378</v>
+        <v>283</v>
       </c>
       <c r="AA90" s="12" t="str">
-        <f>"Fetches a bundle containing any "&amp;B90&amp;" resources matching the identifier"</f>
-        <v>Fetches a bundle containing any Practitioner resources matching the identifier</v>
+        <f>"Fetches a bundle of all "&amp;B90&amp; " resources for the ZIP code"</f>
+        <v>Fetches a bundle of all !Organization resources for the ZIP code</v>
       </c>
       <c r="AB90" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v>SearchParameter-us-core-practitioner-identifier.html</v>
+        <f t="shared" si="54"/>
+        <v>SearchParameter-us-core-!organization-address-postalcode.html</v>
       </c>
     </row>
     <row r="91" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A91" s="1">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>301</v>
+        <v>27</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>13</v>
@@ -8531,8 +8557,8 @@
         <v>1</v>
       </c>
       <c r="F91" s="1" t="str">
-        <f t="shared" ref="F91:F92" si="53">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B91)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole</v>
+        <f t="shared" ref="F91:F92" si="57">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B91)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>62</v>
@@ -8541,11 +8567,11 @@
         <v>62</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="J91" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v>PractitionerRole.specialty</v>
+        <f t="shared" si="53"/>
+        <v>Practitioner.name</v>
       </c>
       <c r="K91" s="1" t="s">
         <v>62</v>
@@ -8553,33 +8579,33 @@
       <c r="M91" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="V91" s="1" t="s">
-        <v>304</v>
+      <c r="X91" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="Y91" s="5" t="s">
-        <v>360</v>
+        <v>294</v>
       </c>
       <c r="Z91" s="7" t="s">
-        <v>377</v>
+        <v>295</v>
       </c>
       <c r="AA91" s="12" t="str">
-        <f>"Fetches a bundle containing  "&amp;B91&amp;" resources matching the specialty"</f>
-        <v>Fetches a bundle containing  PractitionerRole resources matching the specialty</v>
+        <f>"Fetches a bundle of all "&amp;B91&amp;" resources matching the name"</f>
+        <v>Fetches a bundle of all Practitioner resources matching the name</v>
       </c>
       <c r="AB91" s="1" t="str">
-        <f t="shared" ref="AB91" si="54">"SearchParameter-us-core-"&amp;LOWER((B91)&amp;"-"&amp;SUBSTITUTE(C91,"_","")&amp;".html")</f>
-        <v>SearchParameter-us-core-practitionerrole-specialty.html</v>
-      </c>
-    </row>
-    <row r="92" spans="1:28" ht="18.95" customHeight="1">
+        <f t="shared" ref="AB91:AB92" si="58">"SearchParameter-us-core-"&amp;LOWER((B91)&amp;"-"&amp;SUBSTITUTE(C91,"_","")&amp;".html")</f>
+        <v>SearchParameter-us-core-practitioner-name.html</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A92" s="1">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>302</v>
+        <v>85</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>13</v>
@@ -8588,54 +8614,165 @@
         <v>1</v>
       </c>
       <c r="F92" s="1" t="str">
+        <f t="shared" si="57"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J92" s="1" t="str">
         <f t="shared" si="53"/>
+        <v>Practitioner.identifier</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y92" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="Z92" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="AA92" s="12" t="str">
+        <f>"Fetches a bundle containing any "&amp;B92&amp;" resources matching the identifier"</f>
+        <v>Fetches a bundle containing any Practitioner resources matching the identifier</v>
+      </c>
+      <c r="AB92" s="1" t="str">
+        <f t="shared" si="58"/>
+        <v>SearchParameter-us-core-practitioner-identifier.html</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A93" s="1">
+        <v>89</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F93" s="1" t="str">
+        <f t="shared" ref="F93:F94" si="59">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B93)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole</v>
       </c>
-      <c r="G92" t="s">
-        <v>62</v>
-      </c>
-      <c r="H92" t="s">
-        <v>62</v>
-      </c>
-      <c r="I92" t="s">
+      <c r="G93" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J93" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>PractitionerRole.specialty</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="V93" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y93" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="Z93" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="AA93" s="12" t="str">
+        <f>"Fetches a bundle containing  "&amp;B93&amp;" resources matching the specialty"</f>
+        <v>Fetches a bundle containing  PractitionerRole resources matching the specialty</v>
+      </c>
+      <c r="AB93" s="1" t="str">
+        <f t="shared" ref="AB93" si="60">"SearchParameter-us-core-"&amp;LOWER((B93)&amp;"-"&amp;SUBSTITUTE(C93,"_","")&amp;".html")</f>
+        <v>SearchParameter-us-core-practitionerrole-specialty.html</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" ht="18.95" customHeight="1">
+      <c r="A94" s="1">
+        <v>90</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F94" s="1" t="str">
+        <f t="shared" si="59"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole</v>
+      </c>
+      <c r="G94" t="s">
+        <v>62</v>
+      </c>
+      <c r="H94" t="s">
+        <v>62</v>
+      </c>
+      <c r="I94" t="s">
         <v>100</v>
       </c>
-      <c r="J92" s="1" t="str">
-        <f t="shared" si="47"/>
+      <c r="J94" s="1" t="str">
+        <f t="shared" si="53"/>
         <v>PractitionerRole.practitioner</v>
       </c>
-      <c r="K92" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M92" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S92" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="V92" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="Y92" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="Z92" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="AA92" s="12" t="str">
-        <f>"Fetches a bundle containing  "&amp;B92&amp;" resources matching the chained parameter practitioner.name or practitioner.identifier. SHOULD support the _include for PractionerRole.practitioner and PractitionerRole.endpoint."</f>
+      <c r="K94" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S94" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="V94" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y94" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z94" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="AA94" s="12" t="str">
+        <f>"Fetches a bundle containing  "&amp;B94&amp;" resources matching the chained parameter practitioner.name or practitioner.identifier. SHOULD support the _include for PractionerRole.practitioner and PractitionerRole.endpoint."</f>
         <v>Fetches a bundle containing  PractitionerRole resources matching the chained parameter practitioner.name or practitioner.identifier. SHOULD support the _include for PractionerRole.practitioner and PractitionerRole.endpoint.</v>
       </c>
-      <c r="AB92" t="str">
-        <f>"SearchParameter-us-core-"&amp;LOWER((B92)&amp;"-"&amp;SUBSTITUTE(C92,"_","")&amp;".html")</f>
+      <c r="AB94" t="str">
+        <f>"SearchParameter-us-core-"&amp;LOWER((B94)&amp;"-"&amp;SUBSTITUTE(C94,"_","")&amp;".html")</f>
         <v>SearchParameter-us-core-practitionerrole-practitioner.html</v>
       </c>
     </row>
-    <row r="93" spans="1:28" ht="18.95" customHeight="1">
-      <c r="Y93" s="5"/>
+    <row r="95" spans="1:28" ht="18.95" customHeight="1">
+      <c r="Y95" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AB92" xr:uid="{1CF5B17E-E72E-48B2-A597-9C21C12723F0}"/>
+  <autoFilter ref="A1:AB94" xr:uid="{1CF5B17E-E72E-48B2-A597-9C21C12723F0}"/>
   <sortState ref="A7:AA34">
     <sortCondition ref="B1"/>
   </sortState>
@@ -8647,13 +8784,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:P82"/>
+  <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G16" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomRight" activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -8664,9 +8801,9 @@
     <col min="4" max="4" width="25.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27" style="1" customWidth="1"/>
-    <col min="8" max="8" width="84.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="68.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="38.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="82.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8690,7 +8827,7 @@
         <v>108</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>3</v>
@@ -8823,10 +8960,10 @@
         <v>116</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="J6" s="5" t="str">
         <f t="shared" si="1"/>
@@ -8841,7 +8978,7 @@
         <v>168</v>
       </c>
       <c r="C7" s="1" t="str">
-        <f t="shared" ref="C7:C58" si="2">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B7)</f>
+        <f t="shared" ref="C7:C60" si="2">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B7)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
       </c>
       <c r="D7" t="s">
@@ -9008,10 +9145,10 @@
         <v>123</v>
       </c>
       <c r="H13" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="J13" s="5" t="str">
         <f t="shared" si="1"/>
@@ -9089,10 +9226,10 @@
         <v>116</v>
       </c>
       <c r="H16" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="J16" s="5" t="str">
         <f t="shared" si="1"/>
@@ -9146,10 +9283,10 @@
         <v>116</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="J18" s="5" t="str">
         <f t="shared" si="1"/>
@@ -9561,16 +9698,16 @@
         <v>116</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>166</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -9597,7 +9734,7 @@
         <v>160</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>156</v>
@@ -9627,7 +9764,7 @@
         <v>161</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="J35" s="5" t="s">
         <v>162</v>
@@ -9687,10 +9824,10 @@
         <v>173</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="1" customFormat="1">
@@ -9745,7 +9882,7 @@
         <v>159</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>174</v>
@@ -9781,7 +9918,7 @@
         <v>198</v>
       </c>
       <c r="J40" s="5" t="str">
-        <f t="shared" ref="J40:J56" si="4">"Fetches a bundle of all "&amp;B40&amp;" resources for the specified "&amp;SUBSTITUTE(D40,","," and ")</f>
+        <f t="shared" ref="J40:J58" si="4">"Fetches a bundle of all "&amp;B40&amp;" resources for the specified "&amp;SUBSTITUTE(D40,","," and ")</f>
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
       </c>
     </row>
@@ -9805,7 +9942,7 @@
         <v>116</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>207</v>
@@ -9838,7 +9975,7 @@
         <v>116</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I42" s="9" t="s">
         <v>212</v>
@@ -9865,10 +10002,10 @@
         <v>13</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>209</v>
@@ -9892,19 +10029,19 @@
         <v>202</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J44" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B44&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
@@ -9931,7 +10068,7 @@
         <v>116</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>198</v>
@@ -10018,7 +10155,7 @@
         <v>78</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>216</v>
@@ -10042,19 +10179,19 @@
         <v>203</v>
       </c>
       <c r="D49" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H49" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="H49" s="5" t="s">
+      <c r="I49" s="5" t="s">
         <v>237</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>238</v>
       </c>
       <c r="J49" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B49&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
@@ -10073,7 +10210,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>78</v>
@@ -10085,7 +10222,7 @@
         <v>200</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J50" s="5" t="str">
         <f t="shared" si="4"/>
@@ -10104,7 +10241,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>78</v>
@@ -10116,7 +10253,7 @@
         <v>223</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="J51" s="5" t="str">
         <f t="shared" ref="J51" si="6">"Fetches a bundle of all "&amp;B51&amp;" resources for the specified "&amp;SUBSTITUTE(D51,","," and ")</f>
@@ -10135,7 +10272,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>126</v>
+        <v>488</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>13</v>
@@ -10143,14 +10280,17 @@
       <c r="F52" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="G52" s="1" t="s">
+        <v>492</v>
+      </c>
       <c r="H52" s="5" t="s">
-        <v>199</v>
+        <v>493</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>463</v>
+        <v>494</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>254</v>
+        <v>495</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="1" customFormat="1">
@@ -10161,26 +10301,29 @@
         <v>194</v>
       </c>
       <c r="C53" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="C53" si="7">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B53)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>252</v>
+        <v>489</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>159</v>
+        <v>116</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>492</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>250</v>
+        <v>199</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>255</v>
+        <v>496</v>
       </c>
     </row>
     <row r="54" spans="1:10" s="1" customFormat="1">
@@ -10188,14 +10331,14 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C54" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationstatement</v>
+        <f t="shared" ref="C54" si="8">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B54)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>126</v>
+        <v>491</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>78</v>
@@ -10203,15 +10346,17 @@
       <c r="F54" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="G54" s="1" t="s">
+        <v>492</v>
+      </c>
       <c r="H54" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="J54" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Fetches a bundle of all MedicationStatement resources for the specified patient and status</v>
+        <v>458</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="55" spans="1:10" s="1" customFormat="1">
@@ -10219,29 +10364,32 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C55" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationstatement</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>253</v>
+        <v>490</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>159</v>
+        <v>234</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>492</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>256</v>
+        <v>497</v>
       </c>
     </row>
     <row r="56" spans="1:10" s="1" customFormat="1">
@@ -10249,11 +10397,11 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C56" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationstatement</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>126</v>
@@ -10265,14 +10413,14 @@
         <v>116</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>219</v>
+        <v>459</v>
       </c>
       <c r="J56" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>Fetches a bundle of all Procedure resources for the specified patient and status</v>
+        <v>Fetches a bundle of all MedicationStatement resources for the specified patient and status</v>
       </c>
     </row>
     <row r="57" spans="1:10" s="1" customFormat="1">
@@ -10280,30 +10428,29 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C57" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationstatement</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>176</v>
+        <v>251</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="J57" s="5" t="str">
-        <f t="shared" ref="J57" si="7">"Fetches a bundle of all "&amp;B57&amp;" resources for the specified "&amp;SUBSTITUTE(D57,","," and ")</f>
-        <v>Fetches a bundle of all Procedure resources for the specified patient and date</v>
+        <v>461</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="58" spans="1:10" s="1" customFormat="1">
@@ -10318,23 +10465,23 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>236</v>
+        <v>126</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>235</v>
+        <v>116</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="J58" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B58&amp;" resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes."</f>
-        <v>Fetches a bundle of all Procedure resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes.</v>
+        <f t="shared" si="4"/>
+        <v>Fetches a bundle of all Procedure resources for the specified patient and status</v>
       </c>
     </row>
     <row r="59" spans="1:10" s="1" customFormat="1">
@@ -10342,31 +10489,30 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>475</v>
+        <v>195</v>
+      </c>
+      <c r="C59" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>260</v>
+        <v>176</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G59" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="H59" s="5" t="s">
-        <v>311</v>
+        <v>232</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="J59" s="5" t="s">
-        <v>356</v>
+        <v>233</v>
+      </c>
+      <c r="J59" s="5" t="str">
+        <f t="shared" ref="J59" si="9">"Fetches a bundle of all "&amp;B59&amp;" resources for the specified "&amp;SUBSTITUTE(D59,","," and ")</f>
+        <v>Fetches a bundle of all Procedure resources for the specified patient and date</v>
       </c>
     </row>
     <row r="60" spans="1:10" s="1" customFormat="1">
@@ -10374,32 +10520,30 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>475</v>
+        <v>195</v>
+      </c>
+      <c r="C60" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>155</v>
+        <v>235</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>481</v>
+        <v>234</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>483</v>
+        <v>246</v>
       </c>
       <c r="J60" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B60&amp;" resources for the specified patient and a category code = `laboratory`"</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `laboratory`</v>
+        <f>"Fetches a bundle of all "&amp;B60&amp;" resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes."</f>
+        <v>Fetches a bundle of all Procedure resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes.</v>
       </c>
     </row>
     <row r="61" spans="1:10" s="1" customFormat="1">
@@ -10410,26 +10554,28 @@
         <v>196</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>157</v>
+        <v>256</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="G61" s="1" t="s">
+        <v>476</v>
+      </c>
       <c r="H61" s="5" t="s">
-        <v>243</v>
+        <v>307</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="J61" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B61&amp;" resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only."</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only.</v>
+        <v>477</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="62" spans="1:10" s="1" customFormat="1">
@@ -10439,30 +10585,30 @@
       <c r="B62" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C62" s="11" t="s">
-        <v>475</v>
+      <c r="C62" s="1" t="s">
+        <v>470</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>208</v>
+        <v>155</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>235</v>
+        <v>116</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="J62" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B62&amp;" resources for the specified patient and date and a category code = `laboratory`"</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `laboratory`</v>
+        <f>"Fetches a bundle of all "&amp;B62&amp;" resources for the specified patient and a category code = `laboratory`"</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `laboratory`</v>
       </c>
     </row>
     <row r="63" spans="1:10" s="1" customFormat="1">
@@ -10472,27 +10618,27 @@
       <c r="B63" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C63" s="11" t="s">
-        <v>475</v>
+      <c r="C63" s="1" t="s">
+        <v>470</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>236</v>
+        <v>157</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>235</v>
+        <v>116</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>242</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>240</v>
+        <v>365</v>
       </c>
       <c r="J63" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B63&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
+        <f>"Fetches a bundle of all "&amp;B63&amp;" resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only."</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only.</v>
       </c>
     </row>
     <row r="64" spans="1:10" s="1" customFormat="1">
@@ -10500,277 +10646,268 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>475</v>
+        <v>196</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>470</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>126</v>
+        <v>208</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>116</v>
+        <v>234</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>476</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>221</v>
+        <v>479</v>
       </c>
       <c r="J64" s="5" t="str">
-        <f t="shared" ref="J64" si="8">"Fetches a bundle of all "&amp;B64&amp;" resources for the specified "&amp;SUBSTITUTE(D64,","," and ")</f>
-        <v>Fetches a bundle of all !Observation resources for the specified patient and status</v>
+        <f>"Fetches a bundle of all "&amp;B64&amp;" resources for the specified patient and date and a category code = `laboratory`"</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `laboratory`</v>
       </c>
     </row>
     <row r="65" spans="1:16" s="1" customFormat="1">
       <c r="A65" s="1">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>257</v>
+        <v>196</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>259</v>
+        <v>470</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>155</v>
+        <v>235</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>363</v>
+        <v>234</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="J65" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B65&amp;" resources for the specified "&amp;SUBSTITUTE(D65,","," and ")&amp;"=`assess-plan`"</f>
-        <v>Fetches a bundle of all CarePlan resources for the specified patient and category=`assess-plan`</v>
+        <f>"Fetches a bundle of all "&amp;B65&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
     <row r="66" spans="1:16" s="1" customFormat="1">
       <c r="A66" s="1">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>259</v>
+        <v>351</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>470</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>208</v>
+        <v>126</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>363</v>
+        <v>116</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="J66" s="5" t="s">
-        <v>268</v>
+        <v>221</v>
+      </c>
+      <c r="J66" s="5" t="str">
+        <f t="shared" ref="J66" si="10">"Fetches a bundle of all "&amp;B66&amp;" resources for the specified "&amp;SUBSTITUTE(D66,","," and ")</f>
+        <v>Fetches a bundle of all !Observation resources for the specified patient and status</v>
       </c>
     </row>
     <row r="67" spans="1:16" s="1" customFormat="1">
       <c r="A67" s="1">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>260</v>
+        <v>155</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>116</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H67" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="I67" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="I67" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="J67" s="5" t="s">
-        <v>269</v>
+      <c r="J67" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B67&amp;" resources for the specified "&amp;SUBSTITUTE(D67,","," and ")&amp;"=`assess-plan`"</f>
+        <v>Fetches a bundle of all CarePlan resources for the specified patient and category=`assess-plan`</v>
       </c>
     </row>
     <row r="68" spans="1:16" s="1" customFormat="1">
       <c r="A68" s="1">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>261</v>
+        <v>208</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="69" spans="1:16" s="1" customFormat="1">
       <c r="A69" s="1">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C69" s="1" t="str">
-        <f t="shared" ref="C69" si="9">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B69)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
+        <v>253</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>255</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>126</v>
+        <v>256</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>116</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" ht="15.75">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" s="1" customFormat="1">
       <c r="A70" s="1">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>306</v>
+        <v>253</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>255</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>157</v>
+        <v>257</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>116</v>
+        <v>234</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>308</v>
+        <v>259</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="J70" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B70&amp;" resources for the specified patient and observation code."</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and observation code.</v>
-      </c>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
+        <v>466</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="71" spans="1:16" s="1" customFormat="1">
       <c r="A71" s="1">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>354</v>
+        <v>267</v>
+      </c>
+      <c r="C71" s="1" t="str">
+        <f t="shared" ref="C71" si="11">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B71)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>260</v>
+        <v>126</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>116</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>485</v>
+        <v>341</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>310</v>
+        <v>268</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="J71" s="5" t="str">
-        <f t="shared" ref="J71" si="10">"Fetches a bundle of all "&amp;B71&amp;" resources for the specified "&amp;SUBSTITUTE(D71,","," and ")</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and category and status</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" s="1" customFormat="1">
+        <v>269</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="15.75">
       <c r="A72" s="1">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>354</v>
+      <c r="C72" s="10" t="s">
+        <v>302</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>13</v>
@@ -10779,254 +10916,260 @@
         <v>116</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>485</v>
+        <v>360</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>487</v>
+        <v>303</v>
       </c>
       <c r="J72" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B72&amp;" resources for the specified patient and a category code = `vital-signs`"</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `vital-signs`</v>
-      </c>
+        <f>"Fetches a bundle of all "&amp;B72&amp;" resources for the specified patient and observation code."</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and observation code.</v>
+      </c>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
     </row>
     <row r="73" spans="1:16" s="1" customFormat="1">
       <c r="A73" s="1">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>196</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>157</v>
+        <v>256</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>116</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>313</v>
+        <v>481</v>
       </c>
       <c r="J73" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B73&amp;" resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only."</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only.</v>
+        <f t="shared" ref="J73" si="12">"Fetches a bundle of all "&amp;B73&amp;" resources for the specified "&amp;SUBSTITUTE(D73,","," and ")</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and category and status</v>
       </c>
     </row>
     <row r="74" spans="1:16" s="1" customFormat="1">
       <c r="A74" s="1">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>196</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>208</v>
+        <v>155</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>235</v>
+        <v>116</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="J74" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B74&amp;" resources for the specified patient and date and a category code = `vital-signs`"</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `vital-signs`</v>
+        <f>"Fetches a bundle of all "&amp;B74&amp;" resources for the specified patient and a category code = `vital-signs`"</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `vital-signs`</v>
       </c>
     </row>
     <row r="75" spans="1:16" s="1" customFormat="1">
       <c r="A75" s="1">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>196</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>236</v>
+        <v>157</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>235</v>
+        <v>116</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>480</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="J75" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B75&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple codes."</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple codes.</v>
+        <f>"Fetches a bundle of all "&amp;B75&amp;" resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only."</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only.</v>
       </c>
     </row>
     <row r="76" spans="1:16" s="1" customFormat="1">
       <c r="A76" s="1">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C76" s="1" t="str">
-        <f t="shared" ref="C76:C81" si="11">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B76)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
+        <v>196</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>350</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>126</v>
+        <v>208</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>116</v>
+        <v>234</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>480</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>325</v>
+        <v>483</v>
       </c>
       <c r="J76" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B76&amp;" resources for the specified "&amp;SUBSTITUTE(D76,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
-        <v>Fetches a bundle of all DocumentReference resources for the specified patient and status. See the implementation notes above for how to access the actual document.</v>
+        <f>"Fetches a bundle of all "&amp;B76&amp;" resources for the specified patient and date and a category code = `vital-signs`"</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `vital-signs`</v>
       </c>
     </row>
     <row r="77" spans="1:16" s="1" customFormat="1">
       <c r="A77" s="1">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C77" s="1" t="str">
-        <f t="shared" ref="C77" si="12">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B77)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!documentreference</v>
+        <v>196</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>350</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>321</v>
+        <v>235</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>159</v>
+        <v>234</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="I77" s="5"/>
+        <v>312</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>310</v>
+      </c>
       <c r="J77" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B77&amp;" resources for the specified "&amp;SUBSTITUTE(D77,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
-        <v>Fetches a bundle of all !DocumentReference resources for the specified patient and period. See the implementation notes above for how to access the actual document.</v>
+        <f>"Fetches a bundle of all "&amp;B77&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple codes."</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple codes.</v>
       </c>
     </row>
     <row r="78" spans="1:16" s="1" customFormat="1">
       <c r="A78" s="1">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>191</v>
       </c>
       <c r="C78" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="C78:C83" si="13">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B78)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G78" s="1" t="s">
-        <v>365</v>
-      </c>
       <c r="H78" s="5" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="J78" s="5" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" s="1" customFormat="1" ht="15.75">
+        <v>321</v>
+      </c>
+      <c r="J78" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B78&amp;" resources for the specified "&amp;SUBSTITUTE(D78,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
+        <v>Fetches a bundle of all DocumentReference resources for the specified patient and status. See the implementation notes above for how to access the actual document.</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" s="1" customFormat="1">
       <c r="A79" s="1">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>191</v>
+        <v>318</v>
       </c>
       <c r="C79" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B79)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
+        <f t="shared" ref="C79" si="14">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B79)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!documentreference</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>208</v>
+        <v>317</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>365</v>
+        <v>159</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="I79" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="J79" s="5" t="s">
-        <v>331</v>
+        <v>319</v>
+      </c>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B79&amp;" resources for the specified "&amp;SUBSTITUTE(D79,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
+        <v>Fetches a bundle of all !DocumentReference resources for the specified patient and period. See the implementation notes above for how to access the actual document.</v>
       </c>
     </row>
     <row r="80" spans="1:16" s="1" customFormat="1">
       <c r="A80" s="1">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>191</v>
       </c>
       <c r="C80" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>13</v>
@@ -11034,82 +11177,148 @@
       <c r="F80" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="G80" s="1" t="s">
+        <v>361</v>
+      </c>
       <c r="H80" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>441</v>
+        <v>320</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" s="1" customFormat="1">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" s="1" customFormat="1" ht="15.75">
       <c r="A81" s="1">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>191</v>
       </c>
       <c r="C81" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B81)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>332</v>
+        <v>208</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>361</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="I81" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="J81" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B81&amp;" resources for the specified "&amp;SUBSTITUTE(D81,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
-        <v>Fetches a bundle of all DocumentReference resources for the specified patient and type and period. See the implementation notes above for how to access the actual document.</v>
+        <v>325</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="J81" s="5" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="82" spans="1:10" s="1" customFormat="1">
       <c r="A82" s="1">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>275</v>
+        <v>191</v>
       </c>
       <c r="C82" s="1" t="str">
-        <f t="shared" ref="C82" si="13">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B82)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-device</v>
+        <f t="shared" si="13"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>128</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>116</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>439</v>
+        <v>329</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>443</v>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="1" customFormat="1">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C83" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="J83" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B83&amp;" resources for the specified "&amp;SUBSTITUTE(D83,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
+        <v>Fetches a bundle of all DocumentReference resources for the specified patient and type and period. See the implementation notes above for how to access the actual document.</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" s="1" customFormat="1">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C84" s="1" t="str">
+        <f t="shared" ref="C84" si="15">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B84)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-device</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>438</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="J58" formula="1"/>
+    <ignoredError sqref="J60" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/source/source_spreadsheets/uscore-server.xlsx
+++ b/source/source_spreadsheets/uscore-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Argo-R4\source\source_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BB25CA-B0BA-42CF-9E89-46EEAA32AB01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6F3617-1BF2-447A-900F-A21AF0F93954}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1911" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="501">
   <si>
     <t>Element</t>
   </si>
@@ -1626,6 +1626,9 @@
   </si>
   <si>
     <t>encounter</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-device</t>
   </si>
 </sst>
 </file>
@@ -3764,11 +3767,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AB95"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="AA43" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA53" sqref="AA53"/>
+      <selection pane="bottomRight" activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.95" customHeight="1"/>
@@ -3778,7 +3781,7 @@
     <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="73.85546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="36.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="22.42578125" style="1" customWidth="1"/>
@@ -3901,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="str">
-        <f t="shared" ref="F2:F4" si="0">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B2)</f>
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B2)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!example category search</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -3930,7 +3933,7 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="12"/>
       <c r="AB2" s="1" t="str">
-        <f t="shared" ref="AB2:AB4" si="1">"SearchParameter-us-core-"&amp;LOWER((B2)&amp;"-"&amp;C2&amp;".html")</f>
+        <f t="shared" ref="AB2:AB4" si="0">"SearchParameter-us-core-"&amp;LOWER((B2)&amp;"-"&amp;C2&amp;".html")</f>
         <v>SearchParameter-us-core-!example category search-category.html</v>
       </c>
     </row>
@@ -3951,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F3:F66" si="1">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B3)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!example code search</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -3977,7 +3980,7 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="12"/>
       <c r="AB3" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>SearchParameter-us-core-!example code search-code.html</v>
       </c>
     </row>
@@ -3998,7 +4001,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!example date search</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -4031,7 +4034,7 @@
       </c>
       <c r="AA4" s="12"/>
       <c r="AB4" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>SearchParameter-us-core-!example date search-date.html</v>
       </c>
     </row>
@@ -4052,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B5)</f>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!example patient search</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -4111,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="1" t="str">
-        <f t="shared" ref="F6" si="2">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B6)</f>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!example status search</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -4124,7 +4127,7 @@
         <v>63</v>
       </c>
       <c r="J6" s="1" t="str">
-        <f t="shared" ref="J6" si="3">B6&amp;"."&amp;C6</f>
+        <f t="shared" ref="J6" si="2">B6&amp;"."&amp;C6</f>
         <v>!EXAMPLE STATUS SEARCH.status</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -4140,7 +4143,7 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="12"/>
       <c r="AB6" s="1" t="str">
-        <f t="shared" ref="AB6" si="4">"SearchParameter-us-core-"&amp;LOWER((B6)&amp;"-"&amp;C6&amp;".html")</f>
+        <f t="shared" ref="AB6" si="3">"SearchParameter-us-core-"&amp;LOWER((B6)&amp;"-"&amp;C6&amp;".html")</f>
         <v>SearchParameter-us-core-!example status search-status.html</v>
       </c>
     </row>
@@ -4160,8 +4163,9 @@
       <c r="E7" t="b">
         <v>0</v>
       </c>
-      <c r="F7" t="s">
-        <v>83</v>
+      <c r="F7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!patient</v>
       </c>
       <c r="G7" t="s">
         <v>62</v>
@@ -4173,7 +4177,7 @@
         <v>71</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" ref="J7:J22" si="5">B7&amp;"."&amp;C7</f>
+        <f t="shared" ref="J7:J22" si="4">B7&amp;"."&amp;C7</f>
         <v>!Patient.address</v>
       </c>
       <c r="K7" t="s">
@@ -4210,8 +4214,9 @@
       <c r="E8" t="b">
         <v>0</v>
       </c>
-      <c r="F8" t="s">
-        <v>83</v>
+      <c r="F8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!patient</v>
       </c>
       <c r="G8" t="s">
         <v>62</v>
@@ -4223,7 +4228,7 @@
         <v>71</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>!Patient.telecom</v>
       </c>
       <c r="K8" s="1" t="s">
@@ -4240,7 +4245,7 @@
       </c>
       <c r="AA8" s="12"/>
       <c r="AB8" s="1" t="str">
-        <f t="shared" ref="AB8:AB39" si="6">"SearchParameter-us-core-"&amp;LOWER((B8)&amp;"-"&amp;C8&amp;".html")</f>
+        <f t="shared" ref="AB8:AB39" si="5">"SearchParameter-us-core-"&amp;LOWER((B8)&amp;"-"&amp;C8&amp;".html")</f>
         <v>SearchParameter-us-core-!patient-telecom.html</v>
       </c>
     </row>
@@ -4260,8 +4265,9 @@
       <c r="E9" t="b">
         <v>0</v>
       </c>
-      <c r="F9" t="s">
-        <v>81</v>
+      <c r="F9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-allergyintolerance</v>
       </c>
       <c r="G9" t="s">
         <v>62</v>
@@ -4273,7 +4279,7 @@
         <v>63</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>AllergyIntolerance.clinical-status</v>
       </c>
       <c r="K9" s="1" t="s">
@@ -4286,7 +4292,7 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="12"/>
       <c r="AB9" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>SearchParameter-us-core-allergyintolerance-clinical-status.html</v>
       </c>
     </row>
@@ -4306,8 +4312,9 @@
       <c r="E10" t="b">
         <v>1</v>
       </c>
-      <c r="F10" t="s">
-        <v>81</v>
+      <c r="F10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-allergyintolerance</v>
       </c>
       <c r="G10" t="s">
         <v>62</v>
@@ -4319,7 +4326,7 @@
         <v>100</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>AllergyIntolerance.patient</v>
       </c>
       <c r="K10" s="1" t="s">
@@ -4366,7 +4373,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="1" t="str">
-        <f t="shared" ref="F11:F29" si="7">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B11)</f>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="G11" t="s">
@@ -4379,7 +4386,7 @@
         <v>63</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Condition.category</v>
       </c>
       <c r="K11" s="1" t="s">
@@ -4396,7 +4403,7 @@
       <c r="Z11" s="5"/>
       <c r="AA11" s="12"/>
       <c r="AB11" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>SearchParameter-us-core-condition-category.html</v>
       </c>
     </row>
@@ -4417,7 +4424,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="G12" t="s">
@@ -4430,7 +4437,7 @@
         <v>63</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Condition.clinical-status</v>
       </c>
       <c r="K12" s="1" t="s">
@@ -4444,7 +4451,7 @@
       </c>
       <c r="AA12" s="12"/>
       <c r="AB12" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>SearchParameter-us-core-condition-clinical-status.html</v>
       </c>
     </row>
@@ -4465,7 +4472,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="G13" t="s">
@@ -4478,7 +4485,7 @@
         <v>100</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Condition.patient</v>
       </c>
       <c r="K13" s="1" t="s">
@@ -4502,7 +4509,7 @@
         <v>Fetches a bundle of all Condition resources for the specified patient</v>
       </c>
       <c r="AB13" s="1" t="str">
-        <f t="shared" ref="AB13:AB14" si="8">"SearchParameter-us-core-"&amp;LOWER((B13)&amp;"-"&amp;SUBSTITUTE(C13,"_","")&amp;".html")</f>
+        <f t="shared" ref="AB13:AB14" si="6">"SearchParameter-us-core-"&amp;LOWER((B13)&amp;"-"&amp;SUBSTITUTE(C13,"_","")&amp;".html")</f>
         <v>SearchParameter-us-core-condition-patient.html</v>
       </c>
     </row>
@@ -4523,7 +4530,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
       <c r="G14" t="s">
@@ -4536,7 +4543,7 @@
         <v>63</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Encounter._id</v>
       </c>
       <c r="K14" s="1" t="s">
@@ -4555,7 +4562,7 @@
         <v>183</v>
       </c>
       <c r="AB14" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>SearchParameter-us-core-encounter-id.html</v>
       </c>
     </row>
@@ -4576,7 +4583,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -4589,7 +4596,7 @@
         <v>63</v>
       </c>
       <c r="J15" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Encounter.class</v>
       </c>
       <c r="K15" s="1" t="s">
@@ -4605,7 +4612,7 @@
       <c r="Z15" s="5"/>
       <c r="AA15" s="12"/>
       <c r="AB15" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>SearchParameter-us-core-encounter-class.html</v>
       </c>
     </row>
@@ -4626,7 +4633,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
       <c r="G16" t="s">
@@ -4639,7 +4646,7 @@
         <v>88</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Encounter.date</v>
       </c>
       <c r="K16" s="1" t="s">
@@ -4659,7 +4666,7 @@
       </c>
       <c r="AA16" s="12"/>
       <c r="AB16" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>SearchParameter-us-core-encounter-date.html</v>
       </c>
     </row>
@@ -4680,7 +4687,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
       <c r="G17" t="s">
@@ -4693,7 +4700,7 @@
         <v>63</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Encounter.identifier</v>
       </c>
       <c r="K17" s="1" t="s">
@@ -4713,7 +4720,7 @@
         <v>Fetches a bundle containing any Encounter resources matching the identifier</v>
       </c>
       <c r="AB17" s="1" t="str">
-        <f t="shared" ref="AB17:AB18" si="9">"SearchParameter-us-core-"&amp;LOWER((B17)&amp;"-"&amp;SUBSTITUTE(C17,"_","")&amp;".html")</f>
+        <f t="shared" ref="AB17:AB18" si="7">"SearchParameter-us-core-"&amp;LOWER((B17)&amp;"-"&amp;SUBSTITUTE(C17,"_","")&amp;".html")</f>
         <v>SearchParameter-us-core-encounter-identifier.html</v>
       </c>
     </row>
@@ -4734,7 +4741,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
       <c r="G18" t="s">
@@ -4747,7 +4754,7 @@
         <v>100</v>
       </c>
       <c r="J18" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Encounter.patient</v>
       </c>
       <c r="K18" s="1" t="s">
@@ -4771,7 +4778,7 @@
         <v>Fetches a bundle of all Encounter resources for the specified patient</v>
       </c>
       <c r="AB18" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>SearchParameter-us-core-encounter-patient.html</v>
       </c>
     </row>
@@ -4792,7 +4799,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
       <c r="G19" t="s">
@@ -4805,7 +4812,7 @@
         <v>63</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Encounter.status</v>
       </c>
       <c r="K19" s="1" t="s">
@@ -4821,7 +4828,7 @@
       <c r="Z19" s="5"/>
       <c r="AA19" s="12"/>
       <c r="AB19" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>SearchParameter-us-core-encounter-status.html</v>
       </c>
     </row>
@@ -4842,7 +4849,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
       <c r="G20" t="s">
@@ -4855,7 +4862,7 @@
         <v>63</v>
       </c>
       <c r="J20" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Encounter.type</v>
       </c>
       <c r="K20" s="1" t="s">
@@ -4869,7 +4876,7 @@
       <c r="Z20" s="5"/>
       <c r="AA20" s="12"/>
       <c r="AB20" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>SearchParameter-us-core-encounter-type.html</v>
       </c>
     </row>
@@ -4890,7 +4897,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
       </c>
       <c r="G21" t="s">
@@ -4903,7 +4910,7 @@
         <v>63</v>
       </c>
       <c r="J21" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Patient._id</v>
       </c>
       <c r="K21" s="1" t="s">
@@ -4940,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
       </c>
       <c r="G22" t="s">
@@ -4953,7 +4960,7 @@
         <v>88</v>
       </c>
       <c r="J22" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Patient.birthdate</v>
       </c>
       <c r="K22" s="1" t="s">
@@ -4967,7 +4974,7 @@
       </c>
       <c r="Z22"/>
       <c r="AB22" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>SearchParameter-us-core-patient-birthdate.html</v>
       </c>
     </row>
@@ -4988,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
       </c>
       <c r="G23" t="s">
@@ -5011,7 +5018,7 @@
       </c>
       <c r="Y23"/>
       <c r="AB23" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>SearchParameter-us-core-patient-family.html</v>
       </c>
     </row>
@@ -5032,7 +5039,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
       </c>
       <c r="G24" t="s">
@@ -5060,7 +5067,7 @@
       <c r="Y24"/>
       <c r="AA24" s="12"/>
       <c r="AB24" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>SearchParameter-us-core-patient-gender.html</v>
       </c>
     </row>
@@ -5081,7 +5088,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
       </c>
       <c r="G25" t="s">
@@ -5104,7 +5111,7 @@
       </c>
       <c r="AA25" s="12"/>
       <c r="AB25" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>SearchParameter-us-core-patient-given.html</v>
       </c>
     </row>
@@ -5125,7 +5132,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
       </c>
       <c r="G26" t="s">
@@ -5159,7 +5166,7 @@
         <v>Fetches a bundle containing any Patient resources matching the identifier</v>
       </c>
       <c r="AB26" s="1" t="str">
-        <f t="shared" ref="AB26:AB27" si="10">"SearchParameter-us-core-"&amp;LOWER((B26)&amp;"-"&amp;SUBSTITUTE(C26,"_","")&amp;".html")</f>
+        <f t="shared" ref="AB26:AB27" si="8">"SearchParameter-us-core-"&amp;LOWER((B26)&amp;"-"&amp;SUBSTITUTE(C26,"_","")&amp;".html")</f>
         <v>SearchParameter-us-core-patient-identifier.html</v>
       </c>
     </row>
@@ -5180,7 +5187,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
       </c>
       <c r="G27" t="s">
@@ -5217,7 +5224,7 @@
         <v>Fetches a bundle of all Patient resources matching the name</v>
       </c>
       <c r="AB27" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>SearchParameter-us-core-patient-name.html</v>
       </c>
     </row>
@@ -5238,7 +5245,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
       <c r="G28" t="s">
@@ -5260,7 +5267,7 @@
         <v>62</v>
       </c>
       <c r="AB28" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>SearchParameter-us-core-!questionnaire-_id.html</v>
       </c>
     </row>
@@ -5281,7 +5288,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
       <c r="G29" t="s">
@@ -5294,7 +5301,7 @@
         <v>80</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" ref="J29:J39" si="11">B29&amp;"."&amp;C29</f>
+        <f t="shared" ref="J29:J39" si="9">B29&amp;"."&amp;C29</f>
         <v>!Questionnaire.context-type-value</v>
       </c>
       <c r="K29" s="1" t="s">
@@ -5305,7 +5312,7 @@
       </c>
       <c r="X29"/>
       <c r="AB29" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>SearchParameter-us-core-!questionnaire-context-type-value.html</v>
       </c>
     </row>
@@ -5326,7 +5333,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B30)</f>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
       <c r="G30" t="s">
@@ -5339,7 +5346,7 @@
         <v>71</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>!Questionnaire.publisher</v>
       </c>
       <c r="K30" s="1" t="s">
@@ -5355,7 +5362,7 @@
         <v>77</v>
       </c>
       <c r="AB30" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>SearchParameter-us-core-!questionnaire-publisher.html</v>
       </c>
     </row>
@@ -5376,7 +5383,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="1" t="str">
-        <f t="shared" ref="F31:F40" si="12">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B31)</f>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
       <c r="G31" t="s">
@@ -5389,7 +5396,7 @@
         <v>63</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>!Questionnaire.status</v>
       </c>
       <c r="K31" s="1" t="s">
@@ -5402,7 +5409,7 @@
         <v>69</v>
       </c>
       <c r="AB31" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>SearchParameter-us-core-!questionnaire-status.html</v>
       </c>
     </row>
@@ -5423,7 +5430,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -5436,7 +5443,7 @@
         <v>71</v>
       </c>
       <c r="J32" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>!Questionnaire.title</v>
       </c>
       <c r="K32" s="1" t="s">
@@ -5462,7 +5469,7 @@
       </c>
       <c r="AA32" s="2"/>
       <c r="AB32" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>SearchParameter-us-core-!questionnaire-title.html</v>
       </c>
     </row>
@@ -5483,7 +5490,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
       <c r="G33" s="1" t="s">
@@ -5496,7 +5503,7 @@
         <v>67</v>
       </c>
       <c r="J33" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>!Questionnaire.url</v>
       </c>
       <c r="K33" s="1" t="s">
@@ -5507,7 +5514,7 @@
       </c>
       <c r="AA33" s="2"/>
       <c r="AB33" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>SearchParameter-us-core-!questionnaire-url.html</v>
       </c>
     </row>
@@ -5528,7 +5535,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
       <c r="G34" s="1" t="s">
@@ -5541,7 +5548,7 @@
         <v>63</v>
       </c>
       <c r="J34" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>!Questionnaire.version</v>
       </c>
       <c r="K34" s="1" t="s">
@@ -5552,7 +5559,7 @@
       </c>
       <c r="AA34" s="2"/>
       <c r="AB34" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>SearchParameter-us-core-!questionnaire-version.html</v>
       </c>
     </row>
@@ -5573,7 +5580,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="G35" s="1" t="s">
@@ -5586,7 +5593,7 @@
         <v>88</v>
       </c>
       <c r="J35" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Condition.onset-date</v>
       </c>
       <c r="K35" s="1" t="s">
@@ -5603,7 +5610,7 @@
       </c>
       <c r="AA35" s="12"/>
       <c r="AB35" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>SearchParameter-us-core-condition-onset-date.html</v>
       </c>
     </row>
@@ -5624,7 +5631,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="G36" s="1" t="s">
@@ -5637,7 +5644,7 @@
         <v>63</v>
       </c>
       <c r="J36" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Condition.code</v>
       </c>
       <c r="K36" s="1" t="s">
@@ -5650,7 +5657,7 @@
       <c r="Z36" s="5"/>
       <c r="AA36" s="12"/>
       <c r="AB36" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>SearchParameter-us-core-condition-code.html</v>
       </c>
     </row>
@@ -5671,7 +5678,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
       </c>
       <c r="G37" s="1" t="s">
@@ -5684,7 +5691,7 @@
         <v>100</v>
       </c>
       <c r="J37" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Immunization.patient</v>
       </c>
       <c r="K37" s="1" t="s">
@@ -5730,7 +5737,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
       </c>
       <c r="G38" s="1" t="s">
@@ -5743,7 +5750,7 @@
         <v>63</v>
       </c>
       <c r="J38" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Immunization.status</v>
       </c>
       <c r="K38" s="1" t="s">
@@ -5759,7 +5766,7 @@
       <c r="Z38" s="5"/>
       <c r="AA38" s="12"/>
       <c r="AB38" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>SearchParameter-us-core-immunization-status.html</v>
       </c>
     </row>
@@ -5780,7 +5787,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
       </c>
       <c r="G39" s="1" t="s">
@@ -5793,7 +5800,7 @@
         <v>88</v>
       </c>
       <c r="J39" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>Immunization.date</v>
       </c>
       <c r="K39" s="1" t="s">
@@ -5813,7 +5820,7 @@
       </c>
       <c r="AA39" s="12"/>
       <c r="AB39" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>SearchParameter-us-core-immunization-date.html</v>
       </c>
     </row>
@@ -5834,7 +5841,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
       <c r="G40" s="1" t="s">
@@ -5866,7 +5873,7 @@
         <v>315</v>
       </c>
       <c r="AB40" s="1" t="str">
-        <f t="shared" ref="AB40" si="13">"SearchParameter-us-core-"&amp;LOWER((B40)&amp;"-"&amp;C40&amp;".html")</f>
+        <f t="shared" ref="AB40" si="10">"SearchParameter-us-core-"&amp;LOWER((B40)&amp;"-"&amp;C40&amp;".html")</f>
         <v>SearchParameter-us-core-documentreference-_id.html</v>
       </c>
     </row>
@@ -5887,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="1" t="str">
-        <f t="shared" ref="F41:F70" si="14">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B41)</f>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
       <c r="G41" s="1" t="s">
@@ -5900,7 +5907,7 @@
         <v>63</v>
       </c>
       <c r="J41" s="1" t="str">
-        <f t="shared" ref="J41:J67" si="15">B41&amp;"."&amp;C41</f>
+        <f t="shared" ref="J41:J67" si="11">B41&amp;"."&amp;C41</f>
         <v>DocumentReference.status</v>
       </c>
       <c r="K41" s="1" t="s">
@@ -5919,7 +5926,7 @@
       <c r="Z41" s="5"/>
       <c r="AA41" s="12"/>
       <c r="AB41" s="1" t="str">
-        <f t="shared" ref="AB41:AB70" si="16">"SearchParameter-us-core-"&amp;LOWER((B41)&amp;"-"&amp;C41&amp;".html")</f>
+        <f t="shared" ref="AB41:AB70" si="12">"SearchParameter-us-core-"&amp;LOWER((B41)&amp;"-"&amp;C41&amp;".html")</f>
         <v>SearchParameter-us-core-documentreference-status.html</v>
       </c>
     </row>
@@ -5940,7 +5947,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="1" t="str">
-        <f t="shared" ref="F42:F45" si="17">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B42)</f>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -5953,7 +5960,7 @@
         <v>100</v>
       </c>
       <c r="J42" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>DocumentReference.patient</v>
       </c>
       <c r="K42" s="1" t="s">
@@ -5978,7 +5985,7 @@
         <v>Fetches a bundle of all DocumentReference resources for the specified patient. See the implementation notes above for how to access the actual document.</v>
       </c>
       <c r="AB42" s="1" t="str">
-        <f t="shared" ref="AB42:AB45" si="18">"SearchParameter-us-core-"&amp;LOWER((B42)&amp;"-"&amp;C42&amp;".html")</f>
+        <f t="shared" ref="AB42:AB45" si="13">"SearchParameter-us-core-"&amp;LOWER((B42)&amp;"-"&amp;C42&amp;".html")</f>
         <v>SearchParameter-us-core-documentreference-patient.html</v>
       </c>
     </row>
@@ -5999,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
       <c r="G43" s="1" t="s">
@@ -6012,7 +6019,7 @@
         <v>63</v>
       </c>
       <c r="J43" s="1" t="str">
-        <f t="shared" ref="J43:J45" si="19">B43&amp;"."&amp;C43</f>
+        <f t="shared" ref="J43:J45" si="14">B43&amp;"."&amp;C43</f>
         <v>DocumentReference.category</v>
       </c>
       <c r="K43" s="1" t="s">
@@ -6028,7 +6035,7 @@
       <c r="Z43" s="5"/>
       <c r="AA43" s="12"/>
       <c r="AB43" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>SearchParameter-us-core-documentreference-category.html</v>
       </c>
     </row>
@@ -6049,7 +6056,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
       <c r="G44" s="1" t="s">
@@ -6062,7 +6069,7 @@
         <v>63</v>
       </c>
       <c r="J44" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>DocumentReference.type</v>
       </c>
       <c r="K44" s="1" t="s">
@@ -6075,7 +6082,7 @@
       <c r="Z44" s="5"/>
       <c r="AA44" s="12"/>
       <c r="AB44" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>SearchParameter-us-core-documentreference-type.html</v>
       </c>
     </row>
@@ -6096,7 +6103,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
       <c r="G45" s="1" t="s">
@@ -6109,7 +6116,7 @@
         <v>88</v>
       </c>
       <c r="J45" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>DocumentReference.date</v>
       </c>
       <c r="K45" s="1" t="s">
@@ -6129,7 +6136,7 @@
       </c>
       <c r="AA45" s="12"/>
       <c r="AB45" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>SearchParameter-us-core-documentreference-date.html</v>
       </c>
     </row>
@@ -6150,7 +6157,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="1" t="str">
-        <f t="shared" ref="F46" si="20">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B46)</f>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
       <c r="G46" s="1" t="s">
@@ -6182,7 +6189,7 @@
       </c>
       <c r="AA46" s="12"/>
       <c r="AB46" s="1" t="str">
-        <f t="shared" ref="AB46" si="21">"SearchParameter-us-core-"&amp;LOWER((B46)&amp;"-"&amp;C46&amp;".html")</f>
+        <f t="shared" ref="AB46" si="15">"SearchParameter-us-core-"&amp;LOWER((B46)&amp;"-"&amp;C46&amp;".html")</f>
         <v>SearchParameter-us-core-documentreference-period.html</v>
       </c>
     </row>
@@ -6203,7 +6210,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="1" t="str">
-        <f t="shared" ref="F47:F51" si="22">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B47)</f>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-diagnosticreport</v>
       </c>
       <c r="G47" s="1" t="s">
@@ -6216,7 +6223,7 @@
         <v>63</v>
       </c>
       <c r="J47" s="1" t="str">
-        <f t="shared" ref="J47:J51" si="23">B47&amp;"."&amp;C47</f>
+        <f t="shared" ref="J47:J51" si="16">B47&amp;"."&amp;C47</f>
         <v>DiagnosticReport.status</v>
       </c>
       <c r="K47" s="1" t="s">
@@ -6256,7 +6263,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-diagnosticreport</v>
       </c>
       <c r="G48" s="1" t="s">
@@ -6269,7 +6276,7 @@
         <v>100</v>
       </c>
       <c r="J48" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
         <v>DiagnosticReport.patient</v>
       </c>
       <c r="K48" s="1" t="s">
@@ -6315,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-diagnosticreport</v>
       </c>
       <c r="G49" s="1" t="s">
@@ -6328,7 +6335,7 @@
         <v>63</v>
       </c>
       <c r="J49" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
         <v>DiagnosticReport.category</v>
       </c>
       <c r="K49" s="1" t="s">
@@ -6365,7 +6372,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-diagnosticreport</v>
       </c>
       <c r="G50" s="1" t="s">
@@ -6378,7 +6385,7 @@
         <v>63</v>
       </c>
       <c r="J50" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
         <v>DiagnosticReport.code</v>
       </c>
       <c r="K50" s="1" t="s">
@@ -6415,7 +6422,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-diagnosticreport</v>
       </c>
       <c r="G51" s="1" t="s">
@@ -6428,7 +6435,7 @@
         <v>88</v>
       </c>
       <c r="J51" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
         <v>DiagnosticReport.date</v>
       </c>
       <c r="K51" s="1" t="s">
@@ -6469,7 +6476,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="G52" s="1" t="s">
@@ -6482,7 +6489,7 @@
         <v>63</v>
       </c>
       <c r="J52" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>Goal.lifecycle-status</v>
       </c>
       <c r="K52" s="1" t="s">
@@ -6498,7 +6505,7 @@
       <c r="Z52" s="5"/>
       <c r="AA52" s="12"/>
       <c r="AB52" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>SearchParameter-us-core-goal-lifecycle-status.html</v>
       </c>
     </row>
@@ -6519,7 +6526,7 @@
         <v>1</v>
       </c>
       <c r="F53" s="1" t="str">
-        <f t="shared" ref="F53:F54" si="24">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B53)</f>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="G53" s="1" t="s">
@@ -6532,7 +6539,7 @@
         <v>100</v>
       </c>
       <c r="J53" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>Goal.patient</v>
       </c>
       <c r="K53" s="1" t="s">
@@ -6557,7 +6564,7 @@
         <v>Fetches a bundle of all Goal resources for the specified patient</v>
       </c>
       <c r="AB53" s="1" t="str">
-        <f t="shared" ref="AB53:AB54" si="25">"SearchParameter-us-core-"&amp;LOWER((B53)&amp;"-"&amp;C53&amp;".html")</f>
+        <f t="shared" ref="AB53:AB54" si="17">"SearchParameter-us-core-"&amp;LOWER((B53)&amp;"-"&amp;C53&amp;".html")</f>
         <v>SearchParameter-us-core-goal-patient.html</v>
       </c>
     </row>
@@ -6578,7 +6585,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="G54" s="1" t="s">
@@ -6591,7 +6598,7 @@
         <v>88</v>
       </c>
       <c r="J54" s="1" t="str">
-        <f t="shared" ref="J54" si="26">B54&amp;"."&amp;C54</f>
+        <f t="shared" ref="J54" si="18">B54&amp;"."&amp;C54</f>
         <v>Goal.target-date</v>
       </c>
       <c r="K54" s="1" t="s">
@@ -6611,7 +6618,7 @@
       </c>
       <c r="AA54" s="12"/>
       <c r="AB54" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>SearchParameter-us-core-goal-target-date.html</v>
       </c>
     </row>
@@ -6632,7 +6639,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="G55" s="1" t="s">
@@ -6645,7 +6652,7 @@
         <v>63</v>
       </c>
       <c r="J55" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>MedicationRequest.status</v>
       </c>
       <c r="K55" s="1" t="s">
@@ -6664,7 +6671,7 @@
       <c r="Z55" s="5"/>
       <c r="AA55" s="12"/>
       <c r="AB55" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>SearchParameter-us-core-medicationrequest-status.html</v>
       </c>
     </row>
@@ -6685,7 +6692,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="1" t="str">
-        <f t="shared" ref="F56" si="27">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B56)</f>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="G56" s="1" t="s">
@@ -6698,7 +6705,7 @@
         <v>63</v>
       </c>
       <c r="J56" s="1" t="str">
-        <f t="shared" ref="J56" si="28">B56&amp;"."&amp;C56</f>
+        <f t="shared" ref="J56" si="19">B56&amp;"."&amp;C56</f>
         <v>MedicationRequest.intent</v>
       </c>
       <c r="K56" s="1" t="s">
@@ -6714,7 +6721,7 @@
       <c r="Z56" s="5"/>
       <c r="AA56" s="12"/>
       <c r="AB56" s="1" t="str">
-        <f t="shared" ref="AB56" si="29">"SearchParameter-us-core-"&amp;LOWER((B56)&amp;"-"&amp;C56&amp;".html")</f>
+        <f t="shared" ref="AB56" si="20">"SearchParameter-us-core-"&amp;LOWER((B56)&amp;"-"&amp;C56&amp;".html")</f>
         <v>SearchParameter-us-core-medicationrequest-intent.html</v>
       </c>
     </row>
@@ -6735,7 +6742,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="1" t="str">
-        <f t="shared" ref="F57" si="30">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B57)</f>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="G57" s="1" t="s">
@@ -6748,7 +6755,7 @@
         <v>100</v>
       </c>
       <c r="J57" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>MedicationRequest.patient</v>
       </c>
       <c r="K57" s="1" t="s">
@@ -6765,7 +6772,7 @@
       <c r="Z57" s="12"/>
       <c r="AA57" s="12"/>
       <c r="AB57" s="1" t="str">
-        <f t="shared" ref="AB57" si="31">"SearchParameter-us-core-"&amp;LOWER((B57)&amp;"-"&amp;C57&amp;".html")</f>
+        <f t="shared" ref="AB57" si="21">"SearchParameter-us-core-"&amp;LOWER((B57)&amp;"-"&amp;C57&amp;".html")</f>
         <v>SearchParameter-us-core-medicationrequest-patient.html</v>
       </c>
     </row>
@@ -6786,7 +6793,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="1" t="str">
-        <f t="shared" ref="F58" si="32">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B58)</f>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="G58" s="1" t="s">
@@ -6799,7 +6806,7 @@
         <v>100</v>
       </c>
       <c r="J58" s="1" t="str">
-        <f t="shared" ref="J58" si="33">B58&amp;"."&amp;C58</f>
+        <f t="shared" ref="J58" si="22">B58&amp;"."&amp;C58</f>
         <v>MedicationRequest.encounter</v>
       </c>
       <c r="K58" s="1" t="s">
@@ -6816,7 +6823,7 @@
       <c r="Z58" s="12"/>
       <c r="AA58" s="12"/>
       <c r="AB58" s="1" t="str">
-        <f t="shared" ref="AB58" si="34">"SearchParameter-us-core-"&amp;LOWER((B58)&amp;"-"&amp;C58&amp;".html")</f>
+        <f t="shared" ref="AB58" si="23">"SearchParameter-us-core-"&amp;LOWER((B58)&amp;"-"&amp;C58&amp;".html")</f>
         <v>SearchParameter-us-core-medicationrequest-encounter.html</v>
       </c>
     </row>
@@ -6837,7 +6844,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="G59" s="1" t="s">
@@ -6850,7 +6857,7 @@
         <v>88</v>
       </c>
       <c r="J59" s="1" t="str">
-        <f t="shared" ref="J59" si="35">B59&amp;"."&amp;C59</f>
+        <f t="shared" ref="J59" si="24">B59&amp;"."&amp;C59</f>
         <v>MedicationRequest.authoredon</v>
       </c>
       <c r="K59" s="1" t="s">
@@ -6870,7 +6877,7 @@
       </c>
       <c r="AA59" s="12"/>
       <c r="AB59" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>SearchParameter-us-core-medicationrequest-authoredon.html</v>
       </c>
     </row>
@@ -6891,7 +6898,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B60)</f>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationstatement</v>
       </c>
       <c r="G60" s="1" t="s">
@@ -6944,7 +6951,7 @@
         <v>1</v>
       </c>
       <c r="F61" s="1" t="str">
-        <f t="shared" ref="F61:F62" si="36">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B61)</f>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationstatement</v>
       </c>
       <c r="G61" s="1" t="s">
@@ -6957,7 +6964,7 @@
         <v>100</v>
       </c>
       <c r="J61" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>MedicationStatement.patient</v>
       </c>
       <c r="K61" s="1" t="s">
@@ -6981,7 +6988,7 @@
         <v>Fetches a bundle of all MedicationStatement resources for the specified patient. Mandatory for client to support the _include parameter. Optional for server to support the _include parameter.</v>
       </c>
       <c r="AB61" s="1" t="str">
-        <f t="shared" ref="AB61:AB62" si="37">"SearchParameter-us-core-"&amp;LOWER((B61)&amp;"-"&amp;C61&amp;".html")</f>
+        <f t="shared" ref="AB61:AB62" si="25">"SearchParameter-us-core-"&amp;LOWER((B61)&amp;"-"&amp;C61&amp;".html")</f>
         <v>SearchParameter-us-core-medicationstatement-patient.html</v>
       </c>
     </row>
@@ -7002,7 +7009,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationstatement</v>
       </c>
       <c r="G62" s="1" t="s">
@@ -7015,7 +7022,7 @@
         <v>88</v>
       </c>
       <c r="J62" s="1" t="str">
-        <f t="shared" ref="J62" si="38">B62&amp;"."&amp;C62</f>
+        <f t="shared" ref="J62" si="26">B62&amp;"."&amp;C62</f>
         <v>MedicationStatement.effective</v>
       </c>
       <c r="K62" s="1" t="s">
@@ -7035,7 +7042,7 @@
       </c>
       <c r="AA62" s="12"/>
       <c r="AB62" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="25"/>
         <v>SearchParameter-us-core-medicationstatement-effective.html</v>
       </c>
     </row>
@@ -7056,7 +7063,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
       </c>
       <c r="G63" s="1" t="s">
@@ -7069,7 +7076,7 @@
         <v>63</v>
       </c>
       <c r="J63" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>Procedure.status</v>
       </c>
       <c r="K63" s="1" t="s">
@@ -7088,7 +7095,7 @@
       <c r="Z63" s="5"/>
       <c r="AA63" s="12"/>
       <c r="AB63" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>SearchParameter-us-core-procedure-status.html</v>
       </c>
     </row>
@@ -7109,7 +7116,7 @@
         <v>1</v>
       </c>
       <c r="F64" s="1" t="str">
-        <f t="shared" ref="F64:F66" si="39">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B64)</f>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
       </c>
       <c r="G64" s="1" t="s">
@@ -7122,7 +7129,7 @@
         <v>100</v>
       </c>
       <c r="J64" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>Procedure.patient</v>
       </c>
       <c r="K64" s="1" t="s">
@@ -7146,7 +7153,7 @@
         <v>Fetches a bundle of all Procedure resources for the specified patient</v>
       </c>
       <c r="AB64" s="1" t="str">
-        <f t="shared" ref="AB64:AB66" si="40">"SearchParameter-us-core-"&amp;LOWER((B64)&amp;"-"&amp;C64&amp;".html")</f>
+        <f t="shared" ref="AB64:AB66" si="27">"SearchParameter-us-core-"&amp;LOWER((B64)&amp;"-"&amp;C64&amp;".html")</f>
         <v>SearchParameter-us-core-procedure-patient.html</v>
       </c>
     </row>
@@ -7167,7 +7174,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
       </c>
       <c r="G65" s="1" t="s">
@@ -7180,7 +7187,7 @@
         <v>88</v>
       </c>
       <c r="J65" s="1" t="str">
-        <f t="shared" ref="J65:J66" si="41">B65&amp;"."&amp;C65</f>
+        <f t="shared" ref="J65:J66" si="28">B65&amp;"."&amp;C65</f>
         <v>Procedure.date</v>
       </c>
       <c r="K65" s="1" t="s">
@@ -7200,7 +7207,7 @@
       </c>
       <c r="AA65" s="12"/>
       <c r="AB65" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="27"/>
         <v>SearchParameter-us-core-procedure-date.html</v>
       </c>
     </row>
@@ -7221,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="1"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
       </c>
       <c r="G66" s="1" t="s">
@@ -7234,7 +7241,7 @@
         <v>63</v>
       </c>
       <c r="J66" s="1" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="28"/>
         <v>Procedure.code</v>
       </c>
       <c r="K66" s="1" t="s">
@@ -7250,7 +7257,7 @@
       <c r="Z66" s="5"/>
       <c r="AA66" s="12"/>
       <c r="AB66" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="27"/>
         <v>SearchParameter-us-core-procedure-code.html</v>
       </c>
     </row>
@@ -7271,7 +7278,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="F67:F94" si="29">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B67)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation</v>
       </c>
       <c r="G67" s="1" t="s">
@@ -7284,7 +7291,7 @@
         <v>63</v>
       </c>
       <c r="J67" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>Observation.status</v>
       </c>
       <c r="K67" s="1" t="s">
@@ -7303,7 +7310,7 @@
       <c r="Z67" s="5"/>
       <c r="AA67" s="12"/>
       <c r="AB67" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>SearchParameter-us-core-observation-status.html</v>
       </c>
     </row>
@@ -7324,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="29"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation</v>
       </c>
       <c r="G68" s="1" t="s">
@@ -7337,7 +7344,7 @@
         <v>63</v>
       </c>
       <c r="J68" s="1" t="str">
-        <f t="shared" ref="J68:J70" si="42">B68&amp;"."&amp;C68</f>
+        <f t="shared" ref="J68:J70" si="30">B68&amp;"."&amp;C68</f>
         <v>Observation.category</v>
       </c>
       <c r="K68" s="1" t="s">
@@ -7353,7 +7360,7 @@
       <c r="Z68" s="5"/>
       <c r="AA68" s="12"/>
       <c r="AB68" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>SearchParameter-us-core-observation-category.html</v>
       </c>
     </row>
@@ -7374,7 +7381,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="29"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation</v>
       </c>
       <c r="G69" s="1" t="s">
@@ -7387,7 +7394,7 @@
         <v>63</v>
       </c>
       <c r="J69" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="30"/>
         <v>Observation.code</v>
       </c>
       <c r="K69" s="1" t="s">
@@ -7403,7 +7410,7 @@
       <c r="Z69" s="5"/>
       <c r="AA69" s="12"/>
       <c r="AB69" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>SearchParameter-us-core-observation-code.html</v>
       </c>
     </row>
@@ -7424,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="29"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation</v>
       </c>
       <c r="G70" s="1" t="s">
@@ -7437,7 +7444,7 @@
         <v>88</v>
       </c>
       <c r="J70" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="30"/>
         <v>Observation.date</v>
       </c>
       <c r="K70" s="1" t="s">
@@ -7457,7 +7464,7 @@
       </c>
       <c r="AA70" s="12"/>
       <c r="AB70" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>SearchParameter-us-core-observation-date.html</v>
       </c>
     </row>
@@ -7478,7 +7485,7 @@
         <v>0</v>
       </c>
       <c r="F71" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B71)</f>
+        <f t="shared" si="29"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation</v>
       </c>
       <c r="G71" s="1" t="s">
@@ -7537,7 +7544,7 @@
         <v>0</v>
       </c>
       <c r="F72" s="1" t="str">
-        <f t="shared" ref="F72:F74" si="43">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B72)</f>
+        <f t="shared" si="29"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careplan</v>
       </c>
       <c r="G72" s="1" t="s">
@@ -7550,7 +7557,7 @@
         <v>63</v>
       </c>
       <c r="J72" s="1" t="str">
-        <f t="shared" ref="J72:J74" si="44">B72&amp;"."&amp;C72</f>
+        <f t="shared" ref="J72:J74" si="31">B72&amp;"."&amp;C72</f>
         <v>CarePlan.category</v>
       </c>
       <c r="K72" s="1" t="s">
@@ -7566,7 +7573,7 @@
       <c r="Z72" s="5"/>
       <c r="AA72" s="12"/>
       <c r="AB72" s="1" t="str">
-        <f t="shared" ref="AB72:AB74" si="45">"SearchParameter-us-core-"&amp;LOWER((B72)&amp;"-"&amp;C72&amp;".html")</f>
+        <f t="shared" ref="AB72:AB74" si="32">"SearchParameter-us-core-"&amp;LOWER((B72)&amp;"-"&amp;C72&amp;".html")</f>
         <v>SearchParameter-us-core-careplan-category.html</v>
       </c>
     </row>
@@ -7587,7 +7594,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="1" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="29"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!careplan</v>
       </c>
       <c r="G73" s="1" t="s">
@@ -7600,7 +7607,7 @@
         <v>63</v>
       </c>
       <c r="J73" s="1" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="31"/>
         <v>!CarePlan.code</v>
       </c>
       <c r="K73" s="1" t="s">
@@ -7613,7 +7620,7 @@
       <c r="Z73" s="5"/>
       <c r="AA73" s="12"/>
       <c r="AB73" s="1" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="32"/>
         <v>SearchParameter-us-core-!careplan-code.html</v>
       </c>
     </row>
@@ -7634,7 +7641,7 @@
         <v>0</v>
       </c>
       <c r="F74" s="1" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="29"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careplan</v>
       </c>
       <c r="G74" s="1" t="s">
@@ -7647,7 +7654,7 @@
         <v>88</v>
       </c>
       <c r="J74" s="1" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="31"/>
         <v>CarePlan.date</v>
       </c>
       <c r="K74" s="1" t="s">
@@ -7667,7 +7674,7 @@
       </c>
       <c r="AA74" s="12"/>
       <c r="AB74" s="1" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="32"/>
         <v>SearchParameter-us-core-careplan-date.html</v>
       </c>
     </row>
@@ -7688,7 +7695,7 @@
         <v>0</v>
       </c>
       <c r="F75" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B75)</f>
+        <f t="shared" si="29"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careplan</v>
       </c>
       <c r="G75" s="1" t="s">
@@ -7747,7 +7754,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="1" t="str">
-        <f t="shared" ref="F76" si="46">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B76)</f>
+        <f t="shared" si="29"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careplan</v>
       </c>
       <c r="G76" s="1" t="s">
@@ -7760,7 +7767,7 @@
         <v>63</v>
       </c>
       <c r="J76" s="1" t="str">
-        <f t="shared" ref="J76" si="47">B76&amp;"."&amp;C76</f>
+        <f t="shared" ref="J76" si="33">B76&amp;"."&amp;C76</f>
         <v>CarePlan.status</v>
       </c>
       <c r="K76" s="1" t="s">
@@ -7779,7 +7786,7 @@
       <c r="Z76" s="5"/>
       <c r="AA76" s="12"/>
       <c r="AB76" s="1" t="str">
-        <f t="shared" ref="AB76" si="48">"SearchParameter-us-core-"&amp;LOWER((B76)&amp;"-"&amp;C76&amp;".html")</f>
+        <f t="shared" ref="AB76" si="34">"SearchParameter-us-core-"&amp;LOWER((B76)&amp;"-"&amp;C76&amp;".html")</f>
         <v>SearchParameter-us-core-careplan-status.html</v>
       </c>
     </row>
@@ -7800,7 +7807,7 @@
         <v>0</v>
       </c>
       <c r="F77" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B77)</f>
+        <f t="shared" si="29"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
       </c>
       <c r="G77" s="1" t="s">
@@ -7859,7 +7866,7 @@
         <v>0</v>
       </c>
       <c r="F78" s="1" t="str">
-        <f t="shared" ref="F78" si="49">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B78)</f>
+        <f t="shared" si="29"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
       </c>
       <c r="G78" s="1" t="s">
@@ -7872,7 +7879,7 @@
         <v>63</v>
       </c>
       <c r="J78" s="1" t="str">
-        <f t="shared" ref="J78" si="50">B78&amp;"."&amp;C78</f>
+        <f t="shared" ref="J78" si="35">B78&amp;"."&amp;C78</f>
         <v>CareTeam.status</v>
       </c>
       <c r="K78" s="1" t="s">
@@ -7891,7 +7898,7 @@
       <c r="Z78" s="5"/>
       <c r="AA78" s="12"/>
       <c r="AB78" s="1" t="str">
-        <f t="shared" ref="AB78" si="51">"SearchParameter-us-core-"&amp;LOWER((B78)&amp;"-"&amp;C78&amp;".html")</f>
+        <f t="shared" ref="AB78" si="36">"SearchParameter-us-core-"&amp;LOWER((B78)&amp;"-"&amp;C78&amp;".html")</f>
         <v>SearchParameter-us-core-careteam-status.html</v>
       </c>
     </row>
@@ -7912,7 +7919,7 @@
         <v>1</v>
       </c>
       <c r="F79" s="1" t="str">
-        <f t="shared" ref="F79:F90" si="52">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B79)</f>
+        <f t="shared" si="29"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-device</v>
       </c>
       <c r="G79" s="1" t="s">
@@ -7925,7 +7932,7 @@
         <v>100</v>
       </c>
       <c r="J79" s="1" t="str">
-        <f t="shared" ref="J79:J94" si="53">B79&amp;"."&amp;C79</f>
+        <f t="shared" ref="J79:J94" si="37">B79&amp;"."&amp;C79</f>
         <v>Device.patient</v>
       </c>
       <c r="K79" s="1" t="s">
@@ -7950,7 +7957,7 @@
         <v>Fetches a bundle of all Device resources for the specified patient</v>
       </c>
       <c r="AB79" s="1" t="str">
-        <f t="shared" ref="AB79:AB90" si="54">"SearchParameter-us-core-"&amp;LOWER((B79)&amp;"-"&amp;C79&amp;".html")</f>
+        <f t="shared" ref="AB79:AB90" si="38">"SearchParameter-us-core-"&amp;LOWER((B79)&amp;"-"&amp;C79&amp;".html")</f>
         <v>SearchParameter-us-core-device-patient.html</v>
       </c>
     </row>
@@ -7971,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="F80" s="1" t="str">
-        <f t="shared" ref="F80" si="55">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B80)</f>
+        <f t="shared" si="29"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-device</v>
       </c>
       <c r="G80" s="1" t="s">
@@ -7984,7 +7991,7 @@
         <v>63</v>
       </c>
       <c r="J80" s="1" t="str">
-        <f t="shared" ref="J80" si="56">B80&amp;"."&amp;C80</f>
+        <f t="shared" ref="J80" si="39">B80&amp;"."&amp;C80</f>
         <v>Device.type</v>
       </c>
       <c r="K80" s="1" t="s">
@@ -7996,7 +8003,7 @@
       <c r="Z80" s="5"/>
       <c r="AA80" s="12"/>
       <c r="AB80" s="1" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="38"/>
         <v>SearchParameter-us-core-device-type.html</v>
       </c>
     </row>
@@ -8017,7 +8024,7 @@
         <v>1</v>
       </c>
       <c r="F81" s="1" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="29"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
       </c>
       <c r="G81" s="1" t="s">
@@ -8030,7 +8037,7 @@
         <v>71</v>
       </c>
       <c r="J81" s="1" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="37"/>
         <v>Location.name</v>
       </c>
       <c r="K81" s="1" t="s">
@@ -8050,7 +8057,7 @@
         <v>Fetches a bundle of all Location resources that match the name</v>
       </c>
       <c r="AB81" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="38"/>
         <v>SearchParameter-us-core-location-name.html</v>
       </c>
     </row>
@@ -8071,7 +8078,7 @@
         <v>1</v>
       </c>
       <c r="F82" s="1" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="29"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
       </c>
       <c r="G82" s="1" t="s">
@@ -8084,7 +8091,7 @@
         <v>71</v>
       </c>
       <c r="J82" s="1" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="37"/>
         <v>Location.address</v>
       </c>
       <c r="K82" s="1" t="s">
@@ -8104,7 +8111,7 @@
         <v>Fetches a bundle of all Location resources that match the address string</v>
       </c>
       <c r="AB82" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="38"/>
         <v>SearchParameter-us-core-location-address.html</v>
       </c>
     </row>
@@ -8125,7 +8132,7 @@
         <v>1</v>
       </c>
       <c r="F83" s="1" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="29"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
       </c>
       <c r="G83" s="1" t="s">
@@ -8138,7 +8145,7 @@
         <v>71</v>
       </c>
       <c r="J83" s="1" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="37"/>
         <v>Location.address-city</v>
       </c>
       <c r="K83" s="1" t="s">
@@ -8158,7 +8165,7 @@
         <v>Fetches a bundle of all Location resources for the city</v>
       </c>
       <c r="AB83" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="38"/>
         <v>SearchParameter-us-core-location-address-city.html</v>
       </c>
     </row>
@@ -8179,7 +8186,7 @@
         <v>1</v>
       </c>
       <c r="F84" s="1" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="29"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
       </c>
       <c r="G84" s="1" t="s">
@@ -8192,7 +8199,7 @@
         <v>71</v>
       </c>
       <c r="J84" s="1" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="37"/>
         <v>Location.address-state</v>
       </c>
       <c r="K84" s="1" t="s">
@@ -8212,7 +8219,7 @@
         <v>Fetches a bundle of all Location resources for the state</v>
       </c>
       <c r="AB84" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="38"/>
         <v>SearchParameter-us-core-location-address-state.html</v>
       </c>
     </row>
@@ -8233,7 +8240,7 @@
         <v>1</v>
       </c>
       <c r="F85" s="1" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="29"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
       </c>
       <c r="G85" s="1" t="s">
@@ -8246,7 +8253,7 @@
         <v>71</v>
       </c>
       <c r="J85" s="1" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="37"/>
         <v>Location.address-postalcode</v>
       </c>
       <c r="K85" s="1" t="s">
@@ -8266,7 +8273,7 @@
         <v>Fetches a bundle of all Location resources for the ZIP code</v>
       </c>
       <c r="AB85" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="38"/>
         <v>SearchParameter-us-core-location-address-postalcode.html</v>
       </c>
     </row>
@@ -8287,7 +8294,7 @@
         <v>1</v>
       </c>
       <c r="F86" s="1" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="29"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization</v>
       </c>
       <c r="G86" s="1" t="s">
@@ -8300,7 +8307,7 @@
         <v>71</v>
       </c>
       <c r="J86" s="1" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="37"/>
         <v>Organization.name</v>
       </c>
       <c r="K86" s="1" t="s">
@@ -8320,7 +8327,7 @@
         <v>Fetches a bundle of all Organization resources that match the name</v>
       </c>
       <c r="AB86" s="1" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="38"/>
         <v>SearchParameter-us-core-organization-name.html</v>
       </c>
     </row>
@@ -8341,7 +8348,7 @@
         <v>1</v>
       </c>
       <c r="F87" s="1" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="29"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization</v>
       </c>
       <c r="G87" s="1" t="s">
@@ -8354,7 +8361,7 @@
         <v>71</v>
       </c>
       <c r="J87" s="1" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="37"/>
         <v>Organization.address</v>
       </c>
       <c r="K87" s="1" t="s">
@@ -8374,7 +8381,7 @@
         <v>Fetches a bundle of all Organization resources that match the address string</v>
       </c>
       <c r="AB87" s="1" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="38"/>
         <v>SearchParameter-us-core-organization-address.html</v>
       </c>
     </row>
@@ -8395,7 +8402,7 @@
         <v>1</v>
       </c>
       <c r="F88" s="1" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="29"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!organization</v>
       </c>
       <c r="G88" s="1" t="s">
@@ -8408,7 +8415,7 @@
         <v>71</v>
       </c>
       <c r="J88" s="1" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="37"/>
         <v>!Organization.address-city</v>
       </c>
       <c r="K88" s="1" t="s">
@@ -8428,7 +8435,7 @@
         <v>Fetches a bundle of all !Organization resources for the city</v>
       </c>
       <c r="AB88" s="1" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="38"/>
         <v>SearchParameter-us-core-!organization-address-city.html</v>
       </c>
     </row>
@@ -8449,7 +8456,7 @@
         <v>1</v>
       </c>
       <c r="F89" s="1" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="29"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!organization</v>
       </c>
       <c r="G89" s="1" t="s">
@@ -8462,7 +8469,7 @@
         <v>71</v>
       </c>
       <c r="J89" s="1" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="37"/>
         <v>!Organization.adress-state</v>
       </c>
       <c r="K89" s="1" t="s">
@@ -8482,7 +8489,7 @@
         <v>Fetches a bundle of all !Organization resources for the state</v>
       </c>
       <c r="AB89" s="1" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="38"/>
         <v>SearchParameter-us-core-!organization-adress-state.html</v>
       </c>
     </row>
@@ -8503,7 +8510,7 @@
         <v>1</v>
       </c>
       <c r="F90" s="1" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="29"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!organization</v>
       </c>
       <c r="G90" s="1" t="s">
@@ -8516,7 +8523,7 @@
         <v>71</v>
       </c>
       <c r="J90" s="1" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="37"/>
         <v>!Organization.address-postalcode</v>
       </c>
       <c r="K90" s="1" t="s">
@@ -8536,7 +8543,7 @@
         <v>Fetches a bundle of all !Organization resources for the ZIP code</v>
       </c>
       <c r="AB90" s="1" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="38"/>
         <v>SearchParameter-us-core-!organization-address-postalcode.html</v>
       </c>
     </row>
@@ -8557,7 +8564,7 @@
         <v>1</v>
       </c>
       <c r="F91" s="1" t="str">
-        <f t="shared" ref="F91:F92" si="57">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B91)</f>
+        <f t="shared" si="29"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner</v>
       </c>
       <c r="G91" s="1" t="s">
@@ -8570,7 +8577,7 @@
         <v>71</v>
       </c>
       <c r="J91" s="1" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="37"/>
         <v>Practitioner.name</v>
       </c>
       <c r="K91" s="1" t="s">
@@ -8593,7 +8600,7 @@
         <v>Fetches a bundle of all Practitioner resources matching the name</v>
       </c>
       <c r="AB91" s="1" t="str">
-        <f t="shared" ref="AB91:AB92" si="58">"SearchParameter-us-core-"&amp;LOWER((B91)&amp;"-"&amp;SUBSTITUTE(C91,"_","")&amp;".html")</f>
+        <f t="shared" ref="AB91:AB92" si="40">"SearchParameter-us-core-"&amp;LOWER((B91)&amp;"-"&amp;SUBSTITUTE(C91,"_","")&amp;".html")</f>
         <v>SearchParameter-us-core-practitioner-name.html</v>
       </c>
     </row>
@@ -8614,7 +8621,7 @@
         <v>1</v>
       </c>
       <c r="F92" s="1" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="29"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner</v>
       </c>
       <c r="G92" s="1" t="s">
@@ -8627,7 +8634,7 @@
         <v>63</v>
       </c>
       <c r="J92" s="1" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="37"/>
         <v>Practitioner.identifier</v>
       </c>
       <c r="K92" s="1" t="s">
@@ -8647,7 +8654,7 @@
         <v>Fetches a bundle containing any Practitioner resources matching the identifier</v>
       </c>
       <c r="AB92" s="1" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="40"/>
         <v>SearchParameter-us-core-practitioner-identifier.html</v>
       </c>
     </row>
@@ -8668,7 +8675,7 @@
         <v>1</v>
       </c>
       <c r="F93" s="1" t="str">
-        <f t="shared" ref="F93:F94" si="59">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B93)</f>
+        <f t="shared" si="29"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole</v>
       </c>
       <c r="G93" s="1" t="s">
@@ -8681,7 +8688,7 @@
         <v>63</v>
       </c>
       <c r="J93" s="1" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="37"/>
         <v>PractitionerRole.specialty</v>
       </c>
       <c r="K93" s="1" t="s">
@@ -8704,7 +8711,7 @@
         <v>Fetches a bundle containing  PractitionerRole resources matching the specialty</v>
       </c>
       <c r="AB93" s="1" t="str">
-        <f t="shared" ref="AB93" si="60">"SearchParameter-us-core-"&amp;LOWER((B93)&amp;"-"&amp;SUBSTITUTE(C93,"_","")&amp;".html")</f>
+        <f t="shared" ref="AB93" si="41">"SearchParameter-us-core-"&amp;LOWER((B93)&amp;"-"&amp;SUBSTITUTE(C93,"_","")&amp;".html")</f>
         <v>SearchParameter-us-core-practitionerrole-specialty.html</v>
       </c>
     </row>
@@ -8725,7 +8732,7 @@
         <v>1</v>
       </c>
       <c r="F94" s="1" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="29"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole</v>
       </c>
       <c r="G94" t="s">
@@ -8738,7 +8745,7 @@
         <v>100</v>
       </c>
       <c r="J94" s="1" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="37"/>
         <v>PractitionerRole.practitioner</v>
       </c>
       <c r="K94" s="1" t="s">
@@ -8786,18 +8793,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G39" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H52" sqref="H52"/>
+      <selection pane="bottomRight" activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="1"/>
     <col min="2" max="2" width="21.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="96.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
@@ -11291,9 +11298,8 @@
       <c r="B84" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C84" s="1" t="str">
-        <f t="shared" ref="C84" si="15">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B84)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-device</v>
+      <c r="C84" s="1" t="s">
+        <v>500</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>128</v>

--- a/source/source_spreadsheets/uscore-server.xlsx
+++ b/source/source_spreadsheets/uscore-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Argo-R4\source\source_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6F3617-1BF2-447A-900F-A21AF0F93954}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA686D4-CFEF-4B7F-A1B3-4C5D0B2C4F09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,13 @@
     <sheet name="resources" sheetId="4" r:id="rId4"/>
     <sheet name="ops" sheetId="5" r:id="rId5"/>
     <sheet name="interactions" sheetId="6" r:id="rId6"/>
-    <sheet name="sps" sheetId="7" r:id="rId7"/>
-    <sheet name="sp_combos" sheetId="8" r:id="rId8"/>
+    <sheet name="rest_interactions" sheetId="11" r:id="rId7"/>
+    <sheet name="sps" sheetId="7" r:id="rId8"/>
+    <sheet name="sp_combos" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">sp_combos!$B$1:$B$83</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">sps!$A$1:$AB$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">sp_combos!$B$1:$B$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">sps!$A$1:$AB$94</definedName>
   </definedNames>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -38,6 +39,40 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="A25" authorId="0" shapeId="0" xr:uid="{7539690C-2454-403F-887E-95F9D9F8EF10}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>User</author>
@@ -71,7 +106,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>User</author>
@@ -106,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="516">
   <si>
     <t>Element</t>
   </si>
@@ -1470,9 +1505,6 @@
     <t>us-core-server</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/ImplementationGuide/hl7.fhir.us.core.r4-4.0.0</t>
-  </si>
-  <si>
     <t>versioning_conf</t>
   </si>
   <si>
@@ -1629,6 +1661,57 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-device</t>
+  </si>
+  <si>
+    <t>doc</t>
+  </si>
+  <si>
+    <t>transaction</t>
+  </si>
+  <si>
+    <t>batch</t>
+  </si>
+  <si>
+    <t>search-system</t>
+  </si>
+  <si>
+    <t>history-system</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ImplementationGuide/hl7.fhir.us.core.argo-3.1.0</t>
+  </si>
+  <si>
+    <t>!MedicationStatement</t>
+  </si>
+  <si>
+    <t>The MedicationRequest resources can represent a medication using either a code or refer to the Medication resource. When referencing Medication, the resource may be [contained](http://hl7.org/fhir/R4/references.html#contained) or an external resource. The server application **MAY** choose any one way or more than one method, but if an external reference to Medication is used, the server **SHALL** support the _include` parameter for searching this element. The client application must support all methods.
+ For example, A server **SHALL** be capable of returning all medications for a patient using one of or both:
+ `GET /MedicationRequest?patient=[id]`
+ `GET /MedicationRequest?patient=[id]&amp;_include=MedicationRequest:medication`</t>
+  </si>
+  <si>
+    <t>Provenance</t>
+  </si>
+  <si>
+    <t>If a system receives a provider in `Provenance.agent.who` as free text they must capture who sent them the information as the organization. On request they **SHALL** provide this organization as the source and **MAY** include the free text provider.</t>
+  </si>
+  <si>
+    <t>Provenance:target</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-provenance</t>
+  </si>
+  <si>
+    <t>US Core Provenance Profile</t>
+  </si>
+  <si>
+    <t>conf_Provenance</t>
+  </si>
+  <si>
+    <t>US Core Pulse Oximetry Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-pulse-oximetry</t>
   </si>
 </sst>
 </file>
@@ -2098,7 +2181,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2136,7 +2219,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2160,7 +2243,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -2192,11 +2275,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2403,10 +2486,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
@@ -2448,10 +2531,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>13</v>
@@ -2538,10 +2621,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>13</v>
@@ -2551,39 +2634,68 @@
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1" t="s">
-        <v>202</v>
+    <row r="24" spans="1:6" s="1" customFormat="1">
+      <c r="A24" s="11" t="s">
+        <v>515</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>407</v>
+        <v>514</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F24" s="1"/>
+        <v>196</v>
+      </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="C26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>508</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2592,10 +2704,10 @@
   <dimension ref="A1:X59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2627,49 +2739,49 @@
         <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F1" t="s">
         <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H1" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>439</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>440</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>444</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>445</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>348</v>
@@ -2703,6 +2815,9 @@
       <c r="S2" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="V2" s="1" t="s">
+        <v>510</v>
+      </c>
       <c r="X2" t="s">
         <v>22</v>
       </c>
@@ -2720,6 +2835,9 @@
       <c r="S3" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="V3" s="1" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="1" t="s">
@@ -2734,6 +2852,9 @@
       <c r="S4" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="V4" s="1" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="1" t="s">
@@ -2748,6 +2869,9 @@
       <c r="S5" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="V5" s="1" t="s">
+        <v>510</v>
+      </c>
       <c r="X5" t="s">
         <v>26</v>
       </c>
@@ -2765,6 +2889,9 @@
       <c r="S6" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="V6" s="1" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="1" t="s">
@@ -2779,6 +2906,9 @@
       <c r="S7" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="V7" s="1" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="8" spans="1:24" ht="75">
       <c r="A8" s="1" t="s">
@@ -2788,13 +2918,16 @@
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>78</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -2810,6 +2943,9 @@
       <c r="S9" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="V9" s="1" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="10" spans="1:24">
       <c r="A10" s="1" t="s">
@@ -2824,6 +2960,9 @@
       <c r="S10" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="V10" s="1" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="11" spans="1:24">
       <c r="A11" s="1" t="s">
@@ -2838,6 +2977,9 @@
       <c r="S11" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="V11" s="1" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="12" spans="1:24">
       <c r="A12" s="1" t="s">
@@ -2852,6 +2994,9 @@
       <c r="S12" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="V12" s="1" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="13" spans="1:24" ht="105">
       <c r="A13" s="1" t="s">
@@ -2869,6 +3014,9 @@
       <c r="S13" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="V13" s="1" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="14" spans="1:24" ht="315">
       <c r="A14" s="1" t="s">
@@ -2878,7 +3026,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>486</v>
+        <v>507</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>21</v>
@@ -2889,16 +3037,19 @@
       <c r="U14" s="7" t="s">
         <v>224</v>
       </c>
+      <c r="V14" s="1" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="15" spans="1:24" ht="315">
       <c r="A15" s="1" t="s">
-        <v>197</v>
+        <v>506</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>21</v>
@@ -2908,6 +3059,9 @@
       </c>
       <c r="U15" s="7" t="s">
         <v>443</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -2923,8 +3077,11 @@
       <c r="S16" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="17" spans="1:21">
+      <c r="V16" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="1" t="s">
         <v>286</v>
       </c>
@@ -2937,8 +3094,11 @@
       <c r="S17" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="18" spans="1:21">
+      <c r="V17" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -2951,8 +3111,11 @@
       <c r="S18" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="19" spans="1:21">
+      <c r="V18" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="1" t="s">
         <v>293</v>
       </c>
@@ -2965,8 +3128,11 @@
       <c r="S19" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="20" spans="1:21">
+      <c r="V19" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="1" t="s">
         <v>296</v>
       </c>
@@ -2982,8 +3148,11 @@
       <c r="U20" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="21" spans="1:21">
+      <c r="V20" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="1" t="s">
         <v>195</v>
       </c>
@@ -2996,17 +3165,34 @@
       <c r="S21" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="22" spans="1:21">
-      <c r="A22"/>
-    </row>
-    <row r="23" spans="1:21">
+      <c r="V21" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="90">
+      <c r="A22" t="s">
+        <v>508</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23"/>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:22">
       <c r="A24"/>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:22">
       <c r="A25"/>
     </row>
     <row r="56" spans="20:23" ht="18">
@@ -3022,8 +3208,8 @@
     <sortCondition ref="A2:A21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3074,7 +3260,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3087,10 +3273,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3100,9 +3289,10 @@
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
     <col min="7" max="7" width="58.28515625" style="2" customWidth="1"/>
     <col min="8" max="8" width="28.140625" customWidth="1"/>
+    <col min="23" max="23" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -3122,7 +3312,7 @@
         <v>417</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>418</v>
@@ -3169,8 +3359,11 @@
       <c r="V1" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" ht="75">
+      <c r="W1" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="75">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -3190,7 +3383,7 @@
         <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -3237,8 +3430,11 @@
       <c r="V2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -3302,8 +3498,11 @@
       <c r="V3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -3367,8 +3566,11 @@
       <c r="V4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -3432,8 +3634,11 @@
       <c r="V5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -3497,8 +3702,11 @@
       <c r="V6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -3562,8 +3770,11 @@
       <c r="V7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -3627,8 +3838,11 @@
       <c r="V8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -3692,8 +3906,11 @@
       <c r="V9" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -3755,6 +3972,9 @@
         <v>34</v>
       </c>
       <c r="V10" t="s">
+        <v>34</v>
+      </c>
+      <c r="W10" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3764,14 +3984,79 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB526E8-FEFB-4D61-9493-6CABF1663041}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="51.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="59.25" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AB95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G65" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F77" sqref="F77"/>
+      <selection pane="bottomRight" activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.95" customHeight="1"/>
@@ -6576,7 +6861,7 @@
         <v>193</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>34</v>
@@ -6683,7 +6968,7 @@
         <v>194</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>34</v>
@@ -6784,7 +7069,7 @@
         <v>194</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>34</v>
@@ -6886,7 +7171,7 @@
         <v>56</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>197</v>
+        <v>506</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>68</v>
@@ -6899,7 +7184,7 @@
       </c>
       <c r="F60" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationstatement</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationstatement</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>62</v>
@@ -6912,7 +7197,7 @@
       </c>
       <c r="J60" s="1" t="str">
         <f>B60&amp;"."&amp;C60</f>
-        <v>MedicationStatement.status</v>
+        <v>!MedicationStatement.status</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>62</v>
@@ -6931,7 +7216,7 @@
       <c r="AA60" s="12"/>
       <c r="AB60" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B60)&amp;"-"&amp;C60&amp;".html")</f>
-        <v>SearchParameter-us-core-medicationstatement-status.html</v>
+        <v>SearchParameter-us-core-!medicationstatement-status.html</v>
       </c>
     </row>
     <row r="61" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
@@ -6939,7 +7224,7 @@
         <v>57</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>197</v>
+        <v>506</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>99</v>
@@ -6952,7 +7237,7 @@
       </c>
       <c r="F61" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationstatement</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationstatement</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>62</v>
@@ -6965,7 +7250,7 @@
       </c>
       <c r="J61" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>MedicationStatement.patient</v>
+        <v>!MedicationStatement.patient</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>62</v>
@@ -6985,11 +7270,11 @@
       </c>
       <c r="AA61" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B61&amp; " resources for the specified patient. Mandatory for client to support the _include parameter. Optional for server to support the _include parameter."</f>
-        <v>Fetches a bundle of all MedicationStatement resources for the specified patient. Mandatory for client to support the _include parameter. Optional for server to support the _include parameter.</v>
+        <v>Fetches a bundle of all !MedicationStatement resources for the specified patient. Mandatory for client to support the _include parameter. Optional for server to support the _include parameter.</v>
       </c>
       <c r="AB61" s="1" t="str">
         <f t="shared" ref="AB61:AB62" si="25">"SearchParameter-us-core-"&amp;LOWER((B61)&amp;"-"&amp;C61&amp;".html")</f>
-        <v>SearchParameter-us-core-medicationstatement-patient.html</v>
+        <v>SearchParameter-us-core-!medicationstatement-patient.html</v>
       </c>
     </row>
     <row r="62" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
@@ -6997,7 +7282,7 @@
         <v>58</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>197</v>
+        <v>506</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>247</v>
@@ -7010,7 +7295,7 @@
       </c>
       <c r="F62" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationstatement</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationstatement</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>62</v>
@@ -7023,7 +7308,7 @@
       </c>
       <c r="J62" s="1" t="str">
         <f t="shared" ref="J62" si="26">B62&amp;"."&amp;C62</f>
-        <v>MedicationStatement.effective</v>
+        <v>!MedicationStatement.effective</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>62</v>
@@ -7043,7 +7328,7 @@
       <c r="AA62" s="12"/>
       <c r="AB62" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>SearchParameter-us-core-medicationstatement-effective.html</v>
+        <v>SearchParameter-us-core-!medicationstatement-effective.html</v>
       </c>
     </row>
     <row r="63" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
@@ -8789,15 +9074,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G47" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C65" sqref="C65"/>
+      <selection pane="bottomRight" activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -10248,7 +10533,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>78</v>
@@ -10260,7 +10545,7 @@
         <v>223</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="J51" s="5" t="str">
         <f t="shared" ref="J51" si="6">"Fetches a bundle of all "&amp;B51&amp;" resources for the specified "&amp;SUBSTITUTE(D51,","," and ")</f>
@@ -10279,7 +10564,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>13</v>
@@ -10288,16 +10573,16 @@
         <v>116</v>
       </c>
       <c r="G52" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="H52" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="H52" s="5" t="s">
+      <c r="I52" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="I52" s="5" t="s">
+      <c r="J52" s="5" t="s">
         <v>494</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="1" customFormat="1">
@@ -10312,7 +10597,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>13</v>
@@ -10321,16 +10606,16 @@
         <v>116</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>199</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="54" spans="1:10" s="1" customFormat="1">
@@ -10345,7 +10630,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>78</v>
@@ -10354,16 +10639,16 @@
         <v>116</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>199</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="55" spans="1:10" s="1" customFormat="1">
@@ -10378,7 +10663,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>78</v>
@@ -10387,16 +10672,16 @@
         <v>234</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>249</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="56" spans="1:10" s="1" customFormat="1">
@@ -10404,11 +10689,11 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>197</v>
+        <v>506</v>
       </c>
       <c r="C56" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationstatement</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationstatement</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>126</v>
@@ -10423,11 +10708,11 @@
         <v>201</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J56" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>Fetches a bundle of all MedicationStatement resources for the specified patient and status</v>
+        <v>Fetches a bundle of all !MedicationStatement resources for the specified patient and status</v>
       </c>
     </row>
     <row r="57" spans="1:10" s="1" customFormat="1">
@@ -10435,11 +10720,11 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>197</v>
+        <v>506</v>
       </c>
       <c r="C57" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationstatement</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationstatement</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>251</v>
@@ -10454,7 +10739,7 @@
         <v>250</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J57" s="5" t="s">
         <v>252</v>
@@ -10561,7 +10846,7 @@
         <v>196</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>256</v>
@@ -10573,13 +10858,13 @@
         <v>116</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>307</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J61" s="5" t="s">
         <v>352</v>
@@ -10593,7 +10878,7 @@
         <v>196</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>155</v>
@@ -10605,13 +10890,13 @@
         <v>116</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>238</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J62" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B62&amp;" resources for the specified patient and a category code = `laboratory`"</f>
@@ -10626,7 +10911,7 @@
         <v>196</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>157</v>
@@ -10656,7 +10941,7 @@
         <v>196</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>208</v>
@@ -10668,13 +10953,13 @@
         <v>234</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>243</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J64" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B64&amp;" resources for the specified patient and date and a category code = `laboratory`"</f>
@@ -10689,7 +10974,7 @@
         <v>196</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>235</v>
@@ -10719,7 +11004,7 @@
         <v>351</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>126</v>
@@ -10800,7 +11085,7 @@
         <v>260</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="J68" s="5" t="s">
         <v>264</v>
@@ -10864,7 +11149,7 @@
         <v>259</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J70" s="5" t="s">
         <v>266</v>
@@ -10962,13 +11247,13 @@
         <v>116</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>306</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J73" s="5" t="str">
         <f t="shared" ref="J73" si="12">"Fetches a bundle of all "&amp;B73&amp;" resources for the specified "&amp;SUBSTITUTE(D73,","," and ")</f>
@@ -10995,13 +11280,13 @@
         <v>116</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H74" s="5" t="s">
         <v>305</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J74" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B74&amp;" resources for the specified patient and a category code = `vital-signs`"</f>
@@ -11028,7 +11313,7 @@
         <v>116</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H75" s="5" t="s">
         <v>308</v>
@@ -11061,13 +11346,13 @@
         <v>234</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H76" s="5" t="s">
         <v>311</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J76" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B76&amp;" resources for the specified patient and date and a category code = `vital-signs`"</f>
@@ -11299,7 +11584,7 @@
         <v>271</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>128</v>

--- a/source/source_spreadsheets/uscore-server.xlsx
+++ b/source/source_spreadsheets/uscore-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Argo-R4\source\source_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA686D4-CFEF-4B7F-A1B3-4C5D0B2C4F09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967313B3-02C2-4036-ADA6-66FD343E9D06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="516">
   <si>
     <t>Element</t>
   </si>
@@ -4052,11 +4052,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AB95"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G47" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="AA65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B62" sqref="B62"/>
+      <selection pane="bottomRight" activeCell="AA80" sqref="AA80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.95" customHeight="1"/>
@@ -4359,6 +4359,9 @@
       <c r="K5" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="L5" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="M5" s="1" t="s">
         <v>62</v>
       </c>
@@ -4616,6 +4619,9 @@
       </c>
       <c r="K10" s="1" t="s">
         <v>62</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>62</v>
@@ -4776,6 +4782,9 @@
       <c r="K13" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="L13" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="M13" s="1" t="s">
         <v>62</v>
       </c>
@@ -5044,6 +5053,9 @@
       </c>
       <c r="K18" s="1" t="s">
         <v>62</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>62</v>
@@ -5982,6 +5994,9 @@
       <c r="K37" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="L37" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="M37" s="1" t="s">
         <v>62</v>
       </c>
@@ -6251,6 +6266,9 @@
       <c r="K42" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="L42" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="M42" s="1" t="s">
         <v>62</v>
       </c>
@@ -6567,6 +6585,9 @@
       <c r="K48" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="L48" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="M48" s="1" t="s">
         <v>62</v>
       </c>
@@ -6830,6 +6851,9 @@
       <c r="K53" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="L53" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="M53" s="1" t="s">
         <v>62</v>
       </c>
@@ -7046,6 +7070,9 @@
       <c r="K57" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="L57" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="M57" s="1" t="s">
         <v>62</v>
       </c>
@@ -7255,6 +7282,9 @@
       <c r="K61" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="L61" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="M61" s="1" t="s">
         <v>62</v>
       </c>
@@ -7420,6 +7450,9 @@
       <c r="K64" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="L64" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="M64" s="1" t="s">
         <v>62</v>
       </c>
@@ -7789,6 +7822,9 @@
       <c r="K71" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="L71" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="M71" s="1" t="s">
         <v>62</v>
       </c>
@@ -7999,6 +8035,9 @@
       <c r="K75" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="L75" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="M75" s="1" t="s">
         <v>62</v>
       </c>
@@ -8111,6 +8150,9 @@
       <c r="K77" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="L77" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="M77" s="1" t="s">
         <v>62</v>
       </c>
@@ -8204,8 +8246,8 @@
         <v>1</v>
       </c>
       <c r="F79" s="1" t="str">
-        <f t="shared" si="29"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-device</v>
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-"&amp;LOWER(B79)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-device</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>62</v>
@@ -8223,6 +8265,9 @@
       <c r="K79" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="L79" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="M79" s="1" t="s">
         <v>62</v>
       </c>
@@ -8263,8 +8308,8 @@
         <v>0</v>
       </c>
       <c r="F80" s="1" t="str">
-        <f t="shared" si="29"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-device</v>
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-"&amp;LOWER(B80)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-device</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>62</v>
@@ -9078,11 +9123,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G56" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C71" sqref="C71"/>
+      <selection pane="bottomRight" activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>

--- a/source/source_spreadsheets/uscore-server.xlsx
+++ b/source/source_spreadsheets/uscore-server.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Argo-R4\source\source_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967313B3-02C2-4036-ADA6-66FD343E9D06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2713329-AFD3-4663-A8A9-41EDF2988C08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/source/source_spreadsheets/uscore-server.xlsx
+++ b/source/source_spreadsheets/uscore-server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Argo-R4\source\source_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2713329-AFD3-4663-A8A9-41EDF2988C08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025AA6C0-E1F3-4EE6-8E06-FE0D9768B58F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-465" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -141,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="515">
   <si>
     <t>Element</t>
   </si>
@@ -1694,9 +1695,6 @@
   </si>
   <si>
     <t>If a system receives a provider in `Provenance.agent.who` as free text they must capture who sent them the information as the organization. On request they **SHALL** provide this organization as the source and **MAY** include the free text provider.</t>
-  </si>
-  <si>
-    <t>Provenance:target</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-provenance</t>
@@ -2279,7 +2277,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2636,10 +2634,10 @@
     </row>
     <row r="24" spans="1:6" s="1" customFormat="1">
       <c r="A24" s="11" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>13</v>
@@ -2680,10 +2678,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>511</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>512</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>13</v>
@@ -2704,10 +2702,10 @@
   <dimension ref="A1:X59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Q15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2815,9 +2813,6 @@
       <c r="S2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>510</v>
-      </c>
       <c r="X2" t="s">
         <v>22</v>
       </c>
@@ -2835,9 +2830,6 @@
       <c r="S3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>510</v>
-      </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="1" t="s">
@@ -2852,9 +2844,6 @@
       <c r="S4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>510</v>
-      </c>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="1" t="s">
@@ -2869,9 +2858,6 @@
       <c r="S5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>510</v>
-      </c>
       <c r="X5" t="s">
         <v>26</v>
       </c>
@@ -2889,9 +2875,6 @@
       <c r="S6" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>510</v>
-      </c>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="1" t="s">
@@ -2906,9 +2889,6 @@
       <c r="S7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>510</v>
-      </c>
     </row>
     <row r="8" spans="1:24" ht="75">
       <c r="A8" s="1" t="s">
@@ -2926,9 +2906,6 @@
       <c r="S8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>510</v>
-      </c>
     </row>
     <row r="9" spans="1:24">
       <c r="A9" s="1" t="s">
@@ -2943,9 +2920,6 @@
       <c r="S9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>510</v>
-      </c>
     </row>
     <row r="10" spans="1:24">
       <c r="A10" s="1" t="s">
@@ -2960,9 +2934,6 @@
       <c r="S10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>510</v>
-      </c>
     </row>
     <row r="11" spans="1:24">
       <c r="A11" s="1" t="s">
@@ -2977,9 +2948,6 @@
       <c r="S11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>510</v>
-      </c>
     </row>
     <row r="12" spans="1:24">
       <c r="A12" s="1" t="s">
@@ -2994,9 +2962,6 @@
       <c r="S12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>510</v>
-      </c>
     </row>
     <row r="13" spans="1:24" ht="105">
       <c r="A13" s="1" t="s">
@@ -3014,9 +2979,6 @@
       <c r="S13" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>510</v>
-      </c>
     </row>
     <row r="14" spans="1:24" ht="315">
       <c r="A14" s="1" t="s">
@@ -3037,9 +2999,6 @@
       <c r="U14" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>510</v>
-      </c>
     </row>
     <row r="15" spans="1:24" ht="315">
       <c r="A15" s="1" t="s">
@@ -3060,9 +3019,6 @@
       <c r="U15" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>510</v>
-      </c>
     </row>
     <row r="16" spans="1:24">
       <c r="A16" s="1" t="s">
@@ -3077,11 +3033,8 @@
       <c r="S16" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="1" t="s">
         <v>286</v>
       </c>
@@ -3094,11 +3047,8 @@
       <c r="S17" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -3111,11 +3061,8 @@
       <c r="S18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" s="1" t="s">
         <v>293</v>
       </c>
@@ -3128,11 +3075,8 @@
       <c r="S19" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" s="1" t="s">
         <v>296</v>
       </c>
@@ -3148,11 +3092,8 @@
       <c r="U20" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22">
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" s="1" t="s">
         <v>195</v>
       </c>
@@ -3165,11 +3106,8 @@
       <c r="S21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="90">
+    </row>
+    <row r="22" spans="1:21" ht="90">
       <c r="A22" t="s">
         <v>508</v>
       </c>
@@ -3186,13 +3124,13 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:21">
       <c r="A23"/>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:21">
       <c r="A24"/>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:21">
       <c r="A25"/>
     </row>
     <row r="56" spans="20:23" ht="18">
@@ -3204,7 +3142,7 @@
       <c r="W59" s="7"/>
     </row>
   </sheetData>
-  <sortState ref="A2:A21">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A21">
     <sortCondition ref="A2:A21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3218,7 +3156,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3276,10 +3214,10 @@
   <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T10" sqref="T10"/>
+      <selection pane="bottomRight" activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3360,7 +3298,7 @@
         <v>432</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="75">
@@ -3988,7 +3926,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4053,10 +3991,10 @@
   <dimension ref="A1:AB95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="AA65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA80" sqref="AA80"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.95" customHeight="1"/>
@@ -4359,9 +4297,6 @@
       <c r="K5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="M5" s="1" t="s">
         <v>62</v>
       </c>
@@ -4619,9 +4554,6 @@
       </c>
       <c r="K10" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>62</v>
@@ -4782,9 +4714,6 @@
       <c r="K13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="M13" s="1" t="s">
         <v>62</v>
       </c>
@@ -5053,9 +4982,6 @@
       </c>
       <c r="K18" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>62</v>
@@ -5994,9 +5920,6 @@
       <c r="K37" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L37" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="M37" s="1" t="s">
         <v>62</v>
       </c>
@@ -6266,9 +6189,6 @@
       <c r="K42" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L42" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="M42" s="1" t="s">
         <v>62</v>
       </c>
@@ -6585,9 +6505,6 @@
       <c r="K48" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L48" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="M48" s="1" t="s">
         <v>62</v>
       </c>
@@ -6851,9 +6768,6 @@
       <c r="K53" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L53" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="M53" s="1" t="s">
         <v>62</v>
       </c>
@@ -7070,9 +6984,6 @@
       <c r="K57" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L57" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="M57" s="1" t="s">
         <v>62</v>
       </c>
@@ -7282,9 +7193,6 @@
       <c r="K61" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L61" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="M61" s="1" t="s">
         <v>62</v>
       </c>
@@ -7450,9 +7358,6 @@
       <c r="K64" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L64" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="M64" s="1" t="s">
         <v>62</v>
       </c>
@@ -7822,9 +7727,6 @@
       <c r="K71" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L71" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="M71" s="1" t="s">
         <v>62</v>
       </c>
@@ -8035,9 +7937,6 @@
       <c r="K75" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L75" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="M75" s="1" t="s">
         <v>62</v>
       </c>
@@ -8150,9 +8049,6 @@
       <c r="K77" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L77" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="M77" s="1" t="s">
         <v>62</v>
       </c>
@@ -8265,9 +8161,6 @@
       <c r="K79" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L79" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="M79" s="1" t="s">
         <v>62</v>
       </c>
@@ -9105,12 +8998,14 @@
         <v>SearchParameter-us-core-practitionerrole-practitioner.html</v>
       </c>
     </row>
-    <row r="95" spans="1:28" ht="18.95" customHeight="1">
+    <row r="95" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y95" s="5"/>
+      <c r="Z95" s="7"/>
+      <c r="AA95" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AB94" xr:uid="{1CF5B17E-E72E-48B2-A597-9C21C12723F0}"/>
-  <sortState ref="A7:AA34">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:AA34">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9124,10 +9019,10 @@
   <dimension ref="A1:P84"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A87" sqref="A87"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>

--- a/source/source_spreadsheets/uscore-server.xlsx
+++ b/source/source_spreadsheets/uscore-server.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Argo-R4\source\source_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025AA6C0-E1F3-4EE6-8E06-FE0D9768B58F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737B265C-7C14-4526-A1BE-F586D883DB25}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-465" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <sheet name="sp_combos" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">sp_combos!$B$1:$B$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">sp_combos!$B$1:$B$113</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">sps!$A$1:$AB$94</definedName>
   </definedNames>
   <calcPr calcId="191029" refMode="R1C1"/>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2288" uniqueCount="528">
   <si>
     <t>Element</t>
   </si>
@@ -1204,9 +1204,6 @@
   </si>
   <si>
     <t>Fetches a bundle of all Condition resources for the specified patient and all "active" statuses (active,relapse,remission). This will not return any "entered in error" resources because of the conditional presence of the clinicalStatus element.</t>
-  </si>
-  <si>
-    <t>Fetches a bundle of all Condition resources for the specified patient and status code.  This will not return any "entered in error" resources because of the conditional presence of the clinicalStatus element.</t>
   </si>
   <si>
     <t>support searching a practitioner by an identifier such as an NPI</t>
@@ -1296,9 +1293,6 @@
     <t>US Core MedicationStatement Profile</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-device</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner</t>
   </si>
   <si>
@@ -1387,9 +1381,6 @@
   </si>
   <si>
     <t>US Core Encounter Profile</t>
-  </si>
-  <si>
-    <t>US Core Device Profile</t>
   </si>
   <si>
     <t>US Core AllergyIntolerance Profile</t>
@@ -1710,13 +1701,61 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-pulse-oximetry</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>support searching relevant Provenance records for a resource type</t>
+  </si>
+  <si>
+    <t>reference,special</t>
+  </si>
+  <si>
+    <t>support searching for all allergies and associated provenance for a patient</t>
+  </si>
+  <si>
+    <t>token,special</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all AllergyIntolerance resources for the specified patient and status code.  This will not return any "entered in error" resources because of the conditional presence of the clinicalStatus element.</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all AllergyIntolerance resources for the specified patient and any corresponding Provenance resources.</t>
+  </si>
+  <si>
+    <t>Fetches an AllergyIntolerance resource  (within the clients authorization scope) and any corresponding Provenance resources.</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-includeprovenance.html</t>
+  </si>
+  <si>
+    <t>support searching for an allergy and its associated provenance</t>
+  </si>
+  <si>
+    <t>US Core Implantable Device Profile</t>
+  </si>
+  <si>
+    <t>us-core-includeprovenance</t>
+  </si>
+  <si>
+    <t>patient,us-core-includeprovenance</t>
+  </si>
+  <si>
+    <t>_id,us-core-includeprovenance</t>
+  </si>
+  <si>
+    <t>GET [base]/AllergyIntolerance?patient=1137192&amp;us-core-includeprovenance</t>
+  </si>
+  <si>
+    <t>GET [base]/AllergyIntolerance?_id=12345&amp;us-core-includeprovenance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1787,13 +1826,25 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1829,11 +1880,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1861,8 +1913,10 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2201,7 +2255,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="105" customHeight="1">
@@ -2209,7 +2263,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2217,7 +2271,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2233,7 +2287,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="103.5" customHeight="1">
@@ -2241,7 +2295,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -2276,8 +2330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2304,10 +2358,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B2" t="s">
         <v>375</v>
-      </c>
-      <c r="B2" t="s">
-        <v>376</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -2319,10 +2373,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B3" t="s">
         <v>377</v>
-      </c>
-      <c r="B3" t="s">
-        <v>378</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -2334,10 +2388,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>379</v>
+        <v>496</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>410</v>
+        <v>522</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
@@ -2349,10 +2403,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -2367,7 +2421,7 @@
         <v>83</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -2379,10 +2433,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -2397,7 +2451,7 @@
         <v>302</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
@@ -2409,10 +2463,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>13</v>
@@ -2424,10 +2478,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>13</v>
@@ -2439,10 +2493,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>13</v>
@@ -2454,10 +2508,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
@@ -2469,10 +2523,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>13</v>
@@ -2484,10 +2538,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="11" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
@@ -2499,10 +2553,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>13</v>
@@ -2514,25 +2568,25 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>398</v>
       </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>13</v>
@@ -2547,7 +2601,7 @@
         <v>203</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>13</v>
@@ -2559,10 +2613,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>13</v>
@@ -2577,7 +2631,7 @@
         <v>255</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>13</v>
@@ -2589,10 +2643,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>13</v>
@@ -2604,10 +2658,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>13</v>
@@ -2619,10 +2673,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="11" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>13</v>
@@ -2634,10 +2688,10 @@
     </row>
     <row r="24" spans="1:6" s="1" customFormat="1">
       <c r="A24" s="11" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>13</v>
@@ -2651,7 +2705,7 @@
         <v>202</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>13</v>
@@ -2666,7 +2720,7 @@
         <v>81</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>13</v>
@@ -2678,16 +2732,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -2737,49 +2791,49 @@
         <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F1" t="s">
         <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H1" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>452</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>455</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>348</v>
@@ -2788,10 +2842,10 @@
         <v>349</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="X1" t="s">
         <v>20</v>
@@ -2898,7 +2952,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>21</v>
@@ -2965,13 +3019,13 @@
     </row>
     <row r="13" spans="1:24" ht="105">
       <c r="A13" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>21</v>
@@ -2988,7 +3042,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>21</v>
@@ -3002,13 +3056,13 @@
     </row>
     <row r="15" spans="1:24" ht="315">
       <c r="A15" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>21</v>
@@ -3017,7 +3071,7 @@
         <v>78</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -3109,13 +3163,13 @@
     </row>
     <row r="22" spans="1:21" ht="90">
       <c r="A22" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="R22" s="1" t="s">
         <v>21</v>
@@ -3186,10 +3240,10 @@
     </row>
     <row r="2" spans="1:5" ht="135.75" thickBot="1">
       <c r="A2" s="15" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>191</v>
@@ -3198,7 +3252,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3235,70 +3289,70 @@
         <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" t="s">
         <v>429</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="V1" t="s">
-        <v>432</v>
-      </c>
       <c r="W1" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="75">
@@ -3321,7 +3375,7 @@
         <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -3942,12 +3996,12 @@
         <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="59.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>34</v>
@@ -3956,7 +4010,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>34</v>
@@ -3965,7 +4019,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>34</v>
@@ -3974,7 +4028,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>34</v>
@@ -3988,23 +4042,24 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AB95"/>
+  <dimension ref="A1:AC113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="AB86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="1"/>
     <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
     <col min="6" max="6" width="73.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
     <col min="10" max="10" width="36.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="22.42578125" style="1" customWidth="1"/>
@@ -4779,7 +4834,7 @@
         <v>227</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AA14" s="2" t="s">
         <v>183</v>
@@ -5146,7 +5201,7 @@
         <v>84</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AB21" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B21)&amp;"-"&amp;SUBSTITUTE(C21,"_","")&amp;".html")</f>
@@ -6090,7 +6145,7 @@
         <v>314</v>
       </c>
       <c r="Z40" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AA40" s="2" t="s">
         <v>315</v>
@@ -6799,7 +6854,7 @@
         <v>193</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>34</v>
@@ -6906,7 +6961,7 @@
         <v>194</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>34</v>
@@ -7007,7 +7062,7 @@
         <v>194</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>34</v>
@@ -7109,7 +7164,7 @@
         <v>56</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>68</v>
@@ -7162,7 +7217,7 @@
         <v>57</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>99</v>
@@ -7204,7 +7259,7 @@
         <v>230</v>
       </c>
       <c r="Z61" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AA61" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B61&amp; " resources for the specified patient. Mandatory for client to support the _include parameter. Optional for server to support the _include parameter."</f>
@@ -7220,7 +7275,7 @@
         <v>58</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>247</v>
@@ -7501,7 +7556,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="1" t="str">
-        <f t="shared" ref="F67:F94" si="29">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B67)</f>
+        <f t="shared" ref="F67:F95" si="29">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B67)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation</v>
       </c>
       <c r="G67" s="1" t="s">
@@ -8867,10 +8922,10 @@
         <v>62</v>
       </c>
       <c r="Y92" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Z92" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AA92" s="12" t="str">
         <f>"Fetches a bundle containing any "&amp;B92&amp;" resources matching the identifier"</f>
@@ -8924,10 +8979,10 @@
         <v>300</v>
       </c>
       <c r="Y93" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Z93" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AA93" s="12" t="str">
         <f>"Fetches a bundle containing  "&amp;B93&amp;" resources matching the specialty"</f>
@@ -8987,7 +9042,7 @@
         <v>301</v>
       </c>
       <c r="Z94" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AA94" s="12" t="str">
         <f>"Fetches a bundle containing  "&amp;B94&amp;" resources matching the chained parameter practitioner.name or practitioner.identifier. SHOULD support the _include for PractionerRole.practitioner and PractitionerRole.endpoint."</f>
@@ -8999,9 +9054,743 @@
       </c>
     </row>
     <row r="95" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
-      <c r="Y95" s="5"/>
+      <c r="A95" s="17">
+        <v>91</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C95" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F95" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-allergyintolerance</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y95" s="5" t="s">
+        <v>513</v>
+      </c>
       <c r="Z95" s="7"/>
       <c r="AA95" s="12"/>
+      <c r="AB95" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A96" s="17">
+        <v>91</v>
+      </c>
+      <c r="B96" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="C96" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F96" s="1" t="str">
+        <f t="shared" ref="F96" si="42">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B96)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careplan</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y96" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="Z96" s="7"/>
+      <c r="AA96" s="12"/>
+      <c r="AB96" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="97" spans="1:29" ht="18.95" customHeight="1">
+      <c r="A97" s="17">
+        <v>92</v>
+      </c>
+      <c r="B97" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="C97" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F97" s="1" t="str">
+        <f t="shared" ref="F97:F113" si="43">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B97)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y97" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="Z97" s="7"/>
+      <c r="AA97" s="12"/>
+      <c r="AB97" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="AC97" s="1"/>
+    </row>
+    <row r="98" spans="1:29" ht="18.95" customHeight="1">
+      <c r="A98" s="17">
+        <v>93</v>
+      </c>
+      <c r="B98" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E98" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F98" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y98" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="Z98" s="7"/>
+      <c r="AA98" s="12"/>
+      <c r="AB98" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="AC98" s="1"/>
+    </row>
+    <row r="99" spans="1:29" ht="18.95" customHeight="1">
+      <c r="A99" s="17">
+        <v>94</v>
+      </c>
+      <c r="B99" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C99" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F99" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-diagnosticreport</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y99" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="Z99" s="7"/>
+      <c r="AA99" s="12"/>
+      <c r="AB99" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="AC99" s="1"/>
+    </row>
+    <row r="100" spans="1:29" ht="18.95" customHeight="1">
+      <c r="A100" s="17">
+        <v>95</v>
+      </c>
+      <c r="B100" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E100" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F100" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y100" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="Z100" s="7"/>
+      <c r="AA100" s="12"/>
+      <c r="AB100" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="AC100" s="1"/>
+    </row>
+    <row r="101" spans="1:29" ht="18.95" customHeight="1">
+      <c r="A101" s="17">
+        <v>96</v>
+      </c>
+      <c r="B101" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C101" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F101" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y101" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="Z101" s="7"/>
+      <c r="AA101" s="12"/>
+      <c r="AB101" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="AC101" s="1"/>
+    </row>
+    <row r="102" spans="1:29" ht="18.95" customHeight="1">
+      <c r="A102" s="17">
+        <v>97</v>
+      </c>
+      <c r="B102" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C102" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E102" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F102" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y102" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="Z102" s="7"/>
+      <c r="AA102" s="12"/>
+      <c r="AB102" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="AC102" s="1"/>
+    </row>
+    <row r="103" spans="1:29" ht="18.95" customHeight="1">
+      <c r="A103" s="17">
+        <v>98</v>
+      </c>
+      <c r="B103" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="C103" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E103" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F103" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y103" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="Z103" s="7"/>
+      <c r="AA103" s="12"/>
+      <c r="AB103" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="AC103" s="1"/>
+    </row>
+    <row r="104" spans="1:29" ht="18.95" customHeight="1">
+      <c r="A104" s="17">
+        <v>99</v>
+      </c>
+      <c r="B104" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="C104" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E104" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F104" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-device</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y104" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="Z104" s="7"/>
+      <c r="AA104" s="12"/>
+      <c r="AB104" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="AC104" s="1"/>
+    </row>
+    <row r="105" spans="1:29" ht="18.95" customHeight="1">
+      <c r="A105" s="17">
+        <v>100</v>
+      </c>
+      <c r="B105" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="C105" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E105" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F105" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y105" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="Z105" s="7"/>
+      <c r="AA105" s="12"/>
+      <c r="AB105" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="AC105" s="1"/>
+    </row>
+    <row r="106" spans="1:29" ht="18.95" customHeight="1">
+      <c r="A106" s="17">
+        <v>101</v>
+      </c>
+      <c r="B106" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="C106" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E106" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F106" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y106" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="Z106" s="7"/>
+      <c r="AA106" s="12"/>
+      <c r="AB106" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="AC106" s="1"/>
+    </row>
+    <row r="107" spans="1:29" ht="18.95" customHeight="1">
+      <c r="A107" s="17">
+        <v>102</v>
+      </c>
+      <c r="B107" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="C107" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E107" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F107" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medication</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y107" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="Z107" s="7"/>
+      <c r="AA107" s="12"/>
+      <c r="AB107" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="AC107" s="1"/>
+    </row>
+    <row r="108" spans="1:29" ht="18.95" customHeight="1">
+      <c r="A108" s="17">
+        <v>103</v>
+      </c>
+      <c r="B108" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="C108" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E108" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F108" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y108" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="Z108" s="7"/>
+      <c r="AA108" s="12"/>
+      <c r="AB108" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="AC108" s="1"/>
+    </row>
+    <row r="109" spans="1:29" ht="18.95" customHeight="1">
+      <c r="A109" s="17">
+        <v>104</v>
+      </c>
+      <c r="B109" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="C109" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E109" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F109" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y109" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="Z109" s="7"/>
+      <c r="AA109" s="12"/>
+      <c r="AB109" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="AC109" s="1"/>
+    </row>
+    <row r="110" spans="1:29" ht="18.95" customHeight="1">
+      <c r="A110" s="17">
+        <v>105</v>
+      </c>
+      <c r="B110" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C110" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E110" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F110" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y110" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="Z110" s="7"/>
+      <c r="AA110" s="12"/>
+      <c r="AB110" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="AC110" s="1"/>
+    </row>
+    <row r="111" spans="1:29" ht="18.95" customHeight="1">
+      <c r="A111" s="17">
+        <v>106</v>
+      </c>
+      <c r="B111" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="C111" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E111" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F111" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y111" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="Z111" s="7"/>
+      <c r="AA111" s="12"/>
+      <c r="AB111" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="AC111" s="1"/>
+    </row>
+    <row r="112" spans="1:29" ht="18.95" customHeight="1">
+      <c r="A112" s="17">
+        <v>107</v>
+      </c>
+      <c r="B112" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="C112" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E112" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F112" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y112" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="Z112" s="7"/>
+      <c r="AA112" s="12"/>
+      <c r="AB112" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="AC112" s="1"/>
+    </row>
+    <row r="113" spans="1:29" ht="18.95" customHeight="1">
+      <c r="A113" s="17">
+        <v>108</v>
+      </c>
+      <c r="B113" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C113" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E113" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F113" s="1" t="str">
+        <f t="shared" si="43"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y113" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="Z113" s="7"/>
+      <c r="AA113" s="12"/>
+      <c r="AB113" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="AC113" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AB94" xr:uid="{1CF5B17E-E72E-48B2-A597-9C21C12723F0}"/>
@@ -9009,20 +9798,20 @@
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:P84"/>
+  <dimension ref="A1:P126"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3:E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -9034,7 +9823,7 @@
     <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="38.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="88.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="82.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
@@ -9092,7 +9881,7 @@
         <v>110</v>
       </c>
       <c r="J2" s="5" t="str">
-        <f t="shared" ref="J2:J28" si="1">"Fetches a bundle of all "&amp;B2&amp;" resources matching the specified "&amp;SUBSTITUTE(D2,","," and ")</f>
+        <f t="shared" ref="J2:J30" si="1">"Fetches a bundle of all "&amp;B2&amp;" resources matching the specified "&amp;SUBSTITUTE(D2,","," and ")</f>
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date</v>
       </c>
     </row>
@@ -9210,7 +9999,7 @@
         <v>168</v>
       </c>
       <c r="C7" s="1" t="str">
-        <f t="shared" ref="C7:C60" si="2">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B7)</f>
+        <f t="shared" ref="C7:C78" si="2">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B7)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
       </c>
       <c r="D7" t="s">
@@ -9552,62 +10341,77 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified status and type</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" s="1" customFormat="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>169</v>
-      </c>
-      <c r="C20" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
-      </c>
-      <c r="D20" t="s">
-        <v>130</v>
-      </c>
-      <c r="E20" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" t="s">
-        <v>131</v>
-      </c>
-      <c r="I20" s="5"/>
+      <c r="B20" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="17" t="str">
+        <f t="shared" ref="C20:C21" si="3">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B20)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="H20" s="5" t="str">
+        <f>"support searching for all "&amp;LOWER(B20&amp;"s and associated provenance for a patient")</f>
+        <v>support searching for all encounters and associated provenance for a patient</v>
+      </c>
+      <c r="I20" s="5" t="str">
+        <f>"GET [base]/"&amp;B20&amp;"?patient=1137192&amp;us-core-includeprovenance"</f>
+        <v>GET [base]/Encounter?patient=1137192&amp;us-core-includeprovenance</v>
+      </c>
       <c r="J20" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <f>"Fetches a bundle of all "&amp;B21&amp;" resources for the specified patient and any corresponding Provenance resources."</f>
+        <v>Fetches a bundle of all Encounter resources for the specified patient and any corresponding Provenance resources.</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="1" customFormat="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C21" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B21)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
-      </c>
-      <c r="D21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" t="s">
-        <v>133</v>
+      <c r="B21" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H21" s="5" t="str">
+        <f>"support searching for a "&amp;LOWER(B21&amp;" and its associated provenance")</f>
+        <v>support searching for a encounter and its associated provenance</v>
+      </c>
+      <c r="I21" s="5" t="str">
+        <f>"GET [base]/"&amp;B21&amp;"?_id=12345&amp;us-core-includeprovenance"</f>
+        <v>GET [base]/Encounter?_id=12345&amp;us-core-includeprovenance</v>
       </c>
       <c r="J21" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher and status</v>
+        <f>"Fetches a "&amp;B21&amp;" resource (within the clients authorization scope) and any corresponding Provenance resources."</f>
+        <v>Fetches a Encounter resource (within the clients authorization scope) and any corresponding Provenance resources.</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>169</v>
       </c>
       <c r="C22" s="1" t="str">
@@ -9615,18 +10419,18 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
       <c r="D22" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E22" t="s">
         <v>78</v>
       </c>
       <c r="F22" t="s">
-        <v>135</v>
-      </c>
-      <c r="H22" s="5"/>
+        <v>131</v>
+      </c>
+      <c r="I22" s="5"/>
       <c r="J22" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and status</v>
+        <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -9637,23 +10441,21 @@
         <v>169</v>
       </c>
       <c r="C23" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B23)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
       <c r="D23" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F23" t="s">
-        <v>137</v>
-      </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+        <v>133</v>
+      </c>
       <c r="J23" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status</v>
+        <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher and status</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -9668,19 +10470,18 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
       <c r="D24" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E24" t="s">
         <v>78</v>
       </c>
       <c r="F24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
       <c r="J24" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status and version</v>
+        <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and status</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -9695,10 +10496,10 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
       <c r="D25" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E25" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="F25" t="s">
         <v>137</v>
@@ -9707,7 +10508,7 @@
       <c r="I25" s="5"/>
       <c r="J25" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and version</v>
+        <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -9722,7 +10523,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
       <c r="D26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E26" t="s">
         <v>78</v>
@@ -9730,9 +10531,11 @@
       <c r="F26" t="s">
         <v>137</v>
       </c>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
       <c r="J26" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified status and title and version</v>
+        <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status and version</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -9747,17 +10550,19 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
       <c r="D27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E27" t="s">
         <v>78</v>
       </c>
       <c r="F27" t="s">
-        <v>63</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
       <c r="J27" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified status and version</v>
+        <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and version</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -9772,7 +10577,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
       <c r="D28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E28" t="s">
         <v>78</v>
@@ -9782,69 +10587,57 @@
       </c>
       <c r="J28" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified title and version</v>
+        <v>Fetches a bundle of all !Questionnaire resources matching the specified status and title and version</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>24</v>
+      <c r="B29" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="C29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
       <c r="D29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E29" t="s">
         <v>78</v>
       </c>
       <c r="F29" t="s">
-        <v>144</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>190</v>
+        <v>63</v>
       </c>
       <c r="J29" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B29&amp;" resources matching the specified "&amp;SUBSTITUTE(D29,","," and ")</f>
-        <v>Fetches a bundle of all Patient resources matching the specified birthdate and family</v>
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all !Questionnaire resources matching the specified status and version</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>24</v>
+      <c r="B30" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="C30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
       <c r="D30" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F30" t="s">
-        <v>144</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c r="J30" s="5" t="str">
-        <f t="shared" ref="J30:J32" si="3">"Fetches a bundle of all "&amp;B30&amp;" resources matching the specified "&amp;SUBSTITUTE(D30,","," and ")</f>
-        <v>Fetches a bundle of all Patient resources matching the specified birthdate and name</v>
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all !Questionnaire resources matching the specified title and version</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -9859,23 +10652,23 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
       </c>
       <c r="D31" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E31" t="s">
         <v>78</v>
       </c>
       <c r="F31" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J31" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Fetches a bundle of all Patient resources matching the specified family and gender</v>
+        <f>"Fetches a bundle of all "&amp;B31&amp;" resources matching the specified "&amp;SUBSTITUTE(D31,","," and ")</f>
+        <v>Fetches a bundle of all Patient resources matching the specified birthdate and family</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -9890,146 +10683,151 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
       </c>
       <c r="D32" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E32" t="s">
         <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J32" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>Fetches a bundle of all Patient resources matching the specified gender and name</v>
+        <f t="shared" ref="J32:J34" si="4">"Fetches a bundle of all "&amp;B32&amp;" resources matching the specified "&amp;SUBSTITUTE(D32,","," and ")</f>
+        <v>Fetches a bundle of all Patient resources matching the specified birthdate and name</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>148</v>
+      <c r="B33" t="s">
+        <v>24</v>
       </c>
       <c r="C33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>362</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
+      </c>
+      <c r="D33" t="s">
+        <v>146</v>
+      </c>
+      <c r="E33" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" t="s">
+        <v>137</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>353</v>
+        <v>189</v>
+      </c>
+      <c r="J33" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Fetches a bundle of all Patient resources matching the specified family and gender</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>148</v>
+      <c r="B34" t="s">
+        <v>24</v>
       </c>
       <c r="C34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>116</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
+      </c>
+      <c r="D34" t="s">
+        <v>147</v>
+      </c>
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" t="s">
+        <v>137</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>188</v>
+      </c>
+      <c r="J34" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Fetches a bundle of all Patient resources matching the specified gender and name</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="1" customFormat="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C35" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>78</v>
+      <c r="B35" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="17" t="str">
+        <f t="shared" ref="C35:C36" si="5">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B35)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>162</v>
+        <v>514</v>
+      </c>
+      <c r="H35" s="5" t="str">
+        <f>"support searching for all "&amp;LOWER(B35&amp;"s and associated provenance for a patient")</f>
+        <v>support searching for all patients and associated provenance for a patient</v>
+      </c>
+      <c r="I35" s="5" t="str">
+        <f>"GET [base]/"&amp;B35&amp;"?patient=1137192&amp;us-core-includeprovenance"</f>
+        <v>GET [base]/Patient?patient=1137192&amp;us-core-includeprovenance</v>
+      </c>
+      <c r="J35" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B36&amp;" resources for the specified patient and any corresponding Provenance resources."</f>
+        <v>Fetches a bundle of all Patient resources for the specified patient and any corresponding Provenance resources.</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="1" customFormat="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C36" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>78</v>
+      <c r="B36" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>167</v>
+        <v>516</v>
+      </c>
+      <c r="H36" s="5" t="str">
+        <f>"support searching for a "&amp;LOWER(B36&amp;" and its associated provenance")</f>
+        <v>support searching for a patient and its associated provenance</v>
+      </c>
+      <c r="I36" s="5" t="str">
+        <f>"GET [base]/"&amp;B36&amp;"?_id=12345&amp;us-core-includeprovenance"</f>
+        <v>GET [base]/Patient?_id=12345&amp;us-core-includeprovenance</v>
+      </c>
+      <c r="J36" s="5" t="str">
+        <f>"Fetches a "&amp;B36&amp;" resource (within the clients authorization scope) and any corresponding Provenance resources."</f>
+        <v>Fetches a Patient resource (within the clients authorization scope) and any corresponding Provenance resources.</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -10037,11 +10835,11 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="C37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-allergyintolerance</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>154</v>
@@ -10052,76 +10850,77 @@
       <c r="F37" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="G37" s="1" t="s">
+        <v>361</v>
+      </c>
       <c r="H37" s="5" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="1" customFormat="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="C38" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="J38" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B38&amp;" resources for the specified "&amp;SUBSTITUTE(D38,","," and ")</f>
-        <v>Fetches a bundle of all Immunization resources for the specified patient and date</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" s="1" customFormat="1">
+        <v>365</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="C39" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>342</v>
+        <v>161</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="J39" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B39&amp;" resources for the specified "&amp;SUBSTITUTE(D39,","," and ")</f>
-        <v>Fetches a bundle of all Immunization resources for the specified patient and status</v>
+        <v>363</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="1" customFormat="1">
@@ -10129,185 +10928,185 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>202</v>
+        <v>148</v>
+      </c>
+      <c r="C40" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>215</v>
+        <v>163</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="J40" s="5" t="str">
-        <f t="shared" ref="J40:J58" si="4">"Fetches a bundle of all "&amp;B40&amp;" resources for the specified "&amp;SUBSTITUTE(D40,","," and ")</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="1" customFormat="1" ht="15.75">
+        <v>164</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="1" customFormat="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E41" s="1" t="s">
+      <c r="B41" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="E41" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>210</v>
+        <v>514</v>
+      </c>
+      <c r="H41" s="5" t="str">
+        <f>"support searching for all "&amp;LOWER(B41&amp;"s and associated provenance for a patient")</f>
+        <v>support searching for all conditions and associated provenance for a patient</v>
+      </c>
+      <c r="I41" s="5" t="str">
+        <f>"GET [base]/"&amp;B41&amp;"?patient=1137192&amp;us-core-includeprovenance"</f>
+        <v>GET [base]/Condition?patient=1137192&amp;us-core-includeprovenance</v>
       </c>
       <c r="J41" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B41&amp;" resources for the specified patient and  a category code = `LAB`"</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code = `LAB`</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="1" customFormat="1" ht="15.75">
+        <f>"Fetches a bundle of all "&amp;B42&amp;" resources for the specified patient and any corresponding Provenance resources."</f>
+        <v>Fetches a bundle of all Condition resources for the specified patient and any corresponding Provenance resources.</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="1" customFormat="1">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E42" s="1" t="s">
+      <c r="B42" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="E42" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>212</v>
+        <v>516</v>
+      </c>
+      <c r="H42" s="5" t="str">
+        <f>"support searching for a "&amp;LOWER(B42&amp;" and its associated provenance")</f>
+        <v>support searching for a condition and its associated provenance</v>
+      </c>
+      <c r="I42" s="5" t="str">
+        <f>"GET [base]/"&amp;B42&amp;"?_id=12345&amp;us-core-includeprovenance"</f>
+        <v>GET [base]/Condition?_id=12345&amp;us-core-includeprovenance</v>
       </c>
       <c r="J42" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B42&amp;" resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes."</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="1" customFormat="1" ht="15.75">
+        <f>"Fetches a "&amp;B42&amp;" resource (within the clients authorization scope) and any corresponding Provenance resources."</f>
+        <v>Fetches a Condition resource (within the clients authorization scope) and any corresponding Provenance resources.</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>202</v>
+        <v>23</v>
+      </c>
+      <c r="C43" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-allergyintolerance</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>208</v>
+        <v>154</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>358</v>
+        <v>116</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="J43" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B43&amp;" resources for the specified patient and date and a category code = `LAB`"</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code = `LAB`</v>
+        <v>173</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="44" spans="1:10" s="1" customFormat="1">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>78</v>
+      <c r="B44" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="17" t="str">
+        <f t="shared" ref="C44" si="6">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B44)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-allergyintolerance</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>234</v>
+        <v>514</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>244</v>
+        <v>515</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="J44" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B44&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
+        <v>526</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="45" spans="1:10" s="1" customFormat="1">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>78</v>
+      <c r="B45" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="17" t="str">
+        <f t="shared" ref="C45" si="7">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B45)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-allergyintolerance</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>116</v>
+        <v>516</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>332</v>
+        <v>521</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="J45" s="5" t="str">
-        <f t="shared" ref="J45" si="5">"Fetches a bundle of all "&amp;B45&amp;" resources for the specified "&amp;SUBSTITUTE(D45,","," and ")</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
+        <v>527</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="46" spans="1:10" s="1" customFormat="1">
@@ -10315,29 +11114,30 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>203</v>
+        <v>172</v>
+      </c>
+      <c r="C46" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="J46" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B46&amp;" resources for the specified patient and  a category code specified in US Core DiagnosticReport Category Codes"</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code specified in US Core DiagnosticReport Category Codes</v>
+        <f>"Fetches a bundle of all "&amp;B46&amp;" resources for the specified "&amp;SUBSTITUTE(D46,","," and ")</f>
+        <v>Fetches a bundle of all Immunization resources for the specified patient and date</v>
       </c>
     </row>
     <row r="47" spans="1:10" s="1" customFormat="1">
@@ -10345,89 +11145,96 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>203</v>
+        <v>172</v>
+      </c>
+      <c r="C47" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>214</v>
+        <v>342</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="J47" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B47&amp;" resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes."</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
+        <f>"Fetches a bundle of all "&amp;B47&amp;" resources for the specified "&amp;SUBSTITUTE(D47,","," and ")</f>
+        <v>Fetches a bundle of all Immunization resources for the specified patient and status</v>
       </c>
     </row>
     <row r="48" spans="1:10" s="1" customFormat="1">
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>78</v>
+      <c r="B48" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="C48" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>218</v>
+        <v>514</v>
+      </c>
+      <c r="H48" s="5" t="str">
+        <f>"support searching for all "&amp;LOWER(B48&amp;"s and associated provenance for a patient")</f>
+        <v>support searching for all immunizations and associated provenance for a patient</v>
+      </c>
+      <c r="I48" s="5" t="str">
+        <f>"GET [base]/"&amp;B48&amp;"?patient=1137192&amp;us-core-includeprovenance"</f>
+        <v>GET [base]/Immunization?patient=1137192&amp;us-core-includeprovenance</v>
       </c>
       <c r="J48" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B48&amp;" resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes"</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes</v>
+        <f>"Fetches a bundle of all "&amp;B49&amp;" resources for the specified patient and any corresponding Provenance resources."</f>
+        <v>Fetches a bundle of all Immunization resources for the specified patient and any corresponding Provenance resources.</v>
       </c>
     </row>
     <row r="49" spans="1:10" s="1" customFormat="1">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>78</v>
+      <c r="B49" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="C49" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>237</v>
+        <v>516</v>
+      </c>
+      <c r="H49" s="5" t="str">
+        <f>"support searching for a "&amp;LOWER(B49&amp;" and its associated provenance")</f>
+        <v>support searching for a immunization and its associated provenance</v>
+      </c>
+      <c r="I49" s="5" t="str">
+        <f>"GET [base]/"&amp;B49&amp;"?_id=12345&amp;us-core-includeprovenance"</f>
+        <v>GET [base]/Immunization?_id=12345&amp;us-core-includeprovenance</v>
       </c>
       <c r="J49" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B49&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
+        <f>"Fetches a "&amp;B49&amp;" resource (within the clients authorization scope) and any corresponding Provenance resources."</f>
+        <v>Fetches a Immunization resource (within the clients authorization scope) and any corresponding Provenance resources.</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="1" customFormat="1">
@@ -10435,14 +11242,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C50" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
+        <v>192</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>346</v>
+        <v>126</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>78</v>
@@ -10451,60 +11257,61 @@
         <v>116</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>347</v>
+        <v>198</v>
       </c>
       <c r="J50" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Fetches a bundle of all Goal resources for the specified patient and lifecycle-status</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" s="1" customFormat="1">
+        <f t="shared" ref="J50:J76" si="8">"Fetches a bundle of all "&amp;B50&amp;" resources for the specified "&amp;SUBSTITUTE(D50,","," and ")</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="1" customFormat="1" ht="15.75">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C51" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
+        <v>192</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>462</v>
+        <v>155</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>159</v>
+        <v>116</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>357</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>463</v>
+        <v>207</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>210</v>
       </c>
       <c r="J51" s="5" t="str">
-        <f t="shared" ref="J51" si="6">"Fetches a bundle of all "&amp;B51&amp;" resources for the specified "&amp;SUBSTITUTE(D51,","," and ")</f>
-        <v>Fetches a bundle of all Goal resources for the specified patient and target-date</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" s="1" customFormat="1">
+        <f>"Fetches a bundle of all "&amp;B51&amp;" resources for the specified patient and  a category code = `LAB`"</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code = `LAB`</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="1" customFormat="1" ht="15.75">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C52" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
+        <v>192</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>487</v>
+        <v>157</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>13</v>
@@ -10512,50 +11319,48 @@
       <c r="F52" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>491</v>
-      </c>
       <c r="H52" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="1" customFormat="1">
+        <v>240</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="J52" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B52&amp;" resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes."</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="1" customFormat="1" ht="15.75">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C53" s="1" t="str">
-        <f t="shared" ref="C53" si="7">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B53)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
+        <v>192</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>488</v>
+        <v>208</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>116</v>
+        <v>234</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>491</v>
+        <v>357</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>495</v>
+        <v>209</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="J53" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B53&amp;" resources for the specified patient and date and a category code = `LAB`"</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code = `LAB`</v>
       </c>
     </row>
     <row r="54" spans="1:10" s="1" customFormat="1">
@@ -10563,96 +11368,93 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C54" s="1" t="str">
-        <f t="shared" ref="C54" si="8">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B54)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
+        <v>192</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>490</v>
+        <v>235</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>491</v>
+        <v>234</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>199</v>
+        <v>244</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="J54" s="5" t="s">
-        <v>497</v>
+        <v>237</v>
+      </c>
+      <c r="J54" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B54&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
     <row r="55" spans="1:10" s="1" customFormat="1">
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C55" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>78</v>
+      <c r="B55" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="J55" s="5" t="s">
-        <v>496</v>
+        <v>514</v>
+      </c>
+      <c r="H55" s="5" t="str">
+        <f>"support searching for all "&amp;LOWER(B55&amp;"s and associated provenance for a patient")</f>
+        <v>support searching for all diagnosticreports and associated provenance for a patient</v>
+      </c>
+      <c r="I55" s="5" t="str">
+        <f>"GET [base]/"&amp;B55&amp;"?patient=1137192&amp;us-core-includeprovenance"</f>
+        <v>GET [base]/DiagnosticReport?patient=1137192&amp;us-core-includeprovenance</v>
+      </c>
+      <c r="J55" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B56&amp;" resources for the specified patient and any corresponding Provenance resources."</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and any corresponding Provenance resources.</v>
       </c>
     </row>
     <row r="56" spans="1:10" s="1" customFormat="1">
       <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="C56" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationstatement</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>78</v>
+      <c r="B56" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>458</v>
+        <v>516</v>
+      </c>
+      <c r="H56" s="5" t="str">
+        <f>"support searching for a "&amp;LOWER(B56&amp;" and its associated provenance")</f>
+        <v>support searching for a diagnosticreport and its associated provenance</v>
+      </c>
+      <c r="I56" s="5" t="str">
+        <f>"GET [base]/"&amp;B56&amp;"?_id=12345&amp;us-core-includeprovenance"</f>
+        <v>GET [base]/DiagnosticReport?_id=12345&amp;us-core-includeprovenance</v>
       </c>
       <c r="J56" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Fetches a bundle of all !MedicationStatement resources for the specified patient and status</v>
+        <f>"Fetches a "&amp;B56&amp;" resource (within the clients authorization scope) and any corresponding Provenance resources."</f>
+        <v>Fetches a DiagnosticReport resource (within the clients authorization scope) and any corresponding Provenance resources.</v>
       </c>
     </row>
     <row r="57" spans="1:10" s="1" customFormat="1">
@@ -10660,29 +11462,29 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="C57" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationstatement</v>
+        <v>192</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>203</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>250</v>
+        <v>332</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="J57" s="5" t="s">
-        <v>252</v>
+        <v>198</v>
+      </c>
+      <c r="J57" s="5" t="str">
+        <f t="shared" ref="J57" si="9">"Fetches a bundle of all "&amp;B57&amp;" resources for the specified "&amp;SUBSTITUTE(D57,","," and ")</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
       </c>
     </row>
     <row r="58" spans="1:10" s="1" customFormat="1">
@@ -10690,14 +11492,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C58" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
+        <v>192</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>203</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>78</v>
@@ -10706,14 +11507,14 @@
         <v>116</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J58" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Fetches a bundle of all Procedure resources for the specified patient and status</v>
+        <f>"Fetches a bundle of all "&amp;B58&amp;" resources for the specified patient and  a category code specified in US Core DiagnosticReport Category Codes"</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code specified in US Core DiagnosticReport Category Codes</v>
       </c>
     </row>
     <row r="59" spans="1:10" s="1" customFormat="1">
@@ -10721,14 +11522,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C59" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
+        <v>192</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>203</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>13</v>
@@ -10737,14 +11537,14 @@
         <v>116</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="J59" s="5" t="str">
-        <f t="shared" ref="J59" si="9">"Fetches a bundle of all "&amp;B59&amp;" resources for the specified "&amp;SUBSTITUTE(D59,","," and ")</f>
-        <v>Fetches a bundle of all Procedure resources for the specified patient and date</v>
+        <f>"Fetches a bundle of all "&amp;B59&amp;" resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes."</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
     <row r="60" spans="1:10" s="1" customFormat="1">
@@ -10752,14 +11552,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C60" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
+        <v>192</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>203</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>78</v>
@@ -10768,14 +11567,14 @@
         <v>234</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="J60" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B60&amp;" resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes."</f>
-        <v>Fetches a bundle of all Procedure resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes.</v>
+        <f>"Fetches a bundle of all "&amp;B60&amp;" resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes"</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes</v>
       </c>
     </row>
     <row r="61" spans="1:10" s="1" customFormat="1">
@@ -10783,94 +11582,93 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>469</v>
+        <v>192</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>203</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>475</v>
+        <v>234</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>307</v>
+        <v>236</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="J61" s="5" t="s">
-        <v>352</v>
+        <v>237</v>
+      </c>
+      <c r="J61" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B61&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
     <row r="62" spans="1:10" s="1" customFormat="1">
       <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E62" s="1" t="s">
+      <c r="B62" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="E62" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>477</v>
+        <v>514</v>
+      </c>
+      <c r="H62" s="5" t="str">
+        <f>"support searching for all "&amp;LOWER(B62&amp;"s and associated provenance for a patient")</f>
+        <v>support searching for all diagnosticreports and associated provenance for a patient</v>
+      </c>
+      <c r="I62" s="5" t="str">
+        <f>"GET [base]/"&amp;B62&amp;"?patient=1137192&amp;us-core-includeprovenance"</f>
+        <v>GET [base]/DiagnosticReport?patient=1137192&amp;us-core-includeprovenance</v>
       </c>
       <c r="J62" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B62&amp;" resources for the specified patient and a category code = `laboratory`"</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `laboratory`</v>
+        <f>"Fetches a bundle of all "&amp;B63&amp;" resources for the specified patient and any corresponding Provenance resources."</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and any corresponding Provenance resources.</v>
       </c>
     </row>
     <row r="63" spans="1:10" s="1" customFormat="1">
       <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E63" s="1" t="s">
+      <c r="B63" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="E63" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>365</v>
+        <v>516</v>
+      </c>
+      <c r="H63" s="5" t="str">
+        <f>"support searching for a "&amp;LOWER(B63&amp;" and its associated provenance")</f>
+        <v>support searching for a diagnosticreport and its associated provenance</v>
+      </c>
+      <c r="I63" s="5" t="str">
+        <f>"GET [base]/"&amp;B63&amp;"?_id=12345&amp;us-core-includeprovenance"</f>
+        <v>GET [base]/DiagnosticReport?_id=12345&amp;us-core-includeprovenance</v>
       </c>
       <c r="J63" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B63&amp;" resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only."</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only.</v>
+        <f>"Fetches a "&amp;B63&amp;" resource (within the clients authorization scope) and any corresponding Provenance resources."</f>
+        <v>Fetches a DiagnosticReport resource (within the clients authorization scope) and any corresponding Provenance resources.</v>
       </c>
     </row>
     <row r="64" spans="1:10" s="1" customFormat="1">
@@ -10878,581 +11676,577 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>469</v>
+        <v>193</v>
+      </c>
+      <c r="C64" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>208</v>
+        <v>346</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>475</v>
+        <v>116</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>478</v>
+        <v>347</v>
       </c>
       <c r="J64" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B64&amp;" resources for the specified patient and date and a category code = `laboratory`"</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `laboratory`</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" s="1" customFormat="1">
+        <f t="shared" si="8"/>
+        <v>Fetches a bundle of all Goal resources for the specified patient and lifecycle-status</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="1" customFormat="1">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>469</v>
+        <v>193</v>
+      </c>
+      <c r="C65" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>235</v>
+        <v>459</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>234</v>
+        <v>159</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>239</v>
+        <v>460</v>
       </c>
       <c r="J65" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B65&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" s="1" customFormat="1">
+        <f t="shared" ref="J65" si="10">"Fetches a bundle of all "&amp;B65&amp;" resources for the specified "&amp;SUBSTITUTE(D65,","," and ")</f>
+        <v>Fetches a bundle of all Goal resources for the specified patient and target-date</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="1" customFormat="1">
       <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>78</v>
+      <c r="B66" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C66" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="I66" s="5" t="s">
-        <v>221</v>
+        <v>514</v>
+      </c>
+      <c r="H66" s="5" t="str">
+        <f>"support searching for all "&amp;LOWER(B66&amp;"s and associated provenance for a patient")</f>
+        <v>support searching for all goals and associated provenance for a patient</v>
+      </c>
+      <c r="I66" s="5" t="str">
+        <f>"GET [base]/"&amp;B66&amp;"?patient=1137192&amp;us-core-includeprovenance"</f>
+        <v>GET [base]/Goal?patient=1137192&amp;us-core-includeprovenance</v>
       </c>
       <c r="J66" s="5" t="str">
-        <f t="shared" ref="J66" si="10">"Fetches a bundle of all "&amp;B66&amp;" resources for the specified "&amp;SUBSTITUTE(D66,","," and ")</f>
-        <v>Fetches a bundle of all !Observation resources for the specified patient and status</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" s="1" customFormat="1">
+        <f>"Fetches a bundle of all "&amp;B67&amp;" resources for the specified patient and any corresponding Provenance resources."</f>
+        <v>Fetches a bundle of all Goal resources for the specified patient and any corresponding Provenance resources.</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="1" customFormat="1">
       <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E67" s="1" t="s">
+      <c r="B67" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C67" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="E67" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="H67" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="I67" s="5" t="s">
-        <v>262</v>
+        <v>516</v>
+      </c>
+      <c r="H67" s="5" t="str">
+        <f>"support searching for a "&amp;LOWER(B67&amp;" and its associated provenance")</f>
+        <v>support searching for a goal and its associated provenance</v>
+      </c>
+      <c r="I67" s="5" t="str">
+        <f>"GET [base]/"&amp;B67&amp;"?_id=12345&amp;us-core-includeprovenance"</f>
+        <v>GET [base]/Goal?_id=12345&amp;us-core-includeprovenance</v>
       </c>
       <c r="J67" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B67&amp;" resources for the specified "&amp;SUBSTITUTE(D67,","," and ")&amp;"=`assess-plan`"</f>
-        <v>Fetches a bundle of all CarePlan resources for the specified patient and category=`assess-plan`</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" s="1" customFormat="1">
+        <f>"Fetches a "&amp;B67&amp;" resource (within the clients authorization scope) and any corresponding Provenance resources."</f>
+        <v>Fetches a Goal resource (within the clients authorization scope) and any corresponding Provenance resources.</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="1" customFormat="1">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>255</v>
+        <v>194</v>
+      </c>
+      <c r="C68" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>208</v>
+        <v>484</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>234</v>
+        <v>116</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>359</v>
+        <v>488</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>260</v>
+        <v>489</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" s="1" customFormat="1">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="1" customFormat="1">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>255</v>
+        <v>194</v>
+      </c>
+      <c r="C69" s="1" t="str">
+        <f t="shared" ref="C69" si="11">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B69)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>256</v>
+        <v>485</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>116</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>359</v>
+        <v>488</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>258</v>
+        <v>199</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>263</v>
+        <v>454</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" s="1" customFormat="1">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="1" customFormat="1">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>255</v>
+        <v>194</v>
+      </c>
+      <c r="C70" s="1" t="str">
+        <f t="shared" ref="C70" si="12">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B70)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>257</v>
+        <v>487</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>234</v>
+        <v>116</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>359</v>
+        <v>488</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>259</v>
+        <v>199</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" s="1" customFormat="1">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="1" customFormat="1">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>267</v>
+        <v>194</v>
       </c>
       <c r="C71" s="1" t="str">
-        <f t="shared" ref="C71" si="11">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B71)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
+        <f t="shared" si="2"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>126</v>
+        <v>486</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>116</v>
+        <v>234</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>341</v>
+        <v>488</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>269</v>
+        <v>456</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" ht="15.75">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" s="1" customFormat="1">
       <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E72" s="1" t="s">
+      <c r="B72" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="C72" s="17" t="str">
+        <f t="shared" ref="C72:C73" si="13">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B72)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="E72" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>303</v>
+        <v>514</v>
+      </c>
+      <c r="H72" s="5" t="str">
+        <f>"support searching for all "&amp;LOWER(B72&amp;"s and associated provenance for a patient")</f>
+        <v>support searching for all medicationrequests and associated provenance for a patient</v>
+      </c>
+      <c r="I72" s="5" t="str">
+        <f>"GET [base]/"&amp;B72&amp;"?patient=1137192&amp;us-core-includeprovenance"</f>
+        <v>GET [base]/MedicationRequest?patient=1137192&amp;us-core-includeprovenance</v>
       </c>
       <c r="J72" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B72&amp;" resources for the specified patient and observation code."</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and observation code.</v>
-      </c>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
-    </row>
-    <row r="73" spans="1:16" s="1" customFormat="1">
+        <f>"Fetches a bundle of all "&amp;B73&amp;" resources for the specified patient and any corresponding Provenance resources."</f>
+        <v>Fetches a bundle of all MedicationRequest resources for the specified patient and any corresponding Provenance resources.</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="1" customFormat="1">
       <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>78</v>
+      <c r="B73" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="C73" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="H73" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="I73" s="5" t="s">
-        <v>480</v>
+        <v>516</v>
+      </c>
+      <c r="H73" s="5" t="str">
+        <f>"support searching for a "&amp;LOWER(B73&amp;" and its associated provenance")</f>
+        <v>support searching for a medicationrequest and its associated provenance</v>
+      </c>
+      <c r="I73" s="5" t="str">
+        <f>"GET [base]/"&amp;B73&amp;"?_id=12345&amp;us-core-includeprovenance"</f>
+        <v>GET [base]/MedicationRequest?_id=12345&amp;us-core-includeprovenance</v>
       </c>
       <c r="J73" s="5" t="str">
-        <f t="shared" ref="J73" si="12">"Fetches a bundle of all "&amp;B73&amp;" resources for the specified "&amp;SUBSTITUTE(D73,","," and ")</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and category and status</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" s="1" customFormat="1">
+        <f>"Fetches a "&amp;B73&amp;" resource (within the clients authorization scope) and any corresponding Provenance resources."</f>
+        <v>Fetches a MedicationRequest resource (within the clients authorization scope) and any corresponding Provenance resources.</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="1" customFormat="1">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>350</v>
+        <v>503</v>
+      </c>
+      <c r="C74" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationstatement</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G74" s="1" t="s">
-        <v>479</v>
-      </c>
       <c r="H74" s="5" t="s">
-        <v>305</v>
+        <v>201</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>481</v>
+        <v>455</v>
       </c>
       <c r="J74" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B74&amp;" resources for the specified patient and a category code = `vital-signs`"</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `vital-signs`</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" s="1" customFormat="1">
+        <f t="shared" si="8"/>
+        <v>Fetches a bundle of all !MedicationStatement resources for the specified patient and status</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="1" customFormat="1">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>350</v>
+        <v>503</v>
+      </c>
+      <c r="C75" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationstatement</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>157</v>
+        <v>251</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>479</v>
+        <v>159</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>308</v>
+        <v>250</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="J75" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B75&amp;" resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only."</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only.</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" s="1" customFormat="1">
+        <v>457</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="1" customFormat="1">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>350</v>
+        <v>195</v>
+      </c>
+      <c r="C76" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>208</v>
+        <v>126</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>479</v>
+        <v>116</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>311</v>
+        <v>220</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>482</v>
+        <v>219</v>
       </c>
       <c r="J76" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B76&amp;" resources for the specified patient and date and a category code = `vital-signs`"</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `vital-signs`</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" s="1" customFormat="1">
+        <f t="shared" si="8"/>
+        <v>Fetches a bundle of all Procedure resources for the specified patient and status</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="1" customFormat="1">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>350</v>
+        <v>195</v>
+      </c>
+      <c r="C77" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>235</v>
+        <v>176</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>234</v>
+        <v>116</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>312</v>
+        <v>232</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>310</v>
+        <v>233</v>
       </c>
       <c r="J77" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B77&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple codes."</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple codes.</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" s="1" customFormat="1">
+        <f t="shared" ref="J77" si="14">"Fetches a bundle of all "&amp;B77&amp;" resources for the specified "&amp;SUBSTITUTE(D77,","," and ")</f>
+        <v>Fetches a bundle of all Procedure resources for the specified patient and date</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" s="1" customFormat="1">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C78" s="1" t="str">
-        <f t="shared" ref="C78:C83" si="13">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B78)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
+        <f t="shared" si="2"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>126</v>
+        <v>235</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>116</v>
+        <v>234</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>319</v>
+        <v>245</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>321</v>
+        <v>246</v>
       </c>
       <c r="J78" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B78&amp;" resources for the specified "&amp;SUBSTITUTE(D78,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
-        <v>Fetches a bundle of all DocumentReference resources for the specified patient and status. See the implementation notes above for how to access the actual document.</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" s="1" customFormat="1">
+        <f>"Fetches a bundle of all "&amp;B78&amp;" resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes."</f>
+        <v>Fetches a bundle of all Procedure resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes.</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" s="1" customFormat="1">
       <c r="A79" s="1">
         <v>78</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C79" s="1" t="str">
-        <f t="shared" ref="C79" si="14">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B79)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!documentreference</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>78</v>
+      <c r="B79" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C79" s="17" t="str">
+        <f t="shared" ref="C79:C80" si="15">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B79)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H79" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="I79" s="5"/>
+        <v>514</v>
+      </c>
+      <c r="H79" s="5" t="str">
+        <f>"support searching for all "&amp;LOWER(B79&amp;"s and associated provenance for a patient")</f>
+        <v>support searching for all procedures and associated provenance for a patient</v>
+      </c>
+      <c r="I79" s="5" t="str">
+        <f>"GET [base]/"&amp;B79&amp;"?patient=1137192&amp;us-core-includeprovenance"</f>
+        <v>GET [base]/Procedure?patient=1137192&amp;us-core-includeprovenance</v>
+      </c>
       <c r="J79" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B79&amp;" resources for the specified "&amp;SUBSTITUTE(D79,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
-        <v>Fetches a bundle of all !DocumentReference resources for the specified patient and period. See the implementation notes above for how to access the actual document.</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" s="1" customFormat="1">
+        <f>"Fetches a bundle of all "&amp;B80&amp;" resources for the specified patient and any corresponding Provenance resources."</f>
+        <v>Fetches a bundle of all Procedure resources for the specified patient and any corresponding Provenance resources.</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" s="1" customFormat="1">
       <c r="A80" s="1">
         <v>79</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C80" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E80" s="1" t="s">
+      <c r="B80" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C80" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="E80" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="H80" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="I80" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="J80" s="5" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" s="1" customFormat="1" ht="15.75">
+        <v>516</v>
+      </c>
+      <c r="H80" s="5" t="str">
+        <f>"support searching for a "&amp;LOWER(B80&amp;" and its associated provenance")</f>
+        <v>support searching for a procedure and its associated provenance</v>
+      </c>
+      <c r="I80" s="5" t="str">
+        <f>"GET [base]/"&amp;B80&amp;"?_id=12345&amp;us-core-includeprovenance"</f>
+        <v>GET [base]/Procedure?_id=12345&amp;us-core-includeprovenance</v>
+      </c>
+      <c r="J80" s="5" t="str">
+        <f>"Fetches a "&amp;B80&amp;" resource (within the clients authorization scope) and any corresponding Provenance resources."</f>
+        <v>Fetches a Procedure resource (within the clients authorization scope) and any corresponding Provenance resources.</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" s="1" customFormat="1">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C81" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B81)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
+        <v>196</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>208</v>
+        <v>256</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>234</v>
+        <v>116</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>361</v>
+        <v>472</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="I81" s="9" t="s">
-        <v>324</v>
+        <v>307</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>473</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>327</v>
+        <v>352</v>
       </c>
     </row>
     <row r="82" spans="1:10" s="1" customFormat="1">
@@ -11460,14 +12254,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C82" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
+        <v>196</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>13</v>
@@ -11475,14 +12268,18 @@
       <c r="F82" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="G82" s="1" t="s">
+        <v>472</v>
+      </c>
       <c r="H82" s="5" t="s">
-        <v>329</v>
+        <v>238</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="J82" s="5" t="s">
-        <v>326</v>
+        <v>474</v>
+      </c>
+      <c r="J82" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B82&amp;" resources for the specified patient and a category code = `laboratory`"</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `laboratory`</v>
       </c>
     </row>
     <row r="83" spans="1:10" s="1" customFormat="1">
@@ -11490,30 +12287,29 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C83" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
+        <v>196</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>328</v>
+        <v>157</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>234</v>
+        <v>116</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>330</v>
+        <v>242</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>435</v>
+        <v>364</v>
       </c>
       <c r="J83" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B83&amp;" resources for the specified "&amp;SUBSTITUTE(D83,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
-        <v>Fetches a bundle of all DocumentReference resources for the specified patient and type and period. See the implementation notes above for how to access the actual document.</v>
+        <f>"Fetches a bundle of all "&amp;B83&amp;" resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only."</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only.</v>
       </c>
     </row>
     <row r="84" spans="1:10" s="1" customFormat="1">
@@ -11521,35 +12317,1388 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="J84" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B84&amp;" resources for the specified patient and date and a category code = `laboratory`"</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `laboratory`</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" s="1" customFormat="1">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="J85" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B85&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" s="1" customFormat="1">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="J86" s="5" t="str">
+        <f t="shared" ref="J86" si="16">"Fetches a bundle of all "&amp;B86&amp;" resources for the specified "&amp;SUBSTITUTE(D86,","," and ")</f>
+        <v>Fetches a bundle of all !Observation resources for the specified patient and status</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" s="1" customFormat="1">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="E87" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="H87" s="5" t="str">
+        <f>"support searching for all "&amp;LOWER(B87&amp;"s and associated provenance for a patient")</f>
+        <v>support searching for all observations and associated provenance for a patient</v>
+      </c>
+      <c r="I87" s="5" t="str">
+        <f>"GET [base]/"&amp;B87&amp;"?patient=1137192&amp;us-core-includeprovenance"</f>
+        <v>GET [base]/Observation?patient=1137192&amp;us-core-includeprovenance</v>
+      </c>
+      <c r="J87" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B88&amp;" resources for the specified patient and any corresponding Provenance resources."</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and any corresponding Provenance resources.</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" s="1" customFormat="1">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="E88" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H88" s="5" t="str">
+        <f>"support searching for a "&amp;LOWER(B88&amp;" and its associated provenance")</f>
+        <v>support searching for a observation and its associated provenance</v>
+      </c>
+      <c r="I88" s="5" t="str">
+        <f>"GET [base]/"&amp;B88&amp;"?_id=12345&amp;us-core-includeprovenance"</f>
+        <v>GET [base]/Observation?_id=12345&amp;us-core-includeprovenance</v>
+      </c>
+      <c r="J88" s="5" t="str">
+        <f>"Fetches a "&amp;B88&amp;" resource (within the clients authorization scope) and any corresponding Provenance resources."</f>
+        <v>Fetches a Observation resource (within the clients authorization scope) and any corresponding Provenance resources.</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" s="1" customFormat="1">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="J89" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B89&amp;" resources for the specified "&amp;SUBSTITUTE(D89,","," and ")&amp;"=`assess-plan`"</f>
+        <v>Fetches a bundle of all CarePlan resources for the specified patient and category=`assess-plan`</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" s="1" customFormat="1">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="J90" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" s="1" customFormat="1">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="J91" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" s="1" customFormat="1">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" s="1" customFormat="1">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="C93" s="17" t="str">
+        <f t="shared" ref="C93:C94" si="17">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B93)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careplan</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="E93" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="H93" s="5" t="str">
+        <f>"support searching for all "&amp;LOWER(B93&amp;"s and associated provenance for a patient")</f>
+        <v>support searching for all careplans and associated provenance for a patient</v>
+      </c>
+      <c r="I93" s="5" t="str">
+        <f>"GET [base]/"&amp;B93&amp;"?patient=1137192&amp;us-core-includeprovenance"</f>
+        <v>GET [base]/CarePlan?patient=1137192&amp;us-core-includeprovenance</v>
+      </c>
+      <c r="J93" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B94&amp;" resources for the specified patient and any corresponding Provenance resources."</f>
+        <v>Fetches a bundle of all CarePlan resources for the specified patient and any corresponding Provenance resources.</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" s="1" customFormat="1">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="C94" s="17" t="str">
+        <f t="shared" si="17"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careplan</v>
+      </c>
+      <c r="D94" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="E94" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H94" s="5" t="str">
+        <f>"support searching for a "&amp;LOWER(B94&amp;" and its associated provenance")</f>
+        <v>support searching for a careplan and its associated provenance</v>
+      </c>
+      <c r="I94" s="5" t="str">
+        <f>"GET [base]/"&amp;B94&amp;"?_id=12345&amp;us-core-includeprovenance"</f>
+        <v>GET [base]/CarePlan?_id=12345&amp;us-core-includeprovenance</v>
+      </c>
+      <c r="J94" s="5" t="str">
+        <f>"Fetches a "&amp;B94&amp;" resource (within the clients authorization scope) and any corresponding Provenance resources."</f>
+        <v>Fetches a CarePlan resource (within the clients authorization scope) and any corresponding Provenance resources.</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" s="1" customFormat="1">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C95" s="1" t="str">
+        <f t="shared" ref="C95:C97" si="18">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B95)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="I95" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="J95" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" s="1" customFormat="1">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="C96" s="17" t="str">
+        <f t="shared" si="18"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="E96" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="H96" s="5" t="str">
+        <f>"support searching for all "&amp;LOWER(B96&amp;"s and associated provenance for a patient")</f>
+        <v>support searching for all careteams and associated provenance for a patient</v>
+      </c>
+      <c r="I96" s="5" t="str">
+        <f>"GET [base]/"&amp;B96&amp;"?patient=1137192&amp;us-core-includeprovenance"</f>
+        <v>GET [base]/CareTeam?patient=1137192&amp;us-core-includeprovenance</v>
+      </c>
+      <c r="J96" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B97&amp;" resources for the specified patient and any corresponding Provenance resources."</f>
+        <v>Fetches a bundle of all CareTeam resources for the specified patient and any corresponding Provenance resources.</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" s="1" customFormat="1">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="C97" s="17" t="str">
+        <f t="shared" si="18"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="E97" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H97" s="5" t="str">
+        <f>"support searching for a "&amp;LOWER(B97&amp;" and its associated provenance")</f>
+        <v>support searching for a careteam and its associated provenance</v>
+      </c>
+      <c r="I97" s="5" t="str">
+        <f>"GET [base]/"&amp;B97&amp;"?_id=12345&amp;us-core-includeprovenance"</f>
+        <v>GET [base]/CareTeam?_id=12345&amp;us-core-includeprovenance</v>
+      </c>
+      <c r="J97" s="5" t="str">
+        <f>"Fetches a "&amp;B97&amp;" resource (within the clients authorization scope) and any corresponding Provenance resources."</f>
+        <v>Fetches a CareTeam resource (within the clients authorization scope) and any corresponding Provenance resources.</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" ht="15.75">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="I98" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="J98" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B98&amp;" resources for the specified patient and observation code."</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and observation code.</v>
+      </c>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+    </row>
+    <row r="99" spans="1:16" s="1" customFormat="1">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="C99" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="E99" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="H99" s="5" t="str">
+        <f>"support searching for all "&amp;LOWER(B99&amp;"s and associated provenance for a patient")</f>
+        <v>support searching for all observations and associated provenance for a patient</v>
+      </c>
+      <c r="I99" s="5" t="str">
+        <f>"GET [base]/"&amp;B99&amp;"?patient=1137192&amp;us-core-includeprovenance"</f>
+        <v>GET [base]/Observation?patient=1137192&amp;us-core-includeprovenance</v>
+      </c>
+      <c r="J99" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B100&amp;" resources for the specified patient and any corresponding Provenance resources."</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and any corresponding Provenance resources.</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" s="1" customFormat="1">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="E100" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H100" s="5" t="str">
+        <f>"support searching for a "&amp;LOWER(B100&amp;" and its associated provenance")</f>
+        <v>support searching for a observation and its associated provenance</v>
+      </c>
+      <c r="I100" s="5" t="str">
+        <f>"GET [base]/"&amp;B100&amp;"?_id=12345&amp;us-core-includeprovenance"</f>
+        <v>GET [base]/Observation?_id=12345&amp;us-core-includeprovenance</v>
+      </c>
+      <c r="J100" s="5" t="str">
+        <f>"Fetches a "&amp;B100&amp;" resource (within the clients authorization scope) and any corresponding Provenance resources."</f>
+        <v>Fetches a Observation resource (within the clients authorization scope) and any corresponding Provenance resources.</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" s="1" customFormat="1">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="I101" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="J101" s="5" t="str">
+        <f t="shared" ref="J101" si="19">"Fetches a bundle of all "&amp;B101&amp;" resources for the specified "&amp;SUBSTITUTE(D101,","," and ")</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and category and status</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" s="1" customFormat="1">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="I102" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="J102" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B102&amp;" resources for the specified patient and a category code = `vital-signs`"</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `vital-signs`</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" s="1" customFormat="1">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="I103" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="J103" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B103&amp;" resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only."</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only.</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" s="1" customFormat="1">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="I104" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="J104" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B104&amp;" resources for the specified patient and date and a category code = `vital-signs`"</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `vital-signs`</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" s="1" customFormat="1">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="I105" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="J105" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B105&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple codes."</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple codes.</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" s="1" customFormat="1">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="C106" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="E106" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="H106" s="5" t="str">
+        <f>"support searching for all "&amp;LOWER(B106&amp;"s and associated provenance for a patient")</f>
+        <v>support searching for all observations and associated provenance for a patient</v>
+      </c>
+      <c r="I106" s="5" t="str">
+        <f>"GET [base]/"&amp;B106&amp;"?patient=1137192&amp;us-core-includeprovenance"</f>
+        <v>GET [base]/Observation?patient=1137192&amp;us-core-includeprovenance</v>
+      </c>
+      <c r="J106" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B107&amp;" resources for the specified patient and any corresponding Provenance resources."</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and any corresponding Provenance resources.</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" s="1" customFormat="1">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="C107" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="E107" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H107" s="5" t="str">
+        <f>"support searching for a "&amp;LOWER(B107&amp;" and its associated provenance")</f>
+        <v>support searching for a observation and its associated provenance</v>
+      </c>
+      <c r="I107" s="5" t="str">
+        <f>"GET [base]/"&amp;B107&amp;"?_id=12345&amp;us-core-includeprovenance"</f>
+        <v>GET [base]/Observation?_id=12345&amp;us-core-includeprovenance</v>
+      </c>
+      <c r="J107" s="5" t="str">
+        <f>"Fetches a "&amp;B107&amp;" resource (within the clients authorization scope) and any corresponding Provenance resources."</f>
+        <v>Fetches a Observation resource (within the clients authorization scope) and any corresponding Provenance resources.</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" s="1" customFormat="1">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C108" s="1" t="str">
+        <f t="shared" ref="C108:C115" si="20">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B108)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="I108" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="J108" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B108&amp;" resources for the specified "&amp;SUBSTITUTE(D108,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
+        <v>Fetches a bundle of all DocumentReference resources for the specified patient and status. See the implementation notes above for how to access the actual document.</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" s="1" customFormat="1">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C109" s="1" t="str">
+        <f t="shared" ref="C109" si="21">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B109)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!documentreference</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B109&amp;" resources for the specified "&amp;SUBSTITUTE(D109,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
+        <v>Fetches a bundle of all !DocumentReference resources for the specified patient and period. See the implementation notes above for how to access the actual document.</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" s="1" customFormat="1">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C110" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="I110" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="J110" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" s="1" customFormat="1" ht="15.75">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C111" s="1" t="str">
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B111)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="H111" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="I111" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" s="1" customFormat="1">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C112" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H112" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="I112" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="J112" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" s="1" customFormat="1">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C113" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H113" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="I113" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="J113" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B113&amp;" resources for the specified "&amp;SUBSTITUTE(D113,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
+        <v>Fetches a bundle of all DocumentReference resources for the specified patient and type and period. See the implementation notes above for how to access the actual document.</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" s="1" customFormat="1">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C114" s="17" t="str">
+        <f t="shared" si="20"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
+      </c>
+      <c r="D114" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="E114" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="H114" s="5" t="str">
+        <f>"support searching for all "&amp;LOWER(B114&amp;"s and associated provenance for a patient")</f>
+        <v>support searching for all documentreferences and associated provenance for a patient</v>
+      </c>
+      <c r="I114" s="5" t="str">
+        <f>"GET [base]/"&amp;B114&amp;"?patient=1137192&amp;us-core-includeprovenance"</f>
+        <v>GET [base]/DocumentReference?patient=1137192&amp;us-core-includeprovenance</v>
+      </c>
+      <c r="J114" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B115&amp;" resources for the specified patient and any corresponding Provenance resources."</f>
+        <v>Fetches a bundle of all DocumentReference resources for the specified patient and any corresponding Provenance resources.</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" s="1" customFormat="1">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C115" s="17" t="str">
+        <f t="shared" si="20"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="E115" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H115" s="5" t="str">
+        <f>"support searching for a "&amp;LOWER(B115&amp;" and its associated provenance")</f>
+        <v>support searching for a documentreference and its associated provenance</v>
+      </c>
+      <c r="I115" s="5" t="str">
+        <f>"GET [base]/"&amp;B115&amp;"?_id=12345&amp;us-core-includeprovenance"</f>
+        <v>GET [base]/DocumentReference?_id=12345&amp;us-core-includeprovenance</v>
+      </c>
+      <c r="J115" s="5" t="str">
+        <f>"Fetches a "&amp;B115&amp;" resource (within the clients authorization scope) and any corresponding Provenance resources."</f>
+        <v>Fetches a DocumentReference resource (within the clients authorization scope) and any corresponding Provenance resources.</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" s="1" customFormat="1">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="D84" s="1" t="s">
+      <c r="C116" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F84" s="1" t="s">
+      <c r="E116" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F116" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H84" s="5" t="s">
+      <c r="H116" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="I116" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="I84" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="J84" s="5" t="s">
-        <v>438</v>
+      <c r="J116" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" s="1" customFormat="1">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="C117" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="D117" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="E117" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="H117" s="5" t="str">
+        <f>"support searching for all "&amp;LOWER(B117&amp;"s and associated provenance for a patient")</f>
+        <v>support searching for all devices and associated provenance for a patient</v>
+      </c>
+      <c r="I117" s="5" t="str">
+        <f>"GET [base]/"&amp;B117&amp;"?patient=1137192&amp;us-core-includeprovenance"</f>
+        <v>GET [base]/Device?patient=1137192&amp;us-core-includeprovenance</v>
+      </c>
+      <c r="J117" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B118&amp;" resources for the specified patient and any corresponding Provenance resources."</f>
+        <v>Fetches a bundle of all Device resources for the specified patient and any corresponding Provenance resources.</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" s="1" customFormat="1">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="C118" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="D118" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="E118" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H118" s="5" t="str">
+        <f>"support searching for a "&amp;LOWER(B118&amp;" and its associated provenance")</f>
+        <v>support searching for a device and its associated provenance</v>
+      </c>
+      <c r="I118" s="5" t="str">
+        <f>"GET [base]/"&amp;B118&amp;"?_id=12345&amp;us-core-includeprovenance"</f>
+        <v>GET [base]/Device?_id=12345&amp;us-core-includeprovenance</v>
+      </c>
+      <c r="J118" s="5" t="str">
+        <f>"Fetches a "&amp;B118&amp;" resource (within the clients authorization scope) and any corresponding Provenance resources."</f>
+        <v>Fetches a Device resource (within the clients authorization scope) and any corresponding Provenance resources.</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="C119" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="D119" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="E119" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="H119" s="5" t="str">
+        <f>"support searching for all "&amp;LOWER(B119&amp;"s and associated provenance for a patient")</f>
+        <v>support searching for all locations and associated provenance for a patient</v>
+      </c>
+      <c r="I119" s="5" t="str">
+        <f>"GET [base]/"&amp;B119&amp;"?patient=1137192&amp;us-core-includeprovenance"</f>
+        <v>GET [base]/Location?patient=1137192&amp;us-core-includeprovenance</v>
+      </c>
+      <c r="J119" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B120&amp;" resources for the specified patient and any corresponding Provenance resources."</f>
+        <v>Fetches a bundle of all Location resources for the specified patient and any corresponding Provenance resources.</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" s="1" customFormat="1">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="C120" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="D120" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="E120" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H120" s="5" t="str">
+        <f>"support searching for a "&amp;LOWER(B120&amp;" and its associated provenance")</f>
+        <v>support searching for a location and its associated provenance</v>
+      </c>
+      <c r="I120" s="5" t="str">
+        <f>"GET [base]/"&amp;B120&amp;"?_id=12345&amp;us-core-includeprovenance"</f>
+        <v>GET [base]/Location?_id=12345&amp;us-core-includeprovenance</v>
+      </c>
+      <c r="J120" s="5" t="str">
+        <f>"Fetches a "&amp;B120&amp;" resource (within the clients authorization scope) and any corresponding Provenance resources."</f>
+        <v>Fetches a Location resource (within the clients authorization scope) and any corresponding Provenance resources.</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="C121" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="D121" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="E121" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="H121" s="5" t="str">
+        <f>"support searching for all "&amp;LOWER(B121&amp;"s and associated provenance for a patient")</f>
+        <v>support searching for all organizations and associated provenance for a patient</v>
+      </c>
+      <c r="I121" s="5" t="str">
+        <f>"GET [base]/"&amp;B121&amp;"?patient=1137192&amp;us-core-includeprovenance"</f>
+        <v>GET [base]/Organization?patient=1137192&amp;us-core-includeprovenance</v>
+      </c>
+      <c r="J121" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B122&amp;" resources for the specified patient and any corresponding Provenance resources."</f>
+        <v>Fetches a bundle of all Organization resources for the specified patient and any corresponding Provenance resources.</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" s="1" customFormat="1">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="C122" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="D122" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="E122" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H122" s="5" t="str">
+        <f>"support searching for a "&amp;LOWER(B122&amp;" and its associated provenance")</f>
+        <v>support searching for a organization and its associated provenance</v>
+      </c>
+      <c r="I122" s="5" t="str">
+        <f>"GET [base]/"&amp;B122&amp;"?_id=12345&amp;us-core-includeprovenance"</f>
+        <v>GET [base]/Organization?_id=12345&amp;us-core-includeprovenance</v>
+      </c>
+      <c r="J122" s="5" t="str">
+        <f>"Fetches a "&amp;B122&amp;" resource (within the clients authorization scope) and any corresponding Provenance resources."</f>
+        <v>Fetches a Organization resource (within the clients authorization scope) and any corresponding Provenance resources.</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="C123" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="D123" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="E123" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="H123" s="5" t="str">
+        <f>"support searching for all "&amp;LOWER(B123&amp;"s and associated provenance for a patient")</f>
+        <v>support searching for all practitioners and associated provenance for a patient</v>
+      </c>
+      <c r="I123" s="5" t="str">
+        <f>"GET [base]/"&amp;B123&amp;"?patient=1137192&amp;us-core-includeprovenance"</f>
+        <v>GET [base]/Practitioner?patient=1137192&amp;us-core-includeprovenance</v>
+      </c>
+      <c r="J123" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B124&amp;" resources for the specified patient and any corresponding Provenance resources."</f>
+        <v>Fetches a bundle of all Practitioner resources for the specified patient and any corresponding Provenance resources.</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" s="1" customFormat="1">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="C124" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="D124" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="E124" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H124" s="5" t="str">
+        <f>"support searching for a "&amp;LOWER(B124&amp;" and its associated provenance")</f>
+        <v>support searching for a practitioner and its associated provenance</v>
+      </c>
+      <c r="I124" s="5" t="str">
+        <f>"GET [base]/"&amp;B124&amp;"?_id=12345&amp;us-core-includeprovenance"</f>
+        <v>GET [base]/Practitioner?_id=12345&amp;us-core-includeprovenance</v>
+      </c>
+      <c r="J124" s="5" t="str">
+        <f>"Fetches a "&amp;B124&amp;" resource (within the clients authorization scope) and any corresponding Provenance resources."</f>
+        <v>Fetches a Practitioner resource (within the clients authorization scope) and any corresponding Provenance resources.</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="C125" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="D125" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="E125" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="H125" s="5" t="str">
+        <f>"support searching for all "&amp;LOWER(B125&amp;"s and associated provenance for a patient")</f>
+        <v>support searching for all practitionerroles and associated provenance for a patient</v>
+      </c>
+      <c r="I125" s="5" t="str">
+        <f>"GET [base]/"&amp;B125&amp;"?patient=1137192&amp;us-core-includeprovenance"</f>
+        <v>GET [base]/PractitionerRole?patient=1137192&amp;us-core-includeprovenance</v>
+      </c>
+      <c r="J125" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B126&amp;" resources for the specified patient and any corresponding Provenance resources."</f>
+        <v>Fetches a bundle of all PractitionerRole resources for the specified patient and any corresponding Provenance resources.</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" s="1" customFormat="1">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="C126" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="D126" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="E126" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H126" s="5" t="str">
+        <f>"support searching for a "&amp;LOWER(B126&amp;" and its associated provenance")</f>
+        <v>support searching for a practitionerrole and its associated provenance</v>
+      </c>
+      <c r="I126" s="5" t="str">
+        <f>"GET [base]/"&amp;B126&amp;"?_id=12345&amp;us-core-includeprovenance"</f>
+        <v>GET [base]/PractitionerRole?_id=12345&amp;us-core-includeprovenance</v>
+      </c>
+      <c r="J126" s="5" t="str">
+        <f>"Fetches a "&amp;B126&amp;" resource (within the clients authorization scope) and any corresponding Provenance resources."</f>
+        <v>Fetches a PractitionerRole resource (within the clients authorization scope) and any corresponding Provenance resources.</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="J60" formula="1"/>
+    <ignoredError sqref="J78" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/source/source_spreadsheets/uscore-server.xlsx
+++ b/source/source_spreadsheets/uscore-server.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Argo-R4\source\source_spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\US-Core-R4\source\source_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737B265C-7C14-4526-A1BE-F586D883DB25}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9BE6DC-F45F-45A4-A131-59B999E1AD20}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-465" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-465" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2288" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="533">
   <si>
     <t>Element</t>
   </si>
@@ -1261,6 +1261,491 @@
   </si>
   <si>
     <t>GET [base]/Practitioner?identifier=http://hl7.org/fhir/sid/us-npi\|97860456</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</t>
+  </si>
+  <si>
+    <t>US Core CareTeam Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationstatement</t>
+  </si>
+  <si>
+    <t>US Core MedicationStatement Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner</t>
+  </si>
+  <si>
+    <t>US Core Practitioner Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</t>
+  </si>
+  <si>
+    <t>US Core Immunization Profile</t>
+  </si>
+  <si>
+    <t>US Core Smoking Status Observation Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</t>
+  </si>
+  <si>
+    <t>US Core DocumentReference Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</t>
+  </si>
+  <si>
+    <t>US Core MedicationRequest Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</t>
+  </si>
+  <si>
+    <t>US Core Condition Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization</t>
+  </si>
+  <si>
+    <t>US Core Organization Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</t>
+  </si>
+  <si>
+    <t>US Core Procedure Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medication</t>
+  </si>
+  <si>
+    <t>US Core Medication Profile</t>
+  </si>
+  <si>
+    <t>Medication</t>
+  </si>
+  <si>
+    <t>US Core DiagnosticReport Profile for Report and Note exchange</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole</t>
+  </si>
+  <si>
+    <t>US Core PractitionerRole Profile</t>
+  </si>
+  <si>
+    <t>US Core CarePlan Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</t>
+  </si>
+  <si>
+    <t>US Core Goal Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</t>
+  </si>
+  <si>
+    <t>US Core Location Profile</t>
+  </si>
+  <si>
+    <t>US Core DiagnosticReport Profile for Laboratory Results Reporting</t>
+  </si>
+  <si>
+    <t>US Core Patient Profile</t>
+  </si>
+  <si>
+    <t>US Core Encounter Profile</t>
+  </si>
+  <si>
+    <t>US Core AllergyIntolerance Profile</t>
+  </si>
+  <si>
+    <t>docref</t>
+  </si>
+  <si>
+    <t>conf_AllergyIntolerance</t>
+  </si>
+  <si>
+    <t>conf_CarePlan</t>
+  </si>
+  <si>
+    <t>conf_CareTeam</t>
+  </si>
+  <si>
+    <t>conf_Condition</t>
+  </si>
+  <si>
+    <t>conf_Device</t>
+  </si>
+  <si>
+    <t>conf_DiagnosticReport</t>
+  </si>
+  <si>
+    <t>conf_DocumentReference</t>
+  </si>
+  <si>
+    <t>conf_Encounter</t>
+  </si>
+  <si>
+    <t>conf_Goal</t>
+  </si>
+  <si>
+    <t>conf_Immunization</t>
+  </si>
+  <si>
+    <t>conf_Location</t>
+  </si>
+  <si>
+    <t>conf_Medication</t>
+  </si>
+  <si>
+    <t>conf_MedicationRequest</t>
+  </si>
+  <si>
+    <t>conf_MedicationStatement</t>
+  </si>
+  <si>
+    <t>conf_Observation</t>
+  </si>
+  <si>
+    <t>conf_Organization</t>
+  </si>
+  <si>
+    <t>conf_Patient</t>
+  </si>
+  <si>
+    <t>conf_Practitioner</t>
+  </si>
+  <si>
+    <t>conf_PractitionerRole</t>
+  </si>
+  <si>
+    <t>conf_Procedure</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/OperationDefinition/docref</t>
+  </si>
+  <si>
+    <t>support searching for a specific device type for a patient (for example, implantable devices)</t>
+  </si>
+  <si>
+    <t>GET [base]/DocumentReference?patient=2169591&amp;type=http://loinc.org \|34133-9&amp;period=ge2019</t>
+  </si>
+  <si>
+    <t>GET [base]/DocumentReference?patient=1316024&amp;type=http://loinc.org\|18842-5</t>
+  </si>
+  <si>
+    <t>GET [base]/Device?patient=1316024&amp;type=http://snomed.info/sct\|468063009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fetches a bundle of all Device resources for the specified patient and type. </t>
+  </si>
+  <si>
+    <t>conditionalCreate</t>
+  </si>
+  <si>
+    <t>conditionalRead</t>
+  </si>
+  <si>
+    <t>shall_revinclude</t>
+  </si>
+  <si>
+    <t>should_revinclude</t>
+  </si>
+  <si>
+    <t>MedicationStatement:medication</t>
+  </si>
+  <si>
+    <t>conditionalUpdate</t>
+  </si>
+  <si>
+    <t>conditionalDelete</t>
+  </si>
+  <si>
+    <t>This Section describes the expected capabilities of the US Core Server actor which is responsible for providing responses to the queries submitted by the US Core Requestors. The complete list of FHIR profiles, RESTful operations, and search parameters supported by US Core Servers are defined. Systems implementing this capability statement should meet the ONC 2015 Common Clinical Data Set (CCDS) access requirement for Patient Selection 170.315(g)(7) and Application Access - Data Category Request 170.315(g)(8) and and the latest proposed ONC [U.S. Core Data for Interoperability (USCDI)].  US Core Clients have the option of choosing from this list to access necessary data based on their local use cases and other contextual requirements.</t>
+  </si>
+  <si>
+    <t>The MedicationStatement and MedicationRequest resources can represent a medication, using an external reference to a Medication resource. If an external Medication Resource is used in a MedicationStatement or a MedicationRequest, then the READ and SEARCH Criteria  **SHALL**  be supported.</t>
+  </si>
+  <si>
+    <t>us-core-server</t>
+  </si>
+  <si>
+    <t>versioning_conf</t>
+  </si>
+  <si>
+    <t>readHistory_conf</t>
+  </si>
+  <si>
+    <t>updateCreate_conf</t>
+  </si>
+  <si>
+    <t>conditionalCreate_conf</t>
+  </si>
+  <si>
+    <t>conditionalRead_conf</t>
+  </si>
+  <si>
+    <t>conditionalUpdate_conf</t>
+  </si>
+  <si>
+    <t>conditionalDelete_conf</t>
+  </si>
+  <si>
+    <t>referencePolicy_conf</t>
+  </si>
+  <si>
+    <t>GET [base]/MedicationRequest?patient=1137192&amp;status=active~GET [base]/MedicationRequest?patient=1137192&amp;status=active&amp;_include=MedicationRequest:medication</t>
+  </si>
+  <si>
+    <t>GET [base]/MedicationStatement?patient=1137192&amp;status=active~GET [base]/MedicationStatement?patient=1137192&amp;status=active&amp;_include=MedicationStatement:medication</t>
+  </si>
+  <si>
+    <t>GET [base]/MedicationRequest?patient=1137192&amp;effective=ge2019~GET [base]/MedicationStatement?patient=1137192&amp;effective=ge2019&amp;_include=MedicationRequest:medication</t>
+  </si>
+  <si>
+    <t>GET [base]/MedicationStatement?patient=1137192&amp;date=ge2019~GET [base]/MedicationRequest?patient=1137192&amp;date=ge2019&amp;_include=MedicationStatement:medication</t>
+  </si>
+  <si>
+    <t>target-date</t>
+  </si>
+  <si>
+    <t>patient,target-date</t>
+  </si>
+  <si>
+    <t>GET [base]/Goal?patient=1137192&amp;target-date=ge2015-01-14&amp;target-date=le2019-01-14</t>
+  </si>
+  <si>
+    <t>GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;date=ge2019~GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;date=ge2018&amp;date=le2018</t>
+  </si>
+  <si>
+    <t>GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;status=active&amp;date=ge2019~GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;status=active&amp;date=ge2018&amp;date=le2019</t>
+  </si>
+  <si>
+    <t>The DocumentReference.type binding SHALL support at a minimum the [5 Common Clinical Notes](ValueSet-us-core-clinical-note-type.html) and may extend to the full US Core DocumentReference Type Value Set</t>
+  </si>
+  <si>
+    <t>1. See the [General Security Considerations](security.html) section for requirements and recommendations.
+1. A server **SHALL** reject any unauthorized requests by returning an `HTTP 401` unauthorized response code.</t>
+  </si>
+  <si>
+    <t>US Core Laboratory Result Observation Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-lab</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/pediatric-bmi-for-age</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/pediatric-weight-for-height</t>
+  </si>
+  <si>
+    <t>US Core Pediatric BMI for Age Observation Profile</t>
+  </si>
+  <si>
+    <t>US Core Pediatric Weight  for Height Observation Profile</t>
+  </si>
+  <si>
+    <t>A server **SHALL** be capable of responding to a $docref operation and  capable of returning at least a reference to a generated CCD document, if available. **MAY** provide references to other 'on-demand' and 'stable' documents (or 'delayed/deferred assembly') that meet the query parameters as well. If a context date range is supplied the server ** SHOULD**  provide references to any document that falls within the date range If no date range is supplied, then the server **SHALL** provide references to last or current encounter.  **SHOULD** document what resources, if any, are returned as included resources
+`GET [base]/DocumentReference/$docref?patient=[id]`</t>
+  </si>
+  <si>
+    <t>category=http://terminology.hl7.org/CodeSystem/observation-category|laboratory</t>
+  </si>
+  <si>
+    <t>GET [base]/Observation?patient=1134281&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|laboratory&amp;status=final</t>
+  </si>
+  <si>
+    <t>GET [base]/Observation?patient=1134281&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|laboratory</t>
+  </si>
+  <si>
+    <t>GET [base]Observation?patient=555580&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|laboratory&amp;date=ge2018-03-14</t>
+  </si>
+  <si>
+    <t>category=http://terminology.hl7.org/CodeSystem/observation-category|vital-signs</t>
+  </si>
+  <si>
+    <t>GET [base]/Observation?patient=1134281&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|vital-signs&amp;status=final</t>
+  </si>
+  <si>
+    <t>GET [base]/Observation?patient=1134281&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|vital-signs</t>
+  </si>
+  <si>
+    <t>GET [base]/Observation?patient=1134281&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|vital-signs&amp;date=ge2019</t>
+  </si>
+  <si>
+    <t>doc_DiagnosticReport</t>
+  </si>
+  <si>
+    <t>This conformance expectation applies **only**  to the *US Core DiagnosticReport Profile for Report and Note exchange* profile.  The conformance expectation for the *US Core DiagnosticReport Profile for Laboratory Results Reporting* is  **MAY**.</t>
+  </si>
+  <si>
+    <t>The MedicationStatement resources can represent a medication using either a code or refer to the Medication resource. When referencing Medication, the resource may be [contained](http://hl7.org/fhir/R4/references.html#contained) or an external resource. The server application **MAY** choose any one way or more than one method, but if an external reference to Medication is used, the server **SHALL** support the _include` parameter for searching this element. The client application must support all methods.
+ For example, A server **SHALL** be capable of returning all medications for a patient using one of or both:
+ `GET /MedicationStatement?patient=[id]`
+ `GET /MedicationStatement?patient=[id]&amp;_include=MedicationStatement:medication`</t>
+  </si>
+  <si>
+    <t>intent</t>
+  </si>
+  <si>
+    <t>patient,intent</t>
+  </si>
+  <si>
+    <t>patient,intent,status</t>
+  </si>
+  <si>
+    <t>patient,intent,authoredon</t>
+  </si>
+  <si>
+    <t>patient,intent,encounter</t>
+  </si>
+  <si>
+    <t>intent=http://hl7.org/fhir/CodeSystem/medicationrequest-intent|order</t>
+  </si>
+  <si>
+    <t>support searching for all medications that have been prescribed to a patient. See the [Medication List Guidance] section for guidance on accessing a patient medications. The server application represents the medication using either an inline code or a contained or external reference to the Medication resource.</t>
+  </si>
+  <si>
+    <t>GET [base]/MedicationRequest?patient=14676&amp;intent=http://hl7.org/fhir/CodeSystem/medicationrequest-intent|order~GET [base]/MedicationRequest?patient=14676&amp;intent=http://hl7.org/fhir/CodeSystem/medicationrequest-intent|order&amp;_include=MedicationRequest:medication</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all MedicationRequest resources for the specified patient and intent code = `order`</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all MedicationRequest resources for the specified patient and intent  code = `order` and status</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all MedicationRequest resources for the specified patient and intent  code = `order` and authoredon date</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all MedicationRequest resources for the specified patient and intent  code = `order` and encounter</t>
+  </si>
+  <si>
+    <t>encounter</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-device</t>
+  </si>
+  <si>
+    <t>doc</t>
+  </si>
+  <si>
+    <t>transaction</t>
+  </si>
+  <si>
+    <t>batch</t>
+  </si>
+  <si>
+    <t>search-system</t>
+  </si>
+  <si>
+    <t>history-system</t>
+  </si>
+  <si>
+    <t>!MedicationStatement</t>
+  </si>
+  <si>
+    <t>The MedicationRequest resources can represent a medication using either a code or refer to the Medication resource. When referencing Medication, the resource may be [contained](http://hl7.org/fhir/R4/references.html#contained) or an external resource. The server application **MAY** choose any one way or more than one method, but if an external reference to Medication is used, the server **SHALL** support the _include` parameter for searching this element. The client application must support all methods.
+ For example, A server **SHALL** be capable of returning all medications for a patient using one of or both:
+ `GET /MedicationRequest?patient=[id]`
+ `GET /MedicationRequest?patient=[id]&amp;_include=MedicationRequest:medication`</t>
+  </si>
+  <si>
+    <t>Provenance</t>
+  </si>
+  <si>
+    <t>If a system receives a provider in `Provenance.agent.who` as free text they must capture who sent them the information as the organization. On request they **SHALL** provide this organization as the source and **MAY** include the free text provider.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-provenance</t>
+  </si>
+  <si>
+    <t>US Core Provenance Profile</t>
+  </si>
+  <si>
+    <t>conf_Provenance</t>
+  </si>
+  <si>
+    <t>US Core Pulse Oximetry Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-pulse-oximetry</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>support searching relevant Provenance records for a resource type</t>
+  </si>
+  <si>
+    <t>reference,special</t>
+  </si>
+  <si>
+    <t>support searching for all allergies and associated provenance for a patient</t>
+  </si>
+  <si>
+    <t>token,special</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all AllergyIntolerance resources for the specified patient and status code.  This will not return any "entered in error" resources because of the conditional presence of the clinicalStatus element.</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all AllergyIntolerance resources for the specified patient and any corresponding Provenance resources.</t>
+  </si>
+  <si>
+    <t>Fetches an AllergyIntolerance resource  (within the clients authorization scope) and any corresponding Provenance resources.</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-includeprovenance.html</t>
+  </si>
+  <si>
+    <t>support searching for an allergy and its associated provenance</t>
+  </si>
+  <si>
+    <t>US Core Implantable Device Profile</t>
+  </si>
+  <si>
+    <t>us-core-includeprovenance</t>
+  </si>
+  <si>
+    <t>patient,us-core-includeprovenance</t>
+  </si>
+  <si>
+    <t>_id,us-core-includeprovenance</t>
+  </si>
+  <si>
+    <t>GET [base]/AllergyIntolerance?patient=1137192&amp;us-core-includeprovenance</t>
+  </si>
+  <si>
+    <t>GET [base]/AllergyIntolerance?_id=12345&amp;us-core-includeprovenance</t>
+  </si>
+  <si>
+    <t>expand</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/OperationDefinition/ValueSet-expand</t>
+  </si>
+  <si>
+    <t>ValueSet</t>
+  </si>
+  <si>
+    <t>A  client can determine the note and report types support by a server by invoking the standard FHIR Value Set Expansion ($expand) operation defined in the FHIR R4 specification. Because servers may support different read and write formats, it also is used to determine the formats (for example, text, pdf) the server supports read and write transactions.</t>
+  </si>
+  <si>
+    <t>conf_ValueSet</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ImplementationGuide/hl7.fhir.us.core-3.0.1</t>
   </si>
   <si>
     <t>The US Core Server **SHALL**:
@@ -1274,488 +1759,17 @@
    - (Status 404): unknown resource
    - (Status 410): deleted resource.
 1. Support json source formats for all US Core interactions.
-1. Declare a CapabilityStatement identifying the list of profiles, operations, search parameter supported.
 The US Core Server **SHOULD**:
 1. Support xml source formats for all US Core interactions.
 1. Identify the US Core profiles supported as part of the FHIR `meta.profile` attribute for each instance.
 1. Support xml resource formats for all Argonaut questionnaire interactions.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</t>
-  </si>
-  <si>
-    <t>US Core CareTeam Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationstatement</t>
-  </si>
-  <si>
-    <t>US Core MedicationStatement Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner</t>
-  </si>
-  <si>
-    <t>US Core Practitioner Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</t>
-  </si>
-  <si>
-    <t>US Core Immunization Profile</t>
-  </si>
-  <si>
-    <t>US Core Smoking Status Observation Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</t>
-  </si>
-  <si>
-    <t>US Core DocumentReference Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</t>
-  </si>
-  <si>
-    <t>US Core MedicationRequest Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</t>
-  </si>
-  <si>
-    <t>US Core Condition Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization</t>
-  </si>
-  <si>
-    <t>US Core Organization Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</t>
-  </si>
-  <si>
-    <t>US Core Procedure Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medication</t>
-  </si>
-  <si>
-    <t>US Core Medication Profile</t>
-  </si>
-  <si>
-    <t>Medication</t>
-  </si>
-  <si>
-    <t>US Core DiagnosticReport Profile for Report and Note exchange</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole</t>
-  </si>
-  <si>
-    <t>US Core PractitionerRole Profile</t>
-  </si>
-  <si>
-    <t>US Core CarePlan Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</t>
-  </si>
-  <si>
-    <t>US Core Goal Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</t>
-  </si>
-  <si>
-    <t>US Core Location Profile</t>
-  </si>
-  <si>
-    <t>US Core DiagnosticReport Profile for Laboratory Results Reporting</t>
-  </si>
-  <si>
-    <t>US Core Patient Profile</t>
-  </si>
-  <si>
-    <t>US Core Encounter Profile</t>
-  </si>
-  <si>
-    <t>US Core AllergyIntolerance Profile</t>
-  </si>
-  <si>
-    <t>docref</t>
-  </si>
-  <si>
-    <t>conf_AllergyIntolerance</t>
-  </si>
-  <si>
-    <t>conf_CarePlan</t>
-  </si>
-  <si>
-    <t>conf_CareTeam</t>
-  </si>
-  <si>
-    <t>conf_Condition</t>
-  </si>
-  <si>
-    <t>conf_Device</t>
-  </si>
-  <si>
-    <t>conf_DiagnosticReport</t>
-  </si>
-  <si>
-    <t>conf_DocumentReference</t>
-  </si>
-  <si>
-    <t>conf_Encounter</t>
-  </si>
-  <si>
-    <t>conf_Goal</t>
-  </si>
-  <si>
-    <t>conf_Immunization</t>
-  </si>
-  <si>
-    <t>conf_Location</t>
-  </si>
-  <si>
-    <t>conf_Medication</t>
-  </si>
-  <si>
-    <t>conf_MedicationRequest</t>
-  </si>
-  <si>
-    <t>conf_MedicationStatement</t>
-  </si>
-  <si>
-    <t>conf_Observation</t>
-  </si>
-  <si>
-    <t>conf_Organization</t>
-  </si>
-  <si>
-    <t>conf_Patient</t>
-  </si>
-  <si>
-    <t>conf_Practitioner</t>
-  </si>
-  <si>
-    <t>conf_PractitionerRole</t>
-  </si>
-  <si>
-    <t>conf_Procedure</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/OperationDefinition/docref</t>
-  </si>
-  <si>
-    <t>support searching for a specific device type for a patient (for example, implantable devices)</t>
-  </si>
-  <si>
-    <t>GET [base]/DocumentReference?patient=2169591&amp;type=http://loinc.org \|34133-9&amp;period=ge2019</t>
-  </si>
-  <si>
-    <t>GET [base]/DocumentReference?patient=1316024&amp;type=http://loinc.org\|18842-5</t>
-  </si>
-  <si>
-    <t>GET [base]/Device?patient=1316024&amp;type=http://snomed.info/sct\|468063009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fetches a bundle of all Device resources for the specified patient and type. </t>
-  </si>
-  <si>
-    <t>conditionalCreate</t>
-  </si>
-  <si>
-    <t>conditionalRead</t>
-  </si>
-  <si>
-    <t>shall_revinclude</t>
-  </si>
-  <si>
-    <t>should_revinclude</t>
-  </si>
-  <si>
-    <t>MedicationStatement:medication</t>
-  </si>
-  <si>
-    <t>conditionalUpdate</t>
-  </si>
-  <si>
-    <t>conditionalDelete</t>
-  </si>
-  <si>
-    <t>This Section describes the expected capabilities of the US Core Server actor which is responsible for providing responses to the queries submitted by the US Core Requestors. The complete list of FHIR profiles, RESTful operations, and search parameters supported by US Core Servers are defined. Systems implementing this capability statement should meet the ONC 2015 Common Clinical Data Set (CCDS) access requirement for Patient Selection 170.315(g)(7) and Application Access - Data Category Request 170.315(g)(8) and and the latest proposed ONC [U.S. Core Data for Interoperability (USCDI)].  US Core Clients have the option of choosing from this list to access necessary data based on their local use cases and other contextual requirements.</t>
-  </si>
-  <si>
-    <t>The MedicationStatement and MedicationRequest resources can represent a medication, using an external reference to a Medication resource. If an external Medication Resource is used in a MedicationStatement or a MedicationRequest, then the READ and SEARCH Criteria  **SHALL**  be supported.</t>
-  </si>
-  <si>
-    <t>us-core-server</t>
-  </si>
-  <si>
-    <t>versioning_conf</t>
-  </si>
-  <si>
-    <t>readHistory_conf</t>
-  </si>
-  <si>
-    <t>updateCreate_conf</t>
-  </si>
-  <si>
-    <t>conditionalCreate_conf</t>
-  </si>
-  <si>
-    <t>conditionalRead_conf</t>
-  </si>
-  <si>
-    <t>conditionalUpdate_conf</t>
-  </si>
-  <si>
-    <t>conditionalDelete_conf</t>
-  </si>
-  <si>
-    <t>referencePolicy_conf</t>
-  </si>
-  <si>
-    <t>GET [base]/MedicationRequest?patient=1137192&amp;status=active~GET [base]/MedicationRequest?patient=1137192&amp;status=active&amp;_include=MedicationRequest:medication</t>
-  </si>
-  <si>
-    <t>GET [base]/MedicationStatement?patient=1137192&amp;status=active~GET [base]/MedicationStatement?patient=1137192&amp;status=active&amp;_include=MedicationStatement:medication</t>
-  </si>
-  <si>
-    <t>GET [base]/MedicationRequest?patient=1137192&amp;effective=ge2019~GET [base]/MedicationStatement?patient=1137192&amp;effective=ge2019&amp;_include=MedicationRequest:medication</t>
-  </si>
-  <si>
-    <t>GET [base]/MedicationStatement?patient=1137192&amp;date=ge2019~GET [base]/MedicationRequest?patient=1137192&amp;date=ge2019&amp;_include=MedicationStatement:medication</t>
-  </si>
-  <si>
-    <t>target-date</t>
-  </si>
-  <si>
-    <t>patient,target-date</t>
-  </si>
-  <si>
-    <t>GET [base]/Goal?patient=1137192&amp;target-date=ge2015-01-14&amp;target-date=le2019-01-14</t>
-  </si>
-  <si>
-    <t>GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;date=ge2019~GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;date=ge2018&amp;date=le2018</t>
-  </si>
-  <si>
-    <t>GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;status=active&amp;date=ge2019~GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;status=active&amp;date=ge2018&amp;date=le2019</t>
-  </si>
-  <si>
-    <t>The DocumentReference.type binding SHALL support at a minimum the [5 Common Clinical Notes](ValueSet-us-core-clinical-note-type.html) and may extend to the full US Core DocumentReference Type Value Set</t>
-  </si>
-  <si>
-    <t>1. See the [General Security Considerations](security.html) section for requirements and recommendations.
-1. A server **SHALL** reject any unauthorized requests by returning an `HTTP 401` unauthorized response code.</t>
-  </si>
-  <si>
-    <t>US Core Laboratory Result Observation Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-lab</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/pediatric-bmi-for-age</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/pediatric-weight-for-height</t>
-  </si>
-  <si>
-    <t>US Core Pediatric BMI for Age Observation Profile</t>
-  </si>
-  <si>
-    <t>US Core Pediatric Weight  for Height Observation Profile</t>
-  </si>
-  <si>
-    <t>A server **SHALL** be capable of responding to a $docref operation and  capable of returning at least a reference to a generated CCD document, if available. **MAY** provide references to other 'on-demand' and 'stable' documents (or 'delayed/deferred assembly') that meet the query parameters as well. If a context date range is supplied the server ** SHOULD**  provide references to any document that falls within the date range If no date range is supplied, then the server **SHALL** provide references to last or current encounter.  **SHOULD** document what resources, if any, are returned as included resources
-`GET [base]/DocumentReference/$docref?patient=[id]`</t>
-  </si>
-  <si>
-    <t>category=http://terminology.hl7.org/CodeSystem/observation-category|laboratory</t>
-  </si>
-  <si>
-    <t>GET [base]/Observation?patient=1134281&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|laboratory&amp;status=final</t>
-  </si>
-  <si>
-    <t>GET [base]/Observation?patient=1134281&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|laboratory</t>
-  </si>
-  <si>
-    <t>GET [base]Observation?patient=555580&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|laboratory&amp;date=ge2018-03-14</t>
-  </si>
-  <si>
-    <t>category=http://terminology.hl7.org/CodeSystem/observation-category|vital-signs</t>
-  </si>
-  <si>
-    <t>GET [base]/Observation?patient=1134281&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|vital-signs&amp;status=final</t>
-  </si>
-  <si>
-    <t>GET [base]/Observation?patient=1134281&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|vital-signs</t>
-  </si>
-  <si>
-    <t>GET [base]/Observation?patient=1134281&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|vital-signs&amp;date=ge2019</t>
-  </si>
-  <si>
-    <t>doc_DiagnosticReport</t>
-  </si>
-  <si>
-    <t>This conformance expectation applies **only**  to the *US Core DiagnosticReport Profile for Report and Note exchange* profile.  The conformance expectation for the *US Core DiagnosticReport Profile for Laboratory Results Reporting* is  **MAY**.</t>
-  </si>
-  <si>
-    <t>The MedicationStatement resources can represent a medication using either a code or refer to the Medication resource. When referencing Medication, the resource may be [contained](http://hl7.org/fhir/R4/references.html#contained) or an external resource. The server application **MAY** choose any one way or more than one method, but if an external reference to Medication is used, the server **SHALL** support the _include` parameter for searching this element. The client application must support all methods.
- For example, A server **SHALL** be capable of returning all medications for a patient using one of or both:
- `GET /MedicationStatement?patient=[id]`
- `GET /MedicationStatement?patient=[id]&amp;_include=MedicationStatement:medication`</t>
-  </si>
-  <si>
-    <t>intent</t>
-  </si>
-  <si>
-    <t>patient,intent</t>
-  </si>
-  <si>
-    <t>patient,intent,status</t>
-  </si>
-  <si>
-    <t>patient,intent,authoredon</t>
-  </si>
-  <si>
-    <t>patient,intent,encounter</t>
-  </si>
-  <si>
-    <t>intent=http://hl7.org/fhir/CodeSystem/medicationrequest-intent|order</t>
-  </si>
-  <si>
-    <t>support searching for all medications that have been prescribed to a patient. See the [Medication List Guidance] section for guidance on accessing a patient medications. The server application represents the medication using either an inline code or a contained or external reference to the Medication resource.</t>
-  </si>
-  <si>
-    <t>GET [base]/MedicationRequest?patient=14676&amp;intent=http://hl7.org/fhir/CodeSystem/medicationrequest-intent|order~GET [base]/MedicationRequest?patient=14676&amp;intent=http://hl7.org/fhir/CodeSystem/medicationrequest-intent|order&amp;_include=MedicationRequest:medication</t>
-  </si>
-  <si>
-    <t>Fetches a bundle of all MedicationRequest resources for the specified patient and intent code = `order`</t>
-  </si>
-  <si>
-    <t>Fetches a bundle of all MedicationRequest resources for the specified patient and intent  code = `order` and status</t>
-  </si>
-  <si>
-    <t>Fetches a bundle of all MedicationRequest resources for the specified patient and intent  code = `order` and authoredon date</t>
-  </si>
-  <si>
-    <t>Fetches a bundle of all MedicationRequest resources for the specified patient and intent  code = `order` and encounter</t>
-  </si>
-  <si>
-    <t>encounter</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-device</t>
-  </si>
-  <si>
-    <t>doc</t>
-  </si>
-  <si>
-    <t>transaction</t>
-  </si>
-  <si>
-    <t>batch</t>
-  </si>
-  <si>
-    <t>search-system</t>
-  </si>
-  <si>
-    <t>history-system</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/ImplementationGuide/hl7.fhir.us.core.argo-3.1.0</t>
-  </si>
-  <si>
-    <t>!MedicationStatement</t>
-  </si>
-  <si>
-    <t>The MedicationRequest resources can represent a medication using either a code or refer to the Medication resource. When referencing Medication, the resource may be [contained](http://hl7.org/fhir/R4/references.html#contained) or an external resource. The server application **MAY** choose any one way or more than one method, but if an external reference to Medication is used, the server **SHALL** support the _include` parameter for searching this element. The client application must support all methods.
- For example, A server **SHALL** be capable of returning all medications for a patient using one of or both:
- `GET /MedicationRequest?patient=[id]`
- `GET /MedicationRequest?patient=[id]&amp;_include=MedicationRequest:medication`</t>
-  </si>
-  <si>
-    <t>Provenance</t>
-  </si>
-  <si>
-    <t>If a system receives a provider in `Provenance.agent.who` as free text they must capture who sent them the information as the organization. On request they **SHALL** provide this organization as the source and **MAY** include the free text provider.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-provenance</t>
-  </si>
-  <si>
-    <t>US Core Provenance Profile</t>
-  </si>
-  <si>
-    <t>conf_Provenance</t>
-  </si>
-  <si>
-    <t>US Core Pulse Oximetry Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-pulse-oximetry</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>support searching relevant Provenance records for a resource type</t>
-  </si>
-  <si>
-    <t>reference,special</t>
-  </si>
-  <si>
-    <t>support searching for all allergies and associated provenance for a patient</t>
-  </si>
-  <si>
-    <t>token,special</t>
-  </si>
-  <si>
-    <t>Fetches a bundle of all AllergyIntolerance resources for the specified patient and status code.  This will not return any "entered in error" resources because of the conditional presence of the clinicalStatus element.</t>
-  </si>
-  <si>
-    <t>Fetches a bundle of all AllergyIntolerance resources for the specified patient and any corresponding Provenance resources.</t>
-  </si>
-  <si>
-    <t>Fetches an AllergyIntolerance resource  (within the clients authorization scope) and any corresponding Provenance resources.</t>
-  </si>
-  <si>
-    <t>SearchParameter-us-core-includeprovenance.html</t>
-  </si>
-  <si>
-    <t>support searching for an allergy and its associated provenance</t>
-  </si>
-  <si>
-    <t>US Core Implantable Device Profile</t>
-  </si>
-  <si>
-    <t>us-core-includeprovenance</t>
-  </si>
-  <si>
-    <t>patient,us-core-includeprovenance</t>
-  </si>
-  <si>
-    <t>_id,us-core-includeprovenance</t>
-  </si>
-  <si>
-    <t>GET [base]/AllergyIntolerance?patient=1137192&amp;us-core-includeprovenance</t>
-  </si>
-  <si>
-    <t>GET [base]/AllergyIntolerance?_id=12345&amp;us-core-includeprovenance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1833,6 +1847,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF006400"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1885,7 +1905,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1914,6 +1934,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2255,7 +2278,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="105" customHeight="1">
@@ -2263,7 +2286,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2271,7 +2294,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>502</v>
+        <v>531</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2287,7 +2310,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>373</v>
+        <v>532</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="103.5" customHeight="1">
@@ -2295,7 +2318,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -2328,10 +2351,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D27"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2358,10 +2381,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B2" t="s">
         <v>374</v>
-      </c>
-      <c r="B2" t="s">
-        <v>375</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -2373,10 +2396,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B3" t="s">
         <v>376</v>
-      </c>
-      <c r="B3" t="s">
-        <v>377</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -2388,10 +2411,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
@@ -2403,10 +2426,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -2421,7 +2444,7 @@
         <v>83</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -2433,10 +2456,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -2451,7 +2474,7 @@
         <v>302</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
@@ -2463,10 +2486,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>384</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>13</v>
@@ -2478,10 +2501,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>13</v>
@@ -2493,10 +2516,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>13</v>
@@ -2508,10 +2531,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
@@ -2523,10 +2546,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>391</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>13</v>
@@ -2538,10 +2561,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
@@ -2553,10 +2576,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>393</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>13</v>
@@ -2568,25 +2591,25 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>13</v>
@@ -2601,7 +2624,7 @@
         <v>203</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>13</v>
@@ -2613,10 +2636,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>13</v>
@@ -2631,7 +2654,7 @@
         <v>255</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>13</v>
@@ -2643,10 +2666,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>402</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>13</v>
@@ -2658,10 +2681,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>404</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>13</v>
@@ -2673,10 +2696,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>13</v>
@@ -2688,10 +2711,10 @@
     </row>
     <row r="24" spans="1:6" s="1" customFormat="1">
       <c r="A24" s="11" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>13</v>
@@ -2705,7 +2728,7 @@
         <v>202</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>13</v>
@@ -2720,7 +2743,7 @@
         <v>81</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>13</v>
@@ -2730,19 +2753,22 @@
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" ht="15.75" thickBot="1">
       <c r="A27" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>505</v>
-      </c>
+        <v>503</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A28" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2755,11 +2781,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q22" sqref="Q22"/>
+      <selection pane="bottomRight" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2791,49 +2817,49 @@
         <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F1" t="s">
         <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H1" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>348</v>
@@ -2842,10 +2868,10 @@
         <v>349</v>
       </c>
       <c r="V1" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>438</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>439</v>
       </c>
       <c r="X1" t="s">
         <v>20</v>
@@ -2952,7 +2978,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>21</v>
@@ -3019,13 +3045,13 @@
     </row>
     <row r="13" spans="1:24" ht="105">
       <c r="A13" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>21</v>
@@ -3042,7 +3068,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>21</v>
@@ -3056,13 +3082,13 @@
     </row>
     <row r="15" spans="1:24" ht="315">
       <c r="A15" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>21</v>
@@ -3071,7 +3097,7 @@
         <v>78</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -3163,13 +3189,13 @@
     </row>
     <row r="22" spans="1:21" ht="90">
       <c r="A22" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="R22" s="1" t="s">
         <v>21</v>
@@ -3179,7 +3205,12 @@
       </c>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23"/>
+      <c r="A23" t="s">
+        <v>528</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="24" spans="1:21">
       <c r="A24"/>
@@ -3210,7 +3241,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3240,10 +3271,10 @@
     </row>
     <row r="2" spans="1:5" ht="135.75" thickBot="1">
       <c r="A2" s="15" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>191</v>
@@ -3252,7 +3283,24 @@
         <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="60">
+      <c r="A3" t="s">
+        <v>526</v>
+      </c>
+      <c r="B3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C3" t="s">
+        <v>528</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3265,13 +3313,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T15" sqref="T15"/>
+      <selection pane="bottomRight" activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3284,78 +3332,81 @@
     <col min="23" max="23" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" t="s">
         <v>428</v>
       </c>
-      <c r="V1" t="s">
-        <v>429</v>
-      </c>
       <c r="W1" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="75">
+        <v>507</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="75">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -3375,7 +3426,7 @@
         <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -3426,7 +3477,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -3494,7 +3545,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -3562,7 +3613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -3630,7 +3681,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -3698,7 +3749,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -3766,7 +3817,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -3834,7 +3885,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -3902,7 +3953,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -3980,7 +4031,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3996,12 +4047,12 @@
         <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="59.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>34</v>
@@ -4010,7 +4061,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>34</v>
@@ -4019,7 +4070,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>34</v>
@@ -4028,7 +4079,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>34</v>
@@ -4044,11 +4095,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AC113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="6" ySplit="1" topLeftCell="AB86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C89" sqref="C89"/>
+      <selection pane="bottomRight" activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.95" customHeight="1"/>
@@ -6854,7 +6905,7 @@
         <v>193</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>34</v>
@@ -6961,7 +7012,7 @@
         <v>194</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>34</v>
@@ -7062,7 +7113,7 @@
         <v>194</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>34</v>
@@ -7164,7 +7215,7 @@
         <v>56</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>68</v>
@@ -7217,7 +7268,7 @@
         <v>57</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>99</v>
@@ -7275,7 +7326,7 @@
         <v>58</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>247</v>
@@ -9061,7 +9112,7 @@
         <v>23</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>13</v>
@@ -9080,15 +9131,15 @@
         <v>65</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Y95" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="Z95" s="7"/>
       <c r="AA95" s="12"/>
       <c r="AB95" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="96" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
@@ -9099,7 +9150,7 @@
         <v>253</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>13</v>
@@ -9118,15 +9169,15 @@
         <v>65</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Y96" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="Z96" s="7"/>
       <c r="AA96" s="12"/>
       <c r="AB96" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="97" spans="1:29" ht="18.95" customHeight="1">
@@ -9137,7 +9188,7 @@
         <v>267</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>13</v>
@@ -9156,15 +9207,15 @@
         <v>65</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Y97" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="Z97" s="7"/>
       <c r="AA97" s="12"/>
       <c r="AB97" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AC97" s="1"/>
     </row>
@@ -9176,7 +9227,7 @@
         <v>148</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>13</v>
@@ -9195,15 +9246,15 @@
         <v>65</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Y98" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="Z98" s="7"/>
       <c r="AA98" s="12"/>
       <c r="AB98" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AC98" s="1"/>
     </row>
@@ -9215,7 +9266,7 @@
         <v>192</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>13</v>
@@ -9234,15 +9285,15 @@
         <v>65</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Y99" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="Z99" s="7"/>
       <c r="AA99" s="12"/>
       <c r="AB99" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AC99" s="1"/>
     </row>
@@ -9254,7 +9305,7 @@
         <v>191</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>13</v>
@@ -9273,15 +9324,15 @@
         <v>65</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Y100" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="Z100" s="7"/>
       <c r="AA100" s="12"/>
       <c r="AB100" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AC100" s="1"/>
     </row>
@@ -9293,7 +9344,7 @@
         <v>25</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>13</v>
@@ -9312,15 +9363,15 @@
         <v>65</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Y101" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="Z101" s="7"/>
       <c r="AA101" s="12"/>
       <c r="AB101" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AC101" s="1"/>
     </row>
@@ -9332,7 +9383,7 @@
         <v>193</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>13</v>
@@ -9351,15 +9402,15 @@
         <v>65</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Y102" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="Z102" s="7"/>
       <c r="AA102" s="12"/>
       <c r="AB102" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AC102" s="1"/>
     </row>
@@ -9371,7 +9422,7 @@
         <v>172</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>13</v>
@@ -9390,15 +9441,15 @@
         <v>65</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Y103" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="Z103" s="7"/>
       <c r="AA103" s="12"/>
       <c r="AB103" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AC103" s="1"/>
     </row>
@@ -9410,7 +9461,7 @@
         <v>271</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>13</v>
@@ -9429,15 +9480,15 @@
         <v>65</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Y104" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="Z104" s="7"/>
       <c r="AA104" s="12"/>
       <c r="AB104" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AC104" s="1"/>
     </row>
@@ -9449,7 +9500,7 @@
         <v>196</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>13</v>
@@ -9468,15 +9519,15 @@
         <v>65</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Y105" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="Z105" s="7"/>
       <c r="AA105" s="12"/>
       <c r="AB105" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AC105" s="1"/>
     </row>
@@ -9488,7 +9539,7 @@
         <v>272</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>13</v>
@@ -9507,15 +9558,15 @@
         <v>65</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Y106" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="Z106" s="7"/>
       <c r="AA106" s="12"/>
       <c r="AB106" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AC106" s="1"/>
     </row>
@@ -9524,10 +9575,10 @@
         <v>102</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>13</v>
@@ -9546,15 +9597,15 @@
         <v>65</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Y107" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="Z107" s="7"/>
       <c r="AA107" s="12"/>
       <c r="AB107" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AC107" s="1"/>
     </row>
@@ -9566,7 +9617,7 @@
         <v>194</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>13</v>
@@ -9585,15 +9636,15 @@
         <v>65</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Y108" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="Z108" s="7"/>
       <c r="AA108" s="12"/>
       <c r="AB108" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AC108" s="1"/>
     </row>
@@ -9605,7 +9656,7 @@
         <v>286</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>13</v>
@@ -9624,15 +9675,15 @@
         <v>65</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Y109" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="Z109" s="7"/>
       <c r="AA109" s="12"/>
       <c r="AB109" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AC109" s="1"/>
     </row>
@@ -9644,7 +9695,7 @@
         <v>24</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>13</v>
@@ -9663,15 +9714,15 @@
         <v>65</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Y110" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="Z110" s="7"/>
       <c r="AA110" s="12"/>
       <c r="AB110" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AC110" s="1"/>
     </row>
@@ -9683,7 +9734,7 @@
         <v>293</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>13</v>
@@ -9702,15 +9753,15 @@
         <v>65</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Y111" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="Z111" s="7"/>
       <c r="AA111" s="12"/>
       <c r="AB111" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AC111" s="1"/>
     </row>
@@ -9722,7 +9773,7 @@
         <v>296</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>13</v>
@@ -9741,15 +9792,15 @@
         <v>65</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Y112" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="Z112" s="7"/>
       <c r="AA112" s="12"/>
       <c r="AB112" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AC112" s="1"/>
     </row>
@@ -9761,7 +9812,7 @@
         <v>195</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>13</v>
@@ -9780,15 +9831,15 @@
         <v>65</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Y113" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="Z113" s="7"/>
       <c r="AA113" s="12"/>
       <c r="AB113" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AC113" s="1"/>
     </row>
@@ -10353,13 +10404,13 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H20" s="5" t="str">
         <f>"support searching for all "&amp;LOWER(B20&amp;"s and associated provenance for a patient")</f>
@@ -10386,13 +10437,13 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H21" s="5" t="str">
         <f>"support searching for a "&amp;LOWER(B21&amp;" and its associated provenance")</f>
@@ -10776,13 +10827,13 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E35" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H35" s="5" t="str">
         <f>"support searching for all "&amp;LOWER(B35&amp;"s and associated provenance for a patient")</f>
@@ -10809,13 +10860,13 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E36" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H36" s="5" t="str">
         <f>"support searching for a "&amp;LOWER(B36&amp;" and its associated provenance")</f>
@@ -10965,13 +11016,13 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E41" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H41" s="5" t="str">
         <f>"support searching for all "&amp;LOWER(B41&amp;"s and associated provenance for a patient")</f>
@@ -10998,13 +11049,13 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E42" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H42" s="5" t="str">
         <f>"support searching for a "&amp;LOWER(B42&amp;" and its associated provenance")</f>
@@ -11046,7 +11097,7 @@
         <v>356</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="44" spans="1:10" s="1" customFormat="1">
@@ -11061,22 +11112,22 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-allergyintolerance</v>
       </c>
       <c r="D44" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="I44" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="E44" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>526</v>
-      </c>
       <c r="J44" s="5" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="45" spans="1:10" s="1" customFormat="1">
@@ -11091,22 +11142,22 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-allergyintolerance</v>
       </c>
       <c r="D45" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="I45" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="E45" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>527</v>
-      </c>
       <c r="J45" s="5" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="46" spans="1:10" s="1" customFormat="1">
@@ -11183,13 +11234,13 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E48" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H48" s="5" t="str">
         <f>"support searching for all "&amp;LOWER(B48&amp;"s and associated provenance for a patient")</f>
@@ -11216,13 +11267,13 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E49" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H49" s="5" t="str">
         <f>"support searching for a "&amp;LOWER(B49&amp;" and its associated provenance")</f>
@@ -11404,13 +11455,13 @@
         <v>202</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E55" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H55" s="5" t="str">
         <f>"support searching for all "&amp;LOWER(B55&amp;"s and associated provenance for a patient")</f>
@@ -11436,13 +11487,13 @@
         <v>202</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E56" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H56" s="5" t="str">
         <f>"support searching for a "&amp;LOWER(B56&amp;" and its associated provenance")</f>
@@ -11618,13 +11669,13 @@
         <v>203</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E62" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H62" s="5" t="str">
         <f>"support searching for all "&amp;LOWER(B62&amp;"s and associated provenance for a patient")</f>
@@ -11650,13 +11701,13 @@
         <v>203</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E63" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H63" s="5" t="str">
         <f>"support searching for a "&amp;LOWER(B63&amp;" and its associated provenance")</f>
@@ -11714,7 +11765,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>78</v>
@@ -11726,7 +11777,7 @@
         <v>223</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J65" s="5" t="str">
         <f t="shared" ref="J65" si="10">"Fetches a bundle of all "&amp;B65&amp;" resources for the specified "&amp;SUBSTITUTE(D65,","," and ")</f>
@@ -11745,13 +11796,13 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E66" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H66" s="5" t="str">
         <f>"support searching for all "&amp;LOWER(B66&amp;"s and associated provenance for a patient")</f>
@@ -11778,13 +11829,13 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E67" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H67" s="5" t="str">
         <f>"support searching for a "&amp;LOWER(B67&amp;" and its associated provenance")</f>
@@ -11811,7 +11862,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>13</v>
@@ -11820,16 +11871,16 @@
         <v>116</v>
       </c>
       <c r="G68" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="H68" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="H68" s="5" t="s">
+      <c r="I68" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="I68" s="5" t="s">
+      <c r="J68" s="5" t="s">
         <v>490</v>
-      </c>
-      <c r="J68" s="5" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="69" spans="1:10" s="1" customFormat="1">
@@ -11844,7 +11895,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>13</v>
@@ -11853,16 +11904,16 @@
         <v>116</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H69" s="5" t="s">
         <v>199</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="70" spans="1:10" s="1" customFormat="1">
@@ -11877,7 +11928,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>78</v>
@@ -11886,16 +11937,16 @@
         <v>116</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H70" s="5" t="s">
         <v>199</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="71" spans="1:10" s="1" customFormat="1">
@@ -11910,7 +11961,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>78</v>
@@ -11919,16 +11970,16 @@
         <v>234</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H71" s="5" t="s">
         <v>249</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="72" spans="1:10" s="1" customFormat="1">
@@ -11943,13 +11994,13 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E72" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H72" s="5" t="str">
         <f>"support searching for all "&amp;LOWER(B72&amp;"s and associated provenance for a patient")</f>
@@ -11976,13 +12027,13 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E73" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H73" s="5" t="str">
         <f>"support searching for a "&amp;LOWER(B73&amp;" and its associated provenance")</f>
@@ -12002,7 +12053,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C74" s="1" t="str">
         <f t="shared" si="2"/>
@@ -12021,7 +12072,7 @@
         <v>201</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J74" s="5" t="str">
         <f t="shared" si="8"/>
@@ -12033,7 +12084,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C75" s="1" t="str">
         <f t="shared" si="2"/>
@@ -12052,7 +12103,7 @@
         <v>250</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J75" s="5" t="s">
         <v>252</v>
@@ -12163,13 +12214,13 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E79" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H79" s="5" t="str">
         <f>"support searching for all "&amp;LOWER(B79&amp;"s and associated provenance for a patient")</f>
@@ -12196,13 +12247,13 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E80" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H80" s="5" t="str">
         <f>"support searching for a "&amp;LOWER(B80&amp;" and its associated provenance")</f>
@@ -12225,7 +12276,7 @@
         <v>196</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>256</v>
@@ -12237,13 +12288,13 @@
         <v>116</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H81" s="5" t="s">
         <v>307</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J81" s="5" t="s">
         <v>352</v>
@@ -12257,7 +12308,7 @@
         <v>196</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>155</v>
@@ -12269,13 +12320,13 @@
         <v>116</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H82" s="5" t="s">
         <v>238</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J82" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B82&amp;" resources for the specified patient and a category code = `laboratory`"</f>
@@ -12290,7 +12341,7 @@
         <v>196</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>157</v>
@@ -12320,7 +12371,7 @@
         <v>196</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>208</v>
@@ -12332,13 +12383,13 @@
         <v>234</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H84" s="5" t="s">
         <v>243</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J84" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B84&amp;" resources for the specified patient and date and a category code = `laboratory`"</f>
@@ -12353,7 +12404,7 @@
         <v>196</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>235</v>
@@ -12383,7 +12434,7 @@
         <v>351</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>126</v>
@@ -12413,16 +12464,16 @@
         <v>196</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E87" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H87" s="5" t="str">
         <f>"support searching for all "&amp;LOWER(B87&amp;"s and associated provenance for a patient")</f>
@@ -12445,16 +12496,16 @@
         <v>196</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E88" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H88" s="5" t="str">
         <f>"support searching for a "&amp;LOWER(B88&amp;" and its associated provenance")</f>
@@ -12528,7 +12579,7 @@
         <v>260</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J90" s="5" t="s">
         <v>264</v>
@@ -12592,7 +12643,7 @@
         <v>259</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J92" s="5" t="s">
         <v>266</v>
@@ -12610,13 +12661,13 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careplan</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E93" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H93" s="5" t="str">
         <f>"support searching for all "&amp;LOWER(B93&amp;"s and associated provenance for a patient")</f>
@@ -12643,13 +12694,13 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careplan</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E94" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H94" s="5" t="str">
         <f>"support searching for a "&amp;LOWER(B94&amp;" and its associated provenance")</f>
@@ -12709,13 +12760,13 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E96" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H96" s="5" t="str">
         <f>"support searching for all "&amp;LOWER(B96&amp;"s and associated provenance for a patient")</f>
@@ -12742,13 +12793,13 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E97" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H97" s="5" t="str">
         <f>"support searching for a "&amp;LOWER(B97&amp;" and its associated provenance")</f>
@@ -12813,13 +12864,13 @@
         <v>302</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E99" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H99" s="5" t="str">
         <f>"support searching for all "&amp;LOWER(B99&amp;"s and associated provenance for a patient")</f>
@@ -12845,13 +12896,13 @@
         <v>302</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E100" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H100" s="5" t="str">
         <f>"support searching for a "&amp;LOWER(B100&amp;" and its associated provenance")</f>
@@ -12886,13 +12937,13 @@
         <v>116</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H101" s="5" t="s">
         <v>306</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J101" s="5" t="str">
         <f t="shared" ref="J101" si="19">"Fetches a bundle of all "&amp;B101&amp;" resources for the specified "&amp;SUBSTITUTE(D101,","," and ")</f>
@@ -12919,13 +12970,13 @@
         <v>116</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H102" s="5" t="s">
         <v>305</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J102" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B102&amp;" resources for the specified patient and a category code = `vital-signs`"</f>
@@ -12952,7 +13003,7 @@
         <v>116</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H103" s="5" t="s">
         <v>308</v>
@@ -12985,13 +13036,13 @@
         <v>234</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H104" s="5" t="s">
         <v>311</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J104" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B104&amp;" resources for the specified patient and date and a category code = `vital-signs`"</f>
@@ -13039,13 +13090,13 @@
         <v>350</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E106" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H106" s="5" t="str">
         <f>"support searching for all "&amp;LOWER(B106&amp;"s and associated provenance for a patient")</f>
@@ -13071,13 +13122,13 @@
         <v>350</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E107" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H107" s="5" t="str">
         <f>"support searching for a "&amp;LOWER(B107&amp;" and its associated provenance")</f>
@@ -13242,7 +13293,7 @@
         <v>329</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J112" s="5" t="s">
         <v>326</v>
@@ -13272,7 +13323,7 @@
         <v>330</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J113" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B113&amp;" resources for the specified "&amp;SUBSTITUTE(D113,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
@@ -13291,13 +13342,13 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E114" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H114" s="5" t="str">
         <f>"support searching for all "&amp;LOWER(B114&amp;"s and associated provenance for a patient")</f>
@@ -13324,13 +13375,13 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E115" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H115" s="5" t="str">
         <f>"support searching for a "&amp;LOWER(B115&amp;" and its associated provenance")</f>
@@ -13353,7 +13404,7 @@
         <v>271</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>128</v>
@@ -13365,13 +13416,13 @@
         <v>116</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I116" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="J116" s="5" t="s">
         <v>434</v>
-      </c>
-      <c r="J116" s="5" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="117" spans="1:10" s="1" customFormat="1">
@@ -13382,16 +13433,16 @@
         <v>271</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E117" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H117" s="5" t="str">
         <f>"support searching for all "&amp;LOWER(B117&amp;"s and associated provenance for a patient")</f>
@@ -13414,16 +13465,16 @@
         <v>271</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E118" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H118" s="5" t="str">
         <f>"support searching for a "&amp;LOWER(B118&amp;" and its associated provenance")</f>
@@ -13446,16 +13497,16 @@
         <v>272</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E119" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H119" s="5" t="str">
         <f>"support searching for all "&amp;LOWER(B119&amp;"s and associated provenance for a patient")</f>
@@ -13478,16 +13529,16 @@
         <v>272</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E120" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H120" s="5" t="str">
         <f>"support searching for a "&amp;LOWER(B120&amp;" and its associated provenance")</f>
@@ -13510,16 +13561,16 @@
         <v>286</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E121" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H121" s="5" t="str">
         <f>"support searching for all "&amp;LOWER(B121&amp;"s and associated provenance for a patient")</f>
@@ -13542,16 +13593,16 @@
         <v>286</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E122" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H122" s="5" t="str">
         <f>"support searching for a "&amp;LOWER(B122&amp;" and its associated provenance")</f>
@@ -13574,16 +13625,16 @@
         <v>293</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E123" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H123" s="5" t="str">
         <f>"support searching for all "&amp;LOWER(B123&amp;"s and associated provenance for a patient")</f>
@@ -13606,16 +13657,16 @@
         <v>293</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E124" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H124" s="5" t="str">
         <f>"support searching for a "&amp;LOWER(B124&amp;" and its associated provenance")</f>
@@ -13638,16 +13689,16 @@
         <v>296</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E125" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H125" s="5" t="str">
         <f>"support searching for all "&amp;LOWER(B125&amp;"s and associated provenance for a patient")</f>
@@ -13670,16 +13721,16 @@
         <v>296</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E126" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H126" s="5" t="str">
         <f>"support searching for a "&amp;LOWER(B126&amp;" and its associated provenance")</f>

--- a/source/source_spreadsheets/uscore-server.xlsx
+++ b/source/source_spreadsheets/uscore-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\US-Core-R4\source\source_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9BE6DC-F45F-45A4-A131-59B999E1AD20}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F57BFE3-CE09-45F6-BB9C-62A2E1BAD62C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-465" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2325" yWindow="2490" windowWidth="18900" windowHeight="11055" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="sp_combos" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">sp_combos!$B$1:$B$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">sp_combos!$B$1:$B$77</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">sps!$A$1:$AB$94</definedName>
   </definedNames>
   <calcPr calcId="191029" refMode="R1C1"/>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="520">
   <si>
     <t>Element</t>
   </si>
@@ -1682,52 +1682,10 @@
     <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-pulse-oximetry</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>support searching relevant Provenance records for a resource type</t>
-  </si>
-  <si>
-    <t>reference,special</t>
-  </si>
-  <si>
-    <t>support searching for all allergies and associated provenance for a patient</t>
-  </si>
-  <si>
-    <t>token,special</t>
-  </si>
-  <si>
     <t>Fetches a bundle of all AllergyIntolerance resources for the specified patient and status code.  This will not return any "entered in error" resources because of the conditional presence of the clinicalStatus element.</t>
   </si>
   <si>
-    <t>Fetches a bundle of all AllergyIntolerance resources for the specified patient and any corresponding Provenance resources.</t>
-  </si>
-  <si>
-    <t>Fetches an AllergyIntolerance resource  (within the clients authorization scope) and any corresponding Provenance resources.</t>
-  </si>
-  <si>
-    <t>SearchParameter-us-core-includeprovenance.html</t>
-  </si>
-  <si>
-    <t>support searching for an allergy and its associated provenance</t>
-  </si>
-  <si>
     <t>US Core Implantable Device Profile</t>
-  </si>
-  <si>
-    <t>us-core-includeprovenance</t>
-  </si>
-  <si>
-    <t>patient,us-core-includeprovenance</t>
-  </si>
-  <si>
-    <t>_id,us-core-includeprovenance</t>
-  </si>
-  <si>
-    <t>GET [base]/AllergyIntolerance?patient=1137192&amp;us-core-includeprovenance</t>
-  </si>
-  <si>
-    <t>GET [base]/AllergyIntolerance?_id=12345&amp;us-core-includeprovenance</t>
   </si>
   <si>
     <t>expand</t>
@@ -1763,6 +1721,9 @@
 1. Support xml source formats for all US Core interactions.
 1. Identify the US Core profiles supported as part of the FHIR `meta.profile` attribute for each instance.
 1. Support xml resource formats for all Argonaut questionnaire interactions.</t>
+  </si>
+  <si>
+    <t>Provenance:target</t>
   </si>
 </sst>
 </file>
@@ -1841,30 +1802,23 @@
       <family val="3"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF006400"/>
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1900,10 +1854,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1933,13 +1886,12 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+  <cellStyles count="2">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2256,7 +2208,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2294,7 +2246,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2310,7 +2262,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="103.5" customHeight="1">
@@ -2353,8 +2305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2414,7 +2366,7 @@
         <v>495</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
@@ -2768,7 +2720,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A28" s="18"/>
+      <c r="A28" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2782,10 +2734,10 @@
   <dimension ref="A1:X59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B42" sqref="B42"/>
+      <selection pane="bottomRight" activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2910,6 +2862,9 @@
       <c r="S3" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="W3" s="18" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="1" t="s">
@@ -2924,6 +2879,9 @@
       <c r="S4" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="W4" s="18" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="1" t="s">
@@ -2938,6 +2896,9 @@
       <c r="S5" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="W5" s="18" t="s">
+        <v>519</v>
+      </c>
       <c r="X5" t="s">
         <v>26</v>
       </c>
@@ -2955,6 +2916,9 @@
       <c r="S6" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="W6" s="18" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="1" t="s">
@@ -2969,6 +2933,9 @@
       <c r="S7" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="W7" s="18" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="8" spans="1:24" ht="75">
       <c r="A8" s="1" t="s">
@@ -2986,6 +2953,9 @@
       <c r="S8" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="W8" s="18" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="9" spans="1:24">
       <c r="A9" s="1" t="s">
@@ -3000,6 +2970,9 @@
       <c r="S9" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="W9" s="18" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="10" spans="1:24">
       <c r="A10" s="1" t="s">
@@ -3014,6 +2987,9 @@
       <c r="S10" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="W10" s="18" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="11" spans="1:24">
       <c r="A11" s="1" t="s">
@@ -3028,6 +3004,9 @@
       <c r="S11" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="W11" s="18" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="12" spans="1:24">
       <c r="A12" s="1" t="s">
@@ -3042,6 +3021,9 @@
       <c r="S12" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="W12" s="18" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="13" spans="1:24" ht="105">
       <c r="A13" s="1" t="s">
@@ -3059,6 +3041,9 @@
       <c r="S13" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="W13" s="18" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="14" spans="1:24" ht="315">
       <c r="A14" s="1" t="s">
@@ -3079,6 +3064,9 @@
       <c r="U14" s="7" t="s">
         <v>224</v>
       </c>
+      <c r="W14" s="18" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="15" spans="1:24" ht="315">
       <c r="A15" s="1" t="s">
@@ -3099,6 +3087,9 @@
       <c r="U15" s="7" t="s">
         <v>439</v>
       </c>
+      <c r="W15" s="18" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="16" spans="1:24">
       <c r="A16" s="1" t="s">
@@ -3113,8 +3104,11 @@
       <c r="S16" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="17" spans="1:21">
+      <c r="W16" s="18" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" s="1" t="s">
         <v>286</v>
       </c>
@@ -3127,8 +3121,11 @@
       <c r="S17" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="18" spans="1:21">
+      <c r="W17" s="18" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -3141,8 +3138,11 @@
       <c r="S18" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="19" spans="1:21">
+      <c r="W18" s="18" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" s="1" t="s">
         <v>293</v>
       </c>
@@ -3155,8 +3155,11 @@
       <c r="S19" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="20" spans="1:21">
+      <c r="W19" s="18" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" s="1" t="s">
         <v>296</v>
       </c>
@@ -3172,8 +3175,11 @@
       <c r="U20" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="21" spans="1:21">
+      <c r="W20" s="18" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" s="1" t="s">
         <v>195</v>
       </c>
@@ -3186,8 +3192,11 @@
       <c r="S21" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" ht="90">
+      <c r="W21" s="18" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="90">
       <c r="A22" t="s">
         <v>503</v>
       </c>
@@ -3204,18 +3213,18 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:23">
       <c r="A24"/>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:23">
       <c r="A25"/>
     </row>
     <row r="56" spans="20:23" ht="18">
@@ -3288,19 +3297,19 @@
     </row>
     <row r="3" spans="1:5" ht="60">
       <c r="A3" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="B3" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="C3" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="D3" t="s">
         <v>78</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3319,7 +3328,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X1" sqref="X1"/>
+      <selection pane="bottomRight" activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3329,7 +3338,7 @@
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
     <col min="7" max="7" width="58.28515625" style="2" customWidth="1"/>
     <col min="8" max="8" width="28.140625" customWidth="1"/>
-    <col min="23" max="23" width="8.85546875" style="1"/>
+    <col min="23" max="23" width="20.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -3403,7 +3412,7 @@
         <v>507</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="75">
@@ -4093,13 +4102,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AC113"/>
+  <dimension ref="A1:AB94"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="AB86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E102" sqref="E102"/>
+      <selection pane="bottomRight" activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.95" customHeight="1"/>
@@ -7607,7 +7616,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="1" t="str">
-        <f t="shared" ref="F67:F95" si="29">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B67)</f>
+        <f t="shared" ref="F67:F94" si="29">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B67)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation</v>
       </c>
       <c r="G67" s="1" t="s">
@@ -9103,745 +9112,6 @@
         <f>"SearchParameter-us-core-"&amp;LOWER((B94)&amp;"-"&amp;SUBSTITUTE(C94,"_","")&amp;".html")</f>
         <v>SearchParameter-us-core-practitionerrole-practitioner.html</v>
       </c>
-    </row>
-    <row r="95" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A95" s="17">
-        <v>91</v>
-      </c>
-      <c r="B95" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C95" s="17" t="s">
-        <v>521</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E95" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F95" s="1" t="str">
-        <f t="shared" si="29"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-allergyintolerance</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="Y95" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="Z95" s="7"/>
-      <c r="AA95" s="12"/>
-      <c r="AB95" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="96" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A96" s="17">
-        <v>91</v>
-      </c>
-      <c r="B96" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="C96" s="17" t="s">
-        <v>521</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E96" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F96" s="1" t="str">
-        <f t="shared" ref="F96" si="42">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B96)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careplan</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="Y96" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="Z96" s="7"/>
-      <c r="AA96" s="12"/>
-      <c r="AB96" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="97" spans="1:29" ht="18.95" customHeight="1">
-      <c r="A97" s="17">
-        <v>92</v>
-      </c>
-      <c r="B97" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="C97" s="17" t="s">
-        <v>521</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E97" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F97" s="1" t="str">
-        <f t="shared" ref="F97:F113" si="43">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B97)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="Y97" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="Z97" s="7"/>
-      <c r="AA97" s="12"/>
-      <c r="AB97" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="AC97" s="1"/>
-    </row>
-    <row r="98" spans="1:29" ht="18.95" customHeight="1">
-      <c r="A98" s="17">
-        <v>93</v>
-      </c>
-      <c r="B98" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="C98" s="17" t="s">
-        <v>521</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E98" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F98" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="Y98" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="Z98" s="7"/>
-      <c r="AA98" s="12"/>
-      <c r="AB98" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="AC98" s="1"/>
-    </row>
-    <row r="99" spans="1:29" ht="18.95" customHeight="1">
-      <c r="A99" s="17">
-        <v>94</v>
-      </c>
-      <c r="B99" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="C99" s="17" t="s">
-        <v>521</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E99" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F99" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-diagnosticreport</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="Y99" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="Z99" s="7"/>
-      <c r="AA99" s="12"/>
-      <c r="AB99" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="AC99" s="1"/>
-    </row>
-    <row r="100" spans="1:29" ht="18.95" customHeight="1">
-      <c r="A100" s="17">
-        <v>95</v>
-      </c>
-      <c r="B100" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="C100" s="17" t="s">
-        <v>521</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E100" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F100" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="Y100" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="Z100" s="7"/>
-      <c r="AA100" s="12"/>
-      <c r="AB100" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="AC100" s="1"/>
-    </row>
-    <row r="101" spans="1:29" ht="18.95" customHeight="1">
-      <c r="A101" s="17">
-        <v>96</v>
-      </c>
-      <c r="B101" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C101" s="17" t="s">
-        <v>521</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E101" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F101" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="Y101" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="Z101" s="7"/>
-      <c r="AA101" s="12"/>
-      <c r="AB101" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="AC101" s="1"/>
-    </row>
-    <row r="102" spans="1:29" ht="18.95" customHeight="1">
-      <c r="A102" s="17">
-        <v>97</v>
-      </c>
-      <c r="B102" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="C102" s="17" t="s">
-        <v>521</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E102" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F102" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="Y102" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="Z102" s="7"/>
-      <c r="AA102" s="12"/>
-      <c r="AB102" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="AC102" s="1"/>
-    </row>
-    <row r="103" spans="1:29" ht="18.95" customHeight="1">
-      <c r="A103" s="17">
-        <v>98</v>
-      </c>
-      <c r="B103" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="C103" s="17" t="s">
-        <v>521</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E103" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F103" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="Y103" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="Z103" s="7"/>
-      <c r="AA103" s="12"/>
-      <c r="AB103" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="AC103" s="1"/>
-    </row>
-    <row r="104" spans="1:29" ht="18.95" customHeight="1">
-      <c r="A104" s="17">
-        <v>99</v>
-      </c>
-      <c r="B104" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="C104" s="17" t="s">
-        <v>521</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F104" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-device</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="Y104" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="Z104" s="7"/>
-      <c r="AA104" s="12"/>
-      <c r="AB104" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="AC104" s="1"/>
-    </row>
-    <row r="105" spans="1:29" ht="18.95" customHeight="1">
-      <c r="A105" s="17">
-        <v>100</v>
-      </c>
-      <c r="B105" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="C105" s="17" t="s">
-        <v>521</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F105" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="Y105" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="Z105" s="7"/>
-      <c r="AA105" s="12"/>
-      <c r="AB105" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="AC105" s="1"/>
-    </row>
-    <row r="106" spans="1:29" ht="18.95" customHeight="1">
-      <c r="A106" s="17">
-        <v>101</v>
-      </c>
-      <c r="B106" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="C106" s="17" t="s">
-        <v>521</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E106" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F106" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="Y106" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="Z106" s="7"/>
-      <c r="AA106" s="12"/>
-      <c r="AB106" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="AC106" s="1"/>
-    </row>
-    <row r="107" spans="1:29" ht="18.95" customHeight="1">
-      <c r="A107" s="17">
-        <v>102</v>
-      </c>
-      <c r="B107" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="C107" s="17" t="s">
-        <v>521</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E107" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F107" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medication</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="Y107" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="Z107" s="7"/>
-      <c r="AA107" s="12"/>
-      <c r="AB107" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="AC107" s="1"/>
-    </row>
-    <row r="108" spans="1:29" ht="18.95" customHeight="1">
-      <c r="A108" s="17">
-        <v>103</v>
-      </c>
-      <c r="B108" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="C108" s="17" t="s">
-        <v>521</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E108" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F108" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="Y108" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="Z108" s="7"/>
-      <c r="AA108" s="12"/>
-      <c r="AB108" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="AC108" s="1"/>
-    </row>
-    <row r="109" spans="1:29" ht="18.95" customHeight="1">
-      <c r="A109" s="17">
-        <v>104</v>
-      </c>
-      <c r="B109" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="C109" s="17" t="s">
-        <v>521</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E109" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F109" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="Y109" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="Z109" s="7"/>
-      <c r="AA109" s="12"/>
-      <c r="AB109" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="AC109" s="1"/>
-    </row>
-    <row r="110" spans="1:29" ht="18.95" customHeight="1">
-      <c r="A110" s="17">
-        <v>105</v>
-      </c>
-      <c r="B110" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C110" s="17" t="s">
-        <v>521</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E110" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F110" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="Y110" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="Z110" s="7"/>
-      <c r="AA110" s="12"/>
-      <c r="AB110" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="AC110" s="1"/>
-    </row>
-    <row r="111" spans="1:29" ht="18.95" customHeight="1">
-      <c r="A111" s="17">
-        <v>106</v>
-      </c>
-      <c r="B111" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="C111" s="17" t="s">
-        <v>521</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E111" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F111" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="Y111" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="Z111" s="7"/>
-      <c r="AA111" s="12"/>
-      <c r="AB111" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="AC111" s="1"/>
-    </row>
-    <row r="112" spans="1:29" ht="18.95" customHeight="1">
-      <c r="A112" s="17">
-        <v>107</v>
-      </c>
-      <c r="B112" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="C112" s="17" t="s">
-        <v>521</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E112" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F112" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="Y112" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="Z112" s="7"/>
-      <c r="AA112" s="12"/>
-      <c r="AB112" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="AC112" s="1"/>
-    </row>
-    <row r="113" spans="1:29" ht="18.95" customHeight="1">
-      <c r="A113" s="17">
-        <v>108</v>
-      </c>
-      <c r="B113" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="C113" s="17" t="s">
-        <v>521</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E113" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F113" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="Y113" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="Z113" s="7"/>
-      <c r="AA113" s="12"/>
-      <c r="AB113" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="AC113" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AB94" xr:uid="{1CF5B17E-E72E-48B2-A597-9C21C12723F0}"/>
@@ -9856,13 +9126,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:P126"/>
+  <dimension ref="A1:P84"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3:E126"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -9911,15 +9181,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1">
+    <row r="2" spans="1:10" ht="15.75" thickTop="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>168</v>
       </c>
       <c r="C2" s="1" t="str">
-        <f t="shared" ref="C2:C5" si="0">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B2)</f>
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B2)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
       </c>
       <c r="D2" t="s">
@@ -9932,7 +9202,7 @@
         <v>110</v>
       </c>
       <c r="J2" s="5" t="str">
-        <f t="shared" ref="J2:J30" si="1">"Fetches a bundle of all "&amp;B2&amp;" resources matching the specified "&amp;SUBSTITUTE(D2,","," and ")</f>
+        <f>"Fetches a bundle of all "&amp;B2&amp;" resources matching the specified "&amp;SUBSTITUTE(D2,","," and ")</f>
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date</v>
       </c>
     </row>
@@ -9940,11 +9210,11 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>168</v>
       </c>
       <c r="C3" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B3)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
       </c>
       <c r="D3" t="s">
@@ -9957,7 +9227,7 @@
         <v>112</v>
       </c>
       <c r="J3" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>"Fetches a bundle of all "&amp;B3&amp;" resources matching the specified "&amp;SUBSTITUTE(D3,","," and ")</f>
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and patient</v>
       </c>
     </row>
@@ -9965,11 +9235,11 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>168</v>
       </c>
       <c r="C4" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B4)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
       </c>
       <c r="D4" t="s">
@@ -9982,7 +9252,7 @@
         <v>112</v>
       </c>
       <c r="J4" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>"Fetches a bundle of all "&amp;B4&amp;" resources matching the specified "&amp;SUBSTITUTE(D4,","," and ")</f>
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and patient and type</v>
       </c>
     </row>
@@ -9990,11 +9260,11 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>168</v>
       </c>
       <c r="C5" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B5)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
       </c>
       <c r="D5" t="s">
@@ -10007,7 +9277,7 @@
         <v>110</v>
       </c>
       <c r="J5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>"Fetches a bundle of all "&amp;B5&amp;" resources matching the specified "&amp;SUBSTITUTE(D5,","," and ")</f>
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and type</v>
       </c>
     </row>
@@ -10015,7 +9285,7 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="1" t="str">
@@ -10038,7 +9308,7 @@
         <v>336</v>
       </c>
       <c r="J6" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>"Fetches a bundle of all "&amp;B6&amp;" resources matching the specified "&amp;SUBSTITUTE(D6,","," and ")</f>
         <v>Fetches a bundle of all Encounter resources matching the specified class and patient</v>
       </c>
     </row>
@@ -10046,11 +9316,11 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>168</v>
       </c>
       <c r="C7" s="1" t="str">
-        <f t="shared" ref="C7:C78" si="2">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B7)</f>
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B7)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
       </c>
       <c r="D7" t="s">
@@ -10063,7 +9333,7 @@
         <v>116</v>
       </c>
       <c r="J7" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>"Fetches a bundle of all "&amp;B7&amp;" resources matching the specified "&amp;SUBSTITUTE(D7,","," and ")</f>
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and status</v>
       </c>
     </row>
@@ -10071,11 +9341,11 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>168</v>
       </c>
       <c r="C8" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B8)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
       </c>
       <c r="D8" t="s">
@@ -10088,7 +9358,7 @@
         <v>116</v>
       </c>
       <c r="J8" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>"Fetches a bundle of all "&amp;B8&amp;" resources matching the specified "&amp;SUBSTITUTE(D8,","," and ")</f>
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and status and type</v>
       </c>
     </row>
@@ -10096,11 +9366,11 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>168</v>
       </c>
       <c r="C9" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B9)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
       </c>
       <c r="D9" t="s">
@@ -10114,7 +9384,7 @@
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>"Fetches a bundle of all "&amp;B9&amp;" resources matching the specified "&amp;SUBSTITUTE(D9,","," and ")</f>
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and type</v>
       </c>
     </row>
@@ -10126,7 +9396,7 @@
         <v>168</v>
       </c>
       <c r="C10" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B10)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
       </c>
       <c r="D10" t="s">
@@ -10141,7 +9411,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>"Fetches a bundle of all "&amp;B10&amp;" resources matching the specified "&amp;SUBSTITUTE(D10,","," and ")</f>
         <v>Fetches a bundle of all !Encounter resources matching the specified class and status</v>
       </c>
     </row>
@@ -10153,7 +9423,7 @@
         <v>168</v>
       </c>
       <c r="C11" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B11)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
       </c>
       <c r="D11" t="s">
@@ -10167,7 +9437,7 @@
       </c>
       <c r="H11" s="5"/>
       <c r="J11" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>"Fetches a bundle of all "&amp;B11&amp;" resources matching the specified "&amp;SUBSTITUTE(D11,","," and ")</f>
         <v>Fetches a bundle of all !Encounter resources matching the specified class and status and type</v>
       </c>
     </row>
@@ -10179,7 +9449,7 @@
         <v>168</v>
       </c>
       <c r="C12" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B12)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
       </c>
       <c r="D12" t="s">
@@ -10192,7 +9462,7 @@
         <v>63</v>
       </c>
       <c r="J12" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>"Fetches a bundle of all "&amp;B12&amp;" resources matching the specified "&amp;SUBSTITUTE(D12,","," and ")</f>
         <v>Fetches a bundle of all !Encounter resources matching the specified class and type</v>
       </c>
     </row>
@@ -10204,7 +9474,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B13)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
       <c r="D13" t="s">
@@ -10223,57 +9493,57 @@
         <v>337</v>
       </c>
       <c r="J13" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>"Fetches a bundle of all "&amp;B13&amp;" resources matching the specified "&amp;SUBSTITUTE(D13,","," and ")</f>
         <v>Fetches a bundle of all Encounter resources matching the specified date and patient</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" s="1" customFormat="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>168</v>
       </c>
       <c r="C14" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B14)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>112</v>
       </c>
       <c r="J14" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>"Fetches a bundle of all "&amp;B14&amp;" resources matching the specified "&amp;SUBSTITUTE(D14,","," and ")</f>
         <v>Fetches a bundle of all !Encounter resources matching the specified date and patient and type</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" s="1" customFormat="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>168</v>
       </c>
       <c r="C15" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B15)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>110</v>
       </c>
       <c r="J15" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>"Fetches a bundle of all "&amp;B15&amp;" resources matching the specified "&amp;SUBSTITUTE(D15,","," and ")</f>
         <v>Fetches a bundle of all !Encounter resources matching the specified date and type</v>
       </c>
     </row>
@@ -10281,20 +9551,20 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B16)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="E16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>116</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -10304,7 +9574,7 @@
         <v>338</v>
       </c>
       <c r="J16" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>"Fetches a bundle of all "&amp;B16&amp;" resources matching the specified "&amp;SUBSTITUTE(D16,","," and ")</f>
         <v>Fetches a bundle of all Encounter resources matching the specified patient and type</v>
       </c>
     </row>
@@ -10312,25 +9582,25 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>168</v>
       </c>
       <c r="C17" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B17)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="E17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>116</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>"Fetches a bundle of all "&amp;B17&amp;" resources matching the specified "&amp;SUBSTITUTE(D17,","," and ")</f>
         <v>Fetches a bundle of all !Encounter resources matching the specified patient and status and type</v>
       </c>
     </row>
@@ -10338,20 +9608,20 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B18)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="E18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>116</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -10361,132 +9631,117 @@
         <v>339</v>
       </c>
       <c r="J18" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>"Fetches a bundle of all "&amp;B18&amp;" resources matching the specified "&amp;SUBSTITUTE(D18,","," and ")</f>
         <v>Fetches a bundle of all Encounter resources matching the specified patient and status</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" s="1" customFormat="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>168</v>
       </c>
       <c r="C19" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B19)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E19" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="E19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>63</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f>"Fetches a bundle of all "&amp;B19&amp;" resources matching the specified "&amp;SUBSTITUTE(D19,","," and ")</f>
         <v>Fetches a bundle of all !Encounter resources matching the specified status and type</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="1" customFormat="1">
       <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="17" t="str">
-        <f t="shared" ref="C20:C21" si="3">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B20)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B20)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="H20" s="5" t="str">
-        <f>"support searching for all "&amp;LOWER(B20&amp;"s and associated provenance for a patient")</f>
-        <v>support searching for all encounters and associated provenance for a patient</v>
-      </c>
-      <c r="I20" s="5" t="str">
-        <f>"GET [base]/"&amp;B20&amp;"?patient=1137192&amp;us-core-includeprovenance"</f>
-        <v>GET [base]/Encounter?patient=1137192&amp;us-core-includeprovenance</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="I20" s="5"/>
       <c r="J20" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B21&amp;" resources for the specified patient and any corresponding Provenance resources."</f>
-        <v>Fetches a bundle of all Encounter resources for the specified patient and any corresponding Provenance resources.</v>
+        <f>"Fetches a bundle of all "&amp;B20&amp;" resources matching the specified "&amp;SUBSTITUTE(D20,","," and ")</f>
+        <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="1" customFormat="1">
       <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>523</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B21)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="H21" s="5" t="str">
-        <f>"support searching for a "&amp;LOWER(B21&amp;" and its associated provenance")</f>
-        <v>support searching for a encounter and its associated provenance</v>
-      </c>
-      <c r="I21" s="5" t="str">
-        <f>"GET [base]/"&amp;B21&amp;"?_id=12345&amp;us-core-includeprovenance"</f>
-        <v>GET [base]/Encounter?_id=12345&amp;us-core-includeprovenance</v>
+        <v>133</v>
       </c>
       <c r="J21" s="5" t="str">
-        <f>"Fetches a "&amp;B21&amp;" resource (within the clients authorization scope) and any corresponding Provenance resources."</f>
-        <v>Fetches a Encounter resource (within the clients authorization scope) and any corresponding Provenance resources.</v>
+        <f>"Fetches a bundle of all "&amp;B21&amp;" resources matching the specified "&amp;SUBSTITUTE(D21,","," and ")</f>
+        <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher and status</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>169</v>
       </c>
       <c r="C22" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B22)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
-      <c r="D22" t="s">
-        <v>130</v>
-      </c>
-      <c r="E22" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" t="s">
-        <v>131</v>
-      </c>
-      <c r="I22" s="5"/>
+      <c r="D22" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H22" s="5"/>
       <c r="J22" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <f>"Fetches a bundle of all "&amp;B22&amp;" resources matching the specified "&amp;SUBSTITUTE(D22,","," and ")</f>
+        <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and status</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="1" customFormat="1">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>169</v>
@@ -10495,402 +9750,408 @@
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B23)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
-      <c r="D23" t="s">
-        <v>132</v>
-      </c>
-      <c r="E23" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" t="s">
-        <v>133</v>
-      </c>
+      <c r="D23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
       <c r="J23" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher and status</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <f>"Fetches a bundle of all "&amp;B23&amp;" resources matching the specified "&amp;SUBSTITUTE(D23,","," and ")</f>
+        <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="1" customFormat="1">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>169</v>
       </c>
       <c r="C24" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B24)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
-      <c r="D24" t="s">
-        <v>134</v>
-      </c>
-      <c r="E24" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" t="s">
-        <v>135</v>
+      <c r="D24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
       <c r="J24" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and status</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <f>"Fetches a bundle of all "&amp;B24&amp;" resources matching the specified "&amp;SUBSTITUTE(D24,","," and ")</f>
+        <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status and version</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="1" customFormat="1">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>169</v>
       </c>
       <c r="C25" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B25)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
-      <c r="D25" t="s">
-        <v>136</v>
-      </c>
-      <c r="E25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="D25" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>137</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <f>"Fetches a bundle of all "&amp;B25&amp;" resources matching the specified "&amp;SUBSTITUTE(D25,","," and ")</f>
+        <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and version</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="1" customFormat="1">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>169</v>
       </c>
       <c r="C26" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B26)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
-      <c r="D26" t="s">
-        <v>138</v>
-      </c>
-      <c r="E26" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="D26" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
       <c r="J26" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status and version</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <f>"Fetches a bundle of all "&amp;B26&amp;" resources matching the specified "&amp;SUBSTITUTE(D26,","," and ")</f>
+        <v>Fetches a bundle of all !Questionnaire resources matching the specified status and title and version</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="1" customFormat="1">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>169</v>
       </c>
       <c r="C27" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B27)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
-      <c r="D27" t="s">
-        <v>139</v>
-      </c>
-      <c r="E27" t="s">
-        <v>78</v>
-      </c>
-      <c r="F27" t="s">
-        <v>137</v>
-      </c>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
+      <c r="D27" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="J27" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and version</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <f>"Fetches a bundle of all "&amp;B27&amp;" resources matching the specified "&amp;SUBSTITUTE(D27,","," and ")</f>
+        <v>Fetches a bundle of all !Questionnaire resources matching the specified status and version</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="1" customFormat="1">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>169</v>
       </c>
       <c r="C28" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B28)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
-      <c r="D28" t="s">
-        <v>140</v>
-      </c>
-      <c r="E28" t="s">
-        <v>78</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="D28" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>137</v>
       </c>
       <c r="J28" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified status and title and version</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <f>"Fetches a bundle of all "&amp;B28&amp;" resources matching the specified "&amp;SUBSTITUTE(D28,","," and ")</f>
+        <v>Fetches a bundle of all !Questionnaire resources matching the specified title and version</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="1" customFormat="1">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>169</v>
+        <v>24</v>
       </c>
       <c r="C29" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
-      </c>
-      <c r="D29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E29" t="s">
-        <v>78</v>
-      </c>
-      <c r="F29" t="s">
-        <v>63</v>
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B29)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="J29" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified status and version</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <f>"Fetches a bundle of all "&amp;B29&amp;" resources matching the specified "&amp;SUBSTITUTE(D29,","," and ")</f>
+        <v>Fetches a bundle of all Patient resources matching the specified birthdate and family</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="1" customFormat="1">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>169</v>
+        <v>24</v>
       </c>
       <c r="C30" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
-      </c>
-      <c r="D30" t="s">
-        <v>142</v>
-      </c>
-      <c r="E30" t="s">
-        <v>78</v>
-      </c>
-      <c r="F30" t="s">
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B30)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="J30" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B30&amp;" resources matching the specified "&amp;SUBSTITUTE(D30,","," and ")</f>
+        <v>Fetches a bundle of all Patient resources matching the specified birthdate and name</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="1" customFormat="1">
+      <c r="A31" s="1">
+        <v>32</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B31)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="J30" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified title and version</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
-      </c>
-      <c r="D31" t="s">
-        <v>143</v>
-      </c>
-      <c r="E31" t="s">
-        <v>78</v>
-      </c>
-      <c r="F31" t="s">
-        <v>144</v>
-      </c>
       <c r="H31" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J31" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B31&amp;" resources matching the specified "&amp;SUBSTITUTE(D31,","," and ")</f>
-        <v>Fetches a bundle of all Patient resources matching the specified birthdate and family</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>Fetches a bundle of all Patient resources matching the specified family and gender</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="1" customFormat="1">
       <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C32" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B32)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
       </c>
-      <c r="D32" t="s">
-        <v>145</v>
-      </c>
-      <c r="E32" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" t="s">
-        <v>144</v>
+      <c r="D32" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J32" s="5" t="str">
-        <f t="shared" ref="J32:J34" si="4">"Fetches a bundle of all "&amp;B32&amp;" resources matching the specified "&amp;SUBSTITUTE(D32,","," and ")</f>
-        <v>Fetches a bundle of all Patient resources matching the specified birthdate and name</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <f>"Fetches a bundle of all "&amp;B32&amp;" resources matching the specified "&amp;SUBSTITUTE(D32,","," and ")</f>
+        <v>Fetches a bundle of all Patient resources matching the specified gender and name</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="1" customFormat="1">
       <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>24</v>
+        <v>36</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="C33" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
-      </c>
-      <c r="D33" t="s">
-        <v>146</v>
-      </c>
-      <c r="E33" t="s">
-        <v>78</v>
-      </c>
-      <c r="F33" t="s">
-        <v>137</v>
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B33)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>361</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="J33" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Fetches a bundle of all Patient resources matching the specified family and gender</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>362</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="1" customFormat="1">
       <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>24</v>
+        <v>37</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="C34" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
-      </c>
-      <c r="D34" t="s">
-        <v>147</v>
-      </c>
-      <c r="E34" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" t="s">
-        <v>137</v>
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B34)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="J34" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>Fetches a bundle of all Patient resources matching the specified gender and name</v>
+        <v>365</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="1" customFormat="1">
       <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="17" t="str">
-        <f t="shared" ref="C35:C36" si="5">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B35)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>13</v>
+        <v>38</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" s="1" t="str">
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B35)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="H35" s="5" t="str">
-        <f>"support searching for all "&amp;LOWER(B35&amp;"s and associated provenance for a patient")</f>
-        <v>support searching for all patients and associated provenance for a patient</v>
-      </c>
-      <c r="I35" s="5" t="str">
-        <f>"GET [base]/"&amp;B35&amp;"?patient=1137192&amp;us-core-includeprovenance"</f>
-        <v>GET [base]/Patient?patient=1137192&amp;us-core-includeprovenance</v>
-      </c>
-      <c r="J35" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B36&amp;" resources for the specified patient and any corresponding Provenance resources."</f>
-        <v>Fetches a bundle of all Patient resources for the specified patient and any corresponding Provenance resources.</v>
+        <v>116</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="1" customFormat="1">
       <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>523</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>13</v>
+        <v>39</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" s="1" t="str">
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B36)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="H36" s="5" t="str">
-        <f>"support searching for a "&amp;LOWER(B36&amp;" and its associated provenance")</f>
-        <v>support searching for a patient and its associated provenance</v>
-      </c>
-      <c r="I36" s="5" t="str">
-        <f>"GET [base]/"&amp;B36&amp;"?_id=12345&amp;us-core-includeprovenance"</f>
-        <v>GET [base]/Patient?_id=12345&amp;us-core-includeprovenance</v>
-      </c>
-      <c r="J36" s="5" t="str">
-        <f>"Fetches a "&amp;B36&amp;" resource (within the clients authorization scope) and any corresponding Provenance resources."</f>
-        <v>Fetches a Patient resource (within the clients authorization scope) and any corresponding Provenance resources.</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>159</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="1" customFormat="1">
       <c r="A37" s="1">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>148</v>
+        <v>23</v>
       </c>
       <c r="C37" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B37)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-allergyintolerance</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>154</v>
@@ -10901,405 +10162,397 @@
       <c r="F37" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>361</v>
-      </c>
       <c r="H37" s="5" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="1" customFormat="1">
       <c r="A38" s="1">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="C38" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B38)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>175</v>
+      </c>
+      <c r="J38" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B38&amp;" resources for the specified "&amp;SUBSTITUTE(D38,","," and ")</f>
+        <v>Fetches a bundle of all Immunization resources for the specified patient and date</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="1" customFormat="1">
       <c r="A39" s="1">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="C39" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B39)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>161</v>
+        <v>342</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>162</v>
+        <v>174</v>
+      </c>
+      <c r="J39" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B39&amp;" resources for the specified "&amp;SUBSTITUTE(D39,","," and ")</f>
+        <v>Fetches a bundle of all Immunization resources for the specified patient and status</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="1" customFormat="1">
       <c r="A40" s="1">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C40" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
+        <v>192</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>163</v>
+        <v>215</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="1" customFormat="1">
+        <v>198</v>
+      </c>
+      <c r="J40" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B40&amp;" resources for the specified "&amp;SUBSTITUTE(D40,","," and ")</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="1" customFormat="1" ht="15.75">
       <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="C41" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="E41" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="H41" s="5" t="str">
-        <f>"support searching for all "&amp;LOWER(B41&amp;"s and associated provenance for a patient")</f>
-        <v>support searching for all conditions and associated provenance for a patient</v>
-      </c>
-      <c r="I41" s="5" t="str">
-        <f>"GET [base]/"&amp;B41&amp;"?patient=1137192&amp;us-core-includeprovenance"</f>
-        <v>GET [base]/Condition?patient=1137192&amp;us-core-includeprovenance</v>
+        <v>116</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>210</v>
       </c>
       <c r="J41" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B42&amp;" resources for the specified patient and any corresponding Provenance resources."</f>
-        <v>Fetches a bundle of all Condition resources for the specified patient and any corresponding Provenance resources.</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="1" customFormat="1">
+        <f>"Fetches a bundle of all "&amp;B41&amp;" resources for the specified patient and  a category code = `LAB`"</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code = `LAB`</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="1" customFormat="1" ht="15.75">
       <c r="A42" s="1">
-        <v>41</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="C42" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>523</v>
-      </c>
-      <c r="E42" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="H42" s="5" t="str">
-        <f>"support searching for a "&amp;LOWER(B42&amp;" and its associated provenance")</f>
-        <v>support searching for a condition and its associated provenance</v>
-      </c>
-      <c r="I42" s="5" t="str">
-        <f>"GET [base]/"&amp;B42&amp;"?_id=12345&amp;us-core-includeprovenance"</f>
-        <v>GET [base]/Condition?_id=12345&amp;us-core-includeprovenance</v>
+        <v>116</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>212</v>
       </c>
       <c r="J42" s="5" t="str">
-        <f>"Fetches a "&amp;B42&amp;" resource (within the clients authorization scope) and any corresponding Provenance resources."</f>
-        <v>Fetches a Condition resource (within the clients authorization scope) and any corresponding Provenance resources.</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+        <f>"Fetches a bundle of all "&amp;B42&amp;" resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes."</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="1" customFormat="1" ht="15.75">
       <c r="A43" s="1">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-allergyintolerance</v>
+        <v>192</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>116</v>
+        <v>234</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>357</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>515</v>
+        <v>209</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="J43" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B43&amp;" resources for the specified patient and date and a category code = `LAB`"</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code = `LAB`</v>
       </c>
     </row>
     <row r="44" spans="1:10" s="1" customFormat="1">
       <c r="A44" s="1">
-        <v>43</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C44" s="17" t="str">
-        <f t="shared" ref="C44" si="6">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B44)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-allergyintolerance</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>13</v>
+        <v>53</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>512</v>
+        <v>234</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>513</v>
+        <v>244</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="J44" s="5" t="s">
-        <v>516</v>
+        <v>237</v>
+      </c>
+      <c r="J44" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B44&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
     <row r="45" spans="1:10" s="1" customFormat="1">
       <c r="A45" s="1">
-        <v>44</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C45" s="17" t="str">
-        <f t="shared" ref="C45" si="7">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B45)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-allergyintolerance</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>523</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>13</v>
+        <v>56</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>514</v>
+        <v>116</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>519</v>
+        <v>332</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="J45" s="5" t="s">
-        <v>517</v>
+        <v>198</v>
+      </c>
+      <c r="J45" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B45&amp;" resources for the specified "&amp;SUBSTITUTE(D45,","," and ")</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
       </c>
     </row>
     <row r="46" spans="1:10" s="1" customFormat="1">
       <c r="A46" s="1">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C46" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
+        <v>192</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>203</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="J46" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B46&amp;" resources for the specified "&amp;SUBSTITUTE(D46,","," and ")</f>
-        <v>Fetches a bundle of all Immunization resources for the specified patient and date</v>
+        <f>"Fetches a bundle of all "&amp;B46&amp;" resources for the specified patient and  a category code specified in US Core DiagnosticReport Category Codes"</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code specified in US Core DiagnosticReport Category Codes</v>
       </c>
     </row>
     <row r="47" spans="1:10" s="1" customFormat="1">
       <c r="A47" s="1">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C47" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
+        <v>192</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>203</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>342</v>
+        <v>214</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="J47" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B47&amp;" resources for the specified "&amp;SUBSTITUTE(D47,","," and ")</f>
-        <v>Fetches a bundle of all Immunization resources for the specified patient and status</v>
+        <f>"Fetches a bundle of all "&amp;B47&amp;" resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes."</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
     <row r="48" spans="1:10" s="1" customFormat="1">
       <c r="A48" s="1">
-        <v>47</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="C48" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="E48" s="17" t="s">
-        <v>13</v>
+        <v>59</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="H48" s="5" t="str">
-        <f>"support searching for all "&amp;LOWER(B48&amp;"s and associated provenance for a patient")</f>
-        <v>support searching for all immunizations and associated provenance for a patient</v>
-      </c>
-      <c r="I48" s="5" t="str">
-        <f>"GET [base]/"&amp;B48&amp;"?patient=1137192&amp;us-core-includeprovenance"</f>
-        <v>GET [base]/Immunization?patient=1137192&amp;us-core-includeprovenance</v>
+        <v>234</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>218</v>
       </c>
       <c r="J48" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B49&amp;" resources for the specified patient and any corresponding Provenance resources."</f>
-        <v>Fetches a bundle of all Immunization resources for the specified patient and any corresponding Provenance resources.</v>
+        <f>"Fetches a bundle of all "&amp;B48&amp;" resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes"</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes</v>
       </c>
     </row>
     <row r="49" spans="1:10" s="1" customFormat="1">
       <c r="A49" s="1">
-        <v>48</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="C49" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>523</v>
-      </c>
-      <c r="E49" s="17" t="s">
-        <v>13</v>
+        <v>60</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="H49" s="5" t="str">
-        <f>"support searching for a "&amp;LOWER(B49&amp;" and its associated provenance")</f>
-        <v>support searching for a immunization and its associated provenance</v>
-      </c>
-      <c r="I49" s="5" t="str">
-        <f>"GET [base]/"&amp;B49&amp;"?_id=12345&amp;us-core-includeprovenance"</f>
-        <v>GET [base]/Immunization?_id=12345&amp;us-core-includeprovenance</v>
+        <v>234</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="J49" s="5" t="str">
-        <f>"Fetches a "&amp;B49&amp;" resource (within the clients authorization scope) and any corresponding Provenance resources."</f>
-        <v>Fetches a Immunization resource (within the clients authorization scope) and any corresponding Provenance resources.</v>
+        <f>"Fetches a bundle of all "&amp;B49&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="1" customFormat="1">
       <c r="A50" s="1">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>202</v>
+        <v>193</v>
+      </c>
+      <c r="C50" s="1" t="str">
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B50)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>126</v>
+        <v>346</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>78</v>
@@ -11308,61 +10561,60 @@
         <v>116</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>198</v>
+        <v>347</v>
       </c>
       <c r="J50" s="5" t="str">
-        <f t="shared" ref="J50:J76" si="8">"Fetches a bundle of all "&amp;B50&amp;" resources for the specified "&amp;SUBSTITUTE(D50,","," and ")</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" s="1" customFormat="1" ht="15.75">
+        <f>"Fetches a bundle of all "&amp;B50&amp;" resources for the specified "&amp;SUBSTITUTE(D50,","," and ")</f>
+        <v>Fetches a bundle of all Goal resources for the specified patient and lifecycle-status</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="1" customFormat="1">
       <c r="A51" s="1">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>202</v>
+        <v>193</v>
+      </c>
+      <c r="C51" s="1" t="str">
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B51)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>155</v>
+        <v>458</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>357</v>
+        <v>159</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="I51" s="9" t="s">
-        <v>210</v>
+        <v>223</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>459</v>
       </c>
       <c r="J51" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B51&amp;" resources for the specified patient and  a category code = `LAB`"</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code = `LAB`</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" s="1" customFormat="1" ht="15.75">
+        <f>"Fetches a bundle of all "&amp;B51&amp;" resources for the specified "&amp;SUBSTITUTE(D51,","," and ")</f>
+        <v>Fetches a bundle of all Goal resources for the specified patient and target-date</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="1" customFormat="1">
       <c r="A52" s="1">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
+      </c>
+      <c r="C52" s="1" t="str">
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B52)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>157</v>
+        <v>483</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>13</v>
@@ -11370,186 +10622,192 @@
       <c r="F52" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="G52" s="1" t="s">
+        <v>487</v>
+      </c>
       <c r="H52" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="I52" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="J52" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B52&amp;" resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes."</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="1" customFormat="1" ht="15.75">
+        <v>488</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="1" customFormat="1">
       <c r="A53" s="1">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
+      </c>
+      <c r="C53" s="1" t="str">
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B53)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>208</v>
+        <v>484</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>234</v>
+        <v>116</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>357</v>
+        <v>487</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="I53" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="J53" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B53&amp;" resources for the specified patient and date and a category code = `LAB`"</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code = `LAB`</v>
+        <v>199</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="54" spans="1:10" s="1" customFormat="1">
       <c r="A54" s="1">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
+      </c>
+      <c r="C54" s="1" t="str">
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B54)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>235</v>
+        <v>486</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>234</v>
+        <v>116</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>487</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>244</v>
+        <v>199</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="J54" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B54&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
+        <v>453</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="55" spans="1:10" s="1" customFormat="1">
       <c r="A55" s="1">
-        <v>54</v>
-      </c>
-      <c r="B55" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="E55" s="17" t="s">
-        <v>13</v>
+        <v>70</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C55" s="1" t="str">
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B55)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="H55" s="5" t="str">
-        <f>"support searching for all "&amp;LOWER(B55&amp;"s and associated provenance for a patient")</f>
-        <v>support searching for all diagnosticreports and associated provenance for a patient</v>
-      </c>
-      <c r="I55" s="5" t="str">
-        <f>"GET [base]/"&amp;B55&amp;"?patient=1137192&amp;us-core-includeprovenance"</f>
-        <v>GET [base]/DiagnosticReport?patient=1137192&amp;us-core-includeprovenance</v>
-      </c>
-      <c r="J55" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B56&amp;" resources for the specified patient and any corresponding Provenance resources."</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and any corresponding Provenance resources.</v>
+        <v>234</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="56" spans="1:10" s="1" customFormat="1">
       <c r="A56" s="1">
-        <v>55</v>
-      </c>
-      <c r="B56" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>523</v>
-      </c>
-      <c r="E56" s="17" t="s">
-        <v>13</v>
+        <v>73</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C56" s="1" t="str">
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B56)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationstatement</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="H56" s="5" t="str">
-        <f>"support searching for a "&amp;LOWER(B56&amp;" and its associated provenance")</f>
-        <v>support searching for a diagnosticreport and its associated provenance</v>
-      </c>
-      <c r="I56" s="5" t="str">
-        <f>"GET [base]/"&amp;B56&amp;"?_id=12345&amp;us-core-includeprovenance"</f>
-        <v>GET [base]/DiagnosticReport?_id=12345&amp;us-core-includeprovenance</v>
+        <v>116</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>454</v>
       </c>
       <c r="J56" s="5" t="str">
-        <f>"Fetches a "&amp;B56&amp;" resource (within the clients authorization scope) and any corresponding Provenance resources."</f>
-        <v>Fetches a DiagnosticReport resource (within the clients authorization scope) and any corresponding Provenance resources.</v>
+        <f>"Fetches a bundle of all "&amp;B56&amp;" resources for the specified "&amp;SUBSTITUTE(D56,","," and ")</f>
+        <v>Fetches a bundle of all !MedicationStatement resources for the specified patient and status</v>
       </c>
     </row>
     <row r="57" spans="1:10" s="1" customFormat="1">
       <c r="A57" s="1">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>203</v>
+        <v>501</v>
+      </c>
+      <c r="C57" s="1" t="str">
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B57)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationstatement</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>332</v>
+        <v>250</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="J57" s="5" t="str">
-        <f t="shared" ref="J57" si="9">"Fetches a bundle of all "&amp;B57&amp;" resources for the specified "&amp;SUBSTITUTE(D57,","," and ")</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
+        <v>456</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="58" spans="1:10" s="1" customFormat="1">
       <c r="A58" s="1">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>203</v>
+        <v>195</v>
+      </c>
+      <c r="C58" s="1" t="str">
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B58)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>78</v>
@@ -11558,28 +10816,29 @@
         <v>116</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="J58" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B58&amp;" resources for the specified patient and  a category code specified in US Core DiagnosticReport Category Codes"</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code specified in US Core DiagnosticReport Category Codes</v>
+        <f>"Fetches a bundle of all "&amp;B58&amp;" resources for the specified "&amp;SUBSTITUTE(D58,","," and ")</f>
+        <v>Fetches a bundle of all Procedure resources for the specified patient and status</v>
       </c>
     </row>
     <row r="59" spans="1:10" s="1" customFormat="1">
       <c r="A59" s="1">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>203</v>
+        <v>195</v>
+      </c>
+      <c r="C59" s="1" t="str">
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B59)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>13</v>
@@ -11588,28 +10847,29 @@
         <v>116</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="J59" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B59&amp;" resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes."</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
+        <f>"Fetches a bundle of all "&amp;B59&amp;" resources for the specified "&amp;SUBSTITUTE(D59,","," and ")</f>
+        <v>Fetches a bundle of all Procedure resources for the specified patient and date</v>
       </c>
     </row>
     <row r="60" spans="1:10" s="1" customFormat="1">
       <c r="A60" s="1">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>203</v>
+        <v>195</v>
+      </c>
+      <c r="C60" s="1" t="str">
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B60)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>78</v>
@@ -11618,700 +10878,706 @@
         <v>234</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="J60" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B60&amp;" resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes"</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes</v>
+        <f>"Fetches a bundle of all "&amp;B60&amp;" resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes."</f>
+        <v>Fetches a bundle of all Procedure resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes.</v>
       </c>
     </row>
     <row r="61" spans="1:10" s="1" customFormat="1">
       <c r="A61" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>465</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>234</v>
+        <v>116</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>236</v>
+        <v>307</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="J61" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B61&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
+        <v>472</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="62" spans="1:10" s="1" customFormat="1">
       <c r="A62" s="1">
-        <v>61</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="E62" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="H62" s="5" t="str">
-        <f>"support searching for all "&amp;LOWER(B62&amp;"s and associated provenance for a patient")</f>
-        <v>support searching for all diagnosticreports and associated provenance for a patient</v>
-      </c>
-      <c r="I62" s="5" t="str">
-        <f>"GET [base]/"&amp;B62&amp;"?patient=1137192&amp;us-core-includeprovenance"</f>
-        <v>GET [base]/DiagnosticReport?patient=1137192&amp;us-core-includeprovenance</v>
+        <v>116</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>473</v>
       </c>
       <c r="J62" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B63&amp;" resources for the specified patient and any corresponding Provenance resources."</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and any corresponding Provenance resources.</v>
+        <f>"Fetches a bundle of all "&amp;B62&amp;" resources for the specified patient and a category code = `laboratory`"</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `laboratory`</v>
       </c>
     </row>
     <row r="63" spans="1:10" s="1" customFormat="1">
       <c r="A63" s="1">
-        <v>62</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>523</v>
-      </c>
-      <c r="E63" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="H63" s="5" t="str">
-        <f>"support searching for a "&amp;LOWER(B63&amp;" and its associated provenance")</f>
-        <v>support searching for a diagnosticreport and its associated provenance</v>
-      </c>
-      <c r="I63" s="5" t="str">
-        <f>"GET [base]/"&amp;B63&amp;"?_id=12345&amp;us-core-includeprovenance"</f>
-        <v>GET [base]/DiagnosticReport?_id=12345&amp;us-core-includeprovenance</v>
+        <v>116</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>364</v>
       </c>
       <c r="J63" s="5" t="str">
-        <f>"Fetches a "&amp;B63&amp;" resource (within the clients authorization scope) and any corresponding Provenance resources."</f>
-        <v>Fetches a DiagnosticReport resource (within the clients authorization scope) and any corresponding Provenance resources.</v>
+        <f>"Fetches a bundle of all "&amp;B63&amp;" resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only."</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only.</v>
       </c>
     </row>
     <row r="64" spans="1:10" s="1" customFormat="1">
       <c r="A64" s="1">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C64" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
+        <v>196</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>465</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>346</v>
+        <v>208</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="F64" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="J64" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B64&amp;" resources for the specified patient and date and a category code = `laboratory`"</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `laboratory`</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" s="1" customFormat="1">
+      <c r="A65" s="1">
+        <v>84</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="J65" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B65&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" s="1" customFormat="1">
+      <c r="A66" s="1">
+        <v>85</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H64" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="J64" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>Fetches a bundle of all Goal resources for the specified patient and lifecycle-status</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" s="1" customFormat="1">
-      <c r="A65" s="1">
-        <v>64</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C65" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="I65" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="J65" s="5" t="str">
-        <f t="shared" ref="J65" si="10">"Fetches a bundle of all "&amp;B65&amp;" resources for the specified "&amp;SUBSTITUTE(D65,","," and ")</f>
-        <v>Fetches a bundle of all Goal resources for the specified patient and target-date</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" s="1" customFormat="1">
-      <c r="A66" s="1">
-        <v>65</v>
-      </c>
-      <c r="B66" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="C66" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
-      </c>
-      <c r="D66" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="E66" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="H66" s="5" t="str">
-        <f>"support searching for all "&amp;LOWER(B66&amp;"s and associated provenance for a patient")</f>
-        <v>support searching for all goals and associated provenance for a patient</v>
-      </c>
-      <c r="I66" s="5" t="str">
-        <f>"GET [base]/"&amp;B66&amp;"?patient=1137192&amp;us-core-includeprovenance"</f>
-        <v>GET [base]/Goal?patient=1137192&amp;us-core-includeprovenance</v>
+      <c r="H66" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>221</v>
       </c>
       <c r="J66" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B67&amp;" resources for the specified patient and any corresponding Provenance resources."</f>
-        <v>Fetches a bundle of all Goal resources for the specified patient and any corresponding Provenance resources.</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" s="1" customFormat="1">
+        <f>"Fetches a bundle of all "&amp;B66&amp;" resources for the specified "&amp;SUBSTITUTE(D66,","," and ")</f>
+        <v>Fetches a bundle of all !Observation resources for the specified patient and status</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" s="1" customFormat="1">
       <c r="A67" s="1">
-        <v>66</v>
-      </c>
-      <c r="B67" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="C67" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>523</v>
-      </c>
-      <c r="E67" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="H67" s="5" t="str">
-        <f>"support searching for a "&amp;LOWER(B67&amp;" and its associated provenance")</f>
-        <v>support searching for a goal and its associated provenance</v>
-      </c>
-      <c r="I67" s="5" t="str">
-        <f>"GET [base]/"&amp;B67&amp;"?_id=12345&amp;us-core-includeprovenance"</f>
-        <v>GET [base]/Goal?_id=12345&amp;us-core-includeprovenance</v>
+        <v>116</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>262</v>
       </c>
       <c r="J67" s="5" t="str">
-        <f>"Fetches a "&amp;B67&amp;" resource (within the clients authorization scope) and any corresponding Provenance resources."</f>
-        <v>Fetches a Goal resource (within the clients authorization scope) and any corresponding Provenance resources.</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" s="1" customFormat="1">
+        <f>"Fetches a bundle of all "&amp;B67&amp;" resources for the specified "&amp;SUBSTITUTE(D67,","," and ")&amp;"=`assess-plan`"</f>
+        <v>Fetches a bundle of all CarePlan resources for the specified patient and category=`assess-plan`</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" s="1" customFormat="1">
       <c r="A68" s="1">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C68" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
+        <v>253</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>255</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>483</v>
+        <v>208</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>116</v>
+        <v>234</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>487</v>
+        <v>358</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>488</v>
+        <v>260</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>489</v>
+        <v>460</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" s="1" customFormat="1">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" s="1" customFormat="1">
       <c r="A69" s="1">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C69" s="1" t="str">
-        <f t="shared" ref="C69" si="11">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B69)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
+        <v>253</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>255</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>484</v>
+        <v>256</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>116</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>487</v>
+        <v>358</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>199</v>
+        <v>258</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>453</v>
+        <v>263</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" s="1" customFormat="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" s="1" customFormat="1">
       <c r="A70" s="1">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C70" s="1" t="str">
-        <f t="shared" ref="C70" si="12">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B70)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
+        <v>253</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>255</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>486</v>
+        <v>257</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F70" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" s="1" customFormat="1">
+      <c r="A71" s="1">
+        <v>94</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C71" s="1" t="str">
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B71)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G70" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="H70" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="I70" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="J70" s="5" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" s="1" customFormat="1">
-      <c r="A71" s="1">
-        <v>70</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C71" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="G71" s="1" t="s">
-        <v>487</v>
+        <v>341</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>455</v>
+        <v>269</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" s="1" customFormat="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" s="1" customFormat="1" ht="15.75">
       <c r="A72" s="1">
-        <v>71</v>
-      </c>
-      <c r="B72" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="C72" s="17" t="str">
-        <f t="shared" ref="C72:C73" si="13">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B72)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="E72" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="H72" s="5" t="str">
-        <f>"support searching for all "&amp;LOWER(B72&amp;"s and associated provenance for a patient")</f>
-        <v>support searching for all medicationrequests and associated provenance for a patient</v>
-      </c>
-      <c r="I72" s="5" t="str">
-        <f>"GET [base]/"&amp;B72&amp;"?patient=1137192&amp;us-core-includeprovenance"</f>
-        <v>GET [base]/MedicationRequest?patient=1137192&amp;us-core-includeprovenance</v>
+        <v>116</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>303</v>
       </c>
       <c r="J72" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B73&amp;" resources for the specified patient and any corresponding Provenance resources."</f>
-        <v>Fetches a bundle of all MedicationRequest resources for the specified patient and any corresponding Provenance resources.</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" s="1" customFormat="1">
+        <f>"Fetches a bundle of all "&amp;B72&amp;" resources for the specified patient and observation code."</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and observation code.</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" s="1" customFormat="1">
       <c r="A73" s="1">
-        <v>72</v>
-      </c>
-      <c r="B73" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="C73" s="17" t="str">
-        <f t="shared" si="13"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>523</v>
-      </c>
-      <c r="E73" s="17" t="s">
-        <v>13</v>
+        <v>100</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="H73" s="5" t="str">
-        <f>"support searching for a "&amp;LOWER(B73&amp;" and its associated provenance")</f>
-        <v>support searching for a medicationrequest and its associated provenance</v>
-      </c>
-      <c r="I73" s="5" t="str">
-        <f>"GET [base]/"&amp;B73&amp;"?_id=12345&amp;us-core-includeprovenance"</f>
-        <v>GET [base]/MedicationRequest?_id=12345&amp;us-core-includeprovenance</v>
+        <v>116</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>476</v>
       </c>
       <c r="J73" s="5" t="str">
-        <f>"Fetches a "&amp;B73&amp;" resource (within the clients authorization scope) and any corresponding Provenance resources."</f>
-        <v>Fetches a MedicationRequest resource (within the clients authorization scope) and any corresponding Provenance resources.</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" s="1" customFormat="1">
+        <f>"Fetches a bundle of all "&amp;B73&amp;" resources for the specified "&amp;SUBSTITUTE(D73,","," and ")</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and category and status</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" s="1" customFormat="1">
       <c r="A74" s="1">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="C74" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationstatement</v>
+        <v>196</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>350</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="G74" s="1" t="s">
+        <v>475</v>
+      </c>
       <c r="H74" s="5" t="s">
-        <v>201</v>
+        <v>305</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>454</v>
+        <v>477</v>
       </c>
       <c r="J74" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>Fetches a bundle of all !MedicationStatement resources for the specified patient and status</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" s="1" customFormat="1">
+        <f>"Fetches a bundle of all "&amp;B74&amp;" resources for the specified patient and a category code = `vital-signs`"</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `vital-signs`</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" s="1" customFormat="1">
       <c r="A75" s="1">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="C75" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationstatement</v>
+        <v>196</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>350</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>251</v>
+        <v>157</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="F75" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="J75" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B75&amp;" resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only."</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only.</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" s="1" customFormat="1">
+      <c r="A76" s="1">
+        <v>103</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="J76" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B76&amp;" resources for the specified patient and date and a category code = `vital-signs`"</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `vital-signs`</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="A77" s="1">
+        <v>104</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="J77" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B77&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple codes."</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple codes.</v>
+      </c>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+    </row>
+    <row r="78" spans="1:16" s="1" customFormat="1">
+      <c r="A78" s="1">
+        <v>107</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C78" s="1" t="str">
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B78)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="J78" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B78&amp;" resources for the specified "&amp;SUBSTITUTE(D78,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
+        <v>Fetches a bundle of all DocumentReference resources for the specified patient and status. See the implementation notes above for how to access the actual document.</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A79" s="1">
+        <v>108</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C79" s="1" t="str">
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B79)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!documentreference</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H75" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="I75" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="J75" s="5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" s="1" customFormat="1">
-      <c r="A76" s="1">
-        <v>75</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C76" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F76" s="1" t="s">
+      <c r="H79" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B79&amp;" resources for the specified "&amp;SUBSTITUTE(D79,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
+        <v>Fetches a bundle of all !DocumentReference resources for the specified patient and period. See the implementation notes above for how to access the actual document.</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" s="1" customFormat="1">
+      <c r="A80" s="1">
+        <v>109</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C80" s="1" t="str">
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B80)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H76" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="I76" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="J76" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>Fetches a bundle of all Procedure resources for the specified patient and status</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" s="1" customFormat="1">
-      <c r="A77" s="1">
-        <v>76</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C77" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H77" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="I77" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="J77" s="5" t="str">
-        <f t="shared" ref="J77" si="14">"Fetches a bundle of all "&amp;B77&amp;" resources for the specified "&amp;SUBSTITUTE(D77,","," and ")</f>
-        <v>Fetches a bundle of all Procedure resources for the specified patient and date</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" s="1" customFormat="1">
-      <c r="A78" s="1">
-        <v>77</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C78" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F78" s="1" t="s">
+      <c r="G80" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A81" s="1">
+        <v>110</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C81" s="1" t="str">
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B81)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="H78" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="I78" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="J78" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B78&amp;" resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes."</f>
-        <v>Fetches a bundle of all Procedure resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes.</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" s="1" customFormat="1">
-      <c r="A79" s="1">
-        <v>78</v>
-      </c>
-      <c r="B79" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="C79" s="17" t="str">
-        <f t="shared" ref="C79:C80" si="15">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B79)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="E79" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="H79" s="5" t="str">
-        <f>"support searching for all "&amp;LOWER(B79&amp;"s and associated provenance for a patient")</f>
-        <v>support searching for all procedures and associated provenance for a patient</v>
-      </c>
-      <c r="I79" s="5" t="str">
-        <f>"GET [base]/"&amp;B79&amp;"?patient=1137192&amp;us-core-includeprovenance"</f>
-        <v>GET [base]/Procedure?patient=1137192&amp;us-core-includeprovenance</v>
-      </c>
-      <c r="J79" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B80&amp;" resources for the specified patient and any corresponding Provenance resources."</f>
-        <v>Fetches a bundle of all Procedure resources for the specified patient and any corresponding Provenance resources.</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" s="1" customFormat="1">
-      <c r="A80" s="1">
-        <v>79</v>
-      </c>
-      <c r="B80" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="C80" s="17" t="str">
-        <f t="shared" si="15"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>523</v>
-      </c>
-      <c r="E80" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="H80" s="5" t="str">
-        <f>"support searching for a "&amp;LOWER(B80&amp;" and its associated provenance")</f>
-        <v>support searching for a procedure and its associated provenance</v>
-      </c>
-      <c r="I80" s="5" t="str">
-        <f>"GET [base]/"&amp;B80&amp;"?_id=12345&amp;us-core-includeprovenance"</f>
-        <v>GET [base]/Procedure?_id=12345&amp;us-core-includeprovenance</v>
-      </c>
-      <c r="J80" s="5" t="str">
-        <f>"Fetches a "&amp;B80&amp;" resource (within the clients authorization scope) and any corresponding Provenance resources."</f>
-        <v>Fetches a Procedure resource (within the clients authorization scope) and any corresponding Provenance resources.</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" s="1" customFormat="1">
-      <c r="A81" s="1">
-        <v>80</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="G81" s="1" t="s">
-        <v>471</v>
+        <v>360</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="I81" s="5" t="s">
-        <v>472</v>
+        <v>325</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>324</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
     </row>
     <row r="82" spans="1:10" s="1" customFormat="1">
       <c r="A82" s="1">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>465</v>
+        <v>191</v>
+      </c>
+      <c r="C82" s="1" t="str">
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B82)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>13</v>
@@ -12319,1437 +11585,81 @@
       <c r="F82" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G82" s="1" t="s">
-        <v>471</v>
-      </c>
       <c r="H82" s="5" t="s">
-        <v>238</v>
+        <v>329</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="J82" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B82&amp;" resources for the specified patient and a category code = `laboratory`"</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `laboratory`</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" s="1" customFormat="1">
+        <v>432</v>
+      </c>
+      <c r="J82" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A83" s="1">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>465</v>
+        <v>191</v>
+      </c>
+      <c r="C83" s="1" t="str">
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B83)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>157</v>
+        <v>328</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>116</v>
+        <v>234</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>242</v>
+        <v>330</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>364</v>
+        <v>431</v>
       </c>
       <c r="J83" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B83&amp;" resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only."</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only.</v>
+        <f>"Fetches a bundle of all "&amp;B83&amp;" resources for the specified "&amp;SUBSTITUTE(D83,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
+        <v>Fetches a bundle of all DocumentReference resources for the specified patient and type and period. See the implementation notes above for how to access the actual document.</v>
       </c>
     </row>
     <row r="84" spans="1:10" s="1" customFormat="1">
       <c r="A84" s="1">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>465</v>
+        <v>271</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>495</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>471</v>
+        <v>116</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>243</v>
+        <v>430</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="J84" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B84&amp;" resources for the specified patient and date and a category code = `laboratory`"</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `laboratory`</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" s="1" customFormat="1">
-      <c r="A85" s="1">
-        <v>84</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H85" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="I85" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="J85" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B85&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" s="1" customFormat="1">
-      <c r="A86" s="1">
-        <v>85</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H86" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="I86" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="J86" s="5" t="str">
-        <f t="shared" ref="J86" si="16">"Fetches a bundle of all "&amp;B86&amp;" resources for the specified "&amp;SUBSTITUTE(D86,","," and ")</f>
-        <v>Fetches a bundle of all !Observation resources for the specified patient and status</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" s="1" customFormat="1">
-      <c r="A87" s="1">
-        <v>86</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C87" s="17" t="s">
-        <v>465</v>
-      </c>
-      <c r="D87" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="E87" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="H87" s="5" t="str">
-        <f>"support searching for all "&amp;LOWER(B87&amp;"s and associated provenance for a patient")</f>
-        <v>support searching for all observations and associated provenance for a patient</v>
-      </c>
-      <c r="I87" s="5" t="str">
-        <f>"GET [base]/"&amp;B87&amp;"?patient=1137192&amp;us-core-includeprovenance"</f>
-        <v>GET [base]/Observation?patient=1137192&amp;us-core-includeprovenance</v>
-      </c>
-      <c r="J87" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B88&amp;" resources for the specified patient and any corresponding Provenance resources."</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and any corresponding Provenance resources.</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" s="1" customFormat="1">
-      <c r="A88" s="1">
-        <v>87</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>465</v>
-      </c>
-      <c r="D88" s="17" t="s">
-        <v>523</v>
-      </c>
-      <c r="E88" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="H88" s="5" t="str">
-        <f>"support searching for a "&amp;LOWER(B88&amp;" and its associated provenance")</f>
-        <v>support searching for a observation and its associated provenance</v>
-      </c>
-      <c r="I88" s="5" t="str">
-        <f>"GET [base]/"&amp;B88&amp;"?_id=12345&amp;us-core-includeprovenance"</f>
-        <v>GET [base]/Observation?_id=12345&amp;us-core-includeprovenance</v>
-      </c>
-      <c r="J88" s="5" t="str">
-        <f>"Fetches a "&amp;B88&amp;" resource (within the clients authorization scope) and any corresponding Provenance resources."</f>
-        <v>Fetches a Observation resource (within the clients authorization scope) and any corresponding Provenance resources.</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" s="1" customFormat="1">
-      <c r="A89" s="1">
-        <v>88</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C89" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="H89" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="I89" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="J89" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B89&amp;" resources for the specified "&amp;SUBSTITUTE(D89,","," and ")&amp;"=`assess-plan`"</f>
-        <v>Fetches a bundle of all CarePlan resources for the specified patient and category=`assess-plan`</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" s="1" customFormat="1">
-      <c r="A90" s="1">
-        <v>89</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="H90" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="I90" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="J90" s="5" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" s="1" customFormat="1">
-      <c r="A91" s="1">
-        <v>90</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C91" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="H91" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="I91" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="J91" s="5" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" s="1" customFormat="1">
-      <c r="A92" s="1">
-        <v>91</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C92" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="H92" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="I92" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="J92" s="5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" s="1" customFormat="1">
-      <c r="A93" s="1">
-        <v>92</v>
-      </c>
-      <c r="B93" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="C93" s="17" t="str">
-        <f t="shared" ref="C93:C94" si="17">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B93)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careplan</v>
-      </c>
-      <c r="D93" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="E93" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="H93" s="5" t="str">
-        <f>"support searching for all "&amp;LOWER(B93&amp;"s and associated provenance for a patient")</f>
-        <v>support searching for all careplans and associated provenance for a patient</v>
-      </c>
-      <c r="I93" s="5" t="str">
-        <f>"GET [base]/"&amp;B93&amp;"?patient=1137192&amp;us-core-includeprovenance"</f>
-        <v>GET [base]/CarePlan?patient=1137192&amp;us-core-includeprovenance</v>
-      </c>
-      <c r="J93" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B94&amp;" resources for the specified patient and any corresponding Provenance resources."</f>
-        <v>Fetches a bundle of all CarePlan resources for the specified patient and any corresponding Provenance resources.</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" s="1" customFormat="1">
-      <c r="A94" s="1">
-        <v>93</v>
-      </c>
-      <c r="B94" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="C94" s="17" t="str">
-        <f t="shared" si="17"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careplan</v>
-      </c>
-      <c r="D94" s="17" t="s">
-        <v>523</v>
-      </c>
-      <c r="E94" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="H94" s="5" t="str">
-        <f>"support searching for a "&amp;LOWER(B94&amp;" and its associated provenance")</f>
-        <v>support searching for a careplan and its associated provenance</v>
-      </c>
-      <c r="I94" s="5" t="str">
-        <f>"GET [base]/"&amp;B94&amp;"?_id=12345&amp;us-core-includeprovenance"</f>
-        <v>GET [base]/CarePlan?_id=12345&amp;us-core-includeprovenance</v>
-      </c>
-      <c r="J94" s="5" t="str">
-        <f>"Fetches a "&amp;B94&amp;" resource (within the clients authorization scope) and any corresponding Provenance resources."</f>
-        <v>Fetches a CarePlan resource (within the clients authorization scope) and any corresponding Provenance resources.</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" s="1" customFormat="1">
-      <c r="A95" s="1">
-        <v>94</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C95" s="1" t="str">
-        <f t="shared" ref="C95:C97" si="18">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B95)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="H95" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="I95" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="J95" s="5" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" s="1" customFormat="1">
-      <c r="A96" s="1">
-        <v>95</v>
-      </c>
-      <c r="B96" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="C96" s="17" t="str">
-        <f t="shared" si="18"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
-      </c>
-      <c r="D96" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="E96" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="H96" s="5" t="str">
-        <f>"support searching for all "&amp;LOWER(B96&amp;"s and associated provenance for a patient")</f>
-        <v>support searching for all careteams and associated provenance for a patient</v>
-      </c>
-      <c r="I96" s="5" t="str">
-        <f>"GET [base]/"&amp;B96&amp;"?patient=1137192&amp;us-core-includeprovenance"</f>
-        <v>GET [base]/CareTeam?patient=1137192&amp;us-core-includeprovenance</v>
-      </c>
-      <c r="J96" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B97&amp;" resources for the specified patient and any corresponding Provenance resources."</f>
-        <v>Fetches a bundle of all CareTeam resources for the specified patient and any corresponding Provenance resources.</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" s="1" customFormat="1">
-      <c r="A97" s="1">
-        <v>96</v>
-      </c>
-      <c r="B97" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="C97" s="17" t="str">
-        <f t="shared" si="18"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
-      </c>
-      <c r="D97" s="17" t="s">
-        <v>523</v>
-      </c>
-      <c r="E97" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="H97" s="5" t="str">
-        <f>"support searching for a "&amp;LOWER(B97&amp;" and its associated provenance")</f>
-        <v>support searching for a careteam and its associated provenance</v>
-      </c>
-      <c r="I97" s="5" t="str">
-        <f>"GET [base]/"&amp;B97&amp;"?_id=12345&amp;us-core-includeprovenance"</f>
-        <v>GET [base]/CareTeam?_id=12345&amp;us-core-includeprovenance</v>
-      </c>
-      <c r="J97" s="5" t="str">
-        <f>"Fetches a "&amp;B97&amp;" resource (within the clients authorization scope) and any corresponding Provenance resources."</f>
-        <v>Fetches a CareTeam resource (within the clients authorization scope) and any corresponding Provenance resources.</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" ht="15.75">
-      <c r="A98" s="1">
-        <v>97</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="H98" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="I98" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="J98" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B98&amp;" resources for the specified patient and observation code."</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and observation code.</v>
-      </c>
-      <c r="K98" s="1"/>
-      <c r="L98" s="1"/>
-      <c r="M98" s="1"/>
-      <c r="N98" s="1"/>
-      <c r="O98" s="1"/>
-      <c r="P98" s="1"/>
-    </row>
-    <row r="99" spans="1:16" s="1" customFormat="1">
-      <c r="A99" s="1">
-        <v>98</v>
-      </c>
-      <c r="B99" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="C99" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="D99" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="E99" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="H99" s="5" t="str">
-        <f>"support searching for all "&amp;LOWER(B99&amp;"s and associated provenance for a patient")</f>
-        <v>support searching for all observations and associated provenance for a patient</v>
-      </c>
-      <c r="I99" s="5" t="str">
-        <f>"GET [base]/"&amp;B99&amp;"?patient=1137192&amp;us-core-includeprovenance"</f>
-        <v>GET [base]/Observation?patient=1137192&amp;us-core-includeprovenance</v>
-      </c>
-      <c r="J99" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B100&amp;" resources for the specified patient and any corresponding Provenance resources."</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and any corresponding Provenance resources.</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" s="1" customFormat="1">
-      <c r="A100" s="1">
-        <v>99</v>
-      </c>
-      <c r="B100" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="C100" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="D100" s="17" t="s">
-        <v>523</v>
-      </c>
-      <c r="E100" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="H100" s="5" t="str">
-        <f>"support searching for a "&amp;LOWER(B100&amp;" and its associated provenance")</f>
-        <v>support searching for a observation and its associated provenance</v>
-      </c>
-      <c r="I100" s="5" t="str">
-        <f>"GET [base]/"&amp;B100&amp;"?_id=12345&amp;us-core-includeprovenance"</f>
-        <v>GET [base]/Observation?_id=12345&amp;us-core-includeprovenance</v>
-      </c>
-      <c r="J100" s="5" t="str">
-        <f>"Fetches a "&amp;B100&amp;" resource (within the clients authorization scope) and any corresponding Provenance resources."</f>
-        <v>Fetches a Observation resource (within the clients authorization scope) and any corresponding Provenance resources.</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" s="1" customFormat="1">
-      <c r="A101" s="1">
-        <v>100</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="H101" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="I101" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="J101" s="5" t="str">
-        <f t="shared" ref="J101" si="19">"Fetches a bundle of all "&amp;B101&amp;" resources for the specified "&amp;SUBSTITUTE(D101,","," and ")</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and category and status</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" s="1" customFormat="1">
-      <c r="A102" s="1">
-        <v>101</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="H102" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="I102" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="J102" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B102&amp;" resources for the specified patient and a category code = `vital-signs`"</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `vital-signs`</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" s="1" customFormat="1">
-      <c r="A103" s="1">
-        <v>102</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="H103" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="I103" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="J103" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B103&amp;" resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only."</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only.</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" s="1" customFormat="1">
-      <c r="A104" s="1">
-        <v>103</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="H104" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="I104" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="J104" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B104&amp;" resources for the specified patient and date and a category code = `vital-signs`"</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `vital-signs`</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" s="1" customFormat="1">
-      <c r="A105" s="1">
-        <v>104</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H105" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="I105" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="J105" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B105&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple codes."</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple codes.</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" s="1" customFormat="1">
-      <c r="A106" s="1">
-        <v>105</v>
-      </c>
-      <c r="B106" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="C106" s="17" t="s">
-        <v>350</v>
-      </c>
-      <c r="D106" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="E106" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="H106" s="5" t="str">
-        <f>"support searching for all "&amp;LOWER(B106&amp;"s and associated provenance for a patient")</f>
-        <v>support searching for all observations and associated provenance for a patient</v>
-      </c>
-      <c r="I106" s="5" t="str">
-        <f>"GET [base]/"&amp;B106&amp;"?patient=1137192&amp;us-core-includeprovenance"</f>
-        <v>GET [base]/Observation?patient=1137192&amp;us-core-includeprovenance</v>
-      </c>
-      <c r="J106" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B107&amp;" resources for the specified patient and any corresponding Provenance resources."</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and any corresponding Provenance resources.</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" s="1" customFormat="1">
-      <c r="A107" s="1">
-        <v>106</v>
-      </c>
-      <c r="B107" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="C107" s="17" t="s">
-        <v>350</v>
-      </c>
-      <c r="D107" s="17" t="s">
-        <v>523</v>
-      </c>
-      <c r="E107" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="H107" s="5" t="str">
-        <f>"support searching for a "&amp;LOWER(B107&amp;" and its associated provenance")</f>
-        <v>support searching for a observation and its associated provenance</v>
-      </c>
-      <c r="I107" s="5" t="str">
-        <f>"GET [base]/"&amp;B107&amp;"?_id=12345&amp;us-core-includeprovenance"</f>
-        <v>GET [base]/Observation?_id=12345&amp;us-core-includeprovenance</v>
-      </c>
-      <c r="J107" s="5" t="str">
-        <f>"Fetches a "&amp;B107&amp;" resource (within the clients authorization scope) and any corresponding Provenance resources."</f>
-        <v>Fetches a Observation resource (within the clients authorization scope) and any corresponding Provenance resources.</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" s="1" customFormat="1">
-      <c r="A108" s="1">
-        <v>107</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C108" s="1" t="str">
-        <f t="shared" ref="C108:C115" si="20">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B108)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H108" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="I108" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="J108" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B108&amp;" resources for the specified "&amp;SUBSTITUTE(D108,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
-        <v>Fetches a bundle of all DocumentReference resources for the specified patient and status. See the implementation notes above for how to access the actual document.</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" s="1" customFormat="1">
-      <c r="A109" s="1">
-        <v>108</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C109" s="1" t="str">
-        <f t="shared" ref="C109" si="21">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B109)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!documentreference</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H109" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="I109" s="5"/>
-      <c r="J109" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B109&amp;" resources for the specified "&amp;SUBSTITUTE(D109,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
-        <v>Fetches a bundle of all !DocumentReference resources for the specified patient and period. See the implementation notes above for how to access the actual document.</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" s="1" customFormat="1">
-      <c r="A110" s="1">
-        <v>109</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C110" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="H110" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="I110" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="J110" s="5" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" s="1" customFormat="1" ht="15.75">
-      <c r="A111" s="1">
-        <v>110</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C111" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B111)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="H111" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="I111" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="J111" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" s="1" customFormat="1">
-      <c r="A112" s="1">
-        <v>111</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C112" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H112" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="I112" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="J112" s="5" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" s="1" customFormat="1">
-      <c r="A113" s="1">
-        <v>112</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C113" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H113" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="I113" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="J113" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B113&amp;" resources for the specified "&amp;SUBSTITUTE(D113,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
-        <v>Fetches a bundle of all DocumentReference resources for the specified patient and type and period. See the implementation notes above for how to access the actual document.</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" s="1" customFormat="1">
-      <c r="A114" s="1">
-        <v>113</v>
-      </c>
-      <c r="B114" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="C114" s="17" t="str">
-        <f t="shared" si="20"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
-      </c>
-      <c r="D114" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="E114" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="H114" s="5" t="str">
-        <f>"support searching for all "&amp;LOWER(B114&amp;"s and associated provenance for a patient")</f>
-        <v>support searching for all documentreferences and associated provenance for a patient</v>
-      </c>
-      <c r="I114" s="5" t="str">
-        <f>"GET [base]/"&amp;B114&amp;"?patient=1137192&amp;us-core-includeprovenance"</f>
-        <v>GET [base]/DocumentReference?patient=1137192&amp;us-core-includeprovenance</v>
-      </c>
-      <c r="J114" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B115&amp;" resources for the specified patient and any corresponding Provenance resources."</f>
-        <v>Fetches a bundle of all DocumentReference resources for the specified patient and any corresponding Provenance resources.</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" s="1" customFormat="1">
-      <c r="A115" s="1">
-        <v>114</v>
-      </c>
-      <c r="B115" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="C115" s="17" t="str">
-        <f t="shared" si="20"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
-      </c>
-      <c r="D115" s="17" t="s">
-        <v>523</v>
-      </c>
-      <c r="E115" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="H115" s="5" t="str">
-        <f>"support searching for a "&amp;LOWER(B115&amp;" and its associated provenance")</f>
-        <v>support searching for a documentreference and its associated provenance</v>
-      </c>
-      <c r="I115" s="5" t="str">
-        <f>"GET [base]/"&amp;B115&amp;"?_id=12345&amp;us-core-includeprovenance"</f>
-        <v>GET [base]/DocumentReference?_id=12345&amp;us-core-includeprovenance</v>
-      </c>
-      <c r="J115" s="5" t="str">
-        <f>"Fetches a "&amp;B115&amp;" resource (within the clients authorization scope) and any corresponding Provenance resources."</f>
-        <v>Fetches a DocumentReference resource (within the clients authorization scope) and any corresponding Provenance resources.</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" s="1" customFormat="1">
-      <c r="A116" s="1">
-        <v>115</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H116" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="I116" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="J116" s="5" t="s">
+      <c r="J84" s="5" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="117" spans="1:10" s="1" customFormat="1">
-      <c r="A117" s="1">
-        <v>116</v>
-      </c>
-      <c r="B117" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="C117" s="17" t="s">
-        <v>495</v>
-      </c>
-      <c r="D117" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="E117" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="H117" s="5" t="str">
-        <f>"support searching for all "&amp;LOWER(B117&amp;"s and associated provenance for a patient")</f>
-        <v>support searching for all devices and associated provenance for a patient</v>
-      </c>
-      <c r="I117" s="5" t="str">
-        <f>"GET [base]/"&amp;B117&amp;"?patient=1137192&amp;us-core-includeprovenance"</f>
-        <v>GET [base]/Device?patient=1137192&amp;us-core-includeprovenance</v>
-      </c>
-      <c r="J117" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B118&amp;" resources for the specified patient and any corresponding Provenance resources."</f>
-        <v>Fetches a bundle of all Device resources for the specified patient and any corresponding Provenance resources.</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" s="1" customFormat="1">
-      <c r="A118" s="1">
-        <v>117</v>
-      </c>
-      <c r="B118" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="C118" s="17" t="s">
-        <v>495</v>
-      </c>
-      <c r="D118" s="17" t="s">
-        <v>523</v>
-      </c>
-      <c r="E118" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="H118" s="5" t="str">
-        <f>"support searching for a "&amp;LOWER(B118&amp;" and its associated provenance")</f>
-        <v>support searching for a device and its associated provenance</v>
-      </c>
-      <c r="I118" s="5" t="str">
-        <f>"GET [base]/"&amp;B118&amp;"?_id=12345&amp;us-core-includeprovenance"</f>
-        <v>GET [base]/Device?_id=12345&amp;us-core-includeprovenance</v>
-      </c>
-      <c r="J118" s="5" t="str">
-        <f>"Fetches a "&amp;B118&amp;" resource (within the clients authorization scope) and any corresponding Provenance resources."</f>
-        <v>Fetches a Device resource (within the clients authorization scope) and any corresponding Provenance resources.</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A119" s="1">
-        <v>118</v>
-      </c>
-      <c r="B119" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="C119" s="17" t="s">
-        <v>495</v>
-      </c>
-      <c r="D119" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="E119" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="H119" s="5" t="str">
-        <f>"support searching for all "&amp;LOWER(B119&amp;"s and associated provenance for a patient")</f>
-        <v>support searching for all locations and associated provenance for a patient</v>
-      </c>
-      <c r="I119" s="5" t="str">
-        <f>"GET [base]/"&amp;B119&amp;"?patient=1137192&amp;us-core-includeprovenance"</f>
-        <v>GET [base]/Location?patient=1137192&amp;us-core-includeprovenance</v>
-      </c>
-      <c r="J119" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B120&amp;" resources for the specified patient and any corresponding Provenance resources."</f>
-        <v>Fetches a bundle of all Location resources for the specified patient and any corresponding Provenance resources.</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" s="1" customFormat="1">
-      <c r="A120" s="1">
-        <v>119</v>
-      </c>
-      <c r="B120" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="C120" s="17" t="s">
-        <v>495</v>
-      </c>
-      <c r="D120" s="17" t="s">
-        <v>523</v>
-      </c>
-      <c r="E120" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="H120" s="5" t="str">
-        <f>"support searching for a "&amp;LOWER(B120&amp;" and its associated provenance")</f>
-        <v>support searching for a location and its associated provenance</v>
-      </c>
-      <c r="I120" s="5" t="str">
-        <f>"GET [base]/"&amp;B120&amp;"?_id=12345&amp;us-core-includeprovenance"</f>
-        <v>GET [base]/Location?_id=12345&amp;us-core-includeprovenance</v>
-      </c>
-      <c r="J120" s="5" t="str">
-        <f>"Fetches a "&amp;B120&amp;" resource (within the clients authorization scope) and any corresponding Provenance resources."</f>
-        <v>Fetches a Location resource (within the clients authorization scope) and any corresponding Provenance resources.</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A121" s="1">
-        <v>120</v>
-      </c>
-      <c r="B121" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="C121" s="17" t="s">
-        <v>495</v>
-      </c>
-      <c r="D121" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="E121" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="H121" s="5" t="str">
-        <f>"support searching for all "&amp;LOWER(B121&amp;"s and associated provenance for a patient")</f>
-        <v>support searching for all organizations and associated provenance for a patient</v>
-      </c>
-      <c r="I121" s="5" t="str">
-        <f>"GET [base]/"&amp;B121&amp;"?patient=1137192&amp;us-core-includeprovenance"</f>
-        <v>GET [base]/Organization?patient=1137192&amp;us-core-includeprovenance</v>
-      </c>
-      <c r="J121" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B122&amp;" resources for the specified patient and any corresponding Provenance resources."</f>
-        <v>Fetches a bundle of all Organization resources for the specified patient and any corresponding Provenance resources.</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" s="1" customFormat="1">
-      <c r="A122" s="1">
-        <v>121</v>
-      </c>
-      <c r="B122" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="C122" s="17" t="s">
-        <v>495</v>
-      </c>
-      <c r="D122" s="17" t="s">
-        <v>523</v>
-      </c>
-      <c r="E122" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="H122" s="5" t="str">
-        <f>"support searching for a "&amp;LOWER(B122&amp;" and its associated provenance")</f>
-        <v>support searching for a organization and its associated provenance</v>
-      </c>
-      <c r="I122" s="5" t="str">
-        <f>"GET [base]/"&amp;B122&amp;"?_id=12345&amp;us-core-includeprovenance"</f>
-        <v>GET [base]/Organization?_id=12345&amp;us-core-includeprovenance</v>
-      </c>
-      <c r="J122" s="5" t="str">
-        <f>"Fetches a "&amp;B122&amp;" resource (within the clients authorization scope) and any corresponding Provenance resources."</f>
-        <v>Fetches a Organization resource (within the clients authorization scope) and any corresponding Provenance resources.</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A123" s="1">
-        <v>122</v>
-      </c>
-      <c r="B123" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="C123" s="17" t="s">
-        <v>495</v>
-      </c>
-      <c r="D123" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="E123" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="H123" s="5" t="str">
-        <f>"support searching for all "&amp;LOWER(B123&amp;"s and associated provenance for a patient")</f>
-        <v>support searching for all practitioners and associated provenance for a patient</v>
-      </c>
-      <c r="I123" s="5" t="str">
-        <f>"GET [base]/"&amp;B123&amp;"?patient=1137192&amp;us-core-includeprovenance"</f>
-        <v>GET [base]/Practitioner?patient=1137192&amp;us-core-includeprovenance</v>
-      </c>
-      <c r="J123" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B124&amp;" resources for the specified patient and any corresponding Provenance resources."</f>
-        <v>Fetches a bundle of all Practitioner resources for the specified patient and any corresponding Provenance resources.</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" s="1" customFormat="1">
-      <c r="A124" s="1">
-        <v>123</v>
-      </c>
-      <c r="B124" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="C124" s="17" t="s">
-        <v>495</v>
-      </c>
-      <c r="D124" s="17" t="s">
-        <v>523</v>
-      </c>
-      <c r="E124" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="H124" s="5" t="str">
-        <f>"support searching for a "&amp;LOWER(B124&amp;" and its associated provenance")</f>
-        <v>support searching for a practitioner and its associated provenance</v>
-      </c>
-      <c r="I124" s="5" t="str">
-        <f>"GET [base]/"&amp;B124&amp;"?_id=12345&amp;us-core-includeprovenance"</f>
-        <v>GET [base]/Practitioner?_id=12345&amp;us-core-includeprovenance</v>
-      </c>
-      <c r="J124" s="5" t="str">
-        <f>"Fetches a "&amp;B124&amp;" resource (within the clients authorization scope) and any corresponding Provenance resources."</f>
-        <v>Fetches a Practitioner resource (within the clients authorization scope) and any corresponding Provenance resources.</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A125" s="1">
-        <v>124</v>
-      </c>
-      <c r="B125" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="C125" s="17" t="s">
-        <v>495</v>
-      </c>
-      <c r="D125" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="E125" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="H125" s="5" t="str">
-        <f>"support searching for all "&amp;LOWER(B125&amp;"s and associated provenance for a patient")</f>
-        <v>support searching for all practitionerroles and associated provenance for a patient</v>
-      </c>
-      <c r="I125" s="5" t="str">
-        <f>"GET [base]/"&amp;B125&amp;"?patient=1137192&amp;us-core-includeprovenance"</f>
-        <v>GET [base]/PractitionerRole?patient=1137192&amp;us-core-includeprovenance</v>
-      </c>
-      <c r="J125" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B126&amp;" resources for the specified patient and any corresponding Provenance resources."</f>
-        <v>Fetches a bundle of all PractitionerRole resources for the specified patient and any corresponding Provenance resources.</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" s="1" customFormat="1">
-      <c r="A126" s="1">
-        <v>125</v>
-      </c>
-      <c r="B126" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="C126" s="17" t="s">
-        <v>495</v>
-      </c>
-      <c r="D126" s="17" t="s">
-        <v>523</v>
-      </c>
-      <c r="E126" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="H126" s="5" t="str">
-        <f>"support searching for a "&amp;LOWER(B126&amp;" and its associated provenance")</f>
-        <v>support searching for a practitionerrole and its associated provenance</v>
-      </c>
-      <c r="I126" s="5" t="str">
-        <f>"GET [base]/"&amp;B126&amp;"?_id=12345&amp;us-core-includeprovenance"</f>
-        <v>GET [base]/PractitionerRole?_id=12345&amp;us-core-includeprovenance</v>
-      </c>
-      <c r="J126" s="5" t="str">
-        <f>"Fetches a "&amp;B126&amp;" resource (within the clients authorization scope) and any corresponding Provenance resources."</f>
-        <v>Fetches a PractitionerRole resource (within the clients authorization scope) and any corresponding Provenance resources.</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J128">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="J78" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/source/source_spreadsheets/uscore-server.xlsx
+++ b/source/source_spreadsheets/uscore-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\US-Core-R4\source\source_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F57BFE3-CE09-45F6-BB9C-62A2E1BAD62C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E8808F-4E22-424D-9C30-619E7A7E8BCC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="2490" windowWidth="18900" windowHeight="11055" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26550" yWindow="285" windowWidth="18900" windowHeight="11055" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1972" uniqueCount="522">
   <si>
     <t>Element</t>
   </si>
@@ -1724,6 +1724,12 @@
   </si>
   <si>
     <t>Provenance:target</t>
+  </si>
+  <si>
+    <t>doc_Observation</t>
+  </si>
+  <si>
+    <t>The conformance expectations for Composite Searches differ by profile.  See the Quick Start section for profile specific expectations.</t>
   </si>
 </sst>
 </file>
@@ -2733,7 +2739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3322,13 +3328,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V16" sqref="V16"/>
+      <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3336,12 +3342,15 @@
     <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
     <col min="7" max="7" width="58.28515625" style="2" customWidth="1"/>
     <col min="8" max="8" width="28.140625" customWidth="1"/>
-    <col min="23" max="23" width="20.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="31.28515625" customWidth="1"/>
+    <col min="18" max="18" width="31.28515625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="20.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -3394,28 +3403,31 @@
         <v>423</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>428</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="75">
+    <row r="2" spans="1:25" ht="75">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -3467,9 +3479,6 @@
       <c r="Q2" t="s">
         <v>34</v>
       </c>
-      <c r="R2" t="s">
-        <v>34</v>
-      </c>
       <c r="S2" t="s">
         <v>34</v>
       </c>
@@ -3482,11 +3491,14 @@
       <c r="V2" t="s">
         <v>34</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="W2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="75">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -3505,6 +3517,9 @@
       <c r="F3" t="s">
         <v>13</v>
       </c>
+      <c r="G3" s="2" t="s">
+        <v>521</v>
+      </c>
       <c r="H3" t="s">
         <v>13</v>
       </c>
@@ -3535,8 +3550,8 @@
       <c r="Q3" t="s">
         <v>13</v>
       </c>
-      <c r="R3" t="s">
-        <v>13</v>
+      <c r="R3" s="2" t="s">
+        <v>521</v>
       </c>
       <c r="S3" t="s">
         <v>13</v>
@@ -3550,11 +3565,14 @@
       <c r="V3" t="s">
         <v>13</v>
       </c>
-      <c r="W3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="W3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -3603,9 +3621,6 @@
       <c r="Q4" t="s">
         <v>13</v>
       </c>
-      <c r="R4" t="s">
-        <v>13</v>
-      </c>
       <c r="S4" t="s">
         <v>13</v>
       </c>
@@ -3618,11 +3633,14 @@
       <c r="V4" t="s">
         <v>13</v>
       </c>
-      <c r="W4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="W4" t="s">
+        <v>13</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -3671,9 +3689,6 @@
       <c r="Q5" t="s">
         <v>78</v>
       </c>
-      <c r="R5" t="s">
-        <v>78</v>
-      </c>
       <c r="S5" t="s">
         <v>78</v>
       </c>
@@ -3686,11 +3701,14 @@
       <c r="V5" t="s">
         <v>78</v>
       </c>
-      <c r="W5" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="W5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -3739,9 +3757,6 @@
       <c r="Q6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R6" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="S6" s="1" t="s">
         <v>34</v>
       </c>
@@ -3751,14 +3766,17 @@
       <c r="U6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V6" t="s">
-        <v>34</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="V6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W6" t="s">
+        <v>34</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -3807,9 +3825,6 @@
       <c r="Q7" t="s">
         <v>34</v>
       </c>
-      <c r="R7" t="s">
-        <v>34</v>
-      </c>
       <c r="S7" t="s">
         <v>34</v>
       </c>
@@ -3822,11 +3837,14 @@
       <c r="V7" t="s">
         <v>34</v>
       </c>
-      <c r="W7" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="W7" t="s">
+        <v>34</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -3875,9 +3893,6 @@
       <c r="Q8" t="s">
         <v>34</v>
       </c>
-      <c r="R8" t="s">
-        <v>34</v>
-      </c>
       <c r="S8" t="s">
         <v>34</v>
       </c>
@@ -3890,11 +3905,14 @@
       <c r="V8" t="s">
         <v>34</v>
       </c>
-      <c r="W8" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="W8" t="s">
+        <v>34</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -3943,9 +3961,6 @@
       <c r="Q9" t="s">
         <v>78</v>
       </c>
-      <c r="R9" t="s">
-        <v>78</v>
-      </c>
       <c r="S9" t="s">
         <v>78</v>
       </c>
@@ -3958,11 +3973,14 @@
       <c r="V9" t="s">
         <v>78</v>
       </c>
-      <c r="W9" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="W9" t="s">
+        <v>78</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -4011,9 +4029,6 @@
       <c r="Q10" t="s">
         <v>34</v>
       </c>
-      <c r="R10" t="s">
-        <v>34</v>
-      </c>
       <c r="S10" t="s">
         <v>34</v>
       </c>
@@ -4026,7 +4041,10 @@
       <c r="V10" t="s">
         <v>34</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="W10" t="s">
+        <v>34</v>
+      </c>
+      <c r="X10" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4105,10 +4123,10 @@
   <dimension ref="A1:AB94"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="AB38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C96" sqref="C96"/>
+      <selection pane="bottomRight" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.95" customHeight="1"/>
@@ -6595,13 +6613,13 @@
         <v>99</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E48" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B48)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-diagnosticreport</v>
       </c>
       <c r="G48" s="1" t="s">
@@ -9129,7 +9147,7 @@
   <dimension ref="A1:P84"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
@@ -9189,7 +9207,7 @@
         <v>168</v>
       </c>
       <c r="C2" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B2)</f>
+        <f t="shared" ref="C2:C39" si="0">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B2)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
       </c>
       <c r="D2" t="s">
@@ -9202,7 +9220,7 @@
         <v>110</v>
       </c>
       <c r="J2" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B2&amp;" resources matching the specified "&amp;SUBSTITUTE(D2,","," and ")</f>
+        <f t="shared" ref="J2:J32" si="1">"Fetches a bundle of all "&amp;B2&amp;" resources matching the specified "&amp;SUBSTITUTE(D2,","," and ")</f>
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date</v>
       </c>
     </row>
@@ -9214,7 +9232,7 @@
         <v>168</v>
       </c>
       <c r="C3" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B3)</f>
+        <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
       </c>
       <c r="D3" t="s">
@@ -9227,7 +9245,7 @@
         <v>112</v>
       </c>
       <c r="J3" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B3&amp;" resources matching the specified "&amp;SUBSTITUTE(D3,","," and ")</f>
+        <f t="shared" si="1"/>
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and patient</v>
       </c>
     </row>
@@ -9239,7 +9257,7 @@
         <v>168</v>
       </c>
       <c r="C4" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B4)</f>
+        <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
       </c>
       <c r="D4" t="s">
@@ -9252,7 +9270,7 @@
         <v>112</v>
       </c>
       <c r="J4" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B4&amp;" resources matching the specified "&amp;SUBSTITUTE(D4,","," and ")</f>
+        <f t="shared" si="1"/>
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and patient and type</v>
       </c>
     </row>
@@ -9264,7 +9282,7 @@
         <v>168</v>
       </c>
       <c r="C5" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B5)</f>
+        <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
       </c>
       <c r="D5" t="s">
@@ -9277,7 +9295,7 @@
         <v>110</v>
       </c>
       <c r="J5" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B5&amp;" resources matching the specified "&amp;SUBSTITUTE(D5,","," and ")</f>
+        <f t="shared" si="1"/>
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and type</v>
       </c>
     </row>
@@ -9289,7 +9307,7 @@
         <v>25</v>
       </c>
       <c r="C6" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B6)</f>
+        <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
       <c r="D6" t="s">
@@ -9308,7 +9326,7 @@
         <v>336</v>
       </c>
       <c r="J6" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B6&amp;" resources matching the specified "&amp;SUBSTITUTE(D6,","," and ")</f>
+        <f t="shared" si="1"/>
         <v>Fetches a bundle of all Encounter resources matching the specified class and patient</v>
       </c>
     </row>
@@ -9320,7 +9338,7 @@
         <v>168</v>
       </c>
       <c r="C7" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B7)</f>
+        <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
       </c>
       <c r="D7" t="s">
@@ -9333,7 +9351,7 @@
         <v>116</v>
       </c>
       <c r="J7" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B7&amp;" resources matching the specified "&amp;SUBSTITUTE(D7,","," and ")</f>
+        <f t="shared" si="1"/>
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and status</v>
       </c>
     </row>
@@ -9345,7 +9363,7 @@
         <v>168</v>
       </c>
       <c r="C8" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B8)</f>
+        <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
       </c>
       <c r="D8" t="s">
@@ -9358,7 +9376,7 @@
         <v>116</v>
       </c>
       <c r="J8" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B8&amp;" resources matching the specified "&amp;SUBSTITUTE(D8,","," and ")</f>
+        <f t="shared" si="1"/>
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and status and type</v>
       </c>
     </row>
@@ -9370,7 +9388,7 @@
         <v>168</v>
       </c>
       <c r="C9" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B9)</f>
+        <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
       </c>
       <c r="D9" t="s">
@@ -9384,7 +9402,7 @@
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B9&amp;" resources matching the specified "&amp;SUBSTITUTE(D9,","," and ")</f>
+        <f t="shared" si="1"/>
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and type</v>
       </c>
     </row>
@@ -9396,7 +9414,7 @@
         <v>168</v>
       </c>
       <c r="C10" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B10)</f>
+        <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
       </c>
       <c r="D10" t="s">
@@ -9411,7 +9429,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B10&amp;" resources matching the specified "&amp;SUBSTITUTE(D10,","," and ")</f>
+        <f t="shared" si="1"/>
         <v>Fetches a bundle of all !Encounter resources matching the specified class and status</v>
       </c>
     </row>
@@ -9423,7 +9441,7 @@
         <v>168</v>
       </c>
       <c r="C11" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B11)</f>
+        <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
       </c>
       <c r="D11" t="s">
@@ -9437,7 +9455,7 @@
       </c>
       <c r="H11" s="5"/>
       <c r="J11" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B11&amp;" resources matching the specified "&amp;SUBSTITUTE(D11,","," and ")</f>
+        <f t="shared" si="1"/>
         <v>Fetches a bundle of all !Encounter resources matching the specified class and status and type</v>
       </c>
     </row>
@@ -9449,7 +9467,7 @@
         <v>168</v>
       </c>
       <c r="C12" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B12)</f>
+        <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
       </c>
       <c r="D12" t="s">
@@ -9462,7 +9480,7 @@
         <v>63</v>
       </c>
       <c r="J12" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B12&amp;" resources matching the specified "&amp;SUBSTITUTE(D12,","," and ")</f>
+        <f t="shared" si="1"/>
         <v>Fetches a bundle of all !Encounter resources matching the specified class and type</v>
       </c>
     </row>
@@ -9474,7 +9492,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B13)</f>
+        <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
       <c r="D13" t="s">
@@ -9493,7 +9511,7 @@
         <v>337</v>
       </c>
       <c r="J13" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B13&amp;" resources matching the specified "&amp;SUBSTITUTE(D13,","," and ")</f>
+        <f t="shared" si="1"/>
         <v>Fetches a bundle of all Encounter resources matching the specified date and patient</v>
       </c>
     </row>
@@ -9505,7 +9523,7 @@
         <v>168</v>
       </c>
       <c r="C14" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B14)</f>
+        <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -9518,7 +9536,7 @@
         <v>112</v>
       </c>
       <c r="J14" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B14&amp;" resources matching the specified "&amp;SUBSTITUTE(D14,","," and ")</f>
+        <f t="shared" si="1"/>
         <v>Fetches a bundle of all !Encounter resources matching the specified date and patient and type</v>
       </c>
     </row>
@@ -9530,7 +9548,7 @@
         <v>168</v>
       </c>
       <c r="C15" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B15)</f>
+        <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -9543,7 +9561,7 @@
         <v>110</v>
       </c>
       <c r="J15" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B15&amp;" resources matching the specified "&amp;SUBSTITUTE(D15,","," and ")</f>
+        <f t="shared" si="1"/>
         <v>Fetches a bundle of all !Encounter resources matching the specified date and type</v>
       </c>
     </row>
@@ -9555,7 +9573,7 @@
         <v>25</v>
       </c>
       <c r="C16" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B16)</f>
+        <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -9574,7 +9592,7 @@
         <v>338</v>
       </c>
       <c r="J16" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B16&amp;" resources matching the specified "&amp;SUBSTITUTE(D16,","," and ")</f>
+        <f t="shared" si="1"/>
         <v>Fetches a bundle of all Encounter resources matching the specified patient and type</v>
       </c>
     </row>
@@ -9586,7 +9604,7 @@
         <v>168</v>
       </c>
       <c r="C17" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B17)</f>
+        <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -9600,7 +9618,7 @@
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B17&amp;" resources matching the specified "&amp;SUBSTITUTE(D17,","," and ")</f>
+        <f t="shared" si="1"/>
         <v>Fetches a bundle of all !Encounter resources matching the specified patient and status and type</v>
       </c>
     </row>
@@ -9612,7 +9630,7 @@
         <v>25</v>
       </c>
       <c r="C18" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B18)</f>
+        <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -9631,7 +9649,7 @@
         <v>339</v>
       </c>
       <c r="J18" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B18&amp;" resources matching the specified "&amp;SUBSTITUTE(D18,","," and ")</f>
+        <f t="shared" si="1"/>
         <v>Fetches a bundle of all Encounter resources matching the specified patient and status</v>
       </c>
     </row>
@@ -9643,7 +9661,7 @@
         <v>168</v>
       </c>
       <c r="C19" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B19)</f>
+        <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -9658,7 +9676,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B19&amp;" resources matching the specified "&amp;SUBSTITUTE(D19,","," and ")</f>
+        <f t="shared" si="1"/>
         <v>Fetches a bundle of all !Encounter resources matching the specified status and type</v>
       </c>
     </row>
@@ -9670,7 +9688,7 @@
         <v>169</v>
       </c>
       <c r="C20" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B20)</f>
+        <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -9684,7 +9702,7 @@
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B20&amp;" resources matching the specified "&amp;SUBSTITUTE(D20,","," and ")</f>
+        <f t="shared" si="1"/>
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher</v>
       </c>
     </row>
@@ -9696,7 +9714,7 @@
         <v>169</v>
       </c>
       <c r="C21" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B21)</f>
+        <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -9709,7 +9727,7 @@
         <v>133</v>
       </c>
       <c r="J21" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B21&amp;" resources matching the specified "&amp;SUBSTITUTE(D21,","," and ")</f>
+        <f t="shared" si="1"/>
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher and status</v>
       </c>
     </row>
@@ -9721,7 +9739,7 @@
         <v>169</v>
       </c>
       <c r="C22" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B22)</f>
+        <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -9735,7 +9753,7 @@
       </c>
       <c r="H22" s="5"/>
       <c r="J22" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B22&amp;" resources matching the specified "&amp;SUBSTITUTE(D22,","," and ")</f>
+        <f t="shared" si="1"/>
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and status</v>
       </c>
     </row>
@@ -9747,7 +9765,7 @@
         <v>169</v>
       </c>
       <c r="C23" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B23)</f>
+        <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -9762,7 +9780,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B23&amp;" resources matching the specified "&amp;SUBSTITUTE(D23,","," and ")</f>
+        <f t="shared" si="1"/>
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status</v>
       </c>
     </row>
@@ -9774,7 +9792,7 @@
         <v>169</v>
       </c>
       <c r="C24" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B24)</f>
+        <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -9789,7 +9807,7 @@
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B24&amp;" resources matching the specified "&amp;SUBSTITUTE(D24,","," and ")</f>
+        <f t="shared" si="1"/>
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status and version</v>
       </c>
     </row>
@@ -9801,7 +9819,7 @@
         <v>169</v>
       </c>
       <c r="C25" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B25)</f>
+        <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -9816,7 +9834,7 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B25&amp;" resources matching the specified "&amp;SUBSTITUTE(D25,","," and ")</f>
+        <f t="shared" si="1"/>
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and version</v>
       </c>
     </row>
@@ -9828,7 +9846,7 @@
         <v>169</v>
       </c>
       <c r="C26" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B26)</f>
+        <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -9841,7 +9859,7 @@
         <v>137</v>
       </c>
       <c r="J26" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B26&amp;" resources matching the specified "&amp;SUBSTITUTE(D26,","," and ")</f>
+        <f t="shared" si="1"/>
         <v>Fetches a bundle of all !Questionnaire resources matching the specified status and title and version</v>
       </c>
     </row>
@@ -9853,7 +9871,7 @@
         <v>169</v>
       </c>
       <c r="C27" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B27)</f>
+        <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -9866,7 +9884,7 @@
         <v>63</v>
       </c>
       <c r="J27" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B27&amp;" resources matching the specified "&amp;SUBSTITUTE(D27,","," and ")</f>
+        <f t="shared" si="1"/>
         <v>Fetches a bundle of all !Questionnaire resources matching the specified status and version</v>
       </c>
     </row>
@@ -9878,7 +9896,7 @@
         <v>169</v>
       </c>
       <c r="C28" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B28)</f>
+        <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -9891,7 +9909,7 @@
         <v>137</v>
       </c>
       <c r="J28" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B28&amp;" resources matching the specified "&amp;SUBSTITUTE(D28,","," and ")</f>
+        <f t="shared" si="1"/>
         <v>Fetches a bundle of all !Questionnaire resources matching the specified title and version</v>
       </c>
     </row>
@@ -9903,7 +9921,7 @@
         <v>24</v>
       </c>
       <c r="C29" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B29)</f>
+        <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -9922,7 +9940,7 @@
         <v>190</v>
       </c>
       <c r="J29" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B29&amp;" resources matching the specified "&amp;SUBSTITUTE(D29,","," and ")</f>
+        <f t="shared" si="1"/>
         <v>Fetches a bundle of all Patient resources matching the specified birthdate and family</v>
       </c>
     </row>
@@ -9934,7 +9952,7 @@
         <v>24</v>
       </c>
       <c r="C30" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B30)</f>
+        <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -9953,7 +9971,7 @@
         <v>187</v>
       </c>
       <c r="J30" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B30&amp;" resources matching the specified "&amp;SUBSTITUTE(D30,","," and ")</f>
+        <f t="shared" si="1"/>
         <v>Fetches a bundle of all Patient resources matching the specified birthdate and name</v>
       </c>
     </row>
@@ -9965,7 +9983,7 @@
         <v>24</v>
       </c>
       <c r="C31" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B31)</f>
+        <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -9984,7 +10002,7 @@
         <v>189</v>
       </c>
       <c r="J31" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B31&amp;" resources matching the specified "&amp;SUBSTITUTE(D31,","," and ")</f>
+        <f t="shared" si="1"/>
         <v>Fetches a bundle of all Patient resources matching the specified family and gender</v>
       </c>
     </row>
@@ -9996,7 +10014,7 @@
         <v>24</v>
       </c>
       <c r="C32" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B32)</f>
+        <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -10015,7 +10033,7 @@
         <v>188</v>
       </c>
       <c r="J32" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B32&amp;" resources matching the specified "&amp;SUBSTITUTE(D32,","," and ")</f>
+        <f t="shared" si="1"/>
         <v>Fetches a bundle of all Patient resources matching the specified gender and name</v>
       </c>
     </row>
@@ -10027,7 +10045,7 @@
         <v>148</v>
       </c>
       <c r="C33" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B33)</f>
+        <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -10060,7 +10078,7 @@
         <v>148</v>
       </c>
       <c r="C34" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B34)</f>
+        <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -10090,7 +10108,7 @@
         <v>148</v>
       </c>
       <c r="C35" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B35)</f>
+        <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -10120,7 +10138,7 @@
         <v>148</v>
       </c>
       <c r="C36" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B36)</f>
+        <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -10150,7 +10168,7 @@
         <v>23</v>
       </c>
       <c r="C37" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B37)</f>
+        <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-allergyintolerance</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -10180,7 +10198,7 @@
         <v>172</v>
       </c>
       <c r="C38" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B38)</f>
+        <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -10211,7 +10229,7 @@
         <v>172</v>
       </c>
       <c r="C39" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B39)</f>
+        <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -10548,7 +10566,7 @@
         <v>193</v>
       </c>
       <c r="C50" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B50)</f>
+        <f t="shared" ref="C50:C60" si="2">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B50)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -10579,7 +10597,7 @@
         <v>193</v>
       </c>
       <c r="C51" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B51)</f>
+        <f t="shared" si="2"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -10610,7 +10628,7 @@
         <v>194</v>
       </c>
       <c r="C52" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B52)</f>
+        <f t="shared" si="2"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -10643,7 +10661,7 @@
         <v>194</v>
       </c>
       <c r="C53" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B53)</f>
+        <f t="shared" si="2"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -10676,7 +10694,7 @@
         <v>194</v>
       </c>
       <c r="C54" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B54)</f>
+        <f t="shared" si="2"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -10709,7 +10727,7 @@
         <v>194</v>
       </c>
       <c r="C55" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B55)</f>
+        <f t="shared" si="2"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -10742,7 +10760,7 @@
         <v>501</v>
       </c>
       <c r="C56" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B56)</f>
+        <f t="shared" si="2"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationstatement</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -10773,7 +10791,7 @@
         <v>501</v>
       </c>
       <c r="C57" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B57)</f>
+        <f t="shared" si="2"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationstatement</v>
       </c>
       <c r="D57" s="1" t="s">
@@ -10803,7 +10821,7 @@
         <v>195</v>
       </c>
       <c r="C58" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B58)</f>
+        <f t="shared" si="2"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -10834,7 +10852,7 @@
         <v>195</v>
       </c>
       <c r="C59" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B59)</f>
+        <f t="shared" si="2"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
       </c>
       <c r="D59" s="1" t="s">
@@ -10865,7 +10883,7 @@
         <v>195</v>
       </c>
       <c r="C60" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B60)</f>
+        <f t="shared" si="2"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -11447,7 +11465,7 @@
         <v>191</v>
       </c>
       <c r="C78" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B78)</f>
+        <f t="shared" ref="C78:C83" si="3">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B78)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -11478,7 +11496,7 @@
         <v>318</v>
       </c>
       <c r="C79" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B79)</f>
+        <f t="shared" si="3"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!documentreference</v>
       </c>
       <c r="D79" s="1" t="s">
@@ -11507,7 +11525,7 @@
         <v>191</v>
       </c>
       <c r="C80" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B80)</f>
+        <f t="shared" si="3"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
       <c r="D80" s="1" t="s">
@@ -11540,7 +11558,7 @@
         <v>191</v>
       </c>
       <c r="C81" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B81)</f>
+        <f t="shared" si="3"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
       <c r="D81" s="1" t="s">
@@ -11573,7 +11591,7 @@
         <v>191</v>
       </c>
       <c r="C82" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B82)</f>
+        <f t="shared" si="3"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
       <c r="D82" s="1" t="s">
@@ -11603,7 +11621,7 @@
         <v>191</v>
       </c>
       <c r="C83" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B83)</f>
+        <f t="shared" si="3"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
       <c r="D83" s="1" t="s">

--- a/source/source_spreadsheets/uscore-server.xlsx
+++ b/source/source_spreadsheets/uscore-server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\US-Core-R4\source\source_spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core-R4/source/source_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E8808F-4E22-424D-9C30-619E7A7E8BCC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACA7110-F7ED-2847-B180-699BF1AF5775}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26550" yWindow="285" windowWidth="18900" windowHeight="11055" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1972" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="521">
   <si>
     <t>Element</t>
   </si>
@@ -1728,15 +1728,12 @@
   <si>
     <t>doc_Observation</t>
   </si>
-  <si>
-    <t>The conformance expectations for Composite Searches differ by profile.  See the Quick Start section for profile specific expectations.</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2217,13 +2214,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="95.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="95.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2231,7 +2228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2239,7 +2236,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="105" customHeight="1">
+    <row r="3" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2247,7 +2244,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2255,7 +2252,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2263,7 +2260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="351.75" customHeight="1">
+    <row r="6" spans="1:2" ht="351.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2271,7 +2268,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="103.5" customHeight="1">
+    <row r="7" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2292,9 +2289,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -2315,15 +2312,15 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="94" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -2337,7 +2334,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>373</v>
       </c>
@@ -2352,7 +2349,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>375</v>
       </c>
@@ -2367,7 +2364,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>495</v>
       </c>
@@ -2382,7 +2379,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>377</v>
       </c>
@@ -2397,7 +2394,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>83</v>
       </c>
@@ -2412,7 +2409,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>379</v>
       </c>
@@ -2427,7 +2424,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>302</v>
       </c>
@@ -2442,7 +2439,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>382</v>
       </c>
@@ -2457,7 +2454,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>384</v>
       </c>
@@ -2472,7 +2469,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>386</v>
       </c>
@@ -2487,7 +2484,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>388</v>
       </c>
@@ -2502,7 +2499,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>389</v>
       </c>
@@ -2517,7 +2514,7 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>467</v>
       </c>
@@ -2532,7 +2529,7 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>391</v>
       </c>
@@ -2547,7 +2544,7 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>393</v>
       </c>
@@ -2562,7 +2559,7 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>465</v>
       </c>
@@ -2577,7 +2574,7 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>203</v>
       </c>
@@ -2592,7 +2589,7 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>397</v>
       </c>
@@ -2607,7 +2604,7 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>255</v>
       </c>
@@ -2622,7 +2619,7 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>400</v>
       </c>
@@ -2637,7 +2634,7 @@
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>402</v>
       </c>
@@ -2652,7 +2649,7 @@
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>466</v>
       </c>
@@ -2667,7 +2664,7 @@
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1">
+    <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>509</v>
       </c>
@@ -2681,7 +2678,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>202</v>
       </c>
@@ -2696,7 +2693,7 @@
       </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>81</v>
       </c>
@@ -2711,7 +2708,7 @@
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1">
+    <row r="27" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>505</v>
       </c>
@@ -2725,7 +2722,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1">
+    <row r="28" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
     </row>
   </sheetData>
@@ -2746,22 +2743,22 @@
       <selection pane="bottomRight" activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="12" width="17.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.42578125" style="1" customWidth="1"/>
-    <col min="14" max="17" width="17.42578125" style="1" customWidth="1"/>
-    <col min="18" max="19" width="20.42578125" style="1" customWidth="1"/>
-    <col min="20" max="23" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="27.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="17.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5" style="1" customWidth="1"/>
+    <col min="14" max="17" width="17.5" style="1" customWidth="1"/>
+    <col min="18" max="19" width="20.5" style="1" customWidth="1"/>
+    <col min="20" max="23" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.1640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18" thickBot="1">
+    <row r="1" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2835,7 +2832,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="38.25" customHeight="1" thickTop="1">
+    <row r="2" spans="1:24" ht="38.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -2855,7 +2852,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" ht="16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>253</v>
       </c>
@@ -2872,7 +2869,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>267</v>
       </c>
@@ -2889,7 +2886,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" ht="16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>148</v>
       </c>
@@ -2909,7 +2906,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" ht="16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>271</v>
       </c>
@@ -2926,7 +2923,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" ht="16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>192</v>
       </c>
@@ -2943,7 +2940,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="75">
+    <row r="8" spans="1:24" ht="65" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>191</v>
       </c>
@@ -2963,7 +2960,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" ht="16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -2980,7 +2977,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" ht="16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>193</v>
       </c>
@@ -2997,7 +2994,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" ht="16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>172</v>
       </c>
@@ -3014,7 +3011,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" ht="16" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>272</v>
       </c>
@@ -3031,7 +3028,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="105">
+    <row r="13" spans="1:24" ht="81" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>395</v>
       </c>
@@ -3051,7 +3048,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="315">
+    <row r="14" spans="1:24" ht="289" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>194</v>
       </c>
@@ -3074,7 +3071,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="315">
+    <row r="15" spans="1:24" ht="289" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>501</v>
       </c>
@@ -3097,7 +3094,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" ht="16" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>196</v>
       </c>
@@ -3114,7 +3111,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" ht="16" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>286</v>
       </c>
@@ -3131,7 +3128,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" ht="16" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -3148,7 +3145,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" ht="16" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>293</v>
       </c>
@@ -3165,7 +3162,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" ht="16" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>296</v>
       </c>
@@ -3185,7 +3182,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" ht="16" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>195</v>
       </c>
@@ -3202,7 +3199,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="90">
+    <row r="22" spans="1:23" ht="80" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>503</v>
       </c>
@@ -3219,7 +3216,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>514</v>
       </c>
@@ -3227,18 +3224,18 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24"/>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25"/>
     </row>
-    <row r="56" spans="20:23" ht="18">
+    <row r="56" spans="20:23" ht="18" x14ac:dyDescent="0.2">
       <c r="T56" s="7"/>
       <c r="V56" s="7"/>
       <c r="W56" s="7"/>
     </row>
-    <row r="59" spans="20:23" ht="18">
+    <row r="59" spans="20:23" ht="18" x14ac:dyDescent="0.2">
       <c r="W59" s="7"/>
     </row>
   </sheetData>
@@ -3259,15 +3256,15 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" customWidth="1"/>
     <col min="5" max="5" width="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -3284,7 +3281,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="135.75" thickBot="1">
+    <row r="2" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>408</v>
       </c>
@@ -3301,7 +3298,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="60">
+    <row r="3" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>512</v>
       </c>
@@ -3318,7 +3315,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E4" s="2"/>
     </row>
   </sheetData>
@@ -3330,27 +3327,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="58.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28.140625" customWidth="1"/>
-    <col min="17" max="17" width="31.28515625" customWidth="1"/>
-    <col min="18" max="18" width="31.28515625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="20.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="58.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28.1640625" customWidth="1"/>
+    <col min="17" max="17" width="31.33203125" customWidth="1"/>
+    <col min="18" max="18" width="31.33203125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="20.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -3427,7 +3424,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="75">
+    <row r="2" spans="1:25" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -3498,7 +3495,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="75">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -3517,9 +3514,6 @@
       <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>521</v>
-      </c>
       <c r="H3" t="s">
         <v>13</v>
       </c>
@@ -3550,9 +3544,7 @@
       <c r="Q3" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="2" t="s">
-        <v>521</v>
-      </c>
+      <c r="R3" s="2"/>
       <c r="S3" t="s">
         <v>13</v>
       </c>
@@ -3572,7 +3564,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -3640,7 +3632,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -3708,7 +3700,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -3776,7 +3768,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -3844,7 +3836,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -3912,7 +3904,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -3980,7 +3972,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -4061,12 +4053,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="51.140625" customWidth="1"/>
+    <col min="3" max="3" width="51.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -4077,7 +4069,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="59.25" customHeight="1">
+    <row r="2" spans="1:3" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>497</v>
       </c>
@@ -4086,7 +4078,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>498</v>
       </c>
@@ -4095,7 +4087,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>499</v>
       </c>
@@ -4104,7 +4096,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>500</v>
       </c>
@@ -4129,35 +4121,35 @@
       <selection pane="bottomRight" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.95" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="73.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="36.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="73.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="36.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="49.7109375" style="1" customWidth="1"/>
-    <col min="21" max="22" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="49.6640625" style="1" customWidth="1"/>
+    <col min="21" max="22" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16" style="1" customWidth="1"/>
-    <col min="24" max="24" width="50.85546875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="68.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="90.7109375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="83.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="38.140625" customWidth="1"/>
+    <col min="24" max="24" width="50.83203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="68.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="90.6640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="83.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="38.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="18.95" customHeight="1" thickBot="1">
+    <row r="1" spans="1:28" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>151</v>
       </c>
@@ -4243,7 +4235,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1" thickTop="1">
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4293,7 +4285,7 @@
         <v>SearchParameter-us-core-!example category search-category.html</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="3" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4340,7 +4332,7 @@
         <v>SearchParameter-us-core-!example code search-code.html</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="4" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4394,7 +4386,7 @@
         <v>SearchParameter-us-core-!example date search-date.html</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="5" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4453,7 +4445,7 @@
         <v>SearchParameter-us-core-!example patient search-patient.html</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="6" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4503,7 +4495,7 @@
         <v>SearchParameter-us-core-!example status search-status.html</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="18.95" customHeight="1">
+    <row r="7" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4554,7 +4546,7 @@
         <v>SearchParameter-us-core-!patient-address.html</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="18.95" customHeight="1">
+    <row r="8" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4605,7 +4597,7 @@
         <v>SearchParameter-us-core-!patient-telecom.html</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="18.95" customHeight="1">
+    <row r="9" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4652,7 +4644,7 @@
         <v>SearchParameter-us-core-allergyintolerance-clinical-status.html</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="18.95" customHeight="1">
+    <row r="10" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4712,7 +4704,7 @@
         <v>SearchParameter-us-core-allergyintolerance-patient.html</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="18.95" customHeight="1">
+    <row r="11" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4763,7 +4755,7 @@
         <v>SearchParameter-us-core-condition-category.html</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="18.95" customHeight="1">
+    <row r="12" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4811,7 +4803,7 @@
         <v>SearchParameter-us-core-condition-clinical-status.html</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="18.95" customHeight="1">
+    <row r="13" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4869,7 +4861,7 @@
         <v>SearchParameter-us-core-condition-patient.html</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="18.95" customHeight="1">
+    <row r="14" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4922,7 +4914,7 @@
         <v>SearchParameter-us-core-encounter-id.html</v>
       </c>
     </row>
-    <row r="15" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="15" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4972,7 +4964,7 @@
         <v>SearchParameter-us-core-encounter-class.html</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="18.95" customHeight="1">
+    <row r="16" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -5026,7 +5018,7 @@
         <v>SearchParameter-us-core-encounter-date.html</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="18.95" customHeight="1">
+    <row r="17" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -5080,7 +5072,7 @@
         <v>SearchParameter-us-core-encounter-identifier.html</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="18.95" customHeight="1">
+    <row r="18" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -5138,7 +5130,7 @@
         <v>SearchParameter-us-core-encounter-patient.html</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="18.95" customHeight="1">
+    <row r="19" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -5188,7 +5180,7 @@
         <v>SearchParameter-us-core-encounter-status.html</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="18.95" customHeight="1">
+    <row r="20" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -5236,7 +5228,7 @@
         <v>SearchParameter-us-core-encounter-type.html</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="18.95" customHeight="1">
+    <row r="21" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -5286,7 +5278,7 @@
         <v>SearchParameter-us-core-patient-id.html</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="18.95" customHeight="1">
+    <row r="22" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -5334,7 +5326,7 @@
         <v>SearchParameter-us-core-patient-birthdate.html</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="18.95" customHeight="1">
+    <row r="23" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -5378,7 +5370,7 @@
         <v>SearchParameter-us-core-patient-family.html</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="18.95" customHeight="1">
+    <row r="24" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -5427,7 +5419,7 @@
         <v>SearchParameter-us-core-patient-gender.html</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="18.95" customHeight="1">
+    <row r="25" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -5471,7 +5463,7 @@
         <v>SearchParameter-us-core-patient-given.html</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="18.95" customHeight="1">
+    <row r="26" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -5526,7 +5518,7 @@
         <v>SearchParameter-us-core-patient-identifier.html</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="18.95" customHeight="1">
+    <row r="27" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -5584,7 +5576,7 @@
         <v>SearchParameter-us-core-patient-name.html</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="18.95" customHeight="1">
+    <row r="28" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -5627,7 +5619,7 @@
         <v>SearchParameter-us-core-!questionnaire-_id.html</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="18.95" customHeight="1">
+    <row r="29" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -5672,7 +5664,7 @@
         <v>SearchParameter-us-core-!questionnaire-context-type-value.html</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="18.95" customHeight="1">
+    <row r="30" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -5722,7 +5714,7 @@
         <v>SearchParameter-us-core-!questionnaire-publisher.html</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="18.95" customHeight="1">
+    <row r="31" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5769,7 +5761,7 @@
         <v>SearchParameter-us-core-!questionnaire-status.html</v>
       </c>
     </row>
-    <row r="32" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="32" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5829,7 +5821,7 @@
         <v>SearchParameter-us-core-!questionnaire-title.html</v>
       </c>
     </row>
-    <row r="33" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="33" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5874,7 +5866,7 @@
         <v>SearchParameter-us-core-!questionnaire-url.html</v>
       </c>
     </row>
-    <row r="34" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="34" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5919,7 +5911,7 @@
         <v>SearchParameter-us-core-!questionnaire-version.html</v>
       </c>
     </row>
-    <row r="35" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="35" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5970,7 +5962,7 @@
         <v>SearchParameter-us-core-condition-onset-date.html</v>
       </c>
     </row>
-    <row r="36" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="36" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -6017,7 +6009,7 @@
         <v>SearchParameter-us-core-condition-code.html</v>
       </c>
     </row>
-    <row r="37" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="37" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -6076,7 +6068,7 @@
         <v>SearchParameter-us-core-immunization-patient.html</v>
       </c>
     </row>
-    <row r="38" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="38" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -6126,7 +6118,7 @@
         <v>SearchParameter-us-core-immunization-status.html</v>
       </c>
     </row>
-    <row r="39" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="39" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -6180,7 +6172,7 @@
         <v>SearchParameter-us-core-immunization-date.html</v>
       </c>
     </row>
-    <row r="40" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="40" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -6233,7 +6225,7 @@
         <v>SearchParameter-us-core-documentreference-_id.html</v>
       </c>
     </row>
-    <row r="41" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="41" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -6286,7 +6278,7 @@
         <v>SearchParameter-us-core-documentreference-status.html</v>
       </c>
     </row>
-    <row r="42" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="42" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -6345,7 +6337,7 @@
         <v>SearchParameter-us-core-documentreference-patient.html</v>
       </c>
     </row>
-    <row r="43" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="43" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -6395,7 +6387,7 @@
         <v>SearchParameter-us-core-documentreference-category.html</v>
       </c>
     </row>
-    <row r="44" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="44" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -6442,7 +6434,7 @@
         <v>SearchParameter-us-core-documentreference-type.html</v>
       </c>
     </row>
-    <row r="45" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="45" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -6496,7 +6488,7 @@
         <v>SearchParameter-us-core-documentreference-date.html</v>
       </c>
     </row>
-    <row r="46" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="46" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -6549,7 +6541,7 @@
         <v>SearchParameter-us-core-documentreference-period.html</v>
       </c>
     </row>
-    <row r="47" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="47" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -6602,7 +6594,7 @@
         <v>SearchParameter-us-core-diagnosticreport-status.html</v>
       </c>
     </row>
-    <row r="48" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="48" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -6661,7 +6653,7 @@
         <v>SearchParameter-us-core-diagnosticreport-patient.html</v>
       </c>
     </row>
-    <row r="49" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="49" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -6711,7 +6703,7 @@
         <v>SearchParameter-us-core-diagnosticreport-category.html</v>
       </c>
     </row>
-    <row r="50" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="50" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -6761,7 +6753,7 @@
         <v>SearchParameter-us-core-diagnosticreport-code.html</v>
       </c>
     </row>
-    <row r="51" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="51" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -6815,7 +6807,7 @@
         <v>SearchParameter-us-core-diagnosticreport-date.html</v>
       </c>
     </row>
-    <row r="52" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="52" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -6865,7 +6857,7 @@
         <v>SearchParameter-us-core-goal-lifecycle-status.html</v>
       </c>
     </row>
-    <row r="53" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="53" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -6924,7 +6916,7 @@
         <v>SearchParameter-us-core-goal-patient.html</v>
       </c>
     </row>
-    <row r="54" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="54" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -6978,7 +6970,7 @@
         <v>SearchParameter-us-core-goal-target-date.html</v>
       </c>
     </row>
-    <row r="55" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="55" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -7031,7 +7023,7 @@
         <v>SearchParameter-us-core-medicationrequest-status.html</v>
       </c>
     </row>
-    <row r="56" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="56" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -7081,7 +7073,7 @@
         <v>SearchParameter-us-core-medicationrequest-intent.html</v>
       </c>
     </row>
-    <row r="57" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="57" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -7132,7 +7124,7 @@
         <v>SearchParameter-us-core-medicationrequest-patient.html</v>
       </c>
     </row>
-    <row r="58" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="58" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>54</v>
       </c>
@@ -7183,7 +7175,7 @@
         <v>SearchParameter-us-core-medicationrequest-encounter.html</v>
       </c>
     </row>
-    <row r="59" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="59" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>55</v>
       </c>
@@ -7237,7 +7229,7 @@
         <v>SearchParameter-us-core-medicationrequest-authoredon.html</v>
       </c>
     </row>
-    <row r="60" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="60" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>56</v>
       </c>
@@ -7290,7 +7282,7 @@
         <v>SearchParameter-us-core-!medicationstatement-status.html</v>
       </c>
     </row>
-    <row r="61" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="61" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>57</v>
       </c>
@@ -7348,7 +7340,7 @@
         <v>SearchParameter-us-core-!medicationstatement-patient.html</v>
       </c>
     </row>
-    <row r="62" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="62" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>58</v>
       </c>
@@ -7402,7 +7394,7 @@
         <v>SearchParameter-us-core-!medicationstatement-effective.html</v>
       </c>
     </row>
-    <row r="63" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="63" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>59</v>
       </c>
@@ -7455,7 +7447,7 @@
         <v>SearchParameter-us-core-procedure-status.html</v>
       </c>
     </row>
-    <row r="64" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="64" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>60</v>
       </c>
@@ -7513,7 +7505,7 @@
         <v>SearchParameter-us-core-procedure-patient.html</v>
       </c>
     </row>
-    <row r="65" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="65" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>61</v>
       </c>
@@ -7567,7 +7559,7 @@
         <v>SearchParameter-us-core-procedure-date.html</v>
       </c>
     </row>
-    <row r="66" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="66" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>62</v>
       </c>
@@ -7617,7 +7609,7 @@
         <v>SearchParameter-us-core-procedure-code.html</v>
       </c>
     </row>
-    <row r="67" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="67" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>63</v>
       </c>
@@ -7670,7 +7662,7 @@
         <v>SearchParameter-us-core-observation-status.html</v>
       </c>
     </row>
-    <row r="68" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="68" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>64</v>
       </c>
@@ -7720,7 +7712,7 @@
         <v>SearchParameter-us-core-observation-category.html</v>
       </c>
     </row>
-    <row r="69" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="69" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>65</v>
       </c>
@@ -7770,7 +7762,7 @@
         <v>SearchParameter-us-core-observation-code.html</v>
       </c>
     </row>
-    <row r="70" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="70" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>66</v>
       </c>
@@ -7824,7 +7816,7 @@
         <v>SearchParameter-us-core-observation-date.html</v>
       </c>
     </row>
-    <row r="71" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="71" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>67</v>
       </c>
@@ -7883,7 +7875,7 @@
         <v>SearchParameter-us-core-observation-patient.html</v>
       </c>
     </row>
-    <row r="72" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="72" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>68</v>
       </c>
@@ -7933,7 +7925,7 @@
         <v>SearchParameter-us-core-careplan-category.html</v>
       </c>
     </row>
-    <row r="73" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="73" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>69</v>
       </c>
@@ -7980,7 +7972,7 @@
         <v>SearchParameter-us-core-!careplan-code.html</v>
       </c>
     </row>
-    <row r="74" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="74" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>70</v>
       </c>
@@ -8034,7 +8026,7 @@
         <v>SearchParameter-us-core-careplan-date.html</v>
       </c>
     </row>
-    <row r="75" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="75" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>71</v>
       </c>
@@ -8093,7 +8085,7 @@
         <v>SearchParameter-us-core-careplan-patient.html</v>
       </c>
     </row>
-    <row r="76" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="76" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>72</v>
       </c>
@@ -8146,7 +8138,7 @@
         <v>SearchParameter-us-core-careplan-status.html</v>
       </c>
     </row>
-    <row r="77" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="77" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>73</v>
       </c>
@@ -8205,7 +8197,7 @@
         <v>SearchParameter-us-core-careteam-patient.html</v>
       </c>
     </row>
-    <row r="78" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="78" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>74</v>
       </c>
@@ -8258,7 +8250,7 @@
         <v>SearchParameter-us-core-careteam-status.html</v>
       </c>
     </row>
-    <row r="79" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="79" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>75</v>
       </c>
@@ -8317,7 +8309,7 @@
         <v>SearchParameter-us-core-device-patient.html</v>
       </c>
     </row>
-    <row r="80" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="80" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>76</v>
       </c>
@@ -8363,7 +8355,7 @@
         <v>SearchParameter-us-core-device-type.html</v>
       </c>
     </row>
-    <row r="81" spans="1:28" ht="18.95" customHeight="1">
+    <row r="81" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>77</v>
       </c>
@@ -8417,7 +8409,7 @@
         <v>SearchParameter-us-core-location-name.html</v>
       </c>
     </row>
-    <row r="82" spans="1:28" ht="18.95" customHeight="1">
+    <row r="82" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>78</v>
       </c>
@@ -8471,7 +8463,7 @@
         <v>SearchParameter-us-core-location-address.html</v>
       </c>
     </row>
-    <row r="83" spans="1:28" ht="18.95" customHeight="1">
+    <row r="83" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>79</v>
       </c>
@@ -8525,7 +8517,7 @@
         <v>SearchParameter-us-core-location-address-city.html</v>
       </c>
     </row>
-    <row r="84" spans="1:28" ht="18.95" customHeight="1">
+    <row r="84" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>80</v>
       </c>
@@ -8579,7 +8571,7 @@
         <v>SearchParameter-us-core-location-address-state.html</v>
       </c>
     </row>
-    <row r="85" spans="1:28" ht="18.95" customHeight="1">
+    <row r="85" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>81</v>
       </c>
@@ -8633,7 +8625,7 @@
         <v>SearchParameter-us-core-location-address-postalcode.html</v>
       </c>
     </row>
-    <row r="86" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="86" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>82</v>
       </c>
@@ -8687,7 +8679,7 @@
         <v>SearchParameter-us-core-organization-name.html</v>
       </c>
     </row>
-    <row r="87" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="87" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>83</v>
       </c>
@@ -8741,7 +8733,7 @@
         <v>SearchParameter-us-core-organization-address.html</v>
       </c>
     </row>
-    <row r="88" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="88" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>84</v>
       </c>
@@ -8795,7 +8787,7 @@
         <v>SearchParameter-us-core-!organization-address-city.html</v>
       </c>
     </row>
-    <row r="89" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="89" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>85</v>
       </c>
@@ -8849,7 +8841,7 @@
         <v>SearchParameter-us-core-!organization-adress-state.html</v>
       </c>
     </row>
-    <row r="90" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="90" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>86</v>
       </c>
@@ -8903,7 +8895,7 @@
         <v>SearchParameter-us-core-!organization-address-postalcode.html</v>
       </c>
     </row>
-    <row r="91" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="91" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>87</v>
       </c>
@@ -8960,7 +8952,7 @@
         <v>SearchParameter-us-core-practitioner-name.html</v>
       </c>
     </row>
-    <row r="92" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="92" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>88</v>
       </c>
@@ -9014,7 +9006,7 @@
         <v>SearchParameter-us-core-practitioner-identifier.html</v>
       </c>
     </row>
-    <row r="93" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="93" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>89</v>
       </c>
@@ -9071,7 +9063,7 @@
         <v>SearchParameter-us-core-practitionerrole-specialty.html</v>
       </c>
     </row>
-    <row r="94" spans="1:28" ht="18.95" customHeight="1">
+    <row r="94" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>90</v>
       </c>
@@ -9146,28 +9138,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G38" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="21.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="96.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="88.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="82.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="96.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="88.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="82.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="83.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>153</v>
       </c>
@@ -9199,7 +9191,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1">
+    <row r="2" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -9224,7 +9216,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -9249,7 +9241,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and patient</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -9274,7 +9266,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and patient and type</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -9299,7 +9291,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and type</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -9330,7 +9322,7 @@
         <v>Fetches a bundle of all Encounter resources matching the specified class and patient</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -9355,7 +9347,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and status</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -9380,7 +9372,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and status and type</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -9406,7 +9398,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and type</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -9433,7 +9425,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and status</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -9459,7 +9451,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and status and type</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -9484,7 +9476,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and type</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -9515,7 +9507,7 @@
         <v>Fetches a bundle of all Encounter resources matching the specified date and patient</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="1" customFormat="1">
+    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -9540,7 +9532,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified date and patient and type</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="1" customFormat="1">
+    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -9565,7 +9557,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified date and type</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -9596,7 +9588,7 @@
         <v>Fetches a bundle of all Encounter resources matching the specified patient and type</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -9622,7 +9614,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified patient and status and type</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -9653,7 +9645,7 @@
         <v>Fetches a bundle of all Encounter resources matching the specified patient and status</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="1" customFormat="1">
+    <row r="19" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -9680,7 +9672,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified status and type</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="1" customFormat="1">
+    <row r="20" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>21</v>
       </c>
@@ -9706,7 +9698,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="1" customFormat="1">
+    <row r="21" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>22</v>
       </c>
@@ -9731,7 +9723,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher and status</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>23</v>
       </c>
@@ -9757,7 +9749,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and status</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="1" customFormat="1">
+    <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>24</v>
       </c>
@@ -9784,7 +9776,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="1" customFormat="1">
+    <row r="24" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>25</v>
       </c>
@@ -9811,7 +9803,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status and version</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="1" customFormat="1">
+    <row r="25" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>26</v>
       </c>
@@ -9838,7 +9830,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and version</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="1" customFormat="1">
+    <row r="26" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>27</v>
       </c>
@@ -9863,7 +9855,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified status and title and version</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="1" customFormat="1">
+    <row r="27" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>28</v>
       </c>
@@ -9888,7 +9880,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified status and version</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="1" customFormat="1">
+    <row r="28" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>29</v>
       </c>
@@ -9913,7 +9905,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified title and version</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="1" customFormat="1">
+    <row r="29" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>30</v>
       </c>
@@ -9944,7 +9936,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified birthdate and family</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="1" customFormat="1">
+    <row r="30" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>31</v>
       </c>
@@ -9975,7 +9967,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified birthdate and name</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="1" customFormat="1">
+    <row r="31" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>32</v>
       </c>
@@ -10006,7 +9998,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified family and gender</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="1" customFormat="1">
+    <row r="32" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>33</v>
       </c>
@@ -10037,7 +10029,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified gender and name</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="1" customFormat="1">
+    <row r="33" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>36</v>
       </c>
@@ -10070,7 +10062,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="1" customFormat="1">
+    <row r="34" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>37</v>
       </c>
@@ -10100,7 +10092,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="1" customFormat="1">
+    <row r="35" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>38</v>
       </c>
@@ -10130,7 +10122,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="1" customFormat="1">
+    <row r="36" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>39</v>
       </c>
@@ -10160,7 +10152,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="1" customFormat="1">
+    <row r="37" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>42</v>
       </c>
@@ -10190,7 +10182,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="1" customFormat="1">
+    <row r="38" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>45</v>
       </c>
@@ -10221,7 +10213,7 @@
         <v>Fetches a bundle of all Immunization resources for the specified patient and date</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="1" customFormat="1">
+    <row r="39" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>46</v>
       </c>
@@ -10252,7 +10244,7 @@
         <v>Fetches a bundle of all Immunization resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="1" customFormat="1">
+    <row r="40" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>49</v>
       </c>
@@ -10282,7 +10274,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="1" customFormat="1" ht="15.75">
+    <row r="41" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>50</v>
       </c>
@@ -10315,7 +10307,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code = `LAB`</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="1" customFormat="1" ht="15.75">
+    <row r="42" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>51</v>
       </c>
@@ -10345,7 +10337,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="1" customFormat="1" ht="15.75">
+    <row r="43" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>52</v>
       </c>
@@ -10378,7 +10370,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code = `LAB`</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="1" customFormat="1">
+    <row r="44" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>53</v>
       </c>
@@ -10408,7 +10400,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="1" customFormat="1">
+    <row r="45" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>56</v>
       </c>
@@ -10438,7 +10430,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="1" customFormat="1">
+    <row r="46" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>57</v>
       </c>
@@ -10452,7 +10444,7 @@
         <v>155</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>116</v>
@@ -10468,7 +10460,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code specified in US Core DiagnosticReport Category Codes</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="1" customFormat="1">
+    <row r="47" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>58</v>
       </c>
@@ -10498,7 +10490,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="1" customFormat="1">
+    <row r="48" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>59</v>
       </c>
@@ -10512,7 +10504,7 @@
         <v>208</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>234</v>
@@ -10528,7 +10520,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="1" customFormat="1">
+    <row r="49" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>60</v>
       </c>
@@ -10558,7 +10550,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="1" customFormat="1">
+    <row r="50" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>63</v>
       </c>
@@ -10589,7 +10581,7 @@
         <v>Fetches a bundle of all Goal resources for the specified patient and lifecycle-status</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="1" customFormat="1">
+    <row r="51" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>64</v>
       </c>
@@ -10620,7 +10612,7 @@
         <v>Fetches a bundle of all Goal resources for the specified patient and target-date</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="1" customFormat="1">
+    <row r="52" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>67</v>
       </c>
@@ -10653,7 +10645,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="1" customFormat="1">
+    <row r="53" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>68</v>
       </c>
@@ -10686,7 +10678,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="1" customFormat="1">
+    <row r="54" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>69</v>
       </c>
@@ -10719,7 +10711,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="1" customFormat="1">
+    <row r="55" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>70</v>
       </c>
@@ -10752,7 +10744,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="1" customFormat="1">
+    <row r="56" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>73</v>
       </c>
@@ -10783,7 +10775,7 @@
         <v>Fetches a bundle of all !MedicationStatement resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="1" customFormat="1">
+    <row r="57" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>74</v>
       </c>
@@ -10813,7 +10805,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="1" customFormat="1">
+    <row r="58" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>75</v>
       </c>
@@ -10844,7 +10836,7 @@
         <v>Fetches a bundle of all Procedure resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="1" customFormat="1">
+    <row r="59" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>76</v>
       </c>
@@ -10875,7 +10867,7 @@
         <v>Fetches a bundle of all Procedure resources for the specified patient and date</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="1" customFormat="1">
+    <row r="60" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>77</v>
       </c>
@@ -10906,7 +10898,7 @@
         <v>Fetches a bundle of all Procedure resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes.</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="1" customFormat="1">
+    <row r="61" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>80</v>
       </c>
@@ -10938,7 +10930,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="1" customFormat="1">
+    <row r="62" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>81</v>
       </c>
@@ -10971,7 +10963,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `laboratory`</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="1" customFormat="1">
+    <row r="63" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>82</v>
       </c>
@@ -11001,7 +10993,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only.</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="1" customFormat="1">
+    <row r="64" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>83</v>
       </c>
@@ -11034,7 +11026,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `laboratory`</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="1" customFormat="1">
+    <row r="65" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>84</v>
       </c>
@@ -11064,7 +11056,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="66" spans="1:16" s="1" customFormat="1">
+    <row r="66" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>85</v>
       </c>
@@ -11094,7 +11086,7 @@
         <v>Fetches a bundle of all !Observation resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="67" spans="1:16" s="1" customFormat="1">
+    <row r="67" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>88</v>
       </c>
@@ -11127,7 +11119,7 @@
         <v>Fetches a bundle of all CarePlan resources for the specified patient and category=`assess-plan`</v>
       </c>
     </row>
-    <row r="68" spans="1:16" s="1" customFormat="1">
+    <row r="68" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>89</v>
       </c>
@@ -11159,7 +11151,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="69" spans="1:16" s="1" customFormat="1">
+    <row r="69" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>90</v>
       </c>
@@ -11191,7 +11183,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="70" spans="1:16" s="1" customFormat="1">
+    <row r="70" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>91</v>
       </c>
@@ -11223,7 +11215,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="71" spans="1:16" s="1" customFormat="1">
+    <row r="71" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>94</v>
       </c>
@@ -11256,7 +11248,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="72" spans="1:16" s="1" customFormat="1" ht="15.75">
+    <row r="72" spans="1:16" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>97</v>
       </c>
@@ -11289,7 +11281,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and observation code.</v>
       </c>
     </row>
-    <row r="73" spans="1:16" s="1" customFormat="1">
+    <row r="73" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>100</v>
       </c>
@@ -11322,7 +11314,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and category and status</v>
       </c>
     </row>
-    <row r="74" spans="1:16" s="1" customFormat="1">
+    <row r="74" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>101</v>
       </c>
@@ -11355,7 +11347,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `vital-signs`</v>
       </c>
     </row>
-    <row r="75" spans="1:16" s="1" customFormat="1">
+    <row r="75" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>102</v>
       </c>
@@ -11388,7 +11380,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only.</v>
       </c>
     </row>
-    <row r="76" spans="1:16" s="1" customFormat="1">
+    <row r="76" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>103</v>
       </c>
@@ -11421,7 +11413,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `vital-signs`</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>104</v>
       </c>
@@ -11457,7 +11449,7 @@
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
     </row>
-    <row r="78" spans="1:16" s="1" customFormat="1">
+    <row r="78" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>107</v>
       </c>
@@ -11488,7 +11480,7 @@
         <v>Fetches a bundle of all DocumentReference resources for the specified patient and status. See the implementation notes above for how to access the actual document.</v>
       </c>
     </row>
-    <row r="79" spans="1:16" s="1" customFormat="1" ht="20.25" customHeight="1">
+    <row r="79" spans="1:16" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>108</v>
       </c>
@@ -11517,7 +11509,7 @@
         <v>Fetches a bundle of all !DocumentReference resources for the specified patient and period. See the implementation notes above for how to access the actual document.</v>
       </c>
     </row>
-    <row r="80" spans="1:16" s="1" customFormat="1">
+    <row r="80" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>109</v>
       </c>
@@ -11550,7 +11542,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1">
+    <row r="81" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>110</v>
       </c>
@@ -11583,7 +11575,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="82" spans="1:10" s="1" customFormat="1">
+    <row r="82" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>111</v>
       </c>
@@ -11613,7 +11605,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="83" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1">
+    <row r="83" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>112</v>
       </c>
@@ -11644,7 +11636,7 @@
         <v>Fetches a bundle of all DocumentReference resources for the specified patient and type and period. See the implementation notes above for how to access the actual document.</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="1" customFormat="1">
+    <row r="84" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>115</v>
       </c>

--- a/source/source_spreadsheets/uscore-server.xlsx
+++ b/source/source_spreadsheets/uscore-server.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core-R4/source/source_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACA7110-F7ED-2847-B180-699BF1AF5775}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0474FA3A-B8F8-044B-80A9-84BBCAE596CE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1239,9 +1239,6 @@
     <t>GET [base]/Observation?patient=1134281&amp;code=http://loinc.org\|2339-0~GET [base]/Observation?patient=1134281&amp;code=http://loinc.org\|2339-0,http://loinc.org\|25428-4,2514-8</t>
   </si>
   <si>
-    <t>GET [base]/Condition?patient=1032702&amp;category=http://terminology.hl7.org/CodeSystem/condition-category\|problem~GET [base]/Condition?patient=1032702&amp;category=http://terminology.hl7.org/CodeSystem/condition-category\|health-concern~GET [base]/Condition?patient=1032702&amp;category=http://terminology.hl7.org/CodeSystem/condition-category\|encounter-diagnosis</t>
-  </si>
-  <si>
     <t>GET [base]/Encounter/12354~GET [base]/Encounter?_id=12354</t>
   </si>
   <si>
@@ -1727,6 +1724,9 @@
   </si>
   <si>
     <t>doc_Observation</t>
+  </si>
+  <si>
+    <t>GET [base]/Condition?patient=1032702&amp;category=http://terminology.hl7.org/CodeSystem/condition-category\|problem-list-item~GET [base]/Condition?patient=1032702&amp;category=http://terminology.hl7.org/CodeSystem/condition-category\|health-concern~GET [base]/Condition?patient=1032702&amp;category=http://terminology.hl7.org/CodeSystem/condition-category\|encounter-diagnosis</t>
   </si>
 </sst>
 </file>
@@ -2233,7 +2233,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
@@ -2241,7 +2241,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2249,7 +2249,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -2265,7 +2265,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2273,7 +2273,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -2336,10 +2336,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B2" t="s">
         <v>373</v>
-      </c>
-      <c r="B2" t="s">
-        <v>374</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -2351,10 +2351,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B3" t="s">
         <v>375</v>
-      </c>
-      <c r="B3" t="s">
-        <v>376</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -2366,10 +2366,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
@@ -2381,10 +2381,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -2399,7 +2399,7 @@
         <v>83</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -2411,10 +2411,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -2429,7 +2429,7 @@
         <v>302</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
@@ -2441,10 +2441,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>13</v>
@@ -2456,10 +2456,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>385</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>13</v>
@@ -2471,10 +2471,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>13</v>
@@ -2486,10 +2486,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
@@ -2501,10 +2501,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>390</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>13</v>
@@ -2516,10 +2516,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
@@ -2531,10 +2531,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>392</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>13</v>
@@ -2546,25 +2546,25 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>395</v>
       </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>13</v>
@@ -2579,7 +2579,7 @@
         <v>203</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>13</v>
@@ -2591,10 +2591,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>398</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>13</v>
@@ -2609,7 +2609,7 @@
         <v>255</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>13</v>
@@ -2621,10 +2621,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>401</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>13</v>
@@ -2636,10 +2636,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>403</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>13</v>
@@ -2651,10 +2651,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>13</v>
@@ -2666,10 +2666,10 @@
     </row>
     <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>13</v>
@@ -2683,7 +2683,7 @@
         <v>202</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>13</v>
@@ -2698,7 +2698,7 @@
         <v>81</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>13</v>
@@ -2710,16 +2710,16 @@
     </row>
     <row r="27" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>506</v>
-      </c>
       <c r="C27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -2772,49 +2772,49 @@
         <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F1" t="s">
         <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H1" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>450</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>451</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>348</v>
@@ -2823,10 +2823,10 @@
         <v>349</v>
       </c>
       <c r="V1" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>437</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>438</v>
       </c>
       <c r="X1" t="s">
         <v>20</v>
@@ -2866,7 +2866,7 @@
         <v>78</v>
       </c>
       <c r="W3" s="18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="16" x14ac:dyDescent="0.25">
@@ -2883,7 +2883,7 @@
         <v>78</v>
       </c>
       <c r="W4" s="18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="16" x14ac:dyDescent="0.25">
@@ -2900,7 +2900,7 @@
         <v>78</v>
       </c>
       <c r="W5" s="18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="X5" t="s">
         <v>26</v>
@@ -2920,7 +2920,7 @@
         <v>78</v>
       </c>
       <c r="W6" s="18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="16" x14ac:dyDescent="0.25">
@@ -2937,7 +2937,7 @@
         <v>78</v>
       </c>
       <c r="W7" s="18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="65" x14ac:dyDescent="0.25">
@@ -2948,7 +2948,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>21</v>
@@ -2957,7 +2957,7 @@
         <v>78</v>
       </c>
       <c r="W8" s="18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="16" x14ac:dyDescent="0.25">
@@ -2974,7 +2974,7 @@
         <v>78</v>
       </c>
       <c r="W9" s="18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="16" x14ac:dyDescent="0.25">
@@ -2991,7 +2991,7 @@
         <v>78</v>
       </c>
       <c r="W10" s="18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="16" x14ac:dyDescent="0.25">
@@ -3008,7 +3008,7 @@
         <v>78</v>
       </c>
       <c r="W11" s="18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="16" x14ac:dyDescent="0.25">
@@ -3025,18 +3025,18 @@
         <v>78</v>
       </c>
       <c r="W12" s="18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="81" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>21</v>
@@ -3045,7 +3045,7 @@
         <v>78</v>
       </c>
       <c r="W13" s="18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="289" x14ac:dyDescent="0.25">
@@ -3056,7 +3056,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>21</v>
@@ -3068,18 +3068,18 @@
         <v>224</v>
       </c>
       <c r="W14" s="18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="289" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>21</v>
@@ -3088,10 +3088,10 @@
         <v>78</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="W15" s="18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="16" x14ac:dyDescent="0.25">
@@ -3108,7 +3108,7 @@
         <v>78</v>
       </c>
       <c r="W16" s="18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="16" x14ac:dyDescent="0.25">
@@ -3125,7 +3125,7 @@
         <v>78</v>
       </c>
       <c r="W17" s="18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="16" x14ac:dyDescent="0.25">
@@ -3142,7 +3142,7 @@
         <v>78</v>
       </c>
       <c r="W18" s="18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="16" x14ac:dyDescent="0.25">
@@ -3159,7 +3159,7 @@
         <v>78</v>
       </c>
       <c r="W19" s="18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="16" x14ac:dyDescent="0.25">
@@ -3179,7 +3179,7 @@
         <v>300</v>
       </c>
       <c r="W20" s="18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="16" x14ac:dyDescent="0.25">
@@ -3196,18 +3196,18 @@
         <v>78</v>
       </c>
       <c r="W21" s="18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="80" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>502</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>504</v>
       </c>
       <c r="R22" s="1" t="s">
         <v>21</v>
@@ -3218,7 +3218,7 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>78</v>
@@ -3283,10 +3283,10 @@
     </row>
     <row r="2" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>191</v>
@@ -3295,24 +3295,24 @@
         <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B3" t="s">
         <v>512</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>513</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>514</v>
-      </c>
-      <c r="D3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3352,76 +3352,76 @@
         <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" t="s">
         <v>427</v>
       </c>
-      <c r="W1" t="s">
-        <v>428</v>
-      </c>
       <c r="X1" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="64" x14ac:dyDescent="0.2">
@@ -3444,7 +3444,7 @@
         <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -4066,12 +4066,12 @@
         <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>34</v>
@@ -4080,7 +4080,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>34</v>
@@ -4089,7 +4089,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>34</v>
@@ -4098,7 +4098,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>34</v>
@@ -4904,7 +4904,7 @@
         <v>227</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AA14" s="2" t="s">
         <v>183</v>
@@ -5271,7 +5271,7 @@
         <v>84</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AB21" s="1" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B21)&amp;"-"&amp;SUBSTITUTE(C21,"_","")&amp;".html")</f>
@@ -6215,7 +6215,7 @@
         <v>314</v>
       </c>
       <c r="Z40" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AA40" s="2" t="s">
         <v>315</v>
@@ -6924,7 +6924,7 @@
         <v>193</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>34</v>
@@ -7031,7 +7031,7 @@
         <v>194</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>34</v>
@@ -7132,7 +7132,7 @@
         <v>194</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>34</v>
@@ -7234,7 +7234,7 @@
         <v>56</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>68</v>
@@ -7287,7 +7287,7 @@
         <v>57</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>99</v>
@@ -7329,7 +7329,7 @@
         <v>230</v>
       </c>
       <c r="Z61" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AA61" s="12" t="str">
         <f>"Fetches a bundle of all "&amp;B61&amp; " resources for the specified patient. Mandatory for client to support the _include parameter. Optional for server to support the _include parameter."</f>
@@ -7345,7 +7345,7 @@
         <v>58</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>247</v>
@@ -8995,7 +8995,7 @@
         <v>354</v>
       </c>
       <c r="Z92" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AA92" s="12" t="str">
         <f>"Fetches a bundle containing any "&amp;B92&amp;" resources matching the identifier"</f>
@@ -9052,7 +9052,7 @@
         <v>355</v>
       </c>
       <c r="Z93" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AA93" s="12" t="str">
         <f>"Fetches a bundle containing  "&amp;B93&amp;" resources matching the specialty"</f>
@@ -9112,7 +9112,7 @@
         <v>301</v>
       </c>
       <c r="Z94" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AA94" s="12" t="str">
         <f>"Fetches a bundle containing  "&amp;B94&amp;" resources matching the chained parameter practitioner.name or practitioner.identifier. SHOULD support the _include for PractionerRole.practitioner and PractitionerRole.endpoint."</f>
@@ -9138,11 +9138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G34" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="J8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10086,7 +10083,7 @@
         <v>160</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>365</v>
+        <v>520</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>156</v>
@@ -10179,7 +10176,7 @@
         <v>356</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -10593,7 +10590,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>78</v>
@@ -10605,7 +10602,7 @@
         <v>223</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J51" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B51&amp;" resources for the specified "&amp;SUBSTITUTE(D51,","," and ")</f>
@@ -10624,7 +10621,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>13</v>
@@ -10633,16 +10630,16 @@
         <v>116</v>
       </c>
       <c r="G52" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="H52" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="H52" s="5" t="s">
+      <c r="I52" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="I52" s="5" t="s">
+      <c r="J52" s="5" t="s">
         <v>489</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -10657,7 +10654,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>13</v>
@@ -10666,16 +10663,16 @@
         <v>116</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>199</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="54" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -10690,7 +10687,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>78</v>
@@ -10699,16 +10696,16 @@
         <v>116</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>199</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="55" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -10723,7 +10720,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>78</v>
@@ -10732,16 +10729,16 @@
         <v>234</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>249</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="56" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -10749,7 +10746,7 @@
         <v>73</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C56" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10768,7 +10765,7 @@
         <v>201</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J56" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B56&amp;" resources for the specified "&amp;SUBSTITUTE(D56,","," and ")</f>
@@ -10780,7 +10777,7 @@
         <v>74</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C57" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10799,7 +10796,7 @@
         <v>250</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J57" s="5" t="s">
         <v>252</v>
@@ -10906,7 +10903,7 @@
         <v>196</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>256</v>
@@ -10918,13 +10915,13 @@
         <v>116</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>307</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J61" s="5" t="s">
         <v>352</v>
@@ -10938,7 +10935,7 @@
         <v>196</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>155</v>
@@ -10950,13 +10947,13 @@
         <v>116</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>238</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J62" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B62&amp;" resources for the specified patient and a category code = `laboratory`"</f>
@@ -10971,7 +10968,7 @@
         <v>196</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>157</v>
@@ -11001,7 +10998,7 @@
         <v>196</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>208</v>
@@ -11013,13 +11010,13 @@
         <v>234</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>243</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J64" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B64&amp;" resources for the specified patient and date and a category code = `laboratory`"</f>
@@ -11034,7 +11031,7 @@
         <v>196</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>235</v>
@@ -11064,7 +11061,7 @@
         <v>351</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>126</v>
@@ -11145,7 +11142,7 @@
         <v>260</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J68" s="5" t="s">
         <v>264</v>
@@ -11209,7 +11206,7 @@
         <v>259</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J70" s="5" t="s">
         <v>266</v>
@@ -11301,13 +11298,13 @@
         <v>116</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>306</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J73" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B73&amp;" resources for the specified "&amp;SUBSTITUTE(D73,","," and ")</f>
@@ -11334,13 +11331,13 @@
         <v>116</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H74" s="5" t="s">
         <v>305</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J74" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B74&amp;" resources for the specified patient and a category code = `vital-signs`"</f>
@@ -11367,7 +11364,7 @@
         <v>116</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H75" s="5" t="s">
         <v>308</v>
@@ -11400,13 +11397,13 @@
         <v>234</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H76" s="5" t="s">
         <v>311</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J76" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B76&amp;" resources for the specified patient and date and a category code = `vital-signs`"</f>
@@ -11599,7 +11596,7 @@
         <v>329</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J82" s="5" t="s">
         <v>326</v>
@@ -11629,7 +11626,7 @@
         <v>330</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J83" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B83&amp;" resources for the specified "&amp;SUBSTITUTE(D83,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
@@ -11644,7 +11641,7 @@
         <v>271</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>128</v>
@@ -11656,13 +11653,13 @@
         <v>116</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I84" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="J84" s="5" t="s">
         <v>433</v>
-      </c>
-      <c r="J84" s="5" t="s">
-        <v>434</v>
       </c>
     </row>
   </sheetData>

--- a/source/source_spreadsheets/uscore-server.xlsx
+++ b/source/source_spreadsheets/uscore-server.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core-R4/source/source_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0474FA3A-B8F8-044B-80A9-84BBCAE596CE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D0E051-1C7E-234A-AD50-63EA1F68303F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1726,7 +1726,7 @@
     <t>doc_Observation</t>
   </si>
   <si>
-    <t>GET [base]/Condition?patient=1032702&amp;category=http://terminology.hl7.org/CodeSystem/condition-category\|problem-list-item~GET [base]/Condition?patient=1032702&amp;category=http://terminology.hl7.org/CodeSystem/condition-category\|health-concern~GET [base]/Condition?patient=1032702&amp;category=http://terminology.hl7.org/CodeSystem/condition-category\|encounter-diagnosis</t>
+    <t>GET [base]/Condition?patient=1032702&amp;category=http://terminology.hl7.org/CodeSystem/condition-category\|problem-list-item~GET [base]/Condition?patient=1032702&amp;category=http://hl7.org/fhir/us/core/CodeSystem/condition-category\|health-concern~GET [base]/Condition?patient=1032702&amp;category=http://terminology.hl7.org/CodeSystem/condition-category\|encounter-diagnosis</t>
   </si>
 </sst>
 </file>
@@ -9138,8 +9138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="H8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/source/source_spreadsheets/uscore-server.xlsx
+++ b/source/source_spreadsheets/uscore-server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core-R4/source/source_spreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\US-Core-R4\source\source_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D0E051-1C7E-234A-AD50-63EA1F68303F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA642FBC-6171-43B7-A000-1AA5B9696DF7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-465" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -1506,9 +1506,6 @@
     <t>GET [base]/MedicationStatement?patient=1137192&amp;status=active~GET [base]/MedicationStatement?patient=1137192&amp;status=active&amp;_include=MedicationStatement:medication</t>
   </si>
   <si>
-    <t>GET [base]/MedicationRequest?patient=1137192&amp;effective=ge2019~GET [base]/MedicationStatement?patient=1137192&amp;effective=ge2019&amp;_include=MedicationRequest:medication</t>
-  </si>
-  <si>
     <t>GET [base]/MedicationStatement?patient=1137192&amp;date=ge2019~GET [base]/MedicationRequest?patient=1137192&amp;date=ge2019&amp;_include=MedicationStatement:medication</t>
   </si>
   <si>
@@ -1728,12 +1725,15 @@
   <si>
     <t>GET [base]/Condition?patient=1032702&amp;category=http://terminology.hl7.org/CodeSystem/condition-category\|problem-list-item~GET [base]/Condition?patient=1032702&amp;category=http://hl7.org/fhir/us/core/CodeSystem/condition-category\|health-concern~GET [base]/Condition?patient=1032702&amp;category=http://terminology.hl7.org/CodeSystem/condition-category\|encounter-diagnosis</t>
   </si>
+  <si>
+    <t>GET [base]/MedicationRequest?patient=1137192&amp;authoredon=ge2019~GET [base]/MedicationRequest?patient=1137192&amp;authoredon=ge2019&amp;_include=MedicationRequest:medication</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2214,13 +2214,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="95.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="95.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="105" customHeight="1">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2244,15 +2244,15 @@
         <v>441</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2260,20 +2260,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="351.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="351.75" customHeight="1">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="103.5" customHeight="1">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -2289,9 +2289,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -2312,15 +2312,15 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="94" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>372</v>
       </c>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>374</v>
       </c>
@@ -2364,12 +2364,12 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>376</v>
       </c>
@@ -2394,7 +2394,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>83</v>
       </c>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>378</v>
       </c>
@@ -2424,7 +2424,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>302</v>
       </c>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>381</v>
       </c>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>383</v>
       </c>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>385</v>
       </c>
@@ -2484,7 +2484,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>387</v>
       </c>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>388</v>
       </c>
@@ -2514,12 +2514,12 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>390</v>
       </c>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>392</v>
       </c>
@@ -2559,12 +2559,12 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>13</v>
@@ -2574,7 +2574,7 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>203</v>
       </c>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>396</v>
       </c>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>255</v>
       </c>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>399</v>
       </c>
@@ -2634,7 +2634,7 @@
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>401</v>
       </c>
@@ -2649,12 +2649,12 @@
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>13</v>
@@ -2664,12 +2664,12 @@
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" s="1" customFormat="1">
       <c r="A24" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>13</v>
@@ -2678,7 +2678,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>202</v>
       </c>
@@ -2693,7 +2693,7 @@
       </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>81</v>
       </c>
@@ -2708,21 +2708,21 @@
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15.75" thickBot="1">
       <c r="A27" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>505</v>
-      </c>
       <c r="C27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1">
       <c r="A28" s="17"/>
     </row>
   </sheetData>
@@ -2743,22 +2743,22 @@
       <selection pane="bottomRight" activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="12" width="17.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.5" style="1" customWidth="1"/>
-    <col min="14" max="17" width="17.5" style="1" customWidth="1"/>
-    <col min="18" max="19" width="20.5" style="1" customWidth="1"/>
-    <col min="20" max="23" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="27.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="17.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" style="1" customWidth="1"/>
+    <col min="14" max="17" width="17.42578125" style="1" customWidth="1"/>
+    <col min="18" max="19" width="20.42578125" style="1" customWidth="1"/>
+    <col min="20" max="23" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="18" thickBot="1">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="38.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="38.25" customHeight="1" thickTop="1">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24">
       <c r="A3" s="1" t="s">
         <v>253</v>
       </c>
@@ -2866,10 +2866,10 @@
         <v>78</v>
       </c>
       <c r="W3" s="18" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="16" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" s="1" t="s">
         <v>267</v>
       </c>
@@ -2883,10 +2883,10 @@
         <v>78</v>
       </c>
       <c r="W4" s="18" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="16" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" s="1" t="s">
         <v>148</v>
       </c>
@@ -2900,13 +2900,13 @@
         <v>78</v>
       </c>
       <c r="W5" s="18" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="X5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24">
       <c r="A6" s="1" t="s">
         <v>271</v>
       </c>
@@ -2920,10 +2920,10 @@
         <v>78</v>
       </c>
       <c r="W6" s="18" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="16" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" s="1" t="s">
         <v>192</v>
       </c>
@@ -2937,10 +2937,10 @@
         <v>78</v>
       </c>
       <c r="W7" s="18" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="65" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="75">
       <c r="A8" s="1" t="s">
         <v>191</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>21</v>
@@ -2957,10 +2957,10 @@
         <v>78</v>
       </c>
       <c r="W8" s="18" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="16" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -2974,10 +2974,10 @@
         <v>78</v>
       </c>
       <c r="W9" s="18" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="16" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" s="1" t="s">
         <v>193</v>
       </c>
@@ -2991,10 +2991,10 @@
         <v>78</v>
       </c>
       <c r="W10" s="18" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="16" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" s="1" t="s">
         <v>172</v>
       </c>
@@ -3008,10 +3008,10 @@
         <v>78</v>
       </c>
       <c r="W11" s="18" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="16" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" s="1" t="s">
         <v>272</v>
       </c>
@@ -3025,10 +3025,10 @@
         <v>78</v>
       </c>
       <c r="W12" s="18" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="81" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="105">
       <c r="A13" s="1" t="s">
         <v>394</v>
       </c>
@@ -3045,10 +3045,10 @@
         <v>78</v>
       </c>
       <c r="W13" s="18" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="289" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="315">
       <c r="A14" s="1" t="s">
         <v>194</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>21</v>
@@ -3068,18 +3068,18 @@
         <v>224</v>
       </c>
       <c r="W14" s="18" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="289" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="315">
       <c r="A15" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>21</v>
@@ -3091,10 +3091,10 @@
         <v>438</v>
       </c>
       <c r="W15" s="18" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="16" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" s="1" t="s">
         <v>196</v>
       </c>
@@ -3108,10 +3108,10 @@
         <v>78</v>
       </c>
       <c r="W16" s="18" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="16" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" s="1" t="s">
         <v>286</v>
       </c>
@@ -3125,10 +3125,10 @@
         <v>78</v>
       </c>
       <c r="W17" s="18" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" ht="16" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -3142,10 +3142,10 @@
         <v>78</v>
       </c>
       <c r="W18" s="18" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="16" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" s="1" t="s">
         <v>293</v>
       </c>
@@ -3159,10 +3159,10 @@
         <v>78</v>
       </c>
       <c r="W19" s="18" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="16" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" s="1" t="s">
         <v>296</v>
       </c>
@@ -3179,10 +3179,10 @@
         <v>300</v>
       </c>
       <c r="W20" s="18" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="16" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" s="1" t="s">
         <v>195</v>
       </c>
@@ -3196,18 +3196,18 @@
         <v>78</v>
       </c>
       <c r="W21" s="18" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="80" x14ac:dyDescent="0.2">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="90">
       <c r="A22" t="s">
+        <v>501</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>502</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>503</v>
       </c>
       <c r="R22" s="1" t="s">
         <v>21</v>
@@ -3216,26 +3216,26 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23">
       <c r="A24"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23">
       <c r="A25"/>
     </row>
-    <row r="56" spans="20:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="56" spans="20:23" ht="18">
       <c r="T56" s="7"/>
       <c r="V56" s="7"/>
       <c r="W56" s="7"/>
     </row>
-    <row r="59" spans="20:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="59" spans="20:23" ht="18">
       <c r="W59" s="7"/>
     </row>
   </sheetData>
@@ -3256,15 +3256,15 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
     <col min="5" max="5" width="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="135.75" thickBot="1">
       <c r="A2" s="15" t="s">
         <v>407</v>
       </c>
@@ -3295,27 +3295,27 @@
         <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="60">
       <c r="A3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3" t="s">
         <v>511</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>512</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="D3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5">
       <c r="E4" s="2"/>
     </row>
   </sheetData>
@@ -3334,20 +3334,20 @@
       <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="58.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28.1640625" customWidth="1"/>
-    <col min="17" max="17" width="31.33203125" customWidth="1"/>
-    <col min="18" max="18" width="31.33203125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="20.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="58.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" customWidth="1"/>
+    <col min="17" max="17" width="31.28515625" customWidth="1"/>
+    <col min="18" max="18" width="31.28515625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="20.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>412</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>413</v>
@@ -3400,7 +3400,7 @@
         <v>422</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>423</v>
@@ -3418,13 +3418,13 @@
         <v>427</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="64" x14ac:dyDescent="0.2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="75">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -3495,7 +3495,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -4053,12 +4053,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="51.1640625" customWidth="1"/>
+    <col min="3" max="3" width="51.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -4066,39 +4066,39 @@
         <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="59.25" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
         <v>498</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>499</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>34</v>
@@ -4121,35 +4121,35 @@
       <selection pane="bottomRight" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="73.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="36.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="73.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="36.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" style="1" customWidth="1"/>
     <col min="16" max="16" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="49.6640625" style="1" customWidth="1"/>
-    <col min="21" max="22" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="49.7109375" style="1" customWidth="1"/>
+    <col min="21" max="22" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16" style="1" customWidth="1"/>
-    <col min="24" max="24" width="50.83203125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="68.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="90.6640625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="83.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="38.1640625" customWidth="1"/>
+    <col min="24" max="24" width="50.85546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="68.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="90.7109375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="83.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="18.95" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>151</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1" thickTop="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>SearchParameter-us-core-!example category search-category.html</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>SearchParameter-us-core-!example code search-code.html</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>SearchParameter-us-core-!example date search-date.html</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>SearchParameter-us-core-!example patient search-patient.html</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>SearchParameter-us-core-!example status search-status.html</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="18.95" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>SearchParameter-us-core-!patient-address.html</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="18.95" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4597,7 +4597,7 @@
         <v>SearchParameter-us-core-!patient-telecom.html</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="18.95" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>SearchParameter-us-core-allergyintolerance-clinical-status.html</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="18.95" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>SearchParameter-us-core-allergyintolerance-patient.html</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="18.95" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>SearchParameter-us-core-condition-category.html</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="18.95" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>SearchParameter-us-core-condition-clinical-status.html</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="18.95" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>SearchParameter-us-core-condition-patient.html</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="18.95" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>SearchParameter-us-core-encounter-id.html</v>
       </c>
     </row>
-    <row r="15" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>SearchParameter-us-core-encounter-class.html</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" ht="18.95" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>SearchParameter-us-core-encounter-date.html</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" ht="18.95" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>SearchParameter-us-core-encounter-identifier.html</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" ht="18.95" customHeight="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>SearchParameter-us-core-encounter-patient.html</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" ht="18.95" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>SearchParameter-us-core-encounter-status.html</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" ht="18.95" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>SearchParameter-us-core-encounter-type.html</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" ht="18.95" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>SearchParameter-us-core-patient-id.html</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" ht="18.95" customHeight="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>SearchParameter-us-core-patient-birthdate.html</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" ht="18.95" customHeight="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>SearchParameter-us-core-patient-family.html</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" ht="18.95" customHeight="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>SearchParameter-us-core-patient-gender.html</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" ht="18.95" customHeight="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>SearchParameter-us-core-patient-given.html</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" ht="18.95" customHeight="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -5518,7 +5518,7 @@
         <v>SearchParameter-us-core-patient-identifier.html</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" ht="18.95" customHeight="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>SearchParameter-us-core-patient-name.html</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" ht="18.95" customHeight="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>SearchParameter-us-core-!questionnaire-_id.html</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" ht="18.95" customHeight="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>SearchParameter-us-core-!questionnaire-context-type-value.html</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" ht="18.95" customHeight="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>SearchParameter-us-core-!questionnaire-publisher.html</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" ht="18.95" customHeight="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>SearchParameter-us-core-!questionnaire-status.html</v>
       </c>
     </row>
-    <row r="32" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>SearchParameter-us-core-!questionnaire-title.html</v>
       </c>
     </row>
-    <row r="33" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>SearchParameter-us-core-!questionnaire-url.html</v>
       </c>
     </row>
-    <row r="34" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>SearchParameter-us-core-!questionnaire-version.html</v>
       </c>
     </row>
-    <row r="35" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>SearchParameter-us-core-condition-onset-date.html</v>
       </c>
     </row>
-    <row r="36" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>SearchParameter-us-core-condition-code.html</v>
       </c>
     </row>
-    <row r="37" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>SearchParameter-us-core-immunization-patient.html</v>
       </c>
     </row>
-    <row r="38" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>SearchParameter-us-core-immunization-status.html</v>
       </c>
     </row>
-    <row r="39" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>SearchParameter-us-core-immunization-date.html</v>
       </c>
     </row>
-    <row r="40" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>SearchParameter-us-core-documentreference-_id.html</v>
       </c>
     </row>
-    <row r="41" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>SearchParameter-us-core-documentreference-status.html</v>
       </c>
     </row>
-    <row r="42" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>SearchParameter-us-core-documentreference-patient.html</v>
       </c>
     </row>
-    <row r="43" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>SearchParameter-us-core-documentreference-category.html</v>
       </c>
     </row>
-    <row r="44" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>SearchParameter-us-core-documentreference-type.html</v>
       </c>
     </row>
-    <row r="45" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -6488,7 +6488,7 @@
         <v>SearchParameter-us-core-documentreference-date.html</v>
       </c>
     </row>
-    <row r="46" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>SearchParameter-us-core-documentreference-period.html</v>
       </c>
     </row>
-    <row r="47" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>SearchParameter-us-core-diagnosticreport-status.html</v>
       </c>
     </row>
-    <row r="48" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>SearchParameter-us-core-diagnosticreport-patient.html</v>
       </c>
     </row>
-    <row r="49" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>SearchParameter-us-core-diagnosticreport-category.html</v>
       </c>
     </row>
-    <row r="50" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>SearchParameter-us-core-diagnosticreport-code.html</v>
       </c>
     </row>
-    <row r="51" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -6807,7 +6807,7 @@
         <v>SearchParameter-us-core-diagnosticreport-date.html</v>
       </c>
     </row>
-    <row r="52" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>SearchParameter-us-core-goal-lifecycle-status.html</v>
       </c>
     </row>
-    <row r="53" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>SearchParameter-us-core-goal-patient.html</v>
       </c>
     </row>
-    <row r="54" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>193</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>34</v>
@@ -6970,7 +6970,7 @@
         <v>SearchParameter-us-core-goal-target-date.html</v>
       </c>
     </row>
-    <row r="55" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>SearchParameter-us-core-medicationrequest-status.html</v>
       </c>
     </row>
-    <row r="56" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -7031,7 +7031,7 @@
         <v>194</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>34</v>
@@ -7073,7 +7073,7 @@
         <v>SearchParameter-us-core-medicationrequest-intent.html</v>
       </c>
     </row>
-    <row r="57" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -7124,7 +7124,7 @@
         <v>SearchParameter-us-core-medicationrequest-patient.html</v>
       </c>
     </row>
-    <row r="58" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A58" s="1">
         <v>54</v>
       </c>
@@ -7132,7 +7132,7 @@
         <v>194</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>34</v>
@@ -7175,7 +7175,7 @@
         <v>SearchParameter-us-core-medicationrequest-encounter.html</v>
       </c>
     </row>
-    <row r="59" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A59" s="1">
         <v>55</v>
       </c>
@@ -7229,12 +7229,12 @@
         <v>SearchParameter-us-core-medicationrequest-authoredon.html</v>
       </c>
     </row>
-    <row r="60" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A60" s="1">
         <v>56</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>68</v>
@@ -7282,12 +7282,12 @@
         <v>SearchParameter-us-core-!medicationstatement-status.html</v>
       </c>
     </row>
-    <row r="61" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A61" s="1">
         <v>57</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>99</v>
@@ -7340,12 +7340,12 @@
         <v>SearchParameter-us-core-!medicationstatement-patient.html</v>
       </c>
     </row>
-    <row r="62" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A62" s="1">
         <v>58</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>247</v>
@@ -7394,7 +7394,7 @@
         <v>SearchParameter-us-core-!medicationstatement-effective.html</v>
       </c>
     </row>
-    <row r="63" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A63" s="1">
         <v>59</v>
       </c>
@@ -7447,7 +7447,7 @@
         <v>SearchParameter-us-core-procedure-status.html</v>
       </c>
     </row>
-    <row r="64" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A64" s="1">
         <v>60</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>SearchParameter-us-core-procedure-patient.html</v>
       </c>
     </row>
-    <row r="65" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A65" s="1">
         <v>61</v>
       </c>
@@ -7559,7 +7559,7 @@
         <v>SearchParameter-us-core-procedure-date.html</v>
       </c>
     </row>
-    <row r="66" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A66" s="1">
         <v>62</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>SearchParameter-us-core-procedure-code.html</v>
       </c>
     </row>
-    <row r="67" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A67" s="1">
         <v>63</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>SearchParameter-us-core-observation-status.html</v>
       </c>
     </row>
-    <row r="68" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A68" s="1">
         <v>64</v>
       </c>
@@ -7712,7 +7712,7 @@
         <v>SearchParameter-us-core-observation-category.html</v>
       </c>
     </row>
-    <row r="69" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A69" s="1">
         <v>65</v>
       </c>
@@ -7762,7 +7762,7 @@
         <v>SearchParameter-us-core-observation-code.html</v>
       </c>
     </row>
-    <row r="70" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A70" s="1">
         <v>66</v>
       </c>
@@ -7816,7 +7816,7 @@
         <v>SearchParameter-us-core-observation-date.html</v>
       </c>
     </row>
-    <row r="71" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A71" s="1">
         <v>67</v>
       </c>
@@ -7875,7 +7875,7 @@
         <v>SearchParameter-us-core-observation-patient.html</v>
       </c>
     </row>
-    <row r="72" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A72" s="1">
         <v>68</v>
       </c>
@@ -7925,7 +7925,7 @@
         <v>SearchParameter-us-core-careplan-category.html</v>
       </c>
     </row>
-    <row r="73" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A73" s="1">
         <v>69</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>SearchParameter-us-core-!careplan-code.html</v>
       </c>
     </row>
-    <row r="74" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A74" s="1">
         <v>70</v>
       </c>
@@ -8026,7 +8026,7 @@
         <v>SearchParameter-us-core-careplan-date.html</v>
       </c>
     </row>
-    <row r="75" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A75" s="1">
         <v>71</v>
       </c>
@@ -8085,7 +8085,7 @@
         <v>SearchParameter-us-core-careplan-patient.html</v>
       </c>
     </row>
-    <row r="76" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A76" s="1">
         <v>72</v>
       </c>
@@ -8138,7 +8138,7 @@
         <v>SearchParameter-us-core-careplan-status.html</v>
       </c>
     </row>
-    <row r="77" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A77" s="1">
         <v>73</v>
       </c>
@@ -8197,7 +8197,7 @@
         <v>SearchParameter-us-core-careteam-patient.html</v>
       </c>
     </row>
-    <row r="78" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A78" s="1">
         <v>74</v>
       </c>
@@ -8250,7 +8250,7 @@
         <v>SearchParameter-us-core-careteam-status.html</v>
       </c>
     </row>
-    <row r="79" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A79" s="1">
         <v>75</v>
       </c>
@@ -8309,7 +8309,7 @@
         <v>SearchParameter-us-core-device-patient.html</v>
       </c>
     </row>
-    <row r="80" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A80" s="1">
         <v>76</v>
       </c>
@@ -8355,7 +8355,7 @@
         <v>SearchParameter-us-core-device-type.html</v>
       </c>
     </row>
-    <row r="81" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:28" ht="18.95" customHeight="1">
       <c r="A81" s="1">
         <v>77</v>
       </c>
@@ -8409,7 +8409,7 @@
         <v>SearchParameter-us-core-location-name.html</v>
       </c>
     </row>
-    <row r="82" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:28" ht="18.95" customHeight="1">
       <c r="A82" s="1">
         <v>78</v>
       </c>
@@ -8463,7 +8463,7 @@
         <v>SearchParameter-us-core-location-address.html</v>
       </c>
     </row>
-    <row r="83" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:28" ht="18.95" customHeight="1">
       <c r="A83" s="1">
         <v>79</v>
       </c>
@@ -8517,7 +8517,7 @@
         <v>SearchParameter-us-core-location-address-city.html</v>
       </c>
     </row>
-    <row r="84" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:28" ht="18.95" customHeight="1">
       <c r="A84" s="1">
         <v>80</v>
       </c>
@@ -8571,7 +8571,7 @@
         <v>SearchParameter-us-core-location-address-state.html</v>
       </c>
     </row>
-    <row r="85" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:28" ht="18.95" customHeight="1">
       <c r="A85" s="1">
         <v>81</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>SearchParameter-us-core-location-address-postalcode.html</v>
       </c>
     </row>
-    <row r="86" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A86" s="1">
         <v>82</v>
       </c>
@@ -8679,7 +8679,7 @@
         <v>SearchParameter-us-core-organization-name.html</v>
       </c>
     </row>
-    <row r="87" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A87" s="1">
         <v>83</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>SearchParameter-us-core-organization-address.html</v>
       </c>
     </row>
-    <row r="88" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A88" s="1">
         <v>84</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>SearchParameter-us-core-!organization-address-city.html</v>
       </c>
     </row>
-    <row r="89" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A89" s="1">
         <v>85</v>
       </c>
@@ -8841,7 +8841,7 @@
         <v>SearchParameter-us-core-!organization-adress-state.html</v>
       </c>
     </row>
-    <row r="90" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A90" s="1">
         <v>86</v>
       </c>
@@ -8895,7 +8895,7 @@
         <v>SearchParameter-us-core-!organization-address-postalcode.html</v>
       </c>
     </row>
-    <row r="91" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A91" s="1">
         <v>87</v>
       </c>
@@ -8952,7 +8952,7 @@
         <v>SearchParameter-us-core-practitioner-name.html</v>
       </c>
     </row>
-    <row r="92" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A92" s="1">
         <v>88</v>
       </c>
@@ -9006,7 +9006,7 @@
         <v>SearchParameter-us-core-practitioner-identifier.html</v>
       </c>
     </row>
-    <row r="93" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A93" s="1">
         <v>89</v>
       </c>
@@ -9063,7 +9063,7 @@
         <v>SearchParameter-us-core-practitionerrole-specialty.html</v>
       </c>
     </row>
-    <row r="94" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:28" ht="18.95" customHeight="1">
       <c r="A94" s="1">
         <v>90</v>
       </c>
@@ -9138,25 +9138,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="H37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="96.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="88.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="82.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="21.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="96.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="88.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="82.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>153</v>
       </c>
@@ -9188,7 +9188,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" thickTop="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -9213,7 +9213,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -9238,7 +9238,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and patient</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -9263,7 +9263,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and patient and type</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -9288,7 +9288,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and type</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -9319,7 +9319,7 @@
         <v>Fetches a bundle of all Encounter resources matching the specified class and patient</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -9344,7 +9344,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and status</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -9369,7 +9369,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and status and type</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -9395,7 +9395,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and type</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and status</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -9448,7 +9448,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and status and type</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -9473,7 +9473,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and type</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -9504,7 +9504,7 @@
         <v>Fetches a bundle of all Encounter resources matching the specified date and patient</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" s="1" customFormat="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -9529,7 +9529,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified date and patient and type</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" s="1" customFormat="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -9554,7 +9554,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified date and type</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -9585,7 +9585,7 @@
         <v>Fetches a bundle of all Encounter resources matching the specified patient and type</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -9611,7 +9611,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified patient and status and type</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -9642,7 +9642,7 @@
         <v>Fetches a bundle of all Encounter resources matching the specified patient and status</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" s="1" customFormat="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -9669,7 +9669,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified status and type</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" s="1" customFormat="1">
       <c r="A20" s="1">
         <v>21</v>
       </c>
@@ -9695,7 +9695,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" s="1" customFormat="1">
       <c r="A21" s="1">
         <v>22</v>
       </c>
@@ -9720,7 +9720,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher and status</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>23</v>
       </c>
@@ -9746,7 +9746,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and status</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" s="1" customFormat="1">
       <c r="A23" s="1">
         <v>24</v>
       </c>
@@ -9773,7 +9773,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" s="1" customFormat="1">
       <c r="A24" s="1">
         <v>25</v>
       </c>
@@ -9800,7 +9800,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status and version</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" s="1" customFormat="1">
       <c r="A25" s="1">
         <v>26</v>
       </c>
@@ -9827,7 +9827,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and version</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" s="1" customFormat="1">
       <c r="A26" s="1">
         <v>27</v>
       </c>
@@ -9852,7 +9852,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified status and title and version</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" s="1" customFormat="1">
       <c r="A27" s="1">
         <v>28</v>
       </c>
@@ -9877,7 +9877,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified status and version</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" s="1" customFormat="1">
       <c r="A28" s="1">
         <v>29</v>
       </c>
@@ -9902,7 +9902,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified title and version</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" s="1" customFormat="1">
       <c r="A29" s="1">
         <v>30</v>
       </c>
@@ -9933,7 +9933,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified birthdate and family</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" s="1" customFormat="1">
       <c r="A30" s="1">
         <v>31</v>
       </c>
@@ -9964,7 +9964,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified birthdate and name</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" s="1" customFormat="1">
       <c r="A31" s="1">
         <v>32</v>
       </c>
@@ -9995,7 +9995,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified family and gender</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" s="1" customFormat="1">
       <c r="A32" s="1">
         <v>33</v>
       </c>
@@ -10026,7 +10026,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified gender and name</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" s="1" customFormat="1">
       <c r="A33" s="1">
         <v>36</v>
       </c>
@@ -10059,7 +10059,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" s="1" customFormat="1">
       <c r="A34" s="1">
         <v>37</v>
       </c>
@@ -10083,13 +10083,13 @@
         <v>160</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" s="1" customFormat="1">
       <c r="A35" s="1">
         <v>38</v>
       </c>
@@ -10119,7 +10119,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" s="1" customFormat="1">
       <c r="A36" s="1">
         <v>39</v>
       </c>
@@ -10149,7 +10149,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" s="1" customFormat="1">
       <c r="A37" s="1">
         <v>42</v>
       </c>
@@ -10176,10 +10176,10 @@
         <v>356</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="1" customFormat="1">
       <c r="A38" s="1">
         <v>45</v>
       </c>
@@ -10210,7 +10210,7 @@
         <v>Fetches a bundle of all Immunization resources for the specified patient and date</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" s="1" customFormat="1">
       <c r="A39" s="1">
         <v>46</v>
       </c>
@@ -10241,7 +10241,7 @@
         <v>Fetches a bundle of all Immunization resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" s="1" customFormat="1">
       <c r="A40" s="1">
         <v>49</v>
       </c>
@@ -10271,7 +10271,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" s="1" customFormat="1" ht="15.75">
       <c r="A41" s="1">
         <v>50</v>
       </c>
@@ -10304,7 +10304,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code = `LAB`</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" s="1" customFormat="1" ht="15.75">
       <c r="A42" s="1">
         <v>51</v>
       </c>
@@ -10334,7 +10334,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" s="1" customFormat="1" ht="15.75">
       <c r="A43" s="1">
         <v>52</v>
       </c>
@@ -10367,7 +10367,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code = `LAB`</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" s="1" customFormat="1">
       <c r="A44" s="1">
         <v>53</v>
       </c>
@@ -10397,7 +10397,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" s="1" customFormat="1">
       <c r="A45" s="1">
         <v>56</v>
       </c>
@@ -10427,7 +10427,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" s="1" customFormat="1">
       <c r="A46" s="1">
         <v>57</v>
       </c>
@@ -10457,7 +10457,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code specified in US Core DiagnosticReport Category Codes</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" s="1" customFormat="1">
       <c r="A47" s="1">
         <v>58</v>
       </c>
@@ -10487,7 +10487,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" s="1" customFormat="1">
       <c r="A48" s="1">
         <v>59</v>
       </c>
@@ -10517,7 +10517,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" s="1" customFormat="1">
       <c r="A49" s="1">
         <v>60</v>
       </c>
@@ -10547,7 +10547,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" s="1" customFormat="1">
       <c r="A50" s="1">
         <v>63</v>
       </c>
@@ -10578,7 +10578,7 @@
         <v>Fetches a bundle of all Goal resources for the specified patient and lifecycle-status</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" s="1" customFormat="1">
       <c r="A51" s="1">
         <v>64</v>
       </c>
@@ -10590,7 +10590,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>78</v>
@@ -10602,14 +10602,14 @@
         <v>223</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J51" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B51&amp;" resources for the specified "&amp;SUBSTITUTE(D51,","," and ")</f>
         <v>Fetches a bundle of all Goal resources for the specified patient and target-date</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" s="1" customFormat="1">
       <c r="A52" s="1">
         <v>67</v>
       </c>
@@ -10621,7 +10621,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>13</v>
@@ -10630,19 +10630,19 @@
         <v>116</v>
       </c>
       <c r="G52" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="H52" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="H52" s="5" t="s">
+      <c r="I52" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="I52" s="5" t="s">
+      <c r="J52" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="J52" s="5" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:10" s="1" customFormat="1">
       <c r="A53" s="1">
         <v>68</v>
       </c>
@@ -10654,7 +10654,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>13</v>
@@ -10663,7 +10663,7 @@
         <v>116</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>199</v>
@@ -10672,10 +10672,10 @@
         <v>452</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="1" customFormat="1">
       <c r="A54" s="1">
         <v>69</v>
       </c>
@@ -10687,7 +10687,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>78</v>
@@ -10696,7 +10696,7 @@
         <v>116</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>199</v>
@@ -10705,10 +10705,10 @@
         <v>452</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="1" customFormat="1">
       <c r="A55" s="1">
         <v>70</v>
       </c>
@@ -10720,7 +10720,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>78</v>
@@ -10729,24 +10729,24 @@
         <v>234</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>249</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>454</v>
+        <v>520</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="1" customFormat="1">
       <c r="A56" s="1">
         <v>73</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C56" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10772,12 +10772,12 @@
         <v>Fetches a bundle of all !MedicationStatement resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" s="1" customFormat="1">
       <c r="A57" s="1">
         <v>74</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C57" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10796,13 +10796,13 @@
         <v>250</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J57" s="5" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" s="1" customFormat="1">
       <c r="A58" s="1">
         <v>75</v>
       </c>
@@ -10833,7 +10833,7 @@
         <v>Fetches a bundle of all Procedure resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" s="1" customFormat="1">
       <c r="A59" s="1">
         <v>76</v>
       </c>
@@ -10864,7 +10864,7 @@
         <v>Fetches a bundle of all Procedure resources for the specified patient and date</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" s="1" customFormat="1">
       <c r="A60" s="1">
         <v>77</v>
       </c>
@@ -10895,7 +10895,7 @@
         <v>Fetches a bundle of all Procedure resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes.</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" s="1" customFormat="1">
       <c r="A61" s="1">
         <v>80</v>
       </c>
@@ -10903,7 +10903,7 @@
         <v>196</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>256</v>
@@ -10915,19 +10915,19 @@
         <v>116</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>307</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J61" s="5" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" s="1" customFormat="1">
       <c r="A62" s="1">
         <v>81</v>
       </c>
@@ -10935,7 +10935,7 @@
         <v>196</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>155</v>
@@ -10947,20 +10947,20 @@
         <v>116</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>238</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J62" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B62&amp;" resources for the specified patient and a category code = `laboratory`"</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `laboratory`</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" s="1" customFormat="1">
       <c r="A63" s="1">
         <v>82</v>
       </c>
@@ -10968,7 +10968,7 @@
         <v>196</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>157</v>
@@ -10990,7 +10990,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only.</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" s="1" customFormat="1">
       <c r="A64" s="1">
         <v>83</v>
       </c>
@@ -10998,7 +10998,7 @@
         <v>196</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>208</v>
@@ -11010,20 +11010,20 @@
         <v>234</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>243</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J64" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B64&amp;" resources for the specified patient and date and a category code = `laboratory`"</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `laboratory`</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" s="1" customFormat="1">
       <c r="A65" s="1">
         <v>84</v>
       </c>
@@ -11031,7 +11031,7 @@
         <v>196</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>235</v>
@@ -11053,7 +11053,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="66" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" s="1" customFormat="1">
       <c r="A66" s="1">
         <v>85</v>
       </c>
@@ -11061,7 +11061,7 @@
         <v>351</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>126</v>
@@ -11083,7 +11083,7 @@
         <v>Fetches a bundle of all !Observation resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="67" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" s="1" customFormat="1">
       <c r="A67" s="1">
         <v>88</v>
       </c>
@@ -11116,7 +11116,7 @@
         <v>Fetches a bundle of all CarePlan resources for the specified patient and category=`assess-plan`</v>
       </c>
     </row>
-    <row r="68" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" s="1" customFormat="1">
       <c r="A68" s="1">
         <v>89</v>
       </c>
@@ -11142,13 +11142,13 @@
         <v>260</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J68" s="5" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="69" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" s="1" customFormat="1">
       <c r="A69" s="1">
         <v>90</v>
       </c>
@@ -11180,7 +11180,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="70" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" s="1" customFormat="1">
       <c r="A70" s="1">
         <v>91</v>
       </c>
@@ -11206,13 +11206,13 @@
         <v>259</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J70" s="5" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="71" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" s="1" customFormat="1">
       <c r="A71" s="1">
         <v>94</v>
       </c>
@@ -11245,7 +11245,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="72" spans="1:16" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" s="1" customFormat="1" ht="15.75">
       <c r="A72" s="1">
         <v>97</v>
       </c>
@@ -11278,7 +11278,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and observation code.</v>
       </c>
     </row>
-    <row r="73" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" s="1" customFormat="1">
       <c r="A73" s="1">
         <v>100</v>
       </c>
@@ -11298,20 +11298,20 @@
         <v>116</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>306</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J73" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B73&amp;" resources for the specified "&amp;SUBSTITUTE(D73,","," and ")</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and category and status</v>
       </c>
     </row>
-    <row r="74" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" s="1" customFormat="1">
       <c r="A74" s="1">
         <v>101</v>
       </c>
@@ -11331,20 +11331,20 @@
         <v>116</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H74" s="5" t="s">
         <v>305</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J74" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B74&amp;" resources for the specified patient and a category code = `vital-signs`"</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `vital-signs`</v>
       </c>
     </row>
-    <row r="75" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" s="1" customFormat="1">
       <c r="A75" s="1">
         <v>102</v>
       </c>
@@ -11364,7 +11364,7 @@
         <v>116</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H75" s="5" t="s">
         <v>308</v>
@@ -11377,7 +11377,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only.</v>
       </c>
     </row>
-    <row r="76" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" s="1" customFormat="1">
       <c r="A76" s="1">
         <v>103</v>
       </c>
@@ -11397,20 +11397,20 @@
         <v>234</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H76" s="5" t="s">
         <v>311</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J76" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B76&amp;" resources for the specified patient and date and a category code = `vital-signs`"</f>
         <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `vital-signs`</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16">
       <c r="A77" s="1">
         <v>104</v>
       </c>
@@ -11446,7 +11446,7 @@
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
     </row>
-    <row r="78" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" s="1" customFormat="1">
       <c r="A78" s="1">
         <v>107</v>
       </c>
@@ -11477,7 +11477,7 @@
         <v>Fetches a bundle of all DocumentReference resources for the specified patient and status. See the implementation notes above for how to access the actual document.</v>
       </c>
     </row>
-    <row r="79" spans="1:16" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A79" s="1">
         <v>108</v>
       </c>
@@ -11506,7 +11506,7 @@
         <v>Fetches a bundle of all !DocumentReference resources for the specified patient and period. See the implementation notes above for how to access the actual document.</v>
       </c>
     </row>
-    <row r="80" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" s="1" customFormat="1">
       <c r="A80" s="1">
         <v>109</v>
       </c>
@@ -11539,7 +11539,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A81" s="1">
         <v>110</v>
       </c>
@@ -11572,7 +11572,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="82" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" s="1" customFormat="1">
       <c r="A82" s="1">
         <v>111</v>
       </c>
@@ -11602,7 +11602,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="83" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A83" s="1">
         <v>112</v>
       </c>
@@ -11633,7 +11633,7 @@
         <v>Fetches a bundle of all DocumentReference resources for the specified patient and type and period. See the implementation notes above for how to access the actual document.</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" s="1" customFormat="1">
       <c r="A84" s="1">
         <v>115</v>
       </c>
@@ -11641,7 +11641,7 @@
         <v>271</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>128</v>

--- a/source/source_spreadsheets/uscore-server.xlsx
+++ b/source/source_spreadsheets/uscore-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\US-Core-R4\source\source_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA642FBC-6171-43B7-A000-1AA5B9696DF7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215D7201-681F-4B77-988E-50559920204C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-465" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="522">
   <si>
     <t>Element</t>
   </si>
@@ -1498,9 +1498,6 @@
   </si>
   <si>
     <t>referencePolicy_conf</t>
-  </si>
-  <si>
-    <t>GET [base]/MedicationRequest?patient=1137192&amp;status=active~GET [base]/MedicationRequest?patient=1137192&amp;status=active&amp;_include=MedicationRequest:medication</t>
   </si>
   <si>
     <t>GET [base]/MedicationStatement?patient=1137192&amp;status=active~GET [base]/MedicationStatement?patient=1137192&amp;status=active&amp;_include=MedicationStatement:medication</t>
@@ -1604,13 +1601,7 @@
     <t>patient,intent,encounter</t>
   </si>
   <si>
-    <t>intent=http://hl7.org/fhir/CodeSystem/medicationrequest-intent|order</t>
-  </si>
-  <si>
     <t>support searching for all medications that have been prescribed to a patient. See the [Medication List Guidance] section for guidance on accessing a patient medications. The server application represents the medication using either an inline code or a contained or external reference to the Medication resource.</t>
-  </si>
-  <si>
-    <t>GET [base]/MedicationRequest?patient=14676&amp;intent=http://hl7.org/fhir/CodeSystem/medicationrequest-intent|order~GET [base]/MedicationRequest?patient=14676&amp;intent=http://hl7.org/fhir/CodeSystem/medicationrequest-intent|order&amp;_include=MedicationRequest:medication</t>
   </si>
   <si>
     <t>Fetches a bundle of all MedicationRequest resources for the specified patient and intent code = `order`</t>
@@ -1726,7 +1717,19 @@
     <t>GET [base]/Condition?patient=1032702&amp;category=http://terminology.hl7.org/CodeSystem/condition-category\|problem-list-item~GET [base]/Condition?patient=1032702&amp;category=http://hl7.org/fhir/us/core/CodeSystem/condition-category\|health-concern~GET [base]/Condition?patient=1032702&amp;category=http://terminology.hl7.org/CodeSystem/condition-category\|encounter-diagnosis</t>
   </si>
   <si>
-    <t>GET [base]/MedicationRequest?patient=1137192&amp;authoredon=ge2019~GET [base]/MedicationRequest?patient=1137192&amp;authoredon=ge2019&amp;_include=MedicationRequest:medication</t>
+    <t>intent=order</t>
+  </si>
+  <si>
+    <t>GET [base]/MedicationRequest?patient=14676&amp;intent=order~GET [base]/MedicationRequest?patient=14676&amp;intent=order&amp;_include=MedicationRequest:medication</t>
+  </si>
+  <si>
+    <t>GET [base]/MedicationRequest?patient=1137192&amp;intent=order&amp;status=active~GET [base]/MedicationRequest?patient=1137192&amp;intent=order&amp;status=active&amp;_include=MedicationRequest:medication</t>
+  </si>
+  <si>
+    <t>GET [base]/MedicationRequest?patient=1137192&amp;intent=order&amp;status=active&amp;encounter=Encounter/123~GET [base]/MedicationRequest?patient=1137192&amp;intent=order&amp;status=active&amp;&amp;encounter=Encounter/123&amp;_include=MedicationRequest:medication</t>
+  </si>
+  <si>
+    <t>GET [base]/MedicationRequest?patient=1137192&amp;intent=order&amp;authoredon=ge2019~GET [base]/MedicationRequest?patient=1137192&amp;intent=order&amp;authoredon=ge2019&amp;_include=MedicationRequest:medication</t>
   </si>
 </sst>
 </file>
@@ -2249,7 +2252,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2265,7 +2268,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="103.5" customHeight="1">
@@ -2273,7 +2276,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -2366,10 +2369,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
@@ -2516,10 +2519,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
@@ -2561,10 +2564,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>13</v>
@@ -2651,10 +2654,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>13</v>
@@ -2666,10 +2669,10 @@
     </row>
     <row r="24" spans="1:6" s="1" customFormat="1">
       <c r="A24" s="11" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>13</v>
@@ -2710,16 +2713,16 @@
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1">
       <c r="A27" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1">
@@ -2866,7 +2869,7 @@
         <v>78</v>
       </c>
       <c r="W3" s="18" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -2883,7 +2886,7 @@
         <v>78</v>
       </c>
       <c r="W4" s="18" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -2900,7 +2903,7 @@
         <v>78</v>
       </c>
       <c r="W5" s="18" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="X5" t="s">
         <v>26</v>
@@ -2920,7 +2923,7 @@
         <v>78</v>
       </c>
       <c r="W6" s="18" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -2937,7 +2940,7 @@
         <v>78</v>
       </c>
       <c r="W7" s="18" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="75">
@@ -2948,7 +2951,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>21</v>
@@ -2957,7 +2960,7 @@
         <v>78</v>
       </c>
       <c r="W8" s="18" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -2974,7 +2977,7 @@
         <v>78</v>
       </c>
       <c r="W9" s="18" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -2991,7 +2994,7 @@
         <v>78</v>
       </c>
       <c r="W10" s="18" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -3008,7 +3011,7 @@
         <v>78</v>
       </c>
       <c r="W11" s="18" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -3025,7 +3028,7 @@
         <v>78</v>
       </c>
       <c r="W12" s="18" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="105">
@@ -3045,7 +3048,7 @@
         <v>78</v>
       </c>
       <c r="W13" s="18" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="315">
@@ -3056,7 +3059,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>21</v>
@@ -3068,18 +3071,18 @@
         <v>224</v>
       </c>
       <c r="W14" s="18" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="315">
       <c r="A15" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>21</v>
@@ -3091,7 +3094,7 @@
         <v>438</v>
       </c>
       <c r="W15" s="18" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -3108,7 +3111,7 @@
         <v>78</v>
       </c>
       <c r="W16" s="18" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -3125,7 +3128,7 @@
         <v>78</v>
       </c>
       <c r="W17" s="18" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -3142,7 +3145,7 @@
         <v>78</v>
       </c>
       <c r="W18" s="18" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -3159,7 +3162,7 @@
         <v>78</v>
       </c>
       <c r="W19" s="18" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -3179,7 +3182,7 @@
         <v>300</v>
       </c>
       <c r="W20" s="18" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -3196,18 +3199,18 @@
         <v>78</v>
       </c>
       <c r="W21" s="18" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="90">
       <c r="A22" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="R22" s="1" t="s">
         <v>21</v>
@@ -3218,7 +3221,7 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>78</v>
@@ -3295,24 +3298,24 @@
         <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="60">
       <c r="A3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C3" t="s">
+        <v>509</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>510</v>
-      </c>
-      <c r="B3" t="s">
-        <v>511</v>
-      </c>
-      <c r="C3" t="s">
-        <v>512</v>
-      </c>
-      <c r="D3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3367,7 +3370,7 @@
         <v>412</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>413</v>
@@ -3400,7 +3403,7 @@
         <v>422</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>423</v>
@@ -3418,10 +3421,10 @@
         <v>427</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="75">
@@ -3444,7 +3447,7 @@
         <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -4066,12 +4069,12 @@
         <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="59.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>34</v>
@@ -4080,7 +4083,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>34</v>
@@ -4089,7 +4092,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>34</v>
@@ -4098,7 +4101,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>34</v>
@@ -6924,7 +6927,7 @@
         <v>193</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>34</v>
@@ -7031,7 +7034,7 @@
         <v>194</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>34</v>
@@ -7132,7 +7135,7 @@
         <v>194</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>34</v>
@@ -7234,7 +7237,7 @@
         <v>56</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>68</v>
@@ -7287,7 +7290,7 @@
         <v>57</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>99</v>
@@ -7345,7 +7348,7 @@
         <v>58</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>247</v>
@@ -9138,8 +9141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" topLeftCell="G37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -10083,7 +10086,7 @@
         <v>160</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>156</v>
@@ -10176,7 +10179,7 @@
         <v>356</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="1" customFormat="1">
@@ -10590,7 +10593,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>78</v>
@@ -10602,7 +10605,7 @@
         <v>223</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J51" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B51&amp;" resources for the specified "&amp;SUBSTITUTE(D51,","," and ")</f>
@@ -10621,7 +10624,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>13</v>
@@ -10630,16 +10633,16 @@
         <v>116</v>
       </c>
       <c r="G52" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="J52" s="5" t="s">
         <v>485</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="1" customFormat="1">
@@ -10654,7 +10657,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>13</v>
@@ -10663,16 +10666,16 @@
         <v>116</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>485</v>
+        <v>517</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>199</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>452</v>
+        <v>519</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="54" spans="1:10" s="1" customFormat="1">
@@ -10687,7 +10690,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>78</v>
@@ -10696,16 +10699,16 @@
         <v>116</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>485</v>
+        <v>517</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>199</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>452</v>
+        <v>520</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="55" spans="1:10" s="1" customFormat="1">
@@ -10720,7 +10723,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>78</v>
@@ -10729,16 +10732,16 @@
         <v>234</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>485</v>
+        <v>517</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>249</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="56" spans="1:10" s="1" customFormat="1">
@@ -10746,7 +10749,7 @@
         <v>73</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C56" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10765,7 +10768,7 @@
         <v>201</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J56" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B56&amp;" resources for the specified "&amp;SUBSTITUTE(D56,","," and ")</f>
@@ -10777,7 +10780,7 @@
         <v>74</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C57" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10796,7 +10799,7 @@
         <v>250</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J57" s="5" t="s">
         <v>252</v>
@@ -10903,7 +10906,7 @@
         <v>196</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>256</v>
@@ -10915,13 +10918,13 @@
         <v>116</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>307</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J61" s="5" t="s">
         <v>352</v>
@@ -10935,7 +10938,7 @@
         <v>196</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>155</v>
@@ -10947,13 +10950,13 @@
         <v>116</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>238</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J62" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B62&amp;" resources for the specified patient and a category code = `laboratory`"</f>
@@ -10968,7 +10971,7 @@
         <v>196</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>157</v>
@@ -10998,7 +11001,7 @@
         <v>196</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>208</v>
@@ -11010,13 +11013,13 @@
         <v>234</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>243</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J64" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B64&amp;" resources for the specified patient and date and a category code = `laboratory`"</f>
@@ -11031,7 +11034,7 @@
         <v>196</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>235</v>
@@ -11061,7 +11064,7 @@
         <v>351</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>126</v>
@@ -11142,7 +11145,7 @@
         <v>260</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J68" s="5" t="s">
         <v>264</v>
@@ -11206,7 +11209,7 @@
         <v>259</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J70" s="5" t="s">
         <v>266</v>
@@ -11298,13 +11301,13 @@
         <v>116</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>306</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J73" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B73&amp;" resources for the specified "&amp;SUBSTITUTE(D73,","," and ")</f>
@@ -11331,13 +11334,13 @@
         <v>116</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H74" s="5" t="s">
         <v>305</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J74" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B74&amp;" resources for the specified patient and a category code = `vital-signs`"</f>
@@ -11364,7 +11367,7 @@
         <v>116</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H75" s="5" t="s">
         <v>308</v>
@@ -11397,13 +11400,13 @@
         <v>234</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H76" s="5" t="s">
         <v>311</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J76" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B76&amp;" resources for the specified patient and date and a category code = `vital-signs`"</f>
@@ -11641,7 +11644,7 @@
         <v>271</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>128</v>

--- a/source/source_spreadsheets/uscore-server.xlsx
+++ b/source/source_spreadsheets/uscore-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\US-Core-R4\source\source_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215D7201-681F-4B77-988E-50559920204C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4071D91A-ED36-49C3-90A5-D9FFFA500783}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-465" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="523">
   <si>
     <t>Element</t>
   </si>
@@ -1730,6 +1730,9 @@
   </si>
   <si>
     <t>GET [base]/MedicationRequest?patient=1137192&amp;intent=order&amp;authoredon=ge2019~GET [base]/MedicationRequest?patient=1137192&amp;intent=order&amp;authoredon=ge2019&amp;_include=MedicationRequest:medication</t>
+  </si>
+  <si>
+    <t>!PractitionerRole</t>
   </si>
 </sst>
 </file>
@@ -4117,11 +4120,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AB94"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="AB38" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="AB68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F48" sqref="F48"/>
+      <selection pane="bottomRight" activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.95" customHeight="1"/>
@@ -9014,7 +9017,7 @@
         <v>89</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>296</v>
+        <v>522</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>297</v>
@@ -9027,7 +9030,7 @@
       </c>
       <c r="F93" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!practitionerrole</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>62</v>
@@ -9040,7 +9043,7 @@
       </c>
       <c r="J93" s="1" t="str">
         <f t="shared" si="37"/>
-        <v>PractitionerRole.specialty</v>
+        <v>!PractitionerRole.specialty</v>
       </c>
       <c r="K93" s="1" t="s">
         <v>62</v>
@@ -9059,11 +9062,11 @@
       </c>
       <c r="AA93" s="12" t="str">
         <f>"Fetches a bundle containing  "&amp;B93&amp;" resources matching the specialty"</f>
-        <v>Fetches a bundle containing  PractitionerRole resources matching the specialty</v>
+        <v>Fetches a bundle containing  !PractitionerRole resources matching the specialty</v>
       </c>
       <c r="AB93" s="1" t="str">
         <f t="shared" ref="AB93" si="41">"SearchParameter-us-core-"&amp;LOWER((B93)&amp;"-"&amp;SUBSTITUTE(C93,"_","")&amp;".html")</f>
-        <v>SearchParameter-us-core-practitionerrole-specialty.html</v>
+        <v>SearchParameter-us-core-!practitionerrole-specialty.html</v>
       </c>
     </row>
     <row r="94" spans="1:28" ht="18.95" customHeight="1">
@@ -9071,7 +9074,7 @@
         <v>90</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>296</v>
+        <v>522</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>298</v>
@@ -9084,7 +9087,7 @@
       </c>
       <c r="F94" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!practitionerrole</v>
       </c>
       <c r="G94" t="s">
         <v>62</v>
@@ -9097,7 +9100,7 @@
       </c>
       <c r="J94" s="1" t="str">
         <f t="shared" si="37"/>
-        <v>PractitionerRole.practitioner</v>
+        <v>!PractitionerRole.practitioner</v>
       </c>
       <c r="K94" s="1" t="s">
         <v>62</v>
@@ -9119,11 +9122,11 @@
       </c>
       <c r="AA94" s="12" t="str">
         <f>"Fetches a bundle containing  "&amp;B94&amp;" resources matching the chained parameter practitioner.name or practitioner.identifier. SHOULD support the _include for PractionerRole.practitioner and PractitionerRole.endpoint."</f>
-        <v>Fetches a bundle containing  PractitionerRole resources matching the chained parameter practitioner.name or practitioner.identifier. SHOULD support the _include for PractionerRole.practitioner and PractitionerRole.endpoint.</v>
+        <v>Fetches a bundle containing  !PractitionerRole resources matching the chained parameter practitioner.name or practitioner.identifier. SHOULD support the _include for PractionerRole.practitioner and PractitionerRole.endpoint.</v>
       </c>
       <c r="AB94" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B94)&amp;"-"&amp;SUBSTITUTE(C94,"_","")&amp;".html")</f>
-        <v>SearchParameter-us-core-practitionerrole-practitioner.html</v>
+        <v>SearchParameter-us-core-!practitionerrole-practitioner.html</v>
       </c>
     </row>
   </sheetData>
@@ -9141,8 +9144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>

--- a/source/source_spreadsheets/uscore-server.xlsx
+++ b/source/source_spreadsheets/uscore-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\US-Core-R4\source\source_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4071D91A-ED36-49C3-90A5-D9FFFA500783}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52561DA9-4AB9-4EA4-8DA4-259B19544840}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-465" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-465" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="522">
   <si>
     <t>Element</t>
   </si>
@@ -1730,9 +1730,6 @@
   </si>
   <si>
     <t>GET [base]/MedicationRequest?patient=1137192&amp;intent=order&amp;authoredon=ge2019~GET [base]/MedicationRequest?patient=1137192&amp;intent=order&amp;authoredon=ge2019&amp;_include=MedicationRequest:medication</t>
-  </si>
-  <si>
-    <t>!PractitionerRole</t>
   </si>
 </sst>
 </file>
@@ -2315,7 +2312,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2742,14 +2739,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W2" sqref="W2"/>
+      <selection pane="bottomRight" activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="25.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="36.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" style="1" customWidth="1"/>
@@ -2764,7 +2761,7 @@
     <col min="24" max="24" width="27.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18" thickBot="1">
+    <row r="1" spans="1:24" ht="25.5" customHeight="1" thickBot="1">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2838,7 +2835,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="38.25" customHeight="1" thickTop="1">
+    <row r="2" spans="1:24" ht="25.5" customHeight="1" thickTop="1">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -2854,11 +2851,15 @@
       <c r="S2" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="V2" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="W2" s="18"/>
       <c r="X2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" ht="25.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>253</v>
       </c>
@@ -2871,11 +2872,12 @@
       <c r="S3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="W3" s="18" t="s">
+      <c r="V3" s="18" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="W3" s="18"/>
+    </row>
+    <row r="4" spans="1:24" ht="25.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>267</v>
       </c>
@@ -2888,11 +2890,12 @@
       <c r="S4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="W4" s="18" t="s">
+      <c r="V4" s="18" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="W4" s="18"/>
+    </row>
+    <row r="5" spans="1:24" ht="25.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>148</v>
       </c>
@@ -2905,14 +2908,15 @@
       <c r="S5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="W5" s="18" t="s">
+      <c r="V5" s="18" t="s">
         <v>514</v>
       </c>
+      <c r="W5" s="18"/>
       <c r="X5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" ht="25.5" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>271</v>
       </c>
@@ -2925,11 +2929,12 @@
       <c r="S6" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="W6" s="18" t="s">
+      <c r="V6" s="18" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="W6" s="18"/>
+    </row>
+    <row r="7" spans="1:24" ht="25.5" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>192</v>
       </c>
@@ -2942,11 +2947,12 @@
       <c r="S7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="W7" s="18" t="s">
+      <c r="V7" s="18" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" ht="75">
+      <c r="W7" s="18"/>
+    </row>
+    <row r="8" spans="1:24" ht="25.5" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>191</v>
       </c>
@@ -2962,11 +2968,12 @@
       <c r="S8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="W8" s="18" t="s">
+      <c r="V8" s="18" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="W8" s="18"/>
+    </row>
+    <row r="9" spans="1:24" ht="25.5" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -2979,11 +2986,12 @@
       <c r="S9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="W9" s="18" t="s">
+      <c r="V9" s="18" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="W9" s="18"/>
+    </row>
+    <row r="10" spans="1:24" ht="25.5" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>193</v>
       </c>
@@ -2996,11 +3004,12 @@
       <c r="S10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="W10" s="18" t="s">
+      <c r="V10" s="18" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="11" spans="1:24">
+      <c r="W10" s="18"/>
+    </row>
+    <row r="11" spans="1:24" ht="25.5" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>172</v>
       </c>
@@ -3013,11 +3022,12 @@
       <c r="S11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="W11" s="18" t="s">
+      <c r="V11" s="18" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="W11" s="18"/>
+    </row>
+    <row r="12" spans="1:24" ht="25.5" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>272</v>
       </c>
@@ -3030,11 +3040,12 @@
       <c r="S12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="W12" s="18" t="s">
+      <c r="V12" s="18" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" ht="105">
+      <c r="W12" s="18"/>
+    </row>
+    <row r="13" spans="1:24" ht="25.5" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>394</v>
       </c>
@@ -3050,11 +3061,12 @@
       <c r="S13" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="W13" s="18" t="s">
+      <c r="V13" s="18" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" ht="315">
+      <c r="W13" s="18"/>
+    </row>
+    <row r="14" spans="1:24" ht="25.5" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>194</v>
       </c>
@@ -3073,11 +3085,12 @@
       <c r="U14" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="W14" s="18" t="s">
+      <c r="V14" s="18" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" ht="315">
+      <c r="W14" s="18"/>
+    </row>
+    <row r="15" spans="1:24" ht="25.5" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>496</v>
       </c>
@@ -3096,11 +3109,12 @@
       <c r="U15" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="W15" s="18" t="s">
+      <c r="V15" s="18" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="16" spans="1:24">
+      <c r="W15" s="18"/>
+    </row>
+    <row r="16" spans="1:24" ht="25.5" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>196</v>
       </c>
@@ -3113,11 +3127,12 @@
       <c r="S16" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="W16" s="18" t="s">
+      <c r="V16" s="18" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="W16" s="18"/>
+    </row>
+    <row r="17" spans="1:23" ht="25.5" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>286</v>
       </c>
@@ -3130,11 +3145,12 @@
       <c r="S17" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="W17" s="18" t="s">
+      <c r="V17" s="18" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="W17" s="18"/>
+    </row>
+    <row r="18" spans="1:23" ht="25.5" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -3147,11 +3163,12 @@
       <c r="S18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="W18" s="18" t="s">
+      <c r="V18" s="18" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="W18" s="18"/>
+    </row>
+    <row r="19" spans="1:23" ht="25.5" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>293</v>
       </c>
@@ -3164,11 +3181,12 @@
       <c r="S19" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="W19" s="18" t="s">
+      <c r="V19" s="18" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="W19" s="18"/>
+    </row>
+    <row r="20" spans="1:23" ht="25.5" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>296</v>
       </c>
@@ -3184,11 +3202,12 @@
       <c r="U20" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="W20" s="18" t="s">
+      <c r="V20" s="18" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="W20" s="18"/>
+    </row>
+    <row r="21" spans="1:23" ht="25.5" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>195</v>
       </c>
@@ -3201,11 +3220,12 @@
       <c r="S21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="W21" s="18" t="s">
+      <c r="V21" s="18" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" ht="90">
+      <c r="W21" s="18"/>
+    </row>
+    <row r="22" spans="1:23" ht="25.5" customHeight="1">
       <c r="A22" t="s">
         <v>498</v>
       </c>
@@ -3222,7 +3242,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" ht="25.5" customHeight="1">
       <c r="A23" t="s">
         <v>509</v>
       </c>
@@ -3230,18 +3250,18 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" ht="25.5" customHeight="1">
       <c r="A24"/>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" ht="25.5" customHeight="1">
       <c r="A25"/>
     </row>
-    <row r="56" spans="20:23" ht="18">
+    <row r="56" spans="20:23" ht="25.5" customHeight="1">
       <c r="T56" s="7"/>
       <c r="V56" s="7"/>
       <c r="W56" s="7"/>
     </row>
-    <row r="59" spans="20:23" ht="18">
+    <row r="59" spans="20:23" ht="25.5" customHeight="1">
       <c r="W59" s="7"/>
     </row>
   </sheetData>
@@ -3259,7 +3279,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3334,10 +3354,10 @@
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4120,11 +4140,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AB94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="AB68" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="AB26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C95" sqref="C95"/>
+      <selection pane="bottomRight" activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.95" customHeight="1"/>
@@ -9017,7 +9037,7 @@
         <v>89</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>522</v>
+        <v>296</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>297</v>
@@ -9030,7 +9050,7 @@
       </c>
       <c r="F93" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!practitionerrole</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>62</v>
@@ -9043,7 +9063,7 @@
       </c>
       <c r="J93" s="1" t="str">
         <f t="shared" si="37"/>
-        <v>!PractitionerRole.specialty</v>
+        <v>PractitionerRole.specialty</v>
       </c>
       <c r="K93" s="1" t="s">
         <v>62</v>
@@ -9062,11 +9082,11 @@
       </c>
       <c r="AA93" s="12" t="str">
         <f>"Fetches a bundle containing  "&amp;B93&amp;" resources matching the specialty"</f>
-        <v>Fetches a bundle containing  !PractitionerRole resources matching the specialty</v>
+        <v>Fetches a bundle containing  PractitionerRole resources matching the specialty</v>
       </c>
       <c r="AB93" s="1" t="str">
         <f t="shared" ref="AB93" si="41">"SearchParameter-us-core-"&amp;LOWER((B93)&amp;"-"&amp;SUBSTITUTE(C93,"_","")&amp;".html")</f>
-        <v>SearchParameter-us-core-!practitionerrole-specialty.html</v>
+        <v>SearchParameter-us-core-practitionerrole-specialty.html</v>
       </c>
     </row>
     <row r="94" spans="1:28" ht="18.95" customHeight="1">
@@ -9074,7 +9094,7 @@
         <v>90</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>522</v>
+        <v>296</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>298</v>
@@ -9087,7 +9107,7 @@
       </c>
       <c r="F94" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!practitionerrole</v>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole</v>
       </c>
       <c r="G94" t="s">
         <v>62</v>
@@ -9100,7 +9120,7 @@
       </c>
       <c r="J94" s="1" t="str">
         <f t="shared" si="37"/>
-        <v>!PractitionerRole.practitioner</v>
+        <v>PractitionerRole.practitioner</v>
       </c>
       <c r="K94" s="1" t="s">
         <v>62</v>
@@ -9122,11 +9142,11 @@
       </c>
       <c r="AA94" s="12" t="str">
         <f>"Fetches a bundle containing  "&amp;B94&amp;" resources matching the chained parameter practitioner.name or practitioner.identifier. SHOULD support the _include for PractionerRole.practitioner and PractitionerRole.endpoint."</f>
-        <v>Fetches a bundle containing  !PractitionerRole resources matching the chained parameter practitioner.name or practitioner.identifier. SHOULD support the _include for PractionerRole.practitioner and PractitionerRole.endpoint.</v>
+        <v>Fetches a bundle containing  PractitionerRole resources matching the chained parameter practitioner.name or practitioner.identifier. SHOULD support the _include for PractionerRole.practitioner and PractitionerRole.endpoint.</v>
       </c>
       <c r="AB94" t="str">
         <f>"SearchParameter-us-core-"&amp;LOWER((B94)&amp;"-"&amp;SUBSTITUTE(C94,"_","")&amp;".html")</f>
-        <v>SearchParameter-us-core-!practitionerrole-practitioner.html</v>
+        <v>SearchParameter-us-core-practitionerrole-practitioner.html</v>
       </c>
     </row>
   </sheetData>
@@ -9144,8 +9164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>

--- a/source/source_spreadsheets/uscore-server.xlsx
+++ b/source/source_spreadsheets/uscore-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\US-Core-R4\source\source_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52561DA9-4AB9-4EA4-8DA4-259B19544840}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113FC0E5-9232-49EF-BB83-0376CF6CEC81}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-465" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25080" yWindow="375" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1975" uniqueCount="525">
   <si>
     <t>Element</t>
   </si>
@@ -1730,6 +1730,15 @@
   </si>
   <si>
     <t>GET [base]/MedicationRequest?patient=1137192&amp;intent=order&amp;authoredon=ge2019~GET [base]/MedicationRequest?patient=1137192&amp;intent=order&amp;authoredon=ge2019&amp;_include=MedicationRequest:medication</t>
+  </si>
+  <si>
+    <t>fhirVersion</t>
+  </si>
+  <si>
+    <t>4.0.0</t>
+  </si>
+  <si>
+    <t>3.0.1</t>
   </si>
 </sst>
 </file>
@@ -2211,10 +2220,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2239,43 +2248,59 @@
         <v>443</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="105" customHeight="1">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" s="1" customFormat="1">
+      <c r="A3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="1" customFormat="1">
+      <c r="A4" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="105" customHeight="1">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B6" s="11" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="351.75" customHeight="1">
-      <c r="A6" t="s">
+    <row r="8" spans="1:2" ht="351.75" customHeight="1">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="103.5" customHeight="1">
-      <c r="A7" t="s">
+    <row r="9" spans="1:2" ht="103.5" customHeight="1">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>460</v>
       </c>
     </row>
@@ -2739,7 +2764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/source/source_spreadsheets/uscore-server.xlsx
+++ b/source/source_spreadsheets/uscore-server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\US-Core-R4\source\source_spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core-R4/source/source_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113FC0E5-9232-49EF-BB83-0376CF6CEC81}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7F3BA1-EB58-B841-9BE4-9C95936263DB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="375" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-68800" yWindow="-10800" windowWidth="68800" windowHeight="28800" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1975" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="525">
   <si>
     <t>Element</t>
   </si>
@@ -1602,18 +1602,6 @@
   </si>
   <si>
     <t>support searching for all medications that have been prescribed to a patient. See the [Medication List Guidance] section for guidance on accessing a patient medications. The server application represents the medication using either an inline code or a contained or external reference to the Medication resource.</t>
-  </si>
-  <si>
-    <t>Fetches a bundle of all MedicationRequest resources for the specified patient and intent code = `order`</t>
-  </si>
-  <si>
-    <t>Fetches a bundle of all MedicationRequest resources for the specified patient and intent  code = `order` and status</t>
-  </si>
-  <si>
-    <t>Fetches a bundle of all MedicationRequest resources for the specified patient and intent  code = `order` and authoredon date</t>
-  </si>
-  <si>
-    <t>Fetches a bundle of all MedicationRequest resources for the specified patient and intent  code = `order` and encounter</t>
   </si>
   <si>
     <t>encounter</t>
@@ -1717,21 +1705,6 @@
     <t>GET [base]/Condition?patient=1032702&amp;category=http://terminology.hl7.org/CodeSystem/condition-category\|problem-list-item~GET [base]/Condition?patient=1032702&amp;category=http://hl7.org/fhir/us/core/CodeSystem/condition-category\|health-concern~GET [base]/Condition?patient=1032702&amp;category=http://terminology.hl7.org/CodeSystem/condition-category\|encounter-diagnosis</t>
   </si>
   <si>
-    <t>intent=order</t>
-  </si>
-  <si>
-    <t>GET [base]/MedicationRequest?patient=14676&amp;intent=order~GET [base]/MedicationRequest?patient=14676&amp;intent=order&amp;_include=MedicationRequest:medication</t>
-  </si>
-  <si>
-    <t>GET [base]/MedicationRequest?patient=1137192&amp;intent=order&amp;status=active~GET [base]/MedicationRequest?patient=1137192&amp;intent=order&amp;status=active&amp;_include=MedicationRequest:medication</t>
-  </si>
-  <si>
-    <t>GET [base]/MedicationRequest?patient=1137192&amp;intent=order&amp;status=active&amp;encounter=Encounter/123~GET [base]/MedicationRequest?patient=1137192&amp;intent=order&amp;status=active&amp;&amp;encounter=Encounter/123&amp;_include=MedicationRequest:medication</t>
-  </si>
-  <si>
-    <t>GET [base]/MedicationRequest?patient=1137192&amp;intent=order&amp;authoredon=ge2019~GET [base]/MedicationRequest?patient=1137192&amp;intent=order&amp;authoredon=ge2019&amp;_include=MedicationRequest:medication</t>
-  </si>
-  <si>
     <t>fhirVersion</t>
   </si>
   <si>
@@ -1739,13 +1712,40 @@
   </si>
   <si>
     <t>3.0.1</t>
+  </si>
+  <si>
+    <t>intent=order,plan</t>
+  </si>
+  <si>
+    <t>GET [base]/MedicationRequest?patient=14676&amp;intent=order,plan~GET [base]/MedicationRequest?patient=14676&amp;intent=order,plan&amp;_include=MedicationRequest:medication</t>
+  </si>
+  <si>
+    <t>GET [base]/MedicationRequest?patient=1137192&amp;intent=order,plan&amp;status=active~GET [base]/MedicationRequest?patient=1137192&amp;intent=order,plan&amp;status=active&amp;_include=MedicationRequest:medication</t>
+  </si>
+  <si>
+    <t>GET [base]/MedicationRequest?patient=1137192&amp;intent=order,plan&amp;status=active&amp;encounter=Encounter/123~GET [base]/MedicationRequest?patient=1137192&amp;intent=order,plan&amp;status=active&amp;&amp;encounter=Encounter/123&amp;_include=MedicationRequest:medication</t>
+  </si>
+  <si>
+    <t>GET [base]/MedicationRequest?patient=1137192&amp;intent=order,plan&amp;authoredon=ge2019~GET [base]/MedicationRequest?patient=1137192&amp;intent=order,plan&amp;authoredon=ge2019&amp;_include=MedicationRequest:medication</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all MedicationRequest resources for the specified patient and intent code = `order,plan`</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all MedicationRequest resources for the specified patient and intent  code = `order,plan` and status</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all MedicationRequest resources for the specified patient and intent  code = `order,plan` and encounter</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all MedicationRequest resources for the specified patient and intent  code = `order,plan` and authoredon date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2222,17 +2222,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="95.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="95.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2248,23 +2248,23 @@
         <v>443</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="1" customFormat="1">
+    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="1" customFormat="1">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="105" customHeight="1">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2272,15 +2272,15 @@
         <v>441</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2288,15 +2288,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="351.75" customHeight="1">
+    <row r="8" spans="1:2" ht="351.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="103.5" customHeight="1">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2317,9 +2317,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -2340,15 +2340,15 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="94" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>372</v>
       </c>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>374</v>
       </c>
@@ -2392,12 +2392,12 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
@@ -2407,7 +2407,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>376</v>
       </c>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>83</v>
       </c>
@@ -2437,7 +2437,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>378</v>
       </c>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>302</v>
       </c>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>381</v>
       </c>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>383</v>
       </c>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>385</v>
       </c>
@@ -2512,7 +2512,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>387</v>
       </c>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>388</v>
       </c>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>464</v>
       </c>
@@ -2557,7 +2557,7 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>390</v>
       </c>
@@ -2572,7 +2572,7 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>392</v>
       </c>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>462</v>
       </c>
@@ -2602,7 +2602,7 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>203</v>
       </c>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>396</v>
       </c>
@@ -2632,7 +2632,7 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>255</v>
       </c>
@@ -2647,7 +2647,7 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>399</v>
       </c>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>401</v>
       </c>
@@ -2677,7 +2677,7 @@
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>463</v>
       </c>
@@ -2692,12 +2692,12 @@
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1">
+    <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>13</v>
@@ -2706,7 +2706,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>202</v>
       </c>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>81</v>
       </c>
@@ -2736,21 +2736,21 @@
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1">
+    <row r="27" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
     </row>
   </sheetData>
@@ -2771,22 +2771,22 @@
       <selection pane="bottomRight" activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="25.5" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="12" width="17.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.42578125" style="1" customWidth="1"/>
-    <col min="14" max="17" width="17.42578125" style="1" customWidth="1"/>
-    <col min="18" max="19" width="20.42578125" style="1" customWidth="1"/>
-    <col min="20" max="23" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="27.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="17.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5" style="1" customWidth="1"/>
+    <col min="14" max="17" width="17.5" style="1" customWidth="1"/>
+    <col min="18" max="19" width="20.5" style="1" customWidth="1"/>
+    <col min="20" max="23" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.1640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="25.5" customHeight="1" thickBot="1">
+    <row r="1" spans="1:24" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="25.5" customHeight="1" thickTop="1">
+    <row r="2" spans="1:24" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -2877,14 +2877,14 @@
         <v>78</v>
       </c>
       <c r="V2" s="18" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="W2" s="18"/>
       <c r="X2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="25.5" customHeight="1">
+    <row r="3" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>253</v>
       </c>
@@ -2898,11 +2898,11 @@
         <v>78</v>
       </c>
       <c r="V3" s="18" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="W3" s="18"/>
     </row>
-    <row r="4" spans="1:24" ht="25.5" customHeight="1">
+    <row r="4" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>267</v>
       </c>
@@ -2916,11 +2916,11 @@
         <v>78</v>
       </c>
       <c r="V4" s="18" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="W4" s="18"/>
     </row>
-    <row r="5" spans="1:24" ht="25.5" customHeight="1">
+    <row r="5" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>148</v>
       </c>
@@ -2934,14 +2934,14 @@
         <v>78</v>
       </c>
       <c r="V5" s="18" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="W5" s="18"/>
       <c r="X5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="25.5" customHeight="1">
+    <row r="6" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>271</v>
       </c>
@@ -2955,11 +2955,11 @@
         <v>78</v>
       </c>
       <c r="V6" s="18" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="W6" s="18"/>
     </row>
-    <row r="7" spans="1:24" ht="25.5" customHeight="1">
+    <row r="7" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>192</v>
       </c>
@@ -2973,11 +2973,11 @@
         <v>78</v>
       </c>
       <c r="V7" s="18" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="W7" s="18"/>
     </row>
-    <row r="8" spans="1:24" ht="25.5" customHeight="1">
+    <row r="8" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>191</v>
       </c>
@@ -2994,11 +2994,11 @@
         <v>78</v>
       </c>
       <c r="V8" s="18" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="W8" s="18"/>
     </row>
-    <row r="9" spans="1:24" ht="25.5" customHeight="1">
+    <row r="9" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -3012,11 +3012,11 @@
         <v>78</v>
       </c>
       <c r="V9" s="18" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="W9" s="18"/>
     </row>
-    <row r="10" spans="1:24" ht="25.5" customHeight="1">
+    <row r="10" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>193</v>
       </c>
@@ -3030,11 +3030,11 @@
         <v>78</v>
       </c>
       <c r="V10" s="18" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="W10" s="18"/>
     </row>
-    <row r="11" spans="1:24" ht="25.5" customHeight="1">
+    <row r="11" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>172</v>
       </c>
@@ -3048,11 +3048,11 @@
         <v>78</v>
       </c>
       <c r="V11" s="18" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="W11" s="18"/>
     </row>
-    <row r="12" spans="1:24" ht="25.5" customHeight="1">
+    <row r="12" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>272</v>
       </c>
@@ -3066,11 +3066,11 @@
         <v>78</v>
       </c>
       <c r="V12" s="18" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="W12" s="18"/>
     </row>
-    <row r="13" spans="1:24" ht="25.5" customHeight="1">
+    <row r="13" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>394</v>
       </c>
@@ -3087,11 +3087,11 @@
         <v>78</v>
       </c>
       <c r="V13" s="18" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="W13" s="18"/>
     </row>
-    <row r="14" spans="1:24" ht="25.5" customHeight="1">
+    <row r="14" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>194</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>21</v>
@@ -3111,13 +3111,13 @@
         <v>224</v>
       </c>
       <c r="V14" s="18" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="W14" s="18"/>
     </row>
-    <row r="15" spans="1:24" ht="25.5" customHeight="1">
+    <row r="15" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -3135,11 +3135,11 @@
         <v>438</v>
       </c>
       <c r="V15" s="18" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="W15" s="18"/>
     </row>
-    <row r="16" spans="1:24" ht="25.5" customHeight="1">
+    <row r="16" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>196</v>
       </c>
@@ -3153,11 +3153,11 @@
         <v>78</v>
       </c>
       <c r="V16" s="18" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="W16" s="18"/>
     </row>
-    <row r="17" spans="1:23" ht="25.5" customHeight="1">
+    <row r="17" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>286</v>
       </c>
@@ -3171,11 +3171,11 @@
         <v>78</v>
       </c>
       <c r="V17" s="18" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="W17" s="18"/>
     </row>
-    <row r="18" spans="1:23" ht="25.5" customHeight="1">
+    <row r="18" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -3189,11 +3189,11 @@
         <v>78</v>
       </c>
       <c r="V18" s="18" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="W18" s="18"/>
     </row>
-    <row r="19" spans="1:23" ht="25.5" customHeight="1">
+    <row r="19" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>293</v>
       </c>
@@ -3207,11 +3207,11 @@
         <v>78</v>
       </c>
       <c r="V19" s="18" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="W19" s="18"/>
     </row>
-    <row r="20" spans="1:23" ht="25.5" customHeight="1">
+    <row r="20" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>296</v>
       </c>
@@ -3228,11 +3228,11 @@
         <v>300</v>
       </c>
       <c r="V20" s="18" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="W20" s="18"/>
     </row>
-    <row r="21" spans="1:23" ht="25.5" customHeight="1">
+    <row r="21" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>195</v>
       </c>
@@ -3246,19 +3246,19 @@
         <v>78</v>
       </c>
       <c r="V21" s="18" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="W21" s="18"/>
     </row>
-    <row r="22" spans="1:23" ht="25.5" customHeight="1">
+    <row r="22" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="R22" s="1" t="s">
         <v>21</v>
@@ -3267,26 +3267,26 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="25.5" customHeight="1">
+    <row r="23" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="25.5" customHeight="1">
+    <row r="24" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24"/>
     </row>
-    <row r="25" spans="1:23" ht="25.5" customHeight="1">
+    <row r="25" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25"/>
     </row>
-    <row r="56" spans="20:23" ht="25.5" customHeight="1">
+    <row r="56" spans="20:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="T56" s="7"/>
       <c r="V56" s="7"/>
       <c r="W56" s="7"/>
     </row>
-    <row r="59" spans="20:23" ht="25.5" customHeight="1">
+    <row r="59" spans="20:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="W59" s="7"/>
     </row>
   </sheetData>
@@ -3307,15 +3307,15 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" customWidth="1"/>
     <col min="5" max="5" width="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="135.75" thickBot="1">
+    <row r="2" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>407</v>
       </c>
@@ -3349,24 +3349,24 @@
         <v>467</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="60">
+    <row r="3" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C3" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D3" t="s">
         <v>78</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E4" s="2"/>
     </row>
   </sheetData>
@@ -3385,20 +3385,20 @@
       <selection pane="bottomRight" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="58.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28.140625" customWidth="1"/>
-    <col min="17" max="17" width="31.28515625" customWidth="1"/>
-    <col min="18" max="18" width="31.28515625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="20.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="58.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28.1640625" customWidth="1"/>
+    <col min="17" max="17" width="31.33203125" customWidth="1"/>
+    <col min="18" max="18" width="31.33203125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="20.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>422</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>423</v>
@@ -3469,13 +3469,13 @@
         <v>427</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="75">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -4104,12 +4104,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="51.140625" customWidth="1"/>
+    <col min="3" max="3" width="51.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -4117,39 +4117,39 @@
         <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>491</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="59.25" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>495</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>34</v>
@@ -4165,42 +4165,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AB94"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="AB26" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="M50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C77" sqref="C77"/>
+      <selection pane="bottomRight" activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.95" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="73.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="36.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="73.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="36.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="49.7109375" style="1" customWidth="1"/>
-    <col min="21" max="22" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="49.6640625" style="1" customWidth="1"/>
+    <col min="21" max="22" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16" style="1" customWidth="1"/>
-    <col min="24" max="24" width="50.85546875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="68.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="90.7109375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="83.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="38.140625" customWidth="1"/>
+    <col min="24" max="24" width="50.83203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="68.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="90.6640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="83.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="38.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="18.95" customHeight="1" thickBot="1">
+    <row r="1" spans="1:28" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>151</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1" thickTop="1">
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>SearchParameter-us-core-!example category search-category.html</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="3" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>SearchParameter-us-core-!example code search-code.html</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="4" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>SearchParameter-us-core-!example date search-date.html</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="5" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>SearchParameter-us-core-!example patient search-patient.html</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="6" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>SearchParameter-us-core-!example status search-status.html</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="18.95" customHeight="1">
+    <row r="7" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4597,7 +4597,7 @@
         <v>SearchParameter-us-core-!patient-address.html</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="18.95" customHeight="1">
+    <row r="8" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>SearchParameter-us-core-!patient-telecom.html</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="18.95" customHeight="1">
+    <row r="9" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>SearchParameter-us-core-allergyintolerance-clinical-status.html</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="18.95" customHeight="1">
+    <row r="10" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>SearchParameter-us-core-allergyintolerance-patient.html</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="18.95" customHeight="1">
+    <row r="11" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>SearchParameter-us-core-condition-category.html</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="18.95" customHeight="1">
+    <row r="12" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>SearchParameter-us-core-condition-clinical-status.html</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="18.95" customHeight="1">
+    <row r="13" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4912,7 +4912,7 @@
         <v>SearchParameter-us-core-condition-patient.html</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="18.95" customHeight="1">
+    <row r="14" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>SearchParameter-us-core-encounter-id.html</v>
       </c>
     </row>
-    <row r="15" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="15" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>SearchParameter-us-core-encounter-class.html</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="18.95" customHeight="1">
+    <row r="16" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>SearchParameter-us-core-encounter-date.html</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="18.95" customHeight="1">
+    <row r="17" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>SearchParameter-us-core-encounter-identifier.html</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="18.95" customHeight="1">
+    <row r="18" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>SearchParameter-us-core-encounter-patient.html</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="18.95" customHeight="1">
+    <row r="19" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>SearchParameter-us-core-encounter-status.html</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="18.95" customHeight="1">
+    <row r="20" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>SearchParameter-us-core-encounter-type.html</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="18.95" customHeight="1">
+    <row r="21" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -5329,7 +5329,7 @@
         <v>SearchParameter-us-core-patient-id.html</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="18.95" customHeight="1">
+    <row r="22" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>SearchParameter-us-core-patient-birthdate.html</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="18.95" customHeight="1">
+    <row r="23" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>SearchParameter-us-core-patient-family.html</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="18.95" customHeight="1">
+    <row r="24" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>SearchParameter-us-core-patient-gender.html</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="18.95" customHeight="1">
+    <row r="25" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>SearchParameter-us-core-patient-given.html</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="18.95" customHeight="1">
+    <row r="26" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>SearchParameter-us-core-patient-identifier.html</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="18.95" customHeight="1">
+    <row r="27" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>SearchParameter-us-core-patient-name.html</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="18.95" customHeight="1">
+    <row r="28" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>SearchParameter-us-core-!questionnaire-_id.html</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="18.95" customHeight="1">
+    <row r="29" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>SearchParameter-us-core-!questionnaire-context-type-value.html</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="18.95" customHeight="1">
+    <row r="30" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>SearchParameter-us-core-!questionnaire-publisher.html</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="18.95" customHeight="1">
+    <row r="31" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5812,7 +5812,7 @@
         <v>SearchParameter-us-core-!questionnaire-status.html</v>
       </c>
     </row>
-    <row r="32" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="32" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>SearchParameter-us-core-!questionnaire-title.html</v>
       </c>
     </row>
-    <row r="33" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="33" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5917,7 +5917,7 @@
         <v>SearchParameter-us-core-!questionnaire-url.html</v>
       </c>
     </row>
-    <row r="34" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="34" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>SearchParameter-us-core-!questionnaire-version.html</v>
       </c>
     </row>
-    <row r="35" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="35" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -6013,7 +6013,7 @@
         <v>SearchParameter-us-core-condition-onset-date.html</v>
       </c>
     </row>
-    <row r="36" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="36" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>SearchParameter-us-core-condition-code.html</v>
       </c>
     </row>
-    <row r="37" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="37" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>SearchParameter-us-core-immunization-patient.html</v>
       </c>
     </row>
-    <row r="38" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="38" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>SearchParameter-us-core-immunization-status.html</v>
       </c>
     </row>
-    <row r="39" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="39" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>SearchParameter-us-core-immunization-date.html</v>
       </c>
     </row>
-    <row r="40" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="40" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -6276,7 +6276,7 @@
         <v>SearchParameter-us-core-documentreference-_id.html</v>
       </c>
     </row>
-    <row r="41" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="41" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>SearchParameter-us-core-documentreference-status.html</v>
       </c>
     </row>
-    <row r="42" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="42" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>SearchParameter-us-core-documentreference-patient.html</v>
       </c>
     </row>
-    <row r="43" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="43" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -6438,7 +6438,7 @@
         <v>SearchParameter-us-core-documentreference-category.html</v>
       </c>
     </row>
-    <row r="44" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="44" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>SearchParameter-us-core-documentreference-type.html</v>
       </c>
     </row>
-    <row r="45" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="45" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>SearchParameter-us-core-documentreference-date.html</v>
       </c>
     </row>
-    <row r="46" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="46" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>SearchParameter-us-core-documentreference-period.html</v>
       </c>
     </row>
-    <row r="47" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="47" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>SearchParameter-us-core-diagnosticreport-status.html</v>
       </c>
     </row>
-    <row r="48" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="48" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>SearchParameter-us-core-diagnosticreport-patient.html</v>
       </c>
     </row>
-    <row r="49" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="49" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>SearchParameter-us-core-diagnosticreport-category.html</v>
       </c>
     </row>
-    <row r="50" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="50" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -6804,7 +6804,7 @@
         <v>SearchParameter-us-core-diagnosticreport-code.html</v>
       </c>
     </row>
-    <row r="51" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="51" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>SearchParameter-us-core-diagnosticreport-date.html</v>
       </c>
     </row>
-    <row r="52" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="52" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>SearchParameter-us-core-goal-lifecycle-status.html</v>
       </c>
     </row>
-    <row r="53" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="53" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -6967,7 +6967,7 @@
         <v>SearchParameter-us-core-goal-patient.html</v>
       </c>
     </row>
-    <row r="54" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="54" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -7021,7 +7021,7 @@
         <v>SearchParameter-us-core-goal-target-date.html</v>
       </c>
     </row>
-    <row r="55" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="55" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -7074,7 +7074,7 @@
         <v>SearchParameter-us-core-medicationrequest-status.html</v>
       </c>
     </row>
-    <row r="56" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="56" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -7109,6 +7109,9 @@
       </c>
       <c r="K56" s="1" t="s">
         <v>62</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>62</v>
@@ -7124,7 +7127,7 @@
         <v>SearchParameter-us-core-medicationrequest-intent.html</v>
       </c>
     </row>
-    <row r="57" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="57" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -7175,7 +7178,7 @@
         <v>SearchParameter-us-core-medicationrequest-patient.html</v>
       </c>
     </row>
-    <row r="58" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="58" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>54</v>
       </c>
@@ -7183,7 +7186,7 @@
         <v>194</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>34</v>
@@ -7226,7 +7229,7 @@
         <v>SearchParameter-us-core-medicationrequest-encounter.html</v>
       </c>
     </row>
-    <row r="59" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="59" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>55</v>
       </c>
@@ -7280,12 +7283,12 @@
         <v>SearchParameter-us-core-medicationrequest-authoredon.html</v>
       </c>
     </row>
-    <row r="60" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="60" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>56</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>68</v>
@@ -7333,12 +7336,12 @@
         <v>SearchParameter-us-core-!medicationstatement-status.html</v>
       </c>
     </row>
-    <row r="61" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="61" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>57</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>99</v>
@@ -7391,12 +7394,12 @@
         <v>SearchParameter-us-core-!medicationstatement-patient.html</v>
       </c>
     </row>
-    <row r="62" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="62" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>58</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>247</v>
@@ -7445,7 +7448,7 @@
         <v>SearchParameter-us-core-!medicationstatement-effective.html</v>
       </c>
     </row>
-    <row r="63" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="63" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>59</v>
       </c>
@@ -7498,7 +7501,7 @@
         <v>SearchParameter-us-core-procedure-status.html</v>
       </c>
     </row>
-    <row r="64" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="64" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>60</v>
       </c>
@@ -7556,7 +7559,7 @@
         <v>SearchParameter-us-core-procedure-patient.html</v>
       </c>
     </row>
-    <row r="65" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="65" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>61</v>
       </c>
@@ -7610,7 +7613,7 @@
         <v>SearchParameter-us-core-procedure-date.html</v>
       </c>
     </row>
-    <row r="66" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="66" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>62</v>
       </c>
@@ -7660,7 +7663,7 @@
         <v>SearchParameter-us-core-procedure-code.html</v>
       </c>
     </row>
-    <row r="67" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="67" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>63</v>
       </c>
@@ -7713,7 +7716,7 @@
         <v>SearchParameter-us-core-observation-status.html</v>
       </c>
     </row>
-    <row r="68" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="68" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>64</v>
       </c>
@@ -7763,7 +7766,7 @@
         <v>SearchParameter-us-core-observation-category.html</v>
       </c>
     </row>
-    <row r="69" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="69" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>65</v>
       </c>
@@ -7813,7 +7816,7 @@
         <v>SearchParameter-us-core-observation-code.html</v>
       </c>
     </row>
-    <row r="70" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="70" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>66</v>
       </c>
@@ -7867,7 +7870,7 @@
         <v>SearchParameter-us-core-observation-date.html</v>
       </c>
     </row>
-    <row r="71" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="71" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>67</v>
       </c>
@@ -7926,7 +7929,7 @@
         <v>SearchParameter-us-core-observation-patient.html</v>
       </c>
     </row>
-    <row r="72" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="72" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>68</v>
       </c>
@@ -7976,7 +7979,7 @@
         <v>SearchParameter-us-core-careplan-category.html</v>
       </c>
     </row>
-    <row r="73" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="73" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>69</v>
       </c>
@@ -8023,7 +8026,7 @@
         <v>SearchParameter-us-core-!careplan-code.html</v>
       </c>
     </row>
-    <row r="74" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="74" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>70</v>
       </c>
@@ -8077,7 +8080,7 @@
         <v>SearchParameter-us-core-careplan-date.html</v>
       </c>
     </row>
-    <row r="75" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="75" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>71</v>
       </c>
@@ -8136,7 +8139,7 @@
         <v>SearchParameter-us-core-careplan-patient.html</v>
       </c>
     </row>
-    <row r="76" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="76" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>72</v>
       </c>
@@ -8189,7 +8192,7 @@
         <v>SearchParameter-us-core-careplan-status.html</v>
       </c>
     </row>
-    <row r="77" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="77" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>73</v>
       </c>
@@ -8248,7 +8251,7 @@
         <v>SearchParameter-us-core-careteam-patient.html</v>
       </c>
     </row>
-    <row r="78" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="78" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>74</v>
       </c>
@@ -8301,7 +8304,7 @@
         <v>SearchParameter-us-core-careteam-status.html</v>
       </c>
     </row>
-    <row r="79" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="79" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>75</v>
       </c>
@@ -8360,7 +8363,7 @@
         <v>SearchParameter-us-core-device-patient.html</v>
       </c>
     </row>
-    <row r="80" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="80" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>76</v>
       </c>
@@ -8406,7 +8409,7 @@
         <v>SearchParameter-us-core-device-type.html</v>
       </c>
     </row>
-    <row r="81" spans="1:28" ht="18.95" customHeight="1">
+    <row r="81" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>77</v>
       </c>
@@ -8460,7 +8463,7 @@
         <v>SearchParameter-us-core-location-name.html</v>
       </c>
     </row>
-    <row r="82" spans="1:28" ht="18.95" customHeight="1">
+    <row r="82" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>78</v>
       </c>
@@ -8514,7 +8517,7 @@
         <v>SearchParameter-us-core-location-address.html</v>
       </c>
     </row>
-    <row r="83" spans="1:28" ht="18.95" customHeight="1">
+    <row r="83" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>79</v>
       </c>
@@ -8568,7 +8571,7 @@
         <v>SearchParameter-us-core-location-address-city.html</v>
       </c>
     </row>
-    <row r="84" spans="1:28" ht="18.95" customHeight="1">
+    <row r="84" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>80</v>
       </c>
@@ -8622,7 +8625,7 @@
         <v>SearchParameter-us-core-location-address-state.html</v>
       </c>
     </row>
-    <row r="85" spans="1:28" ht="18.95" customHeight="1">
+    <row r="85" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>81</v>
       </c>
@@ -8676,7 +8679,7 @@
         <v>SearchParameter-us-core-location-address-postalcode.html</v>
       </c>
     </row>
-    <row r="86" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="86" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>82</v>
       </c>
@@ -8730,7 +8733,7 @@
         <v>SearchParameter-us-core-organization-name.html</v>
       </c>
     </row>
-    <row r="87" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="87" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>83</v>
       </c>
@@ -8784,7 +8787,7 @@
         <v>SearchParameter-us-core-organization-address.html</v>
       </c>
     </row>
-    <row r="88" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="88" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>84</v>
       </c>
@@ -8838,7 +8841,7 @@
         <v>SearchParameter-us-core-!organization-address-city.html</v>
       </c>
     </row>
-    <row r="89" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="89" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>85</v>
       </c>
@@ -8892,7 +8895,7 @@
         <v>SearchParameter-us-core-!organization-adress-state.html</v>
       </c>
     </row>
-    <row r="90" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="90" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>86</v>
       </c>
@@ -8946,7 +8949,7 @@
         <v>SearchParameter-us-core-!organization-address-postalcode.html</v>
       </c>
     </row>
-    <row r="91" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="91" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>87</v>
       </c>
@@ -9003,7 +9006,7 @@
         <v>SearchParameter-us-core-practitioner-name.html</v>
       </c>
     </row>
-    <row r="92" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="92" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>88</v>
       </c>
@@ -9057,7 +9060,7 @@
         <v>SearchParameter-us-core-practitioner-identifier.html</v>
       </c>
     </row>
-    <row r="93" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="93" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>89</v>
       </c>
@@ -9114,7 +9117,7 @@
         <v>SearchParameter-us-core-practitionerrole-specialty.html</v>
       </c>
     </row>
-    <row r="94" spans="1:28" ht="18.95" customHeight="1">
+    <row r="94" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>90</v>
       </c>
@@ -9189,25 +9192,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="21.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="96.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="88.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="82.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="96.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="56" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="88.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="82.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="83.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>153</v>
       </c>
@@ -9239,7 +9242,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1">
+    <row r="2" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -9264,7 +9267,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -9289,7 +9292,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and patient</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -9314,7 +9317,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and patient and type</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -9339,7 +9342,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and type</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -9370,7 +9373,7 @@
         <v>Fetches a bundle of all Encounter resources matching the specified class and patient</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -9395,7 +9398,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and status</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -9420,7 +9423,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and status and type</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -9446,7 +9449,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and type</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -9473,7 +9476,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and status</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -9499,7 +9502,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and status and type</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -9524,7 +9527,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and type</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -9555,7 +9558,7 @@
         <v>Fetches a bundle of all Encounter resources matching the specified date and patient</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="1" customFormat="1">
+    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -9580,7 +9583,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified date and patient and type</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="1" customFormat="1">
+    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -9605,7 +9608,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified date and type</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -9636,7 +9639,7 @@
         <v>Fetches a bundle of all Encounter resources matching the specified patient and type</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -9662,7 +9665,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified patient and status and type</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -9693,7 +9696,7 @@
         <v>Fetches a bundle of all Encounter resources matching the specified patient and status</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="1" customFormat="1">
+    <row r="19" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -9720,7 +9723,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified status and type</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="1" customFormat="1">
+    <row r="20" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>21</v>
       </c>
@@ -9746,7 +9749,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="1" customFormat="1">
+    <row r="21" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>22</v>
       </c>
@@ -9771,7 +9774,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher and status</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>23</v>
       </c>
@@ -9797,7 +9800,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and status</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="1" customFormat="1">
+    <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>24</v>
       </c>
@@ -9824,7 +9827,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="1" customFormat="1">
+    <row r="24" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>25</v>
       </c>
@@ -9851,7 +9854,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status and version</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="1" customFormat="1">
+    <row r="25" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>26</v>
       </c>
@@ -9878,7 +9881,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and version</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="1" customFormat="1">
+    <row r="26" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>27</v>
       </c>
@@ -9903,7 +9906,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified status and title and version</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="1" customFormat="1">
+    <row r="27" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>28</v>
       </c>
@@ -9928,7 +9931,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified status and version</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="1" customFormat="1">
+    <row r="28" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>29</v>
       </c>
@@ -9953,7 +9956,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified title and version</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="1" customFormat="1">
+    <row r="29" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>30</v>
       </c>
@@ -9984,7 +9987,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified birthdate and family</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="1" customFormat="1">
+    <row r="30" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>31</v>
       </c>
@@ -10015,7 +10018,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified birthdate and name</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="1" customFormat="1">
+    <row r="31" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>32</v>
       </c>
@@ -10046,7 +10049,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified family and gender</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="1" customFormat="1">
+    <row r="32" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>33</v>
       </c>
@@ -10077,7 +10080,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified gender and name</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="1" customFormat="1">
+    <row r="33" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>36</v>
       </c>
@@ -10110,7 +10113,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="1" customFormat="1">
+    <row r="34" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>37</v>
       </c>
@@ -10134,13 +10137,13 @@
         <v>160</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="1" customFormat="1">
+    <row r="35" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>38</v>
       </c>
@@ -10170,7 +10173,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="1" customFormat="1">
+    <row r="36" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>39</v>
       </c>
@@ -10200,7 +10203,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="1" customFormat="1">
+    <row r="37" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>42</v>
       </c>
@@ -10227,10 +10230,10 @@
         <v>356</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="1" customFormat="1">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>45</v>
       </c>
@@ -10261,7 +10264,7 @@
         <v>Fetches a bundle of all Immunization resources for the specified patient and date</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="1" customFormat="1">
+    <row r="39" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>46</v>
       </c>
@@ -10292,7 +10295,7 @@
         <v>Fetches a bundle of all Immunization resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="1" customFormat="1">
+    <row r="40" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>49</v>
       </c>
@@ -10322,7 +10325,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="1" customFormat="1" ht="15.75">
+    <row r="41" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>50</v>
       </c>
@@ -10355,7 +10358,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code = `LAB`</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="1" customFormat="1" ht="15.75">
+    <row r="42" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>51</v>
       </c>
@@ -10385,7 +10388,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="1" customFormat="1" ht="15.75">
+    <row r="43" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>52</v>
       </c>
@@ -10418,7 +10421,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code = `LAB`</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="1" customFormat="1">
+    <row r="44" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>53</v>
       </c>
@@ -10448,7 +10451,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="1" customFormat="1">
+    <row r="45" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>56</v>
       </c>
@@ -10478,7 +10481,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="1" customFormat="1">
+    <row r="46" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>57</v>
       </c>
@@ -10508,7 +10511,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code specified in US Core DiagnosticReport Category Codes</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="1" customFormat="1">
+    <row r="47" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>58</v>
       </c>
@@ -10538,7 +10541,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="1" customFormat="1">
+    <row r="48" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>59</v>
       </c>
@@ -10568,7 +10571,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="1" customFormat="1">
+    <row r="49" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>60</v>
       </c>
@@ -10598,7 +10601,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="1" customFormat="1">
+    <row r="50" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>63</v>
       </c>
@@ -10629,7 +10632,7 @@
         <v>Fetches a bundle of all Goal resources for the specified patient and lifecycle-status</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="1" customFormat="1">
+    <row r="51" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>64</v>
       </c>
@@ -10660,7 +10663,7 @@
         <v>Fetches a bundle of all Goal resources for the specified patient and target-date</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="1" customFormat="1">
+    <row r="52" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>67</v>
       </c>
@@ -10681,19 +10684,19 @@
         <v>116</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>484</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="1" customFormat="1">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>68</v>
       </c>
@@ -10714,19 +10717,19 @@
         <v>116</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>199</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" s="1" customFormat="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>69</v>
       </c>
@@ -10747,19 +10750,19 @@
         <v>116</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>199</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" s="1" customFormat="1">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>70</v>
       </c>
@@ -10780,24 +10783,24 @@
         <v>234</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>249</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" s="1" customFormat="1">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>73</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C56" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10823,12 +10826,12 @@
         <v>Fetches a bundle of all !MedicationStatement resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="1" customFormat="1">
+    <row r="57" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>74</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C57" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10853,7 +10856,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="1" customFormat="1">
+    <row r="58" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>75</v>
       </c>
@@ -10884,7 +10887,7 @@
         <v>Fetches a bundle of all Procedure resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="1" customFormat="1">
+    <row r="59" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>76</v>
       </c>
@@ -10915,7 +10918,7 @@
         <v>Fetches a bundle of all Procedure resources for the specified patient and date</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="1" customFormat="1">
+    <row r="60" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>77</v>
       </c>
@@ -10946,7 +10949,7 @@
         <v>Fetches a bundle of all Procedure resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes.</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="1" customFormat="1">
+    <row r="61" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>80</v>
       </c>
@@ -10978,7 +10981,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="1" customFormat="1">
+    <row r="62" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>81</v>
       </c>
@@ -11011,7 +11014,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `laboratory`</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="1" customFormat="1">
+    <row r="63" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>82</v>
       </c>
@@ -11041,7 +11044,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only.</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="1" customFormat="1">
+    <row r="64" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>83</v>
       </c>
@@ -11074,7 +11077,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `laboratory`</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="1" customFormat="1">
+    <row r="65" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>84</v>
       </c>
@@ -11104,7 +11107,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="66" spans="1:16" s="1" customFormat="1">
+    <row r="66" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>85</v>
       </c>
@@ -11134,7 +11137,7 @@
         <v>Fetches a bundle of all !Observation resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="67" spans="1:16" s="1" customFormat="1">
+    <row r="67" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>88</v>
       </c>
@@ -11167,7 +11170,7 @@
         <v>Fetches a bundle of all CarePlan resources for the specified patient and category=`assess-plan`</v>
       </c>
     </row>
-    <row r="68" spans="1:16" s="1" customFormat="1">
+    <row r="68" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>89</v>
       </c>
@@ -11199,7 +11202,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="69" spans="1:16" s="1" customFormat="1">
+    <row r="69" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>90</v>
       </c>
@@ -11231,7 +11234,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="70" spans="1:16" s="1" customFormat="1">
+    <row r="70" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>91</v>
       </c>
@@ -11263,7 +11266,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="71" spans="1:16" s="1" customFormat="1">
+    <row r="71" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>94</v>
       </c>
@@ -11296,7 +11299,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="72" spans="1:16" s="1" customFormat="1" ht="15.75">
+    <row r="72" spans="1:16" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>97</v>
       </c>
@@ -11329,7 +11332,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and observation code.</v>
       </c>
     </row>
-    <row r="73" spans="1:16" s="1" customFormat="1">
+    <row r="73" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>100</v>
       </c>
@@ -11362,7 +11365,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and category and status</v>
       </c>
     </row>
-    <row r="74" spans="1:16" s="1" customFormat="1">
+    <row r="74" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>101</v>
       </c>
@@ -11395,7 +11398,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `vital-signs`</v>
       </c>
     </row>
-    <row r="75" spans="1:16" s="1" customFormat="1">
+    <row r="75" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>102</v>
       </c>
@@ -11428,7 +11431,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only.</v>
       </c>
     </row>
-    <row r="76" spans="1:16" s="1" customFormat="1">
+    <row r="76" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>103</v>
       </c>
@@ -11461,7 +11464,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `vital-signs`</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>104</v>
       </c>
@@ -11497,7 +11500,7 @@
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
     </row>
-    <row r="78" spans="1:16" s="1" customFormat="1">
+    <row r="78" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>107</v>
       </c>
@@ -11528,7 +11531,7 @@
         <v>Fetches a bundle of all DocumentReference resources for the specified patient and status. See the implementation notes above for how to access the actual document.</v>
       </c>
     </row>
-    <row r="79" spans="1:16" s="1" customFormat="1" ht="20.25" customHeight="1">
+    <row r="79" spans="1:16" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>108</v>
       </c>
@@ -11557,7 +11560,7 @@
         <v>Fetches a bundle of all !DocumentReference resources for the specified patient and period. See the implementation notes above for how to access the actual document.</v>
       </c>
     </row>
-    <row r="80" spans="1:16" s="1" customFormat="1">
+    <row r="80" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>109</v>
       </c>
@@ -11590,7 +11593,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1">
+    <row r="81" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>110</v>
       </c>
@@ -11623,7 +11626,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="82" spans="1:10" s="1" customFormat="1">
+    <row r="82" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>111</v>
       </c>
@@ -11653,7 +11656,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="83" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1">
+    <row r="83" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>112</v>
       </c>
@@ -11684,7 +11687,7 @@
         <v>Fetches a bundle of all DocumentReference resources for the specified patient and type and period. See the implementation notes above for how to access the actual document.</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="1" customFormat="1">
+    <row r="84" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>115</v>
       </c>
@@ -11692,7 +11695,7 @@
         <v>271</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>128</v>

--- a/source/source_spreadsheets/uscore-server.xlsx
+++ b/source/source_spreadsheets/uscore-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core-R4/source/source_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7F3BA1-EB58-B841-9BE4-9C95936263DB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA827688-7337-1241-B99A-93E65306EAB1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-68800" yWindow="-10800" windowWidth="68800" windowHeight="28800" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-68800" yWindow="-10340" windowWidth="68800" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -1676,9 +1676,6 @@
     <t>conf_ValueSet</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/ImplementationGuide/hl7.fhir.us.core-3.0.1</t>
-  </si>
-  <si>
     <t>The US Core Server **SHALL**:
 1. Support the US Core Patient resource profile.
 1. Support at least one additional resource profile from the list of US Core Profiles.
@@ -1739,6 +1736,9 @@
   </si>
   <si>
     <t>Fetches a bundle of all MedicationRequest resources for the specified patient and intent  code = `order,plan` and authoredon date</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ImplementationGuide/hl7.fhir.us.core|3.0.1</t>
   </si>
 </sst>
 </file>
@@ -2222,8 +2222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2253,15 +2253,15 @@
         <v>74</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>513</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
@@ -2277,7 +2277,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>508</v>
+        <v>524</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -2293,7 +2293,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2877,7 +2877,7 @@
         <v>78</v>
       </c>
       <c r="V2" s="18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="W2" s="18"/>
       <c r="X2" t="s">
@@ -2898,7 +2898,7 @@
         <v>78</v>
       </c>
       <c r="V3" s="18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="W3" s="18"/>
     </row>
@@ -2916,7 +2916,7 @@
         <v>78</v>
       </c>
       <c r="V4" s="18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="W4" s="18"/>
     </row>
@@ -2934,7 +2934,7 @@
         <v>78</v>
       </c>
       <c r="V5" s="18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="W5" s="18"/>
       <c r="X5" t="s">
@@ -2955,7 +2955,7 @@
         <v>78</v>
       </c>
       <c r="V6" s="18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="W6" s="18"/>
     </row>
@@ -2973,7 +2973,7 @@
         <v>78</v>
       </c>
       <c r="V7" s="18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="W7" s="18"/>
     </row>
@@ -2994,7 +2994,7 @@
         <v>78</v>
       </c>
       <c r="V8" s="18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="W8" s="18"/>
     </row>
@@ -3012,7 +3012,7 @@
         <v>78</v>
       </c>
       <c r="V9" s="18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="W9" s="18"/>
     </row>
@@ -3030,7 +3030,7 @@
         <v>78</v>
       </c>
       <c r="V10" s="18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="W10" s="18"/>
     </row>
@@ -3048,7 +3048,7 @@
         <v>78</v>
       </c>
       <c r="V11" s="18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="W11" s="18"/>
     </row>
@@ -3066,7 +3066,7 @@
         <v>78</v>
       </c>
       <c r="V12" s="18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="W12" s="18"/>
     </row>
@@ -3087,7 +3087,7 @@
         <v>78</v>
       </c>
       <c r="V13" s="18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="W13" s="18"/>
     </row>
@@ -3111,7 +3111,7 @@
         <v>224</v>
       </c>
       <c r="V14" s="18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="W14" s="18"/>
     </row>
@@ -3135,7 +3135,7 @@
         <v>438</v>
       </c>
       <c r="V15" s="18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="W15" s="18"/>
     </row>
@@ -3153,7 +3153,7 @@
         <v>78</v>
       </c>
       <c r="V16" s="18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="W16" s="18"/>
     </row>
@@ -3171,7 +3171,7 @@
         <v>78</v>
       </c>
       <c r="V17" s="18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="W17" s="18"/>
     </row>
@@ -3189,7 +3189,7 @@
         <v>78</v>
       </c>
       <c r="V18" s="18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="W18" s="18"/>
     </row>
@@ -3207,7 +3207,7 @@
         <v>78</v>
       </c>
       <c r="V19" s="18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="W19" s="18"/>
     </row>
@@ -3228,7 +3228,7 @@
         <v>300</v>
       </c>
       <c r="V20" s="18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="W20" s="18"/>
     </row>
@@ -3246,7 +3246,7 @@
         <v>78</v>
       </c>
       <c r="V21" s="18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="W21" s="18"/>
     </row>
@@ -3451,7 +3451,7 @@
         <v>422</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>423</v>
@@ -9192,7 +9192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -10137,7 +10137,7 @@
         <v>160</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>156</v>
@@ -10684,16 +10684,16 @@
         <v>116</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>484</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -10717,16 +10717,16 @@
         <v>116</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>199</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="54" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -10750,16 +10750,16 @@
         <v>116</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>199</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="55" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -10783,16 +10783,16 @@
         <v>234</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>249</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="56" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">

--- a/source/source_spreadsheets/uscore-server.xlsx
+++ b/source/source_spreadsheets/uscore-server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/US-Core-R4/source/source_spreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\US-Core-R4\source\source_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA827688-7337-1241-B99A-93E65306EAB1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0358AB-3141-4B32-BE04-49B24D029ECB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-68800" yWindow="-10340" windowWidth="68800" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-465" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="525">
   <si>
     <t>Element</t>
   </si>
@@ -1705,12 +1705,6 @@
     <t>fhirVersion</t>
   </si>
   <si>
-    <t>4.0.0</t>
-  </si>
-  <si>
-    <t>3.0.1</t>
-  </si>
-  <si>
     <t>intent=order,plan</t>
   </si>
   <si>
@@ -1739,13 +1733,19 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/us/core/ImplementationGuide/hl7.fhir.us.core|3.0.1</t>
+  </si>
+  <si>
+    <t>3.1.1</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2223,16 +2223,16 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="95.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="95.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2248,23 +2248,23 @@
         <v>443</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
         <v>512</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="105" customHeight="1">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2272,15 +2272,15 @@
         <v>441</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="351.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="351.75" customHeight="1">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="103.5" customHeight="1">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2317,9 +2317,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -2337,18 +2337,18 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="94" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>372</v>
       </c>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>374</v>
       </c>
@@ -2392,7 +2392,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>486</v>
       </c>
@@ -2407,7 +2407,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>376</v>
       </c>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>83</v>
       </c>
@@ -2437,7 +2437,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>378</v>
       </c>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>302</v>
       </c>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>381</v>
       </c>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>383</v>
       </c>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>385</v>
       </c>
@@ -2512,7 +2512,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>387</v>
       </c>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>388</v>
       </c>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="11" t="s">
         <v>464</v>
       </c>
@@ -2557,7 +2557,7 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>390</v>
       </c>
@@ -2572,7 +2572,7 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>392</v>
       </c>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>462</v>
       </c>
@@ -2602,7 +2602,7 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>203</v>
       </c>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>396</v>
       </c>
@@ -2632,7 +2632,7 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>255</v>
       </c>
@@ -2647,7 +2647,7 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>399</v>
       </c>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>401</v>
       </c>
@@ -2677,7 +2677,7 @@
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="11" t="s">
         <v>463</v>
       </c>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" s="1" customFormat="1">
       <c r="A24" s="11" t="s">
         <v>500</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>202</v>
       </c>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>81</v>
       </c>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15.75" thickBot="1">
       <c r="A27" s="1" t="s">
         <v>496</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15.75" thickBot="1">
       <c r="A28" s="17"/>
     </row>
   </sheetData>
@@ -2765,28 +2765,28 @@
   <dimension ref="A1:X59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V6" sqref="V6"/>
+      <selection pane="bottomRight" activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="25.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="36.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="12" width="17.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.5" style="1" customWidth="1"/>
-    <col min="14" max="17" width="17.5" style="1" customWidth="1"/>
-    <col min="18" max="19" width="20.5" style="1" customWidth="1"/>
-    <col min="20" max="23" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="27.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="17.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" style="1" customWidth="1"/>
+    <col min="14" max="17" width="17.42578125" style="1" customWidth="1"/>
+    <col min="18" max="19" width="20.42578125" style="1" customWidth="1"/>
+    <col min="20" max="23" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="25.5" customHeight="1" thickBot="1">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="25.5" customHeight="1" thickTop="1">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="25.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>253</v>
       </c>
@@ -2902,7 +2902,7 @@
       </c>
       <c r="W3" s="18"/>
     </row>
-    <row r="4" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="25.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>267</v>
       </c>
@@ -2920,7 +2920,7 @@
       </c>
       <c r="W4" s="18"/>
     </row>
-    <row r="5" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="25.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>148</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="25.5" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>271</v>
       </c>
@@ -2959,7 +2959,7 @@
       </c>
       <c r="W6" s="18"/>
     </row>
-    <row r="7" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="25.5" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>192</v>
       </c>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="W7" s="18"/>
     </row>
-    <row r="8" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="25.5" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>191</v>
       </c>
@@ -2998,7 +2998,7 @@
       </c>
       <c r="W8" s="18"/>
     </row>
-    <row r="9" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="25.5" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -3016,7 +3016,7 @@
       </c>
       <c r="W9" s="18"/>
     </row>
-    <row r="10" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="25.5" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>193</v>
       </c>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="W10" s="18"/>
     </row>
-    <row r="11" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="25.5" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>172</v>
       </c>
@@ -3052,7 +3052,7 @@
       </c>
       <c r="W11" s="18"/>
     </row>
-    <row r="12" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="25.5" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>272</v>
       </c>
@@ -3065,12 +3065,10 @@
       <c r="S12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="V12" s="18" t="s">
-        <v>509</v>
-      </c>
+      <c r="V12" s="18"/>
       <c r="W12" s="18"/>
     </row>
-    <row r="13" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="25.5" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>394</v>
       </c>
@@ -3086,12 +3084,10 @@
       <c r="S13" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="V13" s="18" t="s">
-        <v>509</v>
-      </c>
+      <c r="V13" s="18"/>
       <c r="W13" s="18"/>
     </row>
-    <row r="14" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="25.5" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>194</v>
       </c>
@@ -3115,7 +3111,7 @@
       </c>
       <c r="W14" s="18"/>
     </row>
-    <row r="15" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="25.5" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>492</v>
       </c>
@@ -3139,7 +3135,7 @@
       </c>
       <c r="W15" s="18"/>
     </row>
-    <row r="16" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="25.5" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>196</v>
       </c>
@@ -3157,7 +3153,7 @@
       </c>
       <c r="W16" s="18"/>
     </row>
-    <row r="17" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="25.5" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>286</v>
       </c>
@@ -3170,12 +3166,10 @@
       <c r="S17" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="V17" s="18" t="s">
-        <v>509</v>
-      </c>
+      <c r="V17" s="18"/>
       <c r="W17" s="18"/>
     </row>
-    <row r="18" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="25.5" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -3193,7 +3187,7 @@
       </c>
       <c r="W18" s="18"/>
     </row>
-    <row r="19" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="25.5" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>293</v>
       </c>
@@ -3206,12 +3200,10 @@
       <c r="S19" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="V19" s="18" t="s">
-        <v>509</v>
-      </c>
+      <c r="V19" s="18"/>
       <c r="W19" s="18"/>
     </row>
-    <row r="20" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="25.5" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>296</v>
       </c>
@@ -3227,12 +3219,10 @@
       <c r="U20" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="V20" s="18" t="s">
-        <v>509</v>
-      </c>
+      <c r="V20" s="18"/>
       <c r="W20" s="18"/>
     </row>
-    <row r="21" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="25.5" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>195</v>
       </c>
@@ -3250,7 +3240,7 @@
       </c>
       <c r="W21" s="18"/>
     </row>
-    <row r="22" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" ht="25.5" customHeight="1">
       <c r="A22" t="s">
         <v>494</v>
       </c>
@@ -3267,7 +3257,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" ht="25.5" customHeight="1">
       <c r="A23" t="s">
         <v>505</v>
       </c>
@@ -3275,18 +3265,18 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" ht="25.5" customHeight="1">
       <c r="A24"/>
     </row>
-    <row r="25" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" ht="25.5" customHeight="1">
       <c r="A25"/>
     </row>
-    <row r="56" spans="20:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="20:23" ht="25.5" customHeight="1">
       <c r="T56" s="7"/>
       <c r="V56" s="7"/>
       <c r="W56" s="7"/>
     </row>
-    <row r="59" spans="20:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="20:23" ht="25.5" customHeight="1">
       <c r="W59" s="7"/>
     </row>
   </sheetData>
@@ -3307,15 +3297,15 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
     <col min="5" max="5" width="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -3332,7 +3322,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="135.75" thickBot="1">
       <c r="A2" s="15" t="s">
         <v>407</v>
       </c>
@@ -3349,7 +3339,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="60">
       <c r="A3" t="s">
         <v>503</v>
       </c>
@@ -3366,7 +3356,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="E4" s="2"/>
     </row>
   </sheetData>
@@ -3385,20 +3375,20 @@
       <selection pane="bottomRight" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="58.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28.1640625" customWidth="1"/>
-    <col min="17" max="17" width="31.33203125" customWidth="1"/>
-    <col min="18" max="18" width="31.33203125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="20.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="58.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" customWidth="1"/>
+    <col min="17" max="17" width="31.28515625" customWidth="1"/>
+    <col min="18" max="18" width="31.28515625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="20.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -3475,7 +3465,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="75">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -3546,7 +3536,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -3615,7 +3605,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -3683,7 +3673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -3751,7 +3741,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -3819,7 +3809,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -3887,7 +3877,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -3955,7 +3945,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -4023,7 +4013,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -4104,12 +4094,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="51.1640625" customWidth="1"/>
+    <col min="3" max="3" width="51.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -4120,7 +4110,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="59.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>488</v>
       </c>
@@ -4129,7 +4119,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>489</v>
       </c>
@@ -4138,7 +4128,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>490</v>
       </c>
@@ -4147,7 +4137,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>491</v>
       </c>
@@ -4172,35 +4162,35 @@
       <selection pane="bottomRight" activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="73.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="36.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="73.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="36.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" style="1" customWidth="1"/>
     <col min="16" max="16" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="49.6640625" style="1" customWidth="1"/>
-    <col min="21" max="22" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="49.7109375" style="1" customWidth="1"/>
+    <col min="21" max="22" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16" style="1" customWidth="1"/>
-    <col min="24" max="24" width="50.83203125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="68.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="90.6640625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="83.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="38.1640625" customWidth="1"/>
+    <col min="24" max="24" width="50.85546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="68.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="90.7109375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="83.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="18.95" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>151</v>
       </c>
@@ -4286,7 +4276,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1" thickTop="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4336,7 +4326,7 @@
         <v>SearchParameter-us-core-!example category search-category.html</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4383,7 +4373,7 @@
         <v>SearchParameter-us-core-!example code search-code.html</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4437,7 +4427,7 @@
         <v>SearchParameter-us-core-!example date search-date.html</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4496,7 +4486,7 @@
         <v>SearchParameter-us-core-!example patient search-patient.html</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4546,7 +4536,7 @@
         <v>SearchParameter-us-core-!example status search-status.html</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="18.95" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4597,7 +4587,7 @@
         <v>SearchParameter-us-core-!patient-address.html</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="18.95" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4648,7 +4638,7 @@
         <v>SearchParameter-us-core-!patient-telecom.html</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="18.95" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4695,7 +4685,7 @@
         <v>SearchParameter-us-core-allergyintolerance-clinical-status.html</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="18.95" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4755,7 +4745,7 @@
         <v>SearchParameter-us-core-allergyintolerance-patient.html</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="18.95" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4806,7 +4796,7 @@
         <v>SearchParameter-us-core-condition-category.html</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="18.95" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4854,7 +4844,7 @@
         <v>SearchParameter-us-core-condition-clinical-status.html</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="18.95" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4912,7 +4902,7 @@
         <v>SearchParameter-us-core-condition-patient.html</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="18.95" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4965,7 +4955,7 @@
         <v>SearchParameter-us-core-encounter-id.html</v>
       </c>
     </row>
-    <row r="15" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -5015,7 +5005,7 @@
         <v>SearchParameter-us-core-encounter-class.html</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" ht="18.95" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -5069,7 +5059,7 @@
         <v>SearchParameter-us-core-encounter-date.html</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" ht="18.95" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -5123,7 +5113,7 @@
         <v>SearchParameter-us-core-encounter-identifier.html</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" ht="18.95" customHeight="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -5181,7 +5171,7 @@
         <v>SearchParameter-us-core-encounter-patient.html</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" ht="18.95" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -5231,7 +5221,7 @@
         <v>SearchParameter-us-core-encounter-status.html</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" ht="18.95" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -5279,7 +5269,7 @@
         <v>SearchParameter-us-core-encounter-type.html</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" ht="18.95" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -5329,7 +5319,7 @@
         <v>SearchParameter-us-core-patient-id.html</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" ht="18.95" customHeight="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -5377,7 +5367,7 @@
         <v>SearchParameter-us-core-patient-birthdate.html</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" ht="18.95" customHeight="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -5421,7 +5411,7 @@
         <v>SearchParameter-us-core-patient-family.html</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" ht="18.95" customHeight="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -5470,7 +5460,7 @@
         <v>SearchParameter-us-core-patient-gender.html</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" ht="18.95" customHeight="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -5514,7 +5504,7 @@
         <v>SearchParameter-us-core-patient-given.html</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" ht="18.95" customHeight="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -5569,7 +5559,7 @@
         <v>SearchParameter-us-core-patient-identifier.html</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" ht="18.95" customHeight="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -5627,7 +5617,7 @@
         <v>SearchParameter-us-core-patient-name.html</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" ht="18.95" customHeight="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -5670,7 +5660,7 @@
         <v>SearchParameter-us-core-!questionnaire-_id.html</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" ht="18.95" customHeight="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -5715,7 +5705,7 @@
         <v>SearchParameter-us-core-!questionnaire-context-type-value.html</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" ht="18.95" customHeight="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -5765,7 +5755,7 @@
         <v>SearchParameter-us-core-!questionnaire-publisher.html</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" ht="18.95" customHeight="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5812,7 +5802,7 @@
         <v>SearchParameter-us-core-!questionnaire-status.html</v>
       </c>
     </row>
-    <row r="32" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5872,7 +5862,7 @@
         <v>SearchParameter-us-core-!questionnaire-title.html</v>
       </c>
     </row>
-    <row r="33" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5917,7 +5907,7 @@
         <v>SearchParameter-us-core-!questionnaire-url.html</v>
       </c>
     </row>
-    <row r="34" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5962,7 +5952,7 @@
         <v>SearchParameter-us-core-!questionnaire-version.html</v>
       </c>
     </row>
-    <row r="35" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -6013,7 +6003,7 @@
         <v>SearchParameter-us-core-condition-onset-date.html</v>
       </c>
     </row>
-    <row r="36" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -6060,7 +6050,7 @@
         <v>SearchParameter-us-core-condition-code.html</v>
       </c>
     </row>
-    <row r="37" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -6119,7 +6109,7 @@
         <v>SearchParameter-us-core-immunization-patient.html</v>
       </c>
     </row>
-    <row r="38" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -6169,7 +6159,7 @@
         <v>SearchParameter-us-core-immunization-status.html</v>
       </c>
     </row>
-    <row r="39" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -6223,7 +6213,7 @@
         <v>SearchParameter-us-core-immunization-date.html</v>
       </c>
     </row>
-    <row r="40" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -6276,7 +6266,7 @@
         <v>SearchParameter-us-core-documentreference-_id.html</v>
       </c>
     </row>
-    <row r="41" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -6329,7 +6319,7 @@
         <v>SearchParameter-us-core-documentreference-status.html</v>
       </c>
     </row>
-    <row r="42" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -6388,7 +6378,7 @@
         <v>SearchParameter-us-core-documentreference-patient.html</v>
       </c>
     </row>
-    <row r="43" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -6438,7 +6428,7 @@
         <v>SearchParameter-us-core-documentreference-category.html</v>
       </c>
     </row>
-    <row r="44" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -6485,7 +6475,7 @@
         <v>SearchParameter-us-core-documentreference-type.html</v>
       </c>
     </row>
-    <row r="45" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -6539,7 +6529,7 @@
         <v>SearchParameter-us-core-documentreference-date.html</v>
       </c>
     </row>
-    <row r="46" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -6592,7 +6582,7 @@
         <v>SearchParameter-us-core-documentreference-period.html</v>
       </c>
     </row>
-    <row r="47" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -6645,7 +6635,7 @@
         <v>SearchParameter-us-core-diagnosticreport-status.html</v>
       </c>
     </row>
-    <row r="48" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -6704,7 +6694,7 @@
         <v>SearchParameter-us-core-diagnosticreport-patient.html</v>
       </c>
     </row>
-    <row r="49" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -6754,7 +6744,7 @@
         <v>SearchParameter-us-core-diagnosticreport-category.html</v>
       </c>
     </row>
-    <row r="50" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -6804,7 +6794,7 @@
         <v>SearchParameter-us-core-diagnosticreport-code.html</v>
       </c>
     </row>
-    <row r="51" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -6858,7 +6848,7 @@
         <v>SearchParameter-us-core-diagnosticreport-date.html</v>
       </c>
     </row>
-    <row r="52" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -6908,7 +6898,7 @@
         <v>SearchParameter-us-core-goal-lifecycle-status.html</v>
       </c>
     </row>
-    <row r="53" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -6967,7 +6957,7 @@
         <v>SearchParameter-us-core-goal-patient.html</v>
       </c>
     </row>
-    <row r="54" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -7021,7 +7011,7 @@
         <v>SearchParameter-us-core-goal-target-date.html</v>
       </c>
     </row>
-    <row r="55" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -7074,7 +7064,7 @@
         <v>SearchParameter-us-core-medicationrequest-status.html</v>
       </c>
     </row>
-    <row r="56" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -7127,7 +7117,7 @@
         <v>SearchParameter-us-core-medicationrequest-intent.html</v>
       </c>
     </row>
-    <row r="57" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -7178,7 +7168,7 @@
         <v>SearchParameter-us-core-medicationrequest-patient.html</v>
       </c>
     </row>
-    <row r="58" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A58" s="1">
         <v>54</v>
       </c>
@@ -7229,7 +7219,7 @@
         <v>SearchParameter-us-core-medicationrequest-encounter.html</v>
       </c>
     </row>
-    <row r="59" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A59" s="1">
         <v>55</v>
       </c>
@@ -7283,7 +7273,7 @@
         <v>SearchParameter-us-core-medicationrequest-authoredon.html</v>
       </c>
     </row>
-    <row r="60" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A60" s="1">
         <v>56</v>
       </c>
@@ -7336,7 +7326,7 @@
         <v>SearchParameter-us-core-!medicationstatement-status.html</v>
       </c>
     </row>
-    <row r="61" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A61" s="1">
         <v>57</v>
       </c>
@@ -7394,7 +7384,7 @@
         <v>SearchParameter-us-core-!medicationstatement-patient.html</v>
       </c>
     </row>
-    <row r="62" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A62" s="1">
         <v>58</v>
       </c>
@@ -7448,7 +7438,7 @@
         <v>SearchParameter-us-core-!medicationstatement-effective.html</v>
       </c>
     </row>
-    <row r="63" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A63" s="1">
         <v>59</v>
       </c>
@@ -7501,7 +7491,7 @@
         <v>SearchParameter-us-core-procedure-status.html</v>
       </c>
     </row>
-    <row r="64" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A64" s="1">
         <v>60</v>
       </c>
@@ -7559,7 +7549,7 @@
         <v>SearchParameter-us-core-procedure-patient.html</v>
       </c>
     </row>
-    <row r="65" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A65" s="1">
         <v>61</v>
       </c>
@@ -7613,7 +7603,7 @@
         <v>SearchParameter-us-core-procedure-date.html</v>
       </c>
     </row>
-    <row r="66" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A66" s="1">
         <v>62</v>
       </c>
@@ -7663,7 +7653,7 @@
         <v>SearchParameter-us-core-procedure-code.html</v>
       </c>
     </row>
-    <row r="67" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A67" s="1">
         <v>63</v>
       </c>
@@ -7716,7 +7706,7 @@
         <v>SearchParameter-us-core-observation-status.html</v>
       </c>
     </row>
-    <row r="68" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A68" s="1">
         <v>64</v>
       </c>
@@ -7766,7 +7756,7 @@
         <v>SearchParameter-us-core-observation-category.html</v>
       </c>
     </row>
-    <row r="69" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A69" s="1">
         <v>65</v>
       </c>
@@ -7816,7 +7806,7 @@
         <v>SearchParameter-us-core-observation-code.html</v>
       </c>
     </row>
-    <row r="70" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A70" s="1">
         <v>66</v>
       </c>
@@ -7870,7 +7860,7 @@
         <v>SearchParameter-us-core-observation-date.html</v>
       </c>
     </row>
-    <row r="71" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A71" s="1">
         <v>67</v>
       </c>
@@ -7929,7 +7919,7 @@
         <v>SearchParameter-us-core-observation-patient.html</v>
       </c>
     </row>
-    <row r="72" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A72" s="1">
         <v>68</v>
       </c>
@@ -7979,7 +7969,7 @@
         <v>SearchParameter-us-core-careplan-category.html</v>
       </c>
     </row>
-    <row r="73" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A73" s="1">
         <v>69</v>
       </c>
@@ -8026,7 +8016,7 @@
         <v>SearchParameter-us-core-!careplan-code.html</v>
       </c>
     </row>
-    <row r="74" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A74" s="1">
         <v>70</v>
       </c>
@@ -8080,7 +8070,7 @@
         <v>SearchParameter-us-core-careplan-date.html</v>
       </c>
     </row>
-    <row r="75" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A75" s="1">
         <v>71</v>
       </c>
@@ -8139,7 +8129,7 @@
         <v>SearchParameter-us-core-careplan-patient.html</v>
       </c>
     </row>
-    <row r="76" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A76" s="1">
         <v>72</v>
       </c>
@@ -8192,7 +8182,7 @@
         <v>SearchParameter-us-core-careplan-status.html</v>
       </c>
     </row>
-    <row r="77" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A77" s="1">
         <v>73</v>
       </c>
@@ -8251,7 +8241,7 @@
         <v>SearchParameter-us-core-careteam-patient.html</v>
       </c>
     </row>
-    <row r="78" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A78" s="1">
         <v>74</v>
       </c>
@@ -8304,7 +8294,7 @@
         <v>SearchParameter-us-core-careteam-status.html</v>
       </c>
     </row>
-    <row r="79" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A79" s="1">
         <v>75</v>
       </c>
@@ -8363,7 +8353,7 @@
         <v>SearchParameter-us-core-device-patient.html</v>
       </c>
     </row>
-    <row r="80" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A80" s="1">
         <v>76</v>
       </c>
@@ -8409,7 +8399,7 @@
         <v>SearchParameter-us-core-device-type.html</v>
       </c>
     </row>
-    <row r="81" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:28" ht="18.95" customHeight="1">
       <c r="A81" s="1">
         <v>77</v>
       </c>
@@ -8463,7 +8453,7 @@
         <v>SearchParameter-us-core-location-name.html</v>
       </c>
     </row>
-    <row r="82" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:28" ht="18.95" customHeight="1">
       <c r="A82" s="1">
         <v>78</v>
       </c>
@@ -8517,7 +8507,7 @@
         <v>SearchParameter-us-core-location-address.html</v>
       </c>
     </row>
-    <row r="83" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:28" ht="18.95" customHeight="1">
       <c r="A83" s="1">
         <v>79</v>
       </c>
@@ -8571,7 +8561,7 @@
         <v>SearchParameter-us-core-location-address-city.html</v>
       </c>
     </row>
-    <row r="84" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:28" ht="18.95" customHeight="1">
       <c r="A84" s="1">
         <v>80</v>
       </c>
@@ -8625,7 +8615,7 @@
         <v>SearchParameter-us-core-location-address-state.html</v>
       </c>
     </row>
-    <row r="85" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:28" ht="18.95" customHeight="1">
       <c r="A85" s="1">
         <v>81</v>
       </c>
@@ -8679,7 +8669,7 @@
         <v>SearchParameter-us-core-location-address-postalcode.html</v>
       </c>
     </row>
-    <row r="86" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A86" s="1">
         <v>82</v>
       </c>
@@ -8733,7 +8723,7 @@
         <v>SearchParameter-us-core-organization-name.html</v>
       </c>
     </row>
-    <row r="87" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A87" s="1">
         <v>83</v>
       </c>
@@ -8787,7 +8777,7 @@
         <v>SearchParameter-us-core-organization-address.html</v>
       </c>
     </row>
-    <row r="88" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A88" s="1">
         <v>84</v>
       </c>
@@ -8841,7 +8831,7 @@
         <v>SearchParameter-us-core-!organization-address-city.html</v>
       </c>
     </row>
-    <row r="89" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A89" s="1">
         <v>85</v>
       </c>
@@ -8895,7 +8885,7 @@
         <v>SearchParameter-us-core-!organization-adress-state.html</v>
       </c>
     </row>
-    <row r="90" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A90" s="1">
         <v>86</v>
       </c>
@@ -8949,7 +8939,7 @@
         <v>SearchParameter-us-core-!organization-address-postalcode.html</v>
       </c>
     </row>
-    <row r="91" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A91" s="1">
         <v>87</v>
       </c>
@@ -9006,7 +8996,7 @@
         <v>SearchParameter-us-core-practitioner-name.html</v>
       </c>
     </row>
-    <row r="92" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A92" s="1">
         <v>88</v>
       </c>
@@ -9060,7 +9050,7 @@
         <v>SearchParameter-us-core-practitioner-identifier.html</v>
       </c>
     </row>
-    <row r="93" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="A93" s="1">
         <v>89</v>
       </c>
@@ -9117,7 +9107,7 @@
         <v>SearchParameter-us-core-practitionerrole-specialty.html</v>
       </c>
     </row>
-    <row r="94" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:28" ht="18.95" customHeight="1">
       <c r="A94" s="1">
         <v>90</v>
       </c>
@@ -9196,21 +9186,21 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="96.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="21.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="96.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="56" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="88.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="82.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="88.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="82.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>153</v>
       </c>
@@ -9242,7 +9232,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" thickTop="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -9267,7 +9257,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -9292,7 +9282,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and patient</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -9317,7 +9307,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and patient and type</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -9342,7 +9332,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date and type</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -9373,7 +9363,7 @@
         <v>Fetches a bundle of all Encounter resources matching the specified class and patient</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -9398,7 +9388,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and status</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -9423,7 +9413,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and status and type</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -9449,7 +9439,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and type</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -9476,7 +9466,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and status</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -9502,7 +9492,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and status and type</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -9527,7 +9517,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified class and type</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -9558,7 +9548,7 @@
         <v>Fetches a bundle of all Encounter resources matching the specified date and patient</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" s="1" customFormat="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -9583,7 +9573,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified date and patient and type</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" s="1" customFormat="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -9608,7 +9598,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified date and type</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -9639,7 +9629,7 @@
         <v>Fetches a bundle of all Encounter resources matching the specified patient and type</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -9665,7 +9655,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified patient and status and type</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -9696,7 +9686,7 @@
         <v>Fetches a bundle of all Encounter resources matching the specified patient and status</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" s="1" customFormat="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -9723,7 +9713,7 @@
         <v>Fetches a bundle of all !Encounter resources matching the specified status and type</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" s="1" customFormat="1">
       <c r="A20" s="1">
         <v>21</v>
       </c>
@@ -9749,7 +9739,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" s="1" customFormat="1">
       <c r="A21" s="1">
         <v>22</v>
       </c>
@@ -9774,7 +9764,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher and status</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>23</v>
       </c>
@@ -9800,7 +9790,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and status</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" s="1" customFormat="1">
       <c r="A23" s="1">
         <v>24</v>
       </c>
@@ -9827,7 +9817,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" s="1" customFormat="1">
       <c r="A24" s="1">
         <v>25</v>
       </c>
@@ -9854,7 +9844,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status and version</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" s="1" customFormat="1">
       <c r="A25" s="1">
         <v>26</v>
       </c>
@@ -9881,7 +9871,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and version</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" s="1" customFormat="1">
       <c r="A26" s="1">
         <v>27</v>
       </c>
@@ -9906,7 +9896,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified status and title and version</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" s="1" customFormat="1">
       <c r="A27" s="1">
         <v>28</v>
       </c>
@@ -9931,7 +9921,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified status and version</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" s="1" customFormat="1">
       <c r="A28" s="1">
         <v>29</v>
       </c>
@@ -9956,7 +9946,7 @@
         <v>Fetches a bundle of all !Questionnaire resources matching the specified title and version</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" s="1" customFormat="1">
       <c r="A29" s="1">
         <v>30</v>
       </c>
@@ -9987,7 +9977,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified birthdate and family</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" s="1" customFormat="1">
       <c r="A30" s="1">
         <v>31</v>
       </c>
@@ -10018,7 +10008,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified birthdate and name</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" s="1" customFormat="1">
       <c r="A31" s="1">
         <v>32</v>
       </c>
@@ -10049,7 +10039,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified family and gender</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" s="1" customFormat="1">
       <c r="A32" s="1">
         <v>33</v>
       </c>
@@ -10080,7 +10070,7 @@
         <v>Fetches a bundle of all Patient resources matching the specified gender and name</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" s="1" customFormat="1">
       <c r="A33" s="1">
         <v>36</v>
       </c>
@@ -10113,7 +10103,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" s="1" customFormat="1">
       <c r="A34" s="1">
         <v>37</v>
       </c>
@@ -10143,7 +10133,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" s="1" customFormat="1">
       <c r="A35" s="1">
         <v>38</v>
       </c>
@@ -10173,7 +10163,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" s="1" customFormat="1">
       <c r="A36" s="1">
         <v>39</v>
       </c>
@@ -10203,7 +10193,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" s="1" customFormat="1">
       <c r="A37" s="1">
         <v>42</v>
       </c>
@@ -10233,7 +10223,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" s="1" customFormat="1">
       <c r="A38" s="1">
         <v>45</v>
       </c>
@@ -10264,7 +10254,7 @@
         <v>Fetches a bundle of all Immunization resources for the specified patient and date</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" s="1" customFormat="1">
       <c r="A39" s="1">
         <v>46</v>
       </c>
@@ -10295,7 +10285,7 @@
         <v>Fetches a bundle of all Immunization resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" s="1" customFormat="1">
       <c r="A40" s="1">
         <v>49</v>
       </c>
@@ -10325,7 +10315,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" s="1" customFormat="1" ht="15.75">
       <c r="A41" s="1">
         <v>50</v>
       </c>
@@ -10358,7 +10348,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code = `LAB`</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" s="1" customFormat="1" ht="15.75">
       <c r="A42" s="1">
         <v>51</v>
       </c>
@@ -10388,7 +10378,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" s="1" customFormat="1" ht="15.75">
       <c r="A43" s="1">
         <v>52</v>
       </c>
@@ -10421,7 +10411,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code = `LAB`</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" s="1" customFormat="1">
       <c r="A44" s="1">
         <v>53</v>
       </c>
@@ -10451,7 +10441,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" s="1" customFormat="1">
       <c r="A45" s="1">
         <v>56</v>
       </c>
@@ -10481,7 +10471,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" s="1" customFormat="1">
       <c r="A46" s="1">
         <v>57</v>
       </c>
@@ -10511,7 +10501,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code specified in US Core DiagnosticReport Category Codes</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" s="1" customFormat="1">
       <c r="A47" s="1">
         <v>58</v>
       </c>
@@ -10541,7 +10531,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" s="1" customFormat="1">
       <c r="A48" s="1">
         <v>59</v>
       </c>
@@ -10571,7 +10561,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" s="1" customFormat="1">
       <c r="A49" s="1">
         <v>60</v>
       </c>
@@ -10601,7 +10591,7 @@
         <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" s="1" customFormat="1">
       <c r="A50" s="1">
         <v>63</v>
       </c>
@@ -10632,7 +10622,7 @@
         <v>Fetches a bundle of all Goal resources for the specified patient and lifecycle-status</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" s="1" customFormat="1">
       <c r="A51" s="1">
         <v>64</v>
       </c>
@@ -10663,7 +10653,7 @@
         <v>Fetches a bundle of all Goal resources for the specified patient and target-date</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" s="1" customFormat="1">
       <c r="A52" s="1">
         <v>67</v>
       </c>
@@ -10684,19 +10674,19 @@
         <v>116</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>484</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="1" customFormat="1">
       <c r="A53" s="1">
         <v>68</v>
       </c>
@@ -10717,19 +10707,19 @@
         <v>116</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>199</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="1" customFormat="1">
       <c r="A54" s="1">
         <v>69</v>
       </c>
@@ -10750,19 +10740,19 @@
         <v>116</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>199</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="1" customFormat="1">
       <c r="A55" s="1">
         <v>70</v>
       </c>
@@ -10783,19 +10773,19 @@
         <v>234</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>249</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="1" customFormat="1">
       <c r="A56" s="1">
         <v>73</v>
       </c>
@@ -10826,7 +10816,7 @@
         <v>Fetches a bundle of all !MedicationStatement resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" s="1" customFormat="1">
       <c r="A57" s="1">
         <v>74</v>
       </c>
@@ -10856,7 +10846,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" s="1" customFormat="1">
       <c r="A58" s="1">
         <v>75</v>
       </c>
@@ -10887,7 +10877,7 @@
         <v>Fetches a bundle of all Procedure resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" s="1" customFormat="1">
       <c r="A59" s="1">
         <v>76</v>
       </c>
@@ -10918,7 +10908,7 @@
         <v>Fetches a bundle of all Procedure resources for the specified patient and date</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" s="1" customFormat="1">
       <c r="A60" s="1">
         <v>77</v>
       </c>
@@ -10949,7 +10939,7 @@
         <v>Fetches a bundle of all Procedure resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes.</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" s="1" customFormat="1">
       <c r="A61" s="1">
         <v>80</v>
       </c>
@@ -10981,7 +10971,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" s="1" customFormat="1">
       <c r="A62" s="1">
         <v>81</v>
       </c>
@@ -11014,7 +11004,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `laboratory`</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" s="1" customFormat="1">
       <c r="A63" s="1">
         <v>82</v>
       </c>
@@ -11044,7 +11034,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only.</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" s="1" customFormat="1">
       <c r="A64" s="1">
         <v>83</v>
       </c>
@@ -11077,7 +11067,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `laboratory`</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" s="1" customFormat="1">
       <c r="A65" s="1">
         <v>84</v>
       </c>
@@ -11107,7 +11097,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
       </c>
     </row>
-    <row r="66" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" s="1" customFormat="1">
       <c r="A66" s="1">
         <v>85</v>
       </c>
@@ -11137,7 +11127,7 @@
         <v>Fetches a bundle of all !Observation resources for the specified patient and status</v>
       </c>
     </row>
-    <row r="67" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" s="1" customFormat="1">
       <c r="A67" s="1">
         <v>88</v>
       </c>
@@ -11170,7 +11160,7 @@
         <v>Fetches a bundle of all CarePlan resources for the specified patient and category=`assess-plan`</v>
       </c>
     </row>
-    <row r="68" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" s="1" customFormat="1">
       <c r="A68" s="1">
         <v>89</v>
       </c>
@@ -11202,7 +11192,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="69" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" s="1" customFormat="1">
       <c r="A69" s="1">
         <v>90</v>
       </c>
@@ -11234,7 +11224,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="70" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" s="1" customFormat="1">
       <c r="A70" s="1">
         <v>91</v>
       </c>
@@ -11266,7 +11256,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="71" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" s="1" customFormat="1">
       <c r="A71" s="1">
         <v>94</v>
       </c>
@@ -11299,7 +11289,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="72" spans="1:16" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" s="1" customFormat="1" ht="15.75">
       <c r="A72" s="1">
         <v>97</v>
       </c>
@@ -11332,7 +11322,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and observation code.</v>
       </c>
     </row>
-    <row r="73" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" s="1" customFormat="1">
       <c r="A73" s="1">
         <v>100</v>
       </c>
@@ -11365,7 +11355,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and category and status</v>
       </c>
     </row>
-    <row r="74" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" s="1" customFormat="1">
       <c r="A74" s="1">
         <v>101</v>
       </c>
@@ -11398,7 +11388,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `vital-signs`</v>
       </c>
     </row>
-    <row r="75" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" s="1" customFormat="1">
       <c r="A75" s="1">
         <v>102</v>
       </c>
@@ -11431,7 +11421,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only.</v>
       </c>
     </row>
-    <row r="76" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" s="1" customFormat="1">
       <c r="A76" s="1">
         <v>103</v>
       </c>
@@ -11464,7 +11454,7 @@
         <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `vital-signs`</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16">
       <c r="A77" s="1">
         <v>104</v>
       </c>
@@ -11500,7 +11490,7 @@
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
     </row>
-    <row r="78" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" s="1" customFormat="1">
       <c r="A78" s="1">
         <v>107</v>
       </c>
@@ -11531,7 +11521,7 @@
         <v>Fetches a bundle of all DocumentReference resources for the specified patient and status. See the implementation notes above for how to access the actual document.</v>
       </c>
     </row>
-    <row r="79" spans="1:16" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A79" s="1">
         <v>108</v>
       </c>
@@ -11560,7 +11550,7 @@
         <v>Fetches a bundle of all !DocumentReference resources for the specified patient and period. See the implementation notes above for how to access the actual document.</v>
       </c>
     </row>
-    <row r="80" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" s="1" customFormat="1">
       <c r="A80" s="1">
         <v>109</v>
       </c>
@@ -11593,7 +11583,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A81" s="1">
         <v>110</v>
       </c>
@@ -11626,7 +11616,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="82" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" s="1" customFormat="1">
       <c r="A82" s="1">
         <v>111</v>
       </c>
@@ -11656,7 +11646,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="83" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1">
       <c r="A83" s="1">
         <v>112</v>
       </c>
@@ -11687,7 +11677,7 @@
         <v>Fetches a bundle of all DocumentReference resources for the specified patient and type and period. See the implementation notes above for how to access the actual document.</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" s="1" customFormat="1">
       <c r="A84" s="1">
         <v>115</v>
       </c>

--- a/source/source_spreadsheets/uscore-server.xlsx
+++ b/source/source_spreadsheets/uscore-server.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\US-Core-R4\source\source_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0358AB-3141-4B32-BE04-49B24D029ECB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02423455-A91B-4C1F-A3FC-0C562C2FDB62}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-465" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-465" windowWidth="19440" windowHeight="15000" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="meta" sheetId="1" r:id="rId1"/>
-    <sheet name="igs" sheetId="10" r:id="rId2"/>
-    <sheet name="profiles" sheetId="2" r:id="rId3"/>
-    <sheet name="resources" sheetId="4" r:id="rId4"/>
-    <sheet name="ops" sheetId="5" r:id="rId5"/>
-    <sheet name="interactions" sheetId="6" r:id="rId6"/>
-    <sheet name="rest_interactions" sheetId="11" r:id="rId7"/>
-    <sheet name="sps" sheetId="7" r:id="rId8"/>
-    <sheet name="sp_combos" sheetId="8" r:id="rId9"/>
+    <sheet name="config" sheetId="12" r:id="rId1"/>
+    <sheet name="meta" sheetId="1" r:id="rId2"/>
+    <sheet name="igs" sheetId="10" r:id="rId3"/>
+    <sheet name="profiles" sheetId="2" r:id="rId4"/>
+    <sheet name="resources" sheetId="4" r:id="rId5"/>
+    <sheet name="ops" sheetId="5" r:id="rId6"/>
+    <sheet name="interactions" sheetId="6" r:id="rId7"/>
+    <sheet name="rest_interactions" sheetId="11" r:id="rId8"/>
+    <sheet name="sps" sheetId="7" r:id="rId9"/>
+    <sheet name="sp_combos" sheetId="8" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">sp_combos!$B$1:$B$77</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">sps!$A$1:$AB$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">sp_combos!$B$1:$B$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">sps!$A$1:$AB$94</definedName>
   </definedNames>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -142,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1991" uniqueCount="539">
   <si>
     <t>Element</t>
   </si>
@@ -1465,9 +1466,6 @@
   </si>
   <si>
     <t>conditionalDelete</t>
-  </si>
-  <si>
-    <t>This Section describes the expected capabilities of the US Core Server actor which is responsible for providing responses to the queries submitted by the US Core Requestors. The complete list of FHIR profiles, RESTful operations, and search parameters supported by US Core Servers are defined. Systems implementing this capability statement should meet the ONC 2015 Common Clinical Data Set (CCDS) access requirement for Patient Selection 170.315(g)(7) and Application Access - Data Category Request 170.315(g)(8) and and the latest proposed ONC [U.S. Core Data for Interoperability (USCDI)].  US Core Clients have the option of choosing from this list to access necessary data based on their local use cases and other contextual requirements.</t>
   </si>
   <si>
     <t>The MedicationStatement and MedicationRequest resources can represent a medication, using an external reference to a Medication resource. If an external Medication Resource is used in a MedicationStatement or a MedicationRequest, then the READ and SEARCH Criteria  **SHALL**  be supported.</t>
@@ -1732,20 +1730,65 @@
     <t>Fetches a bundle of all MedicationRequest resources for the specified patient and intent  code = `order,plan` and authoredon date</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/ImplementationGuide/hl7.fhir.us.core|3.0.1</t>
-  </si>
-  <si>
     <t>3.1.1</t>
   </si>
   <si>
     <t>4.0.1</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>US-Core</t>
+  </si>
+  <si>
+    <t>canon</t>
+  </si>
+  <si>
+    <t>//ERICS-AIR-2/ehaas/Documents/FHIR/US-Core-R4/source/</t>
+  </si>
+  <si>
+    <t>//ERICS-AIR-2/ehaas/Documents/FHIR/US-Core-R4/output</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/</t>
+  </si>
+  <si>
+    <t>HL7 International - US Realm Steering Committee</t>
+  </si>
+  <si>
+    <t>http://www.hl7.org/Special/committees/usrealm/index.cfm</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>packagepath</t>
+  </si>
+  <si>
+    <t>publishersystem</t>
+  </si>
+  <si>
+    <t>publishervalue</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ImplementationGuide/hl7.fhir.us.core|3.1.1</t>
+  </si>
+  <si>
+    <t>This Section describes the expected capabilities of the US Core Server actor which is responsible for providing responses to the queries submitted by the US Core Requestors. The complete list of FHIR profiles, RESTful operations, and search parameters supported by US Core Servers are defined. Systems implementing this capability statement should meet the ONC 2015 Common Clinical Data Set (CCDS) access requirement for Patient Selection 170.315(g)(7) and Application Access - Data Category Request 170.315(g)(8) and and the ONC [U.S. Core Data for Interoperability (USCDI)](https://www.healthit.gov/isa/sites/isa/files/2020-03/USCDI-Version1-2020-Final-Standard.pdf).  US Core Clients have the option of choosing from this list to access necessary data based on their local use cases and other contextual requirements.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/head-occipital-frontal-circumference-percentile</t>
+  </si>
+  <si>
+    <t>US Core Pediatric Head Occipital-frontal Circumference Percentile Profile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1817,12 +1860,6 @@
       <family val="3"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF006400"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
@@ -1873,7 +1910,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1901,10 +1938,7 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -2219,11 +2253,2630 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A508ECBD-F3E5-4662-8D7C-0F31D75EC9A2}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>532</v>
+      </c>
+      <c r="B3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>523</v>
+      </c>
+      <c r="B4" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>525</v>
+      </c>
+      <c r="B5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>533</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>534</v>
+      </c>
+      <c r="B8" t="s">
+        <v>530</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:P84"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="21.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="96.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="56" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="88.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="82.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickTop="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f t="shared" ref="C2:C39" si="0">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B2)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
+      </c>
+      <c r="D2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" s="5" t="str">
+        <f t="shared" ref="J2:J32" si="1">"Fetches a bundle of all "&amp;B2&amp;" resources matching the specified "&amp;SUBSTITUTE(D2,","," and ")</f>
+        <v>Fetches a bundle of all !Encounter resources matching the specified class and date</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
+      </c>
+      <c r="D3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J3" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all !Encounter resources matching the specified class and date and patient</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
+      </c>
+      <c r="D4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J4" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all !Encounter resources matching the specified class and date and patient and type</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
+      </c>
+      <c r="D5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" t="s">
+        <v>110</v>
+      </c>
+      <c r="J5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all !Encounter resources matching the specified class and date and type</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
+      </c>
+      <c r="D6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="J6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all Encounter resources matching the specified class and patient</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
+      </c>
+      <c r="D7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and status</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
+      </c>
+      <c r="D8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" t="s">
+        <v>116</v>
+      </c>
+      <c r="J8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and status and type</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
+      </c>
+      <c r="D9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" t="s">
+        <v>116</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and type</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
+      </c>
+      <c r="D10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all !Encounter resources matching the specified class and status</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
+      </c>
+      <c r="D11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="J11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all !Encounter resources matching the specified class and status and type</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
+      </c>
+      <c r="D12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all !Encounter resources matching the specified class and type</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
+      </c>
+      <c r="D13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>123</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="J13" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all Encounter resources matching the specified date and patient</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="1" customFormat="1">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J14" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all !Encounter resources matching the specified date and patient and type</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="1" customFormat="1">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J15" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all !Encounter resources matching the specified date and type</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J16" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all Encounter resources matching the specified patient and type</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all !Encounter resources matching the specified patient and status and type</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="J18" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all Encounter resources matching the specified patient and status</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="1" customFormat="1">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all !Encounter resources matching the specified status and type</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="1" customFormat="1">
+      <c r="A20" s="1">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="1" customFormat="1">
+      <c r="A21" s="1">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J21" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher and status</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="J22" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and status</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="1" customFormat="1">
+      <c r="A23" s="1">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="1" customFormat="1">
+      <c r="A24" s="1">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status and version</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="1" customFormat="1">
+      <c r="A25" s="1">
+        <v>26</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and version</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="1" customFormat="1">
+      <c r="A26" s="1">
+        <v>27</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J26" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all !Questionnaire resources matching the specified status and title and version</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="1" customFormat="1">
+      <c r="A27" s="1">
+        <v>28</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J27" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all !Questionnaire resources matching the specified status and version</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="1" customFormat="1">
+      <c r="A28" s="1">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J28" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all !Questionnaire resources matching the specified title and version</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="1" customFormat="1">
+      <c r="A29" s="1">
+        <v>30</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="J29" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all Patient resources matching the specified birthdate and family</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="1" customFormat="1">
+      <c r="A30" s="1">
+        <v>31</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="J30" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all Patient resources matching the specified birthdate and name</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="1" customFormat="1">
+      <c r="A31" s="1">
+        <v>32</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="J31" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all Patient resources matching the specified family and gender</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="1" customFormat="1">
+      <c r="A32" s="1">
+        <v>33</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="J32" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fetches a bundle of all Patient resources matching the specified gender and name</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="1" customFormat="1">
+      <c r="A33" s="1">
+        <v>36</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="1" customFormat="1">
+      <c r="A34" s="1">
+        <v>37</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="1" customFormat="1">
+      <c r="A35" s="1">
+        <v>38</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="1" customFormat="1">
+      <c r="A36" s="1">
+        <v>39</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="1" customFormat="1">
+      <c r="A37" s="1">
+        <v>42</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-allergyintolerance</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="1" customFormat="1">
+      <c r="A38" s="1">
+        <v>45</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="J38" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B38&amp;" resources for the specified "&amp;SUBSTITUTE(D38,","," and ")</f>
+        <v>Fetches a bundle of all Immunization resources for the specified patient and date</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="1" customFormat="1">
+      <c r="A39" s="1">
+        <v>46</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="J39" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B39&amp;" resources for the specified "&amp;SUBSTITUTE(D39,","," and ")</f>
+        <v>Fetches a bundle of all Immunization resources for the specified patient and status</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="1" customFormat="1">
+      <c r="A40" s="1">
+        <v>49</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="J40" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B40&amp;" resources for the specified "&amp;SUBSTITUTE(D40,","," and ")</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="1" customFormat="1" ht="15.75">
+      <c r="A41" s="1">
+        <v>50</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J41" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B41&amp;" resources for the specified patient and  a category code = `LAB`"</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code = `LAB`</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="1" customFormat="1" ht="15.75">
+      <c r="A42" s="1">
+        <v>51</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="J42" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B42&amp;" resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes."</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="1" customFormat="1" ht="15.75">
+      <c r="A43" s="1">
+        <v>52</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="J43" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B43&amp;" resources for the specified patient and date and a category code = `LAB`"</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code = `LAB`</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="1" customFormat="1">
+      <c r="A44" s="1">
+        <v>53</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="J44" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B44&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="1" customFormat="1">
+      <c r="A45" s="1">
+        <v>56</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="J45" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B45&amp;" resources for the specified "&amp;SUBSTITUTE(D45,","," and ")</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="1" customFormat="1">
+      <c r="A46" s="1">
+        <v>57</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="J46" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B46&amp;" resources for the specified patient and  a category code specified in US Core DiagnosticReport Category Codes"</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code specified in US Core DiagnosticReport Category Codes</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="1" customFormat="1">
+      <c r="A47" s="1">
+        <v>58</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="J47" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B47&amp;" resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes."</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="1" customFormat="1">
+      <c r="A48" s="1">
+        <v>59</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="J48" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B48&amp;" resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes"</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="1" customFormat="1">
+      <c r="A49" s="1">
+        <v>60</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="J49" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B49&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
+        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="1" customFormat="1">
+      <c r="A50" s="1">
+        <v>63</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C50" s="1" t="str">
+        <f t="shared" ref="C50:C60" si="2">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B50)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="J50" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B50&amp;" resources for the specified "&amp;SUBSTITUTE(D50,","," and ")</f>
+        <v>Fetches a bundle of all Goal resources for the specified patient and lifecycle-status</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="1" customFormat="1">
+      <c r="A51" s="1">
+        <v>64</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C51" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="J51" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B51&amp;" resources for the specified "&amp;SUBSTITUTE(D51,","," and ")</f>
+        <v>Fetches a bundle of all Goal resources for the specified patient and target-date</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="1" customFormat="1">
+      <c r="A52" s="1">
+        <v>67</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C52" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="1" customFormat="1">
+      <c r="A53" s="1">
+        <v>68</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C53" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="1" customFormat="1">
+      <c r="A54" s="1">
+        <v>69</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C54" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="1" customFormat="1">
+      <c r="A55" s="1">
+        <v>70</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C55" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="1" customFormat="1">
+      <c r="A56" s="1">
+        <v>73</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C56" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationstatement</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="J56" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B56&amp;" resources for the specified "&amp;SUBSTITUTE(D56,","," and ")</f>
+        <v>Fetches a bundle of all !MedicationStatement resources for the specified patient and status</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="1" customFormat="1">
+      <c r="A57" s="1">
+        <v>74</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C57" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationstatement</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="1" customFormat="1">
+      <c r="A58" s="1">
+        <v>75</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C58" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="J58" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B58&amp;" resources for the specified "&amp;SUBSTITUTE(D58,","," and ")</f>
+        <v>Fetches a bundle of all Procedure resources for the specified patient and status</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="1" customFormat="1">
+      <c r="A59" s="1">
+        <v>76</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C59" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="J59" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B59&amp;" resources for the specified "&amp;SUBSTITUTE(D59,","," and ")</f>
+        <v>Fetches a bundle of all Procedure resources for the specified patient and date</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="1" customFormat="1">
+      <c r="A60" s="1">
+        <v>77</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C60" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="J60" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B60&amp;" resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes."</f>
+        <v>Fetches a bundle of all Procedure resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes.</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="1" customFormat="1">
+      <c r="A61" s="1">
+        <v>80</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="1" customFormat="1">
+      <c r="A62" s="1">
+        <v>81</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="J62" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B62&amp;" resources for the specified patient and a category code = `laboratory`"</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `laboratory`</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="1" customFormat="1">
+      <c r="A63" s="1">
+        <v>82</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="J63" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B63&amp;" resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only."</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only.</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="1" customFormat="1">
+      <c r="A64" s="1">
+        <v>83</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="J64" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B64&amp;" resources for the specified patient and date and a category code = `laboratory`"</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `laboratory`</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" s="1" customFormat="1">
+      <c r="A65" s="1">
+        <v>84</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="J65" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B65&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" s="1" customFormat="1">
+      <c r="A66" s="1">
+        <v>85</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="J66" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B66&amp;" resources for the specified "&amp;SUBSTITUTE(D66,","," and ")</f>
+        <v>Fetches a bundle of all !Observation resources for the specified patient and status</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" s="1" customFormat="1">
+      <c r="A67" s="1">
+        <v>88</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="J67" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B67&amp;" resources for the specified "&amp;SUBSTITUTE(D67,","," and ")&amp;"=`assess-plan`"</f>
+        <v>Fetches a bundle of all CarePlan resources for the specified patient and category=`assess-plan`</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" s="1" customFormat="1">
+      <c r="A68" s="1">
+        <v>89</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" s="1" customFormat="1">
+      <c r="A69" s="1">
+        <v>90</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" s="1" customFormat="1">
+      <c r="A70" s="1">
+        <v>91</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" s="1" customFormat="1">
+      <c r="A71" s="1">
+        <v>94</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C71" s="1" t="str">
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B71)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" s="1" customFormat="1" ht="15.75">
+      <c r="A72" s="1">
+        <v>97</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="J72" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B72&amp;" resources for the specified patient and observation code."</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and observation code.</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" s="1" customFormat="1">
+      <c r="A73" s="1">
+        <v>100</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="J73" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B73&amp;" resources for the specified "&amp;SUBSTITUTE(D73,","," and ")</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and category and status</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" s="1" customFormat="1">
+      <c r="A74" s="1">
+        <v>101</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="J74" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B74&amp;" resources for the specified patient and a category code = `vital-signs`"</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `vital-signs`</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" s="1" customFormat="1">
+      <c r="A75" s="1">
+        <v>102</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="J75" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B75&amp;" resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only."</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only.</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" s="1" customFormat="1">
+      <c r="A76" s="1">
+        <v>103</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="J76" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B76&amp;" resources for the specified patient and date and a category code = `vital-signs`"</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `vital-signs`</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="A77" s="1">
+        <v>104</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="J77" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B77&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple codes."</f>
+        <v>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple codes.</v>
+      </c>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+    </row>
+    <row r="78" spans="1:16" s="1" customFormat="1">
+      <c r="A78" s="1">
+        <v>107</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C78" s="1" t="str">
+        <f t="shared" ref="C78:C83" si="3">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B78)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="J78" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B78&amp;" resources for the specified "&amp;SUBSTITUTE(D78,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
+        <v>Fetches a bundle of all DocumentReference resources for the specified patient and status. See the implementation notes above for how to access the actual document.</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A79" s="1">
+        <v>108</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C79" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!documentreference</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B79&amp;" resources for the specified "&amp;SUBSTITUTE(D79,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
+        <v>Fetches a bundle of all !DocumentReference resources for the specified patient and period. See the implementation notes above for how to access the actual document.</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" s="1" customFormat="1">
+      <c r="A80" s="1">
+        <v>109</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C80" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A81" s="1">
+        <v>110</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C81" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="J81" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" s="1" customFormat="1">
+      <c r="A82" s="1">
+        <v>111</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C82" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="J82" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A83" s="1">
+        <v>112</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C83" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="J83" s="5" t="str">
+        <f>"Fetches a bundle of all "&amp;B83&amp;" resources for the specified "&amp;SUBSTITUTE(D83,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
+        <v>Fetches a bundle of all DocumentReference resources for the specified patient and type and period. See the implementation notes above for how to access the actual document.</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" s="1" customFormat="1">
+      <c r="A84" s="1">
+        <v>115</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J128">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2245,7 +4898,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1">
@@ -2253,23 +4906,23 @@
         <v>74</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="105" customHeight="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="139.5" customHeight="1">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>441</v>
+        <v>536</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2277,7 +4930,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2293,7 +4946,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="103.5" customHeight="1">
@@ -2301,7 +4954,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -2309,7 +4962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70CC787-78D8-4AA0-BE43-37746049F77C}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -2332,12 +4985,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2394,10 +5047,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
@@ -2544,10 +5197,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
@@ -2589,10 +5242,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>13</v>
@@ -2679,10 +5332,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>13</v>
@@ -2694,10 +5347,10 @@
     </row>
     <row r="24" spans="1:6" s="1" customFormat="1">
       <c r="A24" s="11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>13</v>
@@ -2736,22 +5389,33 @@
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1">
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>497</v>
-      </c>
       <c r="C27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A28" s="17"/>
+        <v>493</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>196</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2760,7 +5424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X59"/>
   <sheetViews>
@@ -2800,49 +5464,49 @@
         <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F1" t="s">
         <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>434</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>435</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>439</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>440</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>348</v>
@@ -2876,10 +5540,10 @@
       <c r="S2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="18" t="s">
-        <v>509</v>
-      </c>
-      <c r="W2" s="18"/>
+      <c r="V2" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="W2" s="17"/>
       <c r="X2" t="s">
         <v>22</v>
       </c>
@@ -2897,10 +5561,10 @@
       <c r="S3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="V3" s="18" t="s">
-        <v>509</v>
-      </c>
-      <c r="W3" s="18"/>
+      <c r="V3" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="W3" s="17"/>
     </row>
     <row r="4" spans="1:24" ht="25.5" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -2915,10 +5579,10 @@
       <c r="S4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="V4" s="18" t="s">
-        <v>509</v>
-      </c>
-      <c r="W4" s="18"/>
+      <c r="V4" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="W4" s="17"/>
     </row>
     <row r="5" spans="1:24" ht="25.5" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -2933,10 +5597,10 @@
       <c r="S5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="V5" s="18" t="s">
-        <v>509</v>
-      </c>
-      <c r="W5" s="18"/>
+      <c r="V5" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="W5" s="17"/>
       <c r="X5" t="s">
         <v>26</v>
       </c>
@@ -2954,10 +5618,10 @@
       <c r="S6" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="V6" s="18" t="s">
-        <v>509</v>
-      </c>
-      <c r="W6" s="18"/>
+      <c r="V6" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="W6" s="17"/>
     </row>
     <row r="7" spans="1:24" ht="25.5" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -2972,10 +5636,10 @@
       <c r="S7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="V7" s="18" t="s">
-        <v>509</v>
-      </c>
-      <c r="W7" s="18"/>
+      <c r="V7" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="W7" s="17"/>
     </row>
     <row r="8" spans="1:24" ht="25.5" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -2985,7 +5649,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>21</v>
@@ -2993,10 +5657,10 @@
       <c r="S8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="V8" s="18" t="s">
-        <v>509</v>
-      </c>
-      <c r="W8" s="18"/>
+      <c r="V8" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="W8" s="17"/>
     </row>
     <row r="9" spans="1:24" ht="25.5" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -3011,10 +5675,10 @@
       <c r="S9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="V9" s="18" t="s">
-        <v>509</v>
-      </c>
-      <c r="W9" s="18"/>
+      <c r="V9" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="W9" s="17"/>
     </row>
     <row r="10" spans="1:24" ht="25.5" customHeight="1">
       <c r="A10" s="1" t="s">
@@ -3029,10 +5693,10 @@
       <c r="S10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="V10" s="18" t="s">
-        <v>509</v>
-      </c>
-      <c r="W10" s="18"/>
+      <c r="V10" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="W10" s="17"/>
     </row>
     <row r="11" spans="1:24" ht="25.5" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -3047,10 +5711,10 @@
       <c r="S11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="V11" s="18" t="s">
-        <v>509</v>
-      </c>
-      <c r="W11" s="18"/>
+      <c r="V11" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="W11" s="17"/>
     </row>
     <row r="12" spans="1:24" ht="25.5" customHeight="1">
       <c r="A12" s="1" t="s">
@@ -3065,8 +5729,8 @@
       <c r="S12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
     </row>
     <row r="13" spans="1:24" ht="25.5" customHeight="1">
       <c r="A13" s="1" t="s">
@@ -3076,7 +5740,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>21</v>
@@ -3084,8 +5748,8 @@
       <c r="S13" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
     </row>
     <row r="14" spans="1:24" ht="25.5" customHeight="1">
       <c r="A14" s="1" t="s">
@@ -3095,7 +5759,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>21</v>
@@ -3106,20 +5770,20 @@
       <c r="U14" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="V14" s="18" t="s">
-        <v>509</v>
-      </c>
-      <c r="W14" s="18"/>
+      <c r="V14" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="W14" s="17"/>
     </row>
     <row r="15" spans="1:24" ht="25.5" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>21</v>
@@ -3130,10 +5794,10 @@
       <c r="U15" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="V15" s="18" t="s">
-        <v>509</v>
-      </c>
-      <c r="W15" s="18"/>
+      <c r="V15" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="W15" s="17"/>
     </row>
     <row r="16" spans="1:24" ht="25.5" customHeight="1">
       <c r="A16" s="1" t="s">
@@ -3148,10 +5812,10 @@
       <c r="S16" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="V16" s="18" t="s">
-        <v>509</v>
-      </c>
-      <c r="W16" s="18"/>
+      <c r="V16" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="W16" s="17"/>
     </row>
     <row r="17" spans="1:23" ht="25.5" customHeight="1">
       <c r="A17" s="1" t="s">
@@ -3166,8 +5830,8 @@
       <c r="S17" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
     </row>
     <row r="18" spans="1:23" ht="25.5" customHeight="1">
       <c r="A18" s="1" t="s">
@@ -3182,10 +5846,10 @@
       <c r="S18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="V18" s="18" t="s">
-        <v>509</v>
-      </c>
-      <c r="W18" s="18"/>
+      <c r="V18" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="W18" s="17"/>
     </row>
     <row r="19" spans="1:23" ht="25.5" customHeight="1">
       <c r="A19" s="1" t="s">
@@ -3200,8 +5864,8 @@
       <c r="S19" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="V19" s="18"/>
-      <c r="W19" s="18"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
     </row>
     <row r="20" spans="1:23" ht="25.5" customHeight="1">
       <c r="A20" s="1" t="s">
@@ -3219,8 +5883,8 @@
       <c r="U20" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="V20" s="18"/>
-      <c r="W20" s="18"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
     </row>
     <row r="21" spans="1:23" ht="25.5" customHeight="1">
       <c r="A21" s="1" t="s">
@@ -3235,20 +5899,20 @@
       <c r="S21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="V21" s="18" t="s">
-        <v>509</v>
-      </c>
-      <c r="W21" s="18"/>
+      <c r="V21" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="W21" s="17"/>
     </row>
     <row r="22" spans="1:23" ht="25.5" customHeight="1">
       <c r="A22" t="s">
+        <v>493</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>494</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>495</v>
       </c>
       <c r="R22" s="1" t="s">
         <v>21</v>
@@ -3259,7 +5923,7 @@
     </row>
     <row r="23" spans="1:23" ht="25.5" customHeight="1">
       <c r="A23" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>78</v>
@@ -3289,7 +5953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -3336,24 +6000,24 @@
         <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="60">
       <c r="A3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B3" t="s">
         <v>503</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>504</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>505</v>
-      </c>
-      <c r="D3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3364,7 +6028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Y10"/>
   <sheetViews>
@@ -3408,7 +6072,7 @@
         <v>412</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>413</v>
@@ -3441,7 +6105,7 @@
         <v>422</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>423</v>
@@ -3459,10 +6123,10 @@
         <v>427</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="75">
@@ -3485,7 +6149,7 @@
         <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -4086,7 +6750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB526E8-FEFB-4D61-9493-6CABF1663041}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -4107,12 +6771,12 @@
         <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="59.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>34</v>
@@ -4121,7 +6785,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>34</v>
@@ -4130,7 +6794,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>34</v>
@@ -4139,7 +6803,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>34</v>
@@ -4151,7 +6815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AB94"/>
   <sheetViews>
@@ -6965,7 +9629,7 @@
         <v>193</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>34</v>
@@ -7072,7 +9736,7 @@
         <v>194</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>34</v>
@@ -7176,7 +9840,7 @@
         <v>194</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>34</v>
@@ -7278,7 +9942,7 @@
         <v>56</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>68</v>
@@ -7331,7 +9995,7 @@
         <v>57</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>99</v>
@@ -7389,7 +10053,7 @@
         <v>58</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>247</v>
@@ -9176,2541 +11840,4 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:P84"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="21.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="96.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="56" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="88.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="82.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <f t="shared" ref="C2:C39" si="0">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B2)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
-      </c>
-      <c r="D2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J2" s="5" t="str">
-        <f t="shared" ref="J2:J32" si="1">"Fetches a bundle of all "&amp;B2&amp;" resources matching the specified "&amp;SUBSTITUTE(D2,","," and ")</f>
-        <v>Fetches a bundle of all !Encounter resources matching the specified class and date</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
-      </c>
-      <c r="D3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" t="s">
-        <v>112</v>
-      </c>
-      <c r="J3" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Encounter resources matching the specified class and date and patient</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
-      </c>
-      <c r="D4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" t="s">
-        <v>112</v>
-      </c>
-      <c r="J4" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Encounter resources matching the specified class and date and patient and type</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
-      </c>
-      <c r="D5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" t="s">
-        <v>110</v>
-      </c>
-      <c r="J5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Encounter resources matching the specified class and date and type</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
-      </c>
-      <c r="D6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="J6" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all Encounter resources matching the specified class and patient</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
-      </c>
-      <c r="D7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" t="s">
-        <v>116</v>
-      </c>
-      <c r="J7" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and status</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
-      </c>
-      <c r="D8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" t="s">
-        <v>116</v>
-      </c>
-      <c r="J8" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and status and type</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
-      </c>
-      <c r="D9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Encounter resources matching the specified class and patient and type</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
-      </c>
-      <c r="D10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Encounter resources matching the specified class and status</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>168</v>
-      </c>
-      <c r="C11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
-      </c>
-      <c r="D11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="J11" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Encounter resources matching the specified class and status and type</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>168</v>
-      </c>
-      <c r="C12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
-      </c>
-      <c r="D12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" t="s">
-        <v>63</v>
-      </c>
-      <c r="J12" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Encounter resources matching the specified class and type</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
-      </c>
-      <c r="D13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>123</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="J13" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all Encounter resources matching the specified date and patient</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="1" customFormat="1">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="J14" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Encounter resources matching the specified date and patient and type</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="1" customFormat="1">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J15" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Encounter resources matching the specified date and type</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="J16" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all Encounter resources matching the specified patient and type</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Encounter resources matching the specified patient and status and type</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="J18" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all Encounter resources matching the specified patient and status</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="1" customFormat="1">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Encounter resources matching the specified status and type</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="1" customFormat="1">
-      <c r="A20" s="1">
-        <v>21</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="1" customFormat="1">
-      <c r="A21" s="1">
-        <v>22</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="J21" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and publisher and status</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1">
-        <v>23</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H22" s="5"/>
-      <c r="J22" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified context-type-value and status</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="1" customFormat="1">
-      <c r="A23" s="1">
-        <v>24</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="1" customFormat="1">
-      <c r="A24" s="1">
-        <v>25</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and status and version</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="1" customFormat="1">
-      <c r="A25" s="1">
-        <v>26</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified publisher and version</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="1" customFormat="1">
-      <c r="A26" s="1">
-        <v>27</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="J26" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified status and title and version</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="1" customFormat="1">
-      <c r="A27" s="1">
-        <v>28</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C27" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J27" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified status and version</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="1" customFormat="1">
-      <c r="A28" s="1">
-        <v>29</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C28" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!questionnaire</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="J28" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all !Questionnaire resources matching the specified title and version</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="1" customFormat="1">
-      <c r="A29" s="1">
-        <v>30</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="J29" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all Patient resources matching the specified birthdate and family</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" s="1" customFormat="1">
-      <c r="A30" s="1">
-        <v>31</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="J30" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all Patient resources matching the specified birthdate and name</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="1" customFormat="1">
-      <c r="A31" s="1">
-        <v>32</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="J31" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all Patient resources matching the specified family and gender</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="1" customFormat="1">
-      <c r="A32" s="1">
-        <v>33</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="J32" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Fetches a bundle of all Patient resources matching the specified gender and name</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" s="1" customFormat="1">
-      <c r="A33" s="1">
-        <v>36</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C33" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="1" customFormat="1">
-      <c r="A34" s="1">
-        <v>37</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C34" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="1" customFormat="1">
-      <c r="A35" s="1">
-        <v>38</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C35" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="1" customFormat="1">
-      <c r="A36" s="1">
-        <v>39</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C36" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="1" customFormat="1">
-      <c r="A37" s="1">
-        <v>42</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-allergyintolerance</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="1" customFormat="1">
-      <c r="A38" s="1">
-        <v>45</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C38" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="J38" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B38&amp;" resources for the specified "&amp;SUBSTITUTE(D38,","," and ")</f>
-        <v>Fetches a bundle of all Immunization resources for the specified patient and date</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" s="1" customFormat="1">
-      <c r="A39" s="1">
-        <v>46</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C39" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="J39" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B39&amp;" resources for the specified "&amp;SUBSTITUTE(D39,","," and ")</f>
-        <v>Fetches a bundle of all Immunization resources for the specified patient and status</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" s="1" customFormat="1">
-      <c r="A40" s="1">
-        <v>49</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="J40" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B40&amp;" resources for the specified "&amp;SUBSTITUTE(D40,","," and ")</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="1" customFormat="1" ht="15.75">
-      <c r="A41" s="1">
-        <v>50</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="J41" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B41&amp;" resources for the specified patient and  a category code = `LAB`"</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code = `LAB`</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="1" customFormat="1" ht="15.75">
-      <c r="A42" s="1">
-        <v>51</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="J42" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B42&amp;" resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes."</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="1" customFormat="1" ht="15.75">
-      <c r="A43" s="1">
-        <v>52</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="J43" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B43&amp;" resources for the specified patient and date and a category code = `LAB`"</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code = `LAB`</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="1" customFormat="1">
-      <c r="A44" s="1">
-        <v>53</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="J44" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B44&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="1" customFormat="1">
-      <c r="A45" s="1">
-        <v>56</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="J45" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B45&amp;" resources for the specified "&amp;SUBSTITUTE(D45,","," and ")</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and status</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" s="1" customFormat="1">
-      <c r="A46" s="1">
-        <v>57</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="J46" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B46&amp;" resources for the specified patient and  a category code specified in US Core DiagnosticReport Category Codes"</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  a category code specified in US Core DiagnosticReport Category Codes</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" s="1" customFormat="1">
-      <c r="A47" s="1">
-        <v>58</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="J47" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B47&amp;" resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes."</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and  report code(s).  SHOULD support search by multiple report codes.</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" s="1" customFormat="1">
-      <c r="A48" s="1">
-        <v>59</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="J48" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B48&amp;" resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes"</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and a category code specified in US Core DiagnosticReport Category Codes</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" s="1" customFormat="1">
-      <c r="A49" s="1">
-        <v>60</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="J49" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B49&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
-        <v>Fetches a bundle of all DiagnosticReport resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" s="1" customFormat="1">
-      <c r="A50" s="1">
-        <v>63</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C50" s="1" t="str">
-        <f t="shared" ref="C50:C60" si="2">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B50)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="J50" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B50&amp;" resources for the specified "&amp;SUBSTITUTE(D50,","," and ")</f>
-        <v>Fetches a bundle of all Goal resources for the specified patient and lifecycle-status</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" s="1" customFormat="1">
-      <c r="A51" s="1">
-        <v>64</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C51" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="J51" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B51&amp;" resources for the specified "&amp;SUBSTITUTE(D51,","," and ")</f>
-        <v>Fetches a bundle of all Goal resources for the specified patient and target-date</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" s="1" customFormat="1">
-      <c r="A52" s="1">
-        <v>67</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C52" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="1" customFormat="1">
-      <c r="A53" s="1">
-        <v>68</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C53" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" s="1" customFormat="1">
-      <c r="A54" s="1">
-        <v>69</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C54" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="J54" s="5" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" s="1" customFormat="1">
-      <c r="A55" s="1">
-        <v>70</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C55" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="J55" s="5" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" s="1" customFormat="1">
-      <c r="A56" s="1">
-        <v>73</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="C56" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationstatement</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="J56" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B56&amp;" resources for the specified "&amp;SUBSTITUTE(D56,","," and ")</f>
-        <v>Fetches a bundle of all !MedicationStatement resources for the specified patient and status</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" s="1" customFormat="1">
-      <c r="A57" s="1">
-        <v>74</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="C57" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!medicationstatement</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="J57" s="5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" s="1" customFormat="1">
-      <c r="A58" s="1">
-        <v>75</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C58" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="J58" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B58&amp;" resources for the specified "&amp;SUBSTITUTE(D58,","," and ")</f>
-        <v>Fetches a bundle of all Procedure resources for the specified patient and status</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" s="1" customFormat="1">
-      <c r="A59" s="1">
-        <v>76</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C59" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="J59" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B59&amp;" resources for the specified "&amp;SUBSTITUTE(D59,","," and ")</f>
-        <v>Fetches a bundle of all Procedure resources for the specified patient and date</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" s="1" customFormat="1">
-      <c r="A60" s="1">
-        <v>77</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C60" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="J60" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B60&amp;" resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes."</f>
-        <v>Fetches a bundle of all Procedure resources for the specified patient and date and procedure code(s).  SHOULD support search by multiple codes.</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" s="1" customFormat="1">
-      <c r="A61" s="1">
-        <v>80</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="J61" s="5" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" s="1" customFormat="1">
-      <c r="A62" s="1">
-        <v>81</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="J62" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B62&amp;" resources for the specified patient and a category code = `laboratory`"</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `laboratory`</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" s="1" customFormat="1">
-      <c r="A63" s="1">
-        <v>82</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="J63" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B63&amp;" resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only."</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple report codes. The Observation `code` parameter searches `Observation.code only.</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" s="1" customFormat="1">
-      <c r="A64" s="1">
-        <v>83</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="H64" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="J64" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B64&amp;" resources for the specified patient and date and a category code = `laboratory`"</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `laboratory`</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" s="1" customFormat="1">
-      <c r="A65" s="1">
-        <v>84</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="I65" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="J65" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B65&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes."</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple report codes.</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" s="1" customFormat="1">
-      <c r="A66" s="1">
-        <v>85</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="I66" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="J66" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B66&amp;" resources for the specified "&amp;SUBSTITUTE(D66,","," and ")</f>
-        <v>Fetches a bundle of all !Observation resources for the specified patient and status</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" s="1" customFormat="1">
-      <c r="A67" s="1">
-        <v>88</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="H67" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="I67" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="J67" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B67&amp;" resources for the specified "&amp;SUBSTITUTE(D67,","," and ")&amp;"=`assess-plan`"</f>
-        <v>Fetches a bundle of all CarePlan resources for the specified patient and category=`assess-plan`</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" s="1" customFormat="1">
-      <c r="A68" s="1">
-        <v>89</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="I68" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="J68" s="5" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" s="1" customFormat="1">
-      <c r="A69" s="1">
-        <v>90</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="I69" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="J69" s="5" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" s="1" customFormat="1">
-      <c r="A70" s="1">
-        <v>91</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="H70" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="I70" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="J70" s="5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" s="1" customFormat="1">
-      <c r="A71" s="1">
-        <v>94</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C71" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B71)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="I71" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="J71" s="5" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" s="1" customFormat="1" ht="15.75">
-      <c r="A72" s="1">
-        <v>97</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="J72" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B72&amp;" resources for the specified patient and observation code."</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and observation code.</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" s="1" customFormat="1">
-      <c r="A73" s="1">
-        <v>100</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="H73" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="I73" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="J73" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B73&amp;" resources for the specified "&amp;SUBSTITUTE(D73,","," and ")</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and category and status</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" s="1" customFormat="1">
-      <c r="A74" s="1">
-        <v>101</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="H74" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="I74" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="J74" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B74&amp;" resources for the specified patient and a category code = `vital-signs`"</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and a category code = `vital-signs`</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" s="1" customFormat="1">
-      <c r="A75" s="1">
-        <v>102</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="H75" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="I75" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="J75" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B75&amp;" resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only."</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and observation code(s).  SHOULD support search by multiple codes. The Observation `code` parameter searches `Observation.code only.</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" s="1" customFormat="1">
-      <c r="A76" s="1">
-        <v>103</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="H76" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="I76" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="J76" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B76&amp;" resources for the specified patient and date and a category code = `vital-signs`"</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and date and a category code = `vital-signs`</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16">
-      <c r="A77" s="1">
-        <v>104</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H77" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="I77" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="J77" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B77&amp;" resources for the specified patient and date and report code(s).  SHOULD support search by multiple codes."</f>
-        <v>Fetches a bundle of all Observation resources for the specified patient and date and report code(s).  SHOULD support search by multiple codes.</v>
-      </c>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
-    </row>
-    <row r="78" spans="1:16" s="1" customFormat="1">
-      <c r="A78" s="1">
-        <v>107</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C78" s="1" t="str">
-        <f t="shared" ref="C78:C83" si="3">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B78)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H78" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="I78" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="J78" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B78&amp;" resources for the specified "&amp;SUBSTITUTE(D78,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
-        <v>Fetches a bundle of all DocumentReference resources for the specified patient and status. See the implementation notes above for how to access the actual document.</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A79" s="1">
-        <v>108</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C79" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!documentreference</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H79" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B79&amp;" resources for the specified "&amp;SUBSTITUTE(D79,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
-        <v>Fetches a bundle of all !DocumentReference resources for the specified patient and period. See the implementation notes above for how to access the actual document.</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" s="1" customFormat="1">
-      <c r="A80" s="1">
-        <v>109</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C80" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="H80" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="I80" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="J80" s="5" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A81" s="1">
-        <v>110</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C81" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="H81" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="I81" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="J81" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" s="1" customFormat="1">
-      <c r="A82" s="1">
-        <v>111</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C82" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H82" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="I82" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="J82" s="5" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A83" s="1">
-        <v>112</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C83" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H83" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="I83" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="J83" s="5" t="str">
-        <f>"Fetches a bundle of all "&amp;B83&amp;" resources for the specified "&amp;SUBSTITUTE(D83,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
-        <v>Fetches a bundle of all DocumentReference resources for the specified patient and type and period. See the implementation notes above for how to access the actual document.</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" s="1" customFormat="1">
-      <c r="A84" s="1">
-        <v>115</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H84" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="I84" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="J84" s="5" t="s">
-        <v>433</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J128">
-    <sortCondition ref="A1"/>
-  </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/source/source_spreadsheets/uscore-server.xlsx
+++ b/source/source_spreadsheets/uscore-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\US-Core-R4\source\source_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02423455-A91B-4C1F-A3FC-0C562C2FDB62}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462EA15F-4982-40F6-9B25-A66C97D74A0B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-465" windowWidth="19440" windowHeight="15000" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-465" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -2257,7 +2257,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2338,7 +2338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -4876,7 +4876,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4989,8 +4989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="B28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>

--- a/source/source_spreadsheets/uscore-server.xlsx
+++ b/source/source_spreadsheets/uscore-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\US-Core-R4\source\source_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462EA15F-4982-40F6-9B25-A66C97D74A0B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2170BD0E-BD43-46DA-BAE8-DD458C7DC1C4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-465" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -1267,9 +1267,6 @@
     <t>US Core CareTeam Profile</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationstatement</t>
-  </si>
-  <si>
     <t>US Core MedicationStatement Profile</t>
   </si>
   <si>
@@ -1466,9 +1463,6 @@
   </si>
   <si>
     <t>conditionalDelete</t>
-  </si>
-  <si>
-    <t>The MedicationStatement and MedicationRequest resources can represent a medication, using an external reference to a Medication resource. If an external Medication Resource is used in a MedicationStatement or a MedicationRequest, then the READ and SEARCH Criteria  **SHALL**  be supported.</t>
   </si>
   <si>
     <t>us-core-server</t>
@@ -1782,6 +1776,12 @@
   </si>
   <si>
     <t>US Core Pediatric Head Occipital-frontal Circumference Percentile Profile</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationstatement</t>
+  </si>
+  <si>
+    <t>The  MedicationRequest resource can represent a medication, using an external reference to a Medication resource. If an external Medication Resource is used in a MedicationRequest, then the READ and SEARCH Criteria  **SHALL**  be supported.</t>
   </si>
 </sst>
 </file>
@@ -2275,34 +2275,34 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2310,12 +2310,12 @@
         <v>75</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
@@ -2323,10 +2323,10 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B8" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -2338,8 +2338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="I39" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3283,7 +3283,7 @@
         <v>160</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>156</v>
@@ -3376,7 +3376,7 @@
         <v>356</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="1" customFormat="1">
@@ -3790,7 +3790,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>78</v>
@@ -3802,7 +3802,7 @@
         <v>223</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="J51" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B51&amp;" resources for the specified "&amp;SUBSTITUTE(D51,","," and ")</f>
@@ -3821,7 +3821,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>13</v>
@@ -3830,16 +3830,16 @@
         <v>116</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="1" customFormat="1">
@@ -3854,7 +3854,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>13</v>
@@ -3863,16 +3863,16 @@
         <v>116</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>199</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="54" spans="1:10" s="1" customFormat="1">
@@ -3887,7 +3887,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>78</v>
@@ -3896,16 +3896,16 @@
         <v>116</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>199</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="55" spans="1:10" s="1" customFormat="1">
@@ -3920,7 +3920,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>78</v>
@@ -3929,16 +3929,16 @@
         <v>234</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>249</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="56" spans="1:10" s="1" customFormat="1">
@@ -3946,7 +3946,7 @@
         <v>73</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C56" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3965,7 +3965,7 @@
         <v>201</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="J56" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B56&amp;" resources for the specified "&amp;SUBSTITUTE(D56,","," and ")</f>
@@ -3977,7 +3977,7 @@
         <v>74</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C57" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3996,7 +3996,7 @@
         <v>250</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="J57" s="5" t="s">
         <v>252</v>
@@ -4103,7 +4103,7 @@
         <v>196</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>256</v>
@@ -4115,13 +4115,13 @@
         <v>116</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>307</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="J61" s="5" t="s">
         <v>352</v>
@@ -4135,7 +4135,7 @@
         <v>196</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>155</v>
@@ -4147,13 +4147,13 @@
         <v>116</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>238</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J62" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B62&amp;" resources for the specified patient and a category code = `laboratory`"</f>
@@ -4168,7 +4168,7 @@
         <v>196</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>157</v>
@@ -4198,7 +4198,7 @@
         <v>196</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>208</v>
@@ -4210,13 +4210,13 @@
         <v>234</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>243</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="J64" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B64&amp;" resources for the specified patient and date and a category code = `laboratory`"</f>
@@ -4231,7 +4231,7 @@
         <v>196</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>235</v>
@@ -4261,7 +4261,7 @@
         <v>351</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>126</v>
@@ -4342,7 +4342,7 @@
         <v>260</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="J68" s="5" t="s">
         <v>264</v>
@@ -4406,7 +4406,7 @@
         <v>259</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="J70" s="5" t="s">
         <v>266</v>
@@ -4498,13 +4498,13 @@
         <v>116</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>306</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="J73" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B73&amp;" resources for the specified "&amp;SUBSTITUTE(D73,","," and ")</f>
@@ -4531,13 +4531,13 @@
         <v>116</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H74" s="5" t="s">
         <v>305</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="J74" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B74&amp;" resources for the specified patient and a category code = `vital-signs`"</f>
@@ -4564,7 +4564,7 @@
         <v>116</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H75" s="5" t="s">
         <v>308</v>
@@ -4597,13 +4597,13 @@
         <v>234</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H76" s="5" t="s">
         <v>311</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="J76" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B76&amp;" resources for the specified patient and date and a category code = `vital-signs`"</f>
@@ -4796,7 +4796,7 @@
         <v>329</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J82" s="5" t="s">
         <v>326</v>
@@ -4826,7 +4826,7 @@
         <v>330</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J83" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B83&amp;" resources for the specified "&amp;SUBSTITUTE(D83,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
@@ -4841,7 +4841,7 @@
         <v>271</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>128</v>
@@ -4853,13 +4853,13 @@
         <v>116</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I84" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="J84" s="5" t="s">
         <v>432</v>
-      </c>
-      <c r="J84" s="5" t="s">
-        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -4898,7 +4898,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1">
@@ -4906,15 +4906,15 @@
         <v>74</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="139.5" customHeight="1">
@@ -4922,7 +4922,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4930,7 +4930,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4946,7 +4946,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="103.5" customHeight="1">
@@ -4954,7 +4954,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -4989,8 +4989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="B28" sqref="A28:XFD28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -5032,10 +5032,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>537</v>
+      </c>
+      <c r="B3" t="s">
         <v>374</v>
-      </c>
-      <c r="B3" t="s">
-        <v>375</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -5047,10 +5047,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
@@ -5062,10 +5062,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>377</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -5080,7 +5080,7 @@
         <v>83</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -5092,10 +5092,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -5110,7 +5110,7 @@
         <v>302</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
@@ -5122,10 +5122,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>13</v>
@@ -5137,10 +5137,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>384</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>13</v>
@@ -5152,10 +5152,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>13</v>
@@ -5167,10 +5167,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
@@ -5182,10 +5182,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>13</v>
@@ -5197,10 +5197,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>463</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>465</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
@@ -5212,10 +5212,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>391</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>13</v>
@@ -5227,25 +5227,25 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>394</v>
       </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>13</v>
@@ -5260,7 +5260,7 @@
         <v>203</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>13</v>
@@ -5272,10 +5272,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>13</v>
@@ -5290,7 +5290,7 @@
         <v>255</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>13</v>
@@ -5302,10 +5302,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>400</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>13</v>
@@ -5317,10 +5317,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>402</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>13</v>
@@ -5332,10 +5332,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>464</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>13</v>
@@ -5347,10 +5347,10 @@
     </row>
     <row r="24" spans="1:6" s="1" customFormat="1">
       <c r="A24" s="11" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>13</v>
@@ -5364,7 +5364,7 @@
         <v>202</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>13</v>
@@ -5379,7 +5379,7 @@
         <v>81</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>13</v>
@@ -5391,24 +5391,24 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>13</v>
@@ -5429,10 +5429,10 @@
   <dimension ref="A1:X59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V22" sqref="V22"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="25.5" customHeight="1"/>
@@ -5464,49 +5464,49 @@
         <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F1" t="s">
         <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H1" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>447</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>449</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>348</v>
@@ -5515,10 +5515,10 @@
         <v>349</v>
       </c>
       <c r="V1" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>436</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>437</v>
       </c>
       <c r="X1" t="s">
         <v>20</v>
@@ -5541,7 +5541,7 @@
         <v>78</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="W2" s="17"/>
       <c r="X2" t="s">
@@ -5562,7 +5562,7 @@
         <v>78</v>
       </c>
       <c r="V3" s="17" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="W3" s="17"/>
     </row>
@@ -5580,7 +5580,7 @@
         <v>78</v>
       </c>
       <c r="V4" s="17" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="W4" s="17"/>
     </row>
@@ -5598,7 +5598,7 @@
         <v>78</v>
       </c>
       <c r="V5" s="17" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="W5" s="17"/>
       <c r="X5" t="s">
@@ -5619,7 +5619,7 @@
         <v>78</v>
       </c>
       <c r="V6" s="17" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="W6" s="17"/>
     </row>
@@ -5637,7 +5637,7 @@
         <v>78</v>
       </c>
       <c r="V7" s="17" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="W7" s="17"/>
     </row>
@@ -5649,7 +5649,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>21</v>
@@ -5658,7 +5658,7 @@
         <v>78</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="W8" s="17"/>
     </row>
@@ -5676,7 +5676,7 @@
         <v>78</v>
       </c>
       <c r="V9" s="17" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="W9" s="17"/>
     </row>
@@ -5694,7 +5694,7 @@
         <v>78</v>
       </c>
       <c r="V10" s="17" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="W10" s="17"/>
     </row>
@@ -5712,7 +5712,7 @@
         <v>78</v>
       </c>
       <c r="V11" s="17" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="W11" s="17"/>
     </row>
@@ -5734,13 +5734,13 @@
     </row>
     <row r="13" spans="1:24" ht="25.5" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>441</v>
+        <v>538</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>21</v>
@@ -5759,7 +5759,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>21</v>
@@ -5771,19 +5771,19 @@
         <v>224</v>
       </c>
       <c r="V14" s="17" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="W14" s="17"/>
     </row>
     <row r="15" spans="1:24" ht="25.5" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>21</v>
@@ -5792,10 +5792,10 @@
         <v>78</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="V15" s="17" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="W15" s="17"/>
     </row>
@@ -5813,7 +5813,7 @@
         <v>78</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="W16" s="17"/>
     </row>
@@ -5847,7 +5847,7 @@
         <v>78</v>
       </c>
       <c r="V18" s="17" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="W18" s="17"/>
     </row>
@@ -5900,19 +5900,19 @@
         <v>78</v>
       </c>
       <c r="V21" s="17" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="W21" s="17"/>
     </row>
     <row r="22" spans="1:23" ht="25.5" customHeight="1">
       <c r="A22" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="R22" s="1" t="s">
         <v>21</v>
@@ -5923,7 +5923,7 @@
     </row>
     <row r="23" spans="1:23" ht="25.5" customHeight="1">
       <c r="A23" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>78</v>
@@ -5988,10 +5988,10 @@
     </row>
     <row r="2" spans="1:5" ht="135.75" thickBot="1">
       <c r="A2" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>191</v>
@@ -6000,24 +6000,24 @@
         <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="60">
       <c r="A3" t="s">
+        <v>500</v>
+      </c>
+      <c r="B3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C3" t="s">
         <v>502</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="C3" t="s">
-        <v>504</v>
-      </c>
-      <c r="D3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6033,10 +6033,10 @@
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N2" sqref="N2"/>
+      <selection pane="bottomRight" activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -6057,76 +6057,76 @@
         <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" t="s">
         <v>426</v>
       </c>
-      <c r="W1" t="s">
-        <v>427</v>
-      </c>
       <c r="X1" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="75">
@@ -6149,7 +6149,7 @@
         <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -6266,7 +6266,7 @@
         <v>13</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -6771,12 +6771,12 @@
         <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="59.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>34</v>
@@ -6785,7 +6785,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>34</v>
@@ -6794,7 +6794,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>34</v>
@@ -6803,7 +6803,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>34</v>
@@ -6820,10 +6820,10 @@
   <dimension ref="A1:AB94"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="M50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="Z50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M56" sqref="M56"/>
+      <selection pane="bottomRight" activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.95" customHeight="1"/>
@@ -9629,7 +9629,7 @@
         <v>193</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>34</v>
@@ -9736,7 +9736,7 @@
         <v>194</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>34</v>
@@ -9840,7 +9840,7 @@
         <v>194</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>34</v>
@@ -9942,7 +9942,7 @@
         <v>56</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>68</v>
@@ -9995,7 +9995,7 @@
         <v>57</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>99</v>
@@ -10053,7 +10053,7 @@
         <v>58</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>247</v>

--- a/source/source_spreadsheets/uscore-server.xlsx
+++ b/source/source_spreadsheets/uscore-server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\US-Core-R4\source\source_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2170BD0E-BD43-46DA-BAE8-DD458C7DC1C4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1321D2AF-A687-4B15-A23B-DAF83A17CAFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3495" yWindow="420" windowWidth="25200" windowHeight="13425" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -33,7 +33,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1781,7 +1783,7 @@
     <t>!http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationstatement</t>
   </si>
   <si>
-    <t>The  MedicationRequest resource can represent a medication, using an external reference to a Medication resource. If an external Medication Resource is used in a MedicationRequest, then the READ and SEARCH Criteria  **SHALL**  be supported.</t>
+    <t>The  MedicationRequest resource can represent a medication, using an external reference to a Medication resource. If an external Medication Resourcse is used in a MedicationRequest, then the READ  **SHALL**  be supported.</t>
   </si>
 </sst>
 </file>
@@ -2338,7 +2340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I39" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="I36" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
@@ -5428,11 +5430,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="25.5" customHeight="1"/>
@@ -6033,10 +6035,10 @@
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P1" sqref="P1"/>
+      <selection pane="bottomRight" activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -6047,6 +6049,7 @@
     <col min="6" max="6" width="16.42578125" customWidth="1"/>
     <col min="7" max="7" width="58.28515625" style="2" customWidth="1"/>
     <col min="8" max="8" width="28.140625" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" customWidth="1"/>
     <col min="17" max="17" width="31.28515625" customWidth="1"/>
     <col min="18" max="18" width="31.28515625" style="1" customWidth="1"/>
     <col min="24" max="24" width="20.140625" style="1" customWidth="1"/>
@@ -6238,7 +6241,7 @@
         <v>13</v>
       </c>
       <c r="N3" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="O3" t="s">
         <v>13</v>
